--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(Webサービス)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(Webサービス)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08B2183-897D-4323-B1BD-11B11466375E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF9D32B-529B-4751-A731-743D19E359DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,9 +14,9 @@
     <sheet name="【リクエストID】_リクエスト単体" sheetId="24" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【テストターゲット名】_クラス単体!$A$10:$R$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【テストターゲット名】_クラス単体!$A$10:$Q$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【リクエストID】_リクエスト単体!$A$10:$R$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">【テストターゲット名】_クラス単体!$A$1:$R$295</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">【テストターゲット名】_クラス単体!$A$1:$Q$295</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">【リクエストID】_リクエスト単体!$A$1:$R$314</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="467">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -6456,6 +6456,10 @@
     <rPh sb="21" eb="24">
       <t>タイショウガイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストコード</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -7629,6 +7633,93 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7727,93 +7818,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7941,8 +7945,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8001000" y="285750"/>
-          <a:ext cx="1409700" cy="590550"/>
+          <a:off x="7905750" y="285750"/>
+          <a:ext cx="1390650" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -8649,9 +8653,9 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="6.58203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="16384" width="6.625" style="1"/>
+    <col min="1" max="16384" width="6.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
@@ -8737,7 +8741,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75">
+    <row r="32" spans="6:11" ht="19">
       <c r="F32" s="3"/>
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
@@ -8745,12 +8749,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="18.75">
+    <row r="33" spans="6:10" ht="19">
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="6:10" ht="18.75">
+    <row r="34" spans="6:10" ht="19">
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="2" t="s">
@@ -9260,63 +9264,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="11"/>
+    <col min="1" max="16384" width="3.58203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="174" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="203" t="s">
         <v>437</v>
       </c>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="183" t="s">
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="205"/>
+      <c r="O1" s="212" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="192" t="s">
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="221" t="s">
         <v>416</v>
       </c>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="168" t="s">
+      <c r="T1" s="222"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="222"/>
+      <c r="X1" s="222"/>
+      <c r="Y1" s="222"/>
+      <c r="Z1" s="223"/>
+      <c r="AA1" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="199" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="177" t="str">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="206" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="207"/>
+      <c r="AI1" s="208"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9324,53 +9328,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="197" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="174" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="203" t="s">
         <v>438</v>
       </c>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="168" t="s">
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="225"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="209" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="177" t="str">
+      <c r="AD2" s="210"/>
+      <c r="AE2" s="210"/>
+      <c r="AF2" s="211"/>
+      <c r="AG2" s="206" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9378,45 +9382,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="174" t="s">
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="203" t="s">
         <v>439</v>
       </c>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="177"/>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="218"/>
+      <c r="P3" s="219"/>
+      <c r="Q3" s="219"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="228"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="198"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="206"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="208"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9453,1020 +9457,1181 @@
       <c r="A7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="201" t="s">
+      <c r="C7" s="182"/>
+      <c r="D7" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="201" t="s">
+      <c r="E7" s="183"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="203"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="201" t="s">
+      <c r="H7" s="183"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="201" t="s">
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="203"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="203"/>
-      <c r="U7" s="203"/>
-      <c r="V7" s="203"/>
-      <c r="W7" s="203"/>
-      <c r="X7" s="203"/>
-      <c r="Y7" s="203"/>
-      <c r="Z7" s="203"/>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="203"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="203"/>
-      <c r="AE7" s="202"/>
-      <c r="AF7" s="201" t="s">
+      <c r="R7" s="183"/>
+      <c r="S7" s="183"/>
+      <c r="T7" s="183"/>
+      <c r="U7" s="183"/>
+      <c r="V7" s="183"/>
+      <c r="W7" s="183"/>
+      <c r="X7" s="183"/>
+      <c r="Y7" s="183"/>
+      <c r="Z7" s="183"/>
+      <c r="AA7" s="183"/>
+      <c r="AB7" s="183"/>
+      <c r="AC7" s="183"/>
+      <c r="AD7" s="183"/>
+      <c r="AE7" s="182"/>
+      <c r="AF7" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="AG7" s="203"/>
-      <c r="AH7" s="203"/>
-      <c r="AI7" s="202"/>
+      <c r="AG7" s="183"/>
+      <c r="AH7" s="183"/>
+      <c r="AI7" s="182"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="212"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="212"/>
-      <c r="N8" s="212"/>
-      <c r="O8" s="212"/>
-      <c r="P8" s="213"/>
-      <c r="Q8" s="214"/>
-      <c r="R8" s="215"/>
-      <c r="S8" s="215"/>
-      <c r="T8" s="215"/>
-      <c r="U8" s="215"/>
-      <c r="V8" s="215"/>
-      <c r="W8" s="215"/>
-      <c r="X8" s="215"/>
-      <c r="Y8" s="215"/>
-      <c r="Z8" s="215"/>
-      <c r="AA8" s="215"/>
-      <c r="AB8" s="215"/>
-      <c r="AC8" s="215"/>
-      <c r="AD8" s="215"/>
-      <c r="AE8" s="216"/>
-      <c r="AF8" s="211"/>
-      <c r="AG8" s="212"/>
-      <c r="AH8" s="212"/>
-      <c r="AI8" s="213"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="192"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="192"/>
+      <c r="N8" s="192"/>
+      <c r="O8" s="192"/>
+      <c r="P8" s="193"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="195"/>
+      <c r="U8" s="195"/>
+      <c r="V8" s="195"/>
+      <c r="W8" s="195"/>
+      <c r="X8" s="195"/>
+      <c r="Y8" s="195"/>
+      <c r="Z8" s="195"/>
+      <c r="AA8" s="195"/>
+      <c r="AB8" s="195"/>
+      <c r="AC8" s="195"/>
+      <c r="AD8" s="195"/>
+      <c r="AE8" s="196"/>
+      <c r="AF8" s="191"/>
+      <c r="AG8" s="192"/>
+      <c r="AH8" s="192"/>
+      <c r="AI8" s="193"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="217"/>
-      <c r="C9" s="218"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="222"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="223"/>
-      <c r="K9" s="224"/>
-      <c r="L9" s="224"/>
-      <c r="M9" s="224"/>
-      <c r="N9" s="224"/>
-      <c r="O9" s="224"/>
-      <c r="P9" s="225"/>
-      <c r="Q9" s="226"/>
-      <c r="R9" s="227"/>
-      <c r="S9" s="227"/>
-      <c r="T9" s="227"/>
-      <c r="U9" s="227"/>
-      <c r="V9" s="227"/>
-      <c r="W9" s="227"/>
-      <c r="X9" s="227"/>
-      <c r="Y9" s="227"/>
-      <c r="Z9" s="227"/>
-      <c r="AA9" s="227"/>
-      <c r="AB9" s="227"/>
-      <c r="AC9" s="227"/>
-      <c r="AD9" s="227"/>
-      <c r="AE9" s="228"/>
-      <c r="AF9" s="223"/>
-      <c r="AG9" s="224"/>
-      <c r="AH9" s="224"/>
-      <c r="AI9" s="225"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="178"/>
+      <c r="T9" s="178"/>
+      <c r="U9" s="178"/>
+      <c r="V9" s="178"/>
+      <c r="W9" s="178"/>
+      <c r="X9" s="178"/>
+      <c r="Y9" s="178"/>
+      <c r="Z9" s="178"/>
+      <c r="AA9" s="178"/>
+      <c r="AB9" s="178"/>
+      <c r="AC9" s="178"/>
+      <c r="AD9" s="178"/>
+      <c r="AE9" s="179"/>
+      <c r="AF9" s="174"/>
+      <c r="AG9" s="175"/>
+      <c r="AH9" s="175"/>
+      <c r="AI9" s="176"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="217"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="223"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="224"/>
-      <c r="N10" s="224"/>
-      <c r="O10" s="224"/>
-      <c r="P10" s="225"/>
-      <c r="Q10" s="226"/>
-      <c r="R10" s="227"/>
-      <c r="S10" s="227"/>
-      <c r="T10" s="227"/>
-      <c r="U10" s="227"/>
-      <c r="V10" s="227"/>
-      <c r="W10" s="227"/>
-      <c r="X10" s="227"/>
-      <c r="Y10" s="227"/>
-      <c r="Z10" s="227"/>
-      <c r="AA10" s="227"/>
-      <c r="AB10" s="227"/>
-      <c r="AC10" s="227"/>
-      <c r="AD10" s="227"/>
-      <c r="AE10" s="228"/>
-      <c r="AF10" s="223"/>
-      <c r="AG10" s="224"/>
-      <c r="AH10" s="224"/>
-      <c r="AI10" s="225"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="178"/>
+      <c r="T10" s="178"/>
+      <c r="U10" s="178"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="178"/>
+      <c r="Z10" s="178"/>
+      <c r="AA10" s="178"/>
+      <c r="AB10" s="178"/>
+      <c r="AC10" s="178"/>
+      <c r="AD10" s="178"/>
+      <c r="AE10" s="179"/>
+      <c r="AF10" s="174"/>
+      <c r="AG10" s="175"/>
+      <c r="AH10" s="175"/>
+      <c r="AI10" s="176"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="217"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="220"/>
-      <c r="F11" s="221"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="223"/>
-      <c r="K11" s="224"/>
-      <c r="L11" s="224"/>
-      <c r="M11" s="224"/>
-      <c r="N11" s="224"/>
-      <c r="O11" s="224"/>
-      <c r="P11" s="225"/>
-      <c r="Q11" s="226"/>
-      <c r="R11" s="227"/>
-      <c r="S11" s="227"/>
-      <c r="T11" s="227"/>
-      <c r="U11" s="227"/>
-      <c r="V11" s="227"/>
-      <c r="W11" s="227"/>
-      <c r="X11" s="227"/>
-      <c r="Y11" s="227"/>
-      <c r="Z11" s="227"/>
-      <c r="AA11" s="227"/>
-      <c r="AB11" s="227"/>
-      <c r="AC11" s="227"/>
-      <c r="AD11" s="227"/>
-      <c r="AE11" s="228"/>
-      <c r="AF11" s="223"/>
-      <c r="AG11" s="224"/>
-      <c r="AH11" s="224"/>
-      <c r="AI11" s="225"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="178"/>
+      <c r="S11" s="178"/>
+      <c r="T11" s="178"/>
+      <c r="U11" s="178"/>
+      <c r="V11" s="178"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="178"/>
+      <c r="Z11" s="178"/>
+      <c r="AA11" s="178"/>
+      <c r="AB11" s="178"/>
+      <c r="AC11" s="178"/>
+      <c r="AD11" s="178"/>
+      <c r="AE11" s="179"/>
+      <c r="AF11" s="174"/>
+      <c r="AG11" s="175"/>
+      <c r="AH11" s="175"/>
+      <c r="AI11" s="176"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="217"/>
-      <c r="C12" s="218"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="221"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="223"/>
-      <c r="K12" s="224"/>
-      <c r="L12" s="224"/>
-      <c r="M12" s="224"/>
-      <c r="N12" s="224"/>
-      <c r="O12" s="224"/>
-      <c r="P12" s="225"/>
-      <c r="Q12" s="226"/>
-      <c r="R12" s="227"/>
-      <c r="S12" s="227"/>
-      <c r="T12" s="227"/>
-      <c r="U12" s="227"/>
-      <c r="V12" s="227"/>
-      <c r="W12" s="227"/>
-      <c r="X12" s="227"/>
-      <c r="Y12" s="227"/>
-      <c r="Z12" s="227"/>
-      <c r="AA12" s="227"/>
-      <c r="AB12" s="227"/>
-      <c r="AC12" s="227"/>
-      <c r="AD12" s="227"/>
-      <c r="AE12" s="228"/>
-      <c r="AF12" s="223"/>
-      <c r="AG12" s="224"/>
-      <c r="AH12" s="224"/>
-      <c r="AI12" s="225"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="175"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="178"/>
+      <c r="S12" s="178"/>
+      <c r="T12" s="178"/>
+      <c r="U12" s="178"/>
+      <c r="V12" s="178"/>
+      <c r="W12" s="178"/>
+      <c r="X12" s="178"/>
+      <c r="Y12" s="178"/>
+      <c r="Z12" s="178"/>
+      <c r="AA12" s="178"/>
+      <c r="AB12" s="178"/>
+      <c r="AC12" s="178"/>
+      <c r="AD12" s="178"/>
+      <c r="AE12" s="179"/>
+      <c r="AF12" s="174"/>
+      <c r="AG12" s="175"/>
+      <c r="AH12" s="175"/>
+      <c r="AI12" s="176"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="217"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="221"/>
-      <c r="G13" s="217"/>
-      <c r="H13" s="222"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="224"/>
-      <c r="L13" s="224"/>
-      <c r="M13" s="224"/>
-      <c r="N13" s="224"/>
-      <c r="O13" s="224"/>
-      <c r="P13" s="225"/>
-      <c r="Q13" s="226"/>
-      <c r="R13" s="227"/>
-      <c r="S13" s="227"/>
-      <c r="T13" s="227"/>
-      <c r="U13" s="227"/>
-      <c r="V13" s="227"/>
-      <c r="W13" s="227"/>
-      <c r="X13" s="227"/>
-      <c r="Y13" s="227"/>
-      <c r="Z13" s="227"/>
-      <c r="AA13" s="227"/>
-      <c r="AB13" s="227"/>
-      <c r="AC13" s="227"/>
-      <c r="AD13" s="227"/>
-      <c r="AE13" s="228"/>
-      <c r="AF13" s="223"/>
-      <c r="AG13" s="224"/>
-      <c r="AH13" s="224"/>
-      <c r="AI13" s="225"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="178"/>
+      <c r="S13" s="178"/>
+      <c r="T13" s="178"/>
+      <c r="U13" s="178"/>
+      <c r="V13" s="178"/>
+      <c r="W13" s="178"/>
+      <c r="X13" s="178"/>
+      <c r="Y13" s="178"/>
+      <c r="Z13" s="178"/>
+      <c r="AA13" s="178"/>
+      <c r="AB13" s="178"/>
+      <c r="AC13" s="178"/>
+      <c r="AD13" s="178"/>
+      <c r="AE13" s="179"/>
+      <c r="AF13" s="174"/>
+      <c r="AG13" s="175"/>
+      <c r="AH13" s="175"/>
+      <c r="AI13" s="176"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="217"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="219"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="221"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="222"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="223"/>
-      <c r="K14" s="224"/>
-      <c r="L14" s="224"/>
-      <c r="M14" s="224"/>
-      <c r="N14" s="224"/>
-      <c r="O14" s="224"/>
-      <c r="P14" s="225"/>
-      <c r="Q14" s="226"/>
-      <c r="R14" s="227"/>
-      <c r="S14" s="227"/>
-      <c r="T14" s="227"/>
-      <c r="U14" s="227"/>
-      <c r="V14" s="227"/>
-      <c r="W14" s="227"/>
-      <c r="X14" s="227"/>
-      <c r="Y14" s="227"/>
-      <c r="Z14" s="227"/>
-      <c r="AA14" s="227"/>
-      <c r="AB14" s="227"/>
-      <c r="AC14" s="227"/>
-      <c r="AD14" s="227"/>
-      <c r="AE14" s="228"/>
-      <c r="AF14" s="223"/>
-      <c r="AG14" s="224"/>
-      <c r="AH14" s="224"/>
-      <c r="AI14" s="225"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="175"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="178"/>
+      <c r="V14" s="178"/>
+      <c r="W14" s="178"/>
+      <c r="X14" s="178"/>
+      <c r="Y14" s="178"/>
+      <c r="Z14" s="178"/>
+      <c r="AA14" s="178"/>
+      <c r="AB14" s="178"/>
+      <c r="AC14" s="178"/>
+      <c r="AD14" s="178"/>
+      <c r="AE14" s="179"/>
+      <c r="AF14" s="174"/>
+      <c r="AG14" s="175"/>
+      <c r="AH14" s="175"/>
+      <c r="AI14" s="176"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="217"/>
-      <c r="C15" s="218"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="224"/>
-      <c r="L15" s="224"/>
-      <c r="M15" s="224"/>
-      <c r="N15" s="224"/>
-      <c r="O15" s="224"/>
-      <c r="P15" s="225"/>
-      <c r="Q15" s="226"/>
-      <c r="R15" s="227"/>
-      <c r="S15" s="227"/>
-      <c r="T15" s="227"/>
-      <c r="U15" s="227"/>
-      <c r="V15" s="227"/>
-      <c r="W15" s="227"/>
-      <c r="X15" s="227"/>
-      <c r="Y15" s="227"/>
-      <c r="Z15" s="227"/>
-      <c r="AA15" s="227"/>
-      <c r="AB15" s="227"/>
-      <c r="AC15" s="227"/>
-      <c r="AD15" s="227"/>
-      <c r="AE15" s="228"/>
-      <c r="AF15" s="223"/>
-      <c r="AG15" s="224"/>
-      <c r="AH15" s="224"/>
-      <c r="AI15" s="225"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="178"/>
+      <c r="S15" s="178"/>
+      <c r="T15" s="178"/>
+      <c r="U15" s="178"/>
+      <c r="V15" s="178"/>
+      <c r="W15" s="178"/>
+      <c r="X15" s="178"/>
+      <c r="Y15" s="178"/>
+      <c r="Z15" s="178"/>
+      <c r="AA15" s="178"/>
+      <c r="AB15" s="178"/>
+      <c r="AC15" s="178"/>
+      <c r="AD15" s="178"/>
+      <c r="AE15" s="179"/>
+      <c r="AF15" s="174"/>
+      <c r="AG15" s="175"/>
+      <c r="AH15" s="175"/>
+      <c r="AI15" s="176"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="219"/>
-      <c r="E16" s="220"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="218"/>
-      <c r="J16" s="223"/>
-      <c r="K16" s="224"/>
-      <c r="L16" s="224"/>
-      <c r="M16" s="224"/>
-      <c r="N16" s="224"/>
-      <c r="O16" s="224"/>
-      <c r="P16" s="225"/>
-      <c r="Q16" s="226"/>
-      <c r="R16" s="227"/>
-      <c r="S16" s="227"/>
-      <c r="T16" s="227"/>
-      <c r="U16" s="227"/>
-      <c r="V16" s="227"/>
-      <c r="W16" s="227"/>
-      <c r="X16" s="227"/>
-      <c r="Y16" s="227"/>
-      <c r="Z16" s="227"/>
-      <c r="AA16" s="227"/>
-      <c r="AB16" s="227"/>
-      <c r="AC16" s="227"/>
-      <c r="AD16" s="227"/>
-      <c r="AE16" s="228"/>
-      <c r="AF16" s="223"/>
-      <c r="AG16" s="224"/>
-      <c r="AH16" s="224"/>
-      <c r="AI16" s="225"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="178"/>
+      <c r="S16" s="178"/>
+      <c r="T16" s="178"/>
+      <c r="U16" s="178"/>
+      <c r="V16" s="178"/>
+      <c r="W16" s="178"/>
+      <c r="X16" s="178"/>
+      <c r="Y16" s="178"/>
+      <c r="Z16" s="178"/>
+      <c r="AA16" s="178"/>
+      <c r="AB16" s="178"/>
+      <c r="AC16" s="178"/>
+      <c r="AD16" s="178"/>
+      <c r="AE16" s="179"/>
+      <c r="AF16" s="174"/>
+      <c r="AG16" s="175"/>
+      <c r="AH16" s="175"/>
+      <c r="AI16" s="176"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="217"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="222"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="224"/>
-      <c r="L17" s="224"/>
-      <c r="M17" s="224"/>
-      <c r="N17" s="224"/>
-      <c r="O17" s="224"/>
-      <c r="P17" s="225"/>
-      <c r="Q17" s="226"/>
-      <c r="R17" s="227"/>
-      <c r="S17" s="227"/>
-      <c r="T17" s="227"/>
-      <c r="U17" s="227"/>
-      <c r="V17" s="227"/>
-      <c r="W17" s="227"/>
-      <c r="X17" s="227"/>
-      <c r="Y17" s="227"/>
-      <c r="Z17" s="227"/>
-      <c r="AA17" s="227"/>
-      <c r="AB17" s="227"/>
-      <c r="AC17" s="227"/>
-      <c r="AD17" s="227"/>
-      <c r="AE17" s="228"/>
-      <c r="AF17" s="223"/>
-      <c r="AG17" s="224"/>
-      <c r="AH17" s="224"/>
-      <c r="AI17" s="225"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="175"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="178"/>
+      <c r="S17" s="178"/>
+      <c r="T17" s="178"/>
+      <c r="U17" s="178"/>
+      <c r="V17" s="178"/>
+      <c r="W17" s="178"/>
+      <c r="X17" s="178"/>
+      <c r="Y17" s="178"/>
+      <c r="Z17" s="178"/>
+      <c r="AA17" s="178"/>
+      <c r="AB17" s="178"/>
+      <c r="AC17" s="178"/>
+      <c r="AD17" s="178"/>
+      <c r="AE17" s="179"/>
+      <c r="AF17" s="174"/>
+      <c r="AG17" s="175"/>
+      <c r="AH17" s="175"/>
+      <c r="AI17" s="176"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="217"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="221"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="222"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="223"/>
-      <c r="K18" s="224"/>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="224"/>
-      <c r="O18" s="224"/>
-      <c r="P18" s="225"/>
-      <c r="Q18" s="226"/>
-      <c r="R18" s="227"/>
-      <c r="S18" s="227"/>
-      <c r="T18" s="227"/>
-      <c r="U18" s="227"/>
-      <c r="V18" s="227"/>
-      <c r="W18" s="227"/>
-      <c r="X18" s="227"/>
-      <c r="Y18" s="227"/>
-      <c r="Z18" s="227"/>
-      <c r="AA18" s="227"/>
-      <c r="AB18" s="227"/>
-      <c r="AC18" s="227"/>
-      <c r="AD18" s="227"/>
-      <c r="AE18" s="228"/>
-      <c r="AF18" s="223"/>
-      <c r="AG18" s="224"/>
-      <c r="AH18" s="224"/>
-      <c r="AI18" s="225"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="178"/>
+      <c r="S18" s="178"/>
+      <c r="T18" s="178"/>
+      <c r="U18" s="178"/>
+      <c r="V18" s="178"/>
+      <c r="W18" s="178"/>
+      <c r="X18" s="178"/>
+      <c r="Y18" s="178"/>
+      <c r="Z18" s="178"/>
+      <c r="AA18" s="178"/>
+      <c r="AB18" s="178"/>
+      <c r="AC18" s="178"/>
+      <c r="AD18" s="178"/>
+      <c r="AE18" s="179"/>
+      <c r="AF18" s="174"/>
+      <c r="AG18" s="175"/>
+      <c r="AH18" s="175"/>
+      <c r="AI18" s="176"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="217"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="222"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="223"/>
-      <c r="K19" s="224"/>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
-      <c r="O19" s="224"/>
-      <c r="P19" s="225"/>
-      <c r="Q19" s="226"/>
-      <c r="R19" s="227"/>
-      <c r="S19" s="227"/>
-      <c r="T19" s="227"/>
-      <c r="U19" s="227"/>
-      <c r="V19" s="227"/>
-      <c r="W19" s="227"/>
-      <c r="X19" s="227"/>
-      <c r="Y19" s="227"/>
-      <c r="Z19" s="227"/>
-      <c r="AA19" s="227"/>
-      <c r="AB19" s="227"/>
-      <c r="AC19" s="227"/>
-      <c r="AD19" s="227"/>
-      <c r="AE19" s="228"/>
-      <c r="AF19" s="223"/>
-      <c r="AG19" s="224"/>
-      <c r="AH19" s="224"/>
-      <c r="AI19" s="225"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="176"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="178"/>
+      <c r="S19" s="178"/>
+      <c r="T19" s="178"/>
+      <c r="U19" s="178"/>
+      <c r="V19" s="178"/>
+      <c r="W19" s="178"/>
+      <c r="X19" s="178"/>
+      <c r="Y19" s="178"/>
+      <c r="Z19" s="178"/>
+      <c r="AA19" s="178"/>
+      <c r="AB19" s="178"/>
+      <c r="AC19" s="178"/>
+      <c r="AD19" s="178"/>
+      <c r="AE19" s="179"/>
+      <c r="AF19" s="174"/>
+      <c r="AG19" s="175"/>
+      <c r="AH19" s="175"/>
+      <c r="AI19" s="176"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="217"/>
-      <c r="C20" s="218"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="217"/>
-      <c r="H20" s="222"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="223"/>
-      <c r="K20" s="224"/>
-      <c r="L20" s="224"/>
-      <c r="M20" s="224"/>
-      <c r="N20" s="224"/>
-      <c r="O20" s="224"/>
-      <c r="P20" s="225"/>
-      <c r="Q20" s="226"/>
-      <c r="R20" s="227"/>
-      <c r="S20" s="227"/>
-      <c r="T20" s="227"/>
-      <c r="U20" s="227"/>
-      <c r="V20" s="227"/>
-      <c r="W20" s="227"/>
-      <c r="X20" s="227"/>
-      <c r="Y20" s="227"/>
-      <c r="Z20" s="227"/>
-      <c r="AA20" s="227"/>
-      <c r="AB20" s="227"/>
-      <c r="AC20" s="227"/>
-      <c r="AD20" s="227"/>
-      <c r="AE20" s="228"/>
-      <c r="AF20" s="223"/>
-      <c r="AG20" s="224"/>
-      <c r="AH20" s="224"/>
-      <c r="AI20" s="225"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="176"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="178"/>
+      <c r="S20" s="178"/>
+      <c r="T20" s="178"/>
+      <c r="U20" s="178"/>
+      <c r="V20" s="178"/>
+      <c r="W20" s="178"/>
+      <c r="X20" s="178"/>
+      <c r="Y20" s="178"/>
+      <c r="Z20" s="178"/>
+      <c r="AA20" s="178"/>
+      <c r="AB20" s="178"/>
+      <c r="AC20" s="178"/>
+      <c r="AD20" s="178"/>
+      <c r="AE20" s="179"/>
+      <c r="AF20" s="174"/>
+      <c r="AG20" s="175"/>
+      <c r="AH20" s="175"/>
+      <c r="AI20" s="176"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="217"/>
-      <c r="C21" s="218"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="217"/>
-      <c r="H21" s="222"/>
-      <c r="I21" s="218"/>
-      <c r="J21" s="223"/>
-      <c r="K21" s="224"/>
-      <c r="L21" s="224"/>
-      <c r="M21" s="224"/>
-      <c r="N21" s="224"/>
-      <c r="O21" s="224"/>
-      <c r="P21" s="225"/>
-      <c r="Q21" s="226"/>
-      <c r="R21" s="227"/>
-      <c r="S21" s="227"/>
-      <c r="T21" s="227"/>
-      <c r="U21" s="227"/>
-      <c r="V21" s="227"/>
-      <c r="W21" s="227"/>
-      <c r="X21" s="227"/>
-      <c r="Y21" s="227"/>
-      <c r="Z21" s="227"/>
-      <c r="AA21" s="227"/>
-      <c r="AB21" s="227"/>
-      <c r="AC21" s="227"/>
-      <c r="AD21" s="227"/>
-      <c r="AE21" s="228"/>
-      <c r="AF21" s="223"/>
-      <c r="AG21" s="224"/>
-      <c r="AH21" s="224"/>
-      <c r="AI21" s="225"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="176"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="178"/>
+      <c r="S21" s="178"/>
+      <c r="T21" s="178"/>
+      <c r="U21" s="178"/>
+      <c r="V21" s="178"/>
+      <c r="W21" s="178"/>
+      <c r="X21" s="178"/>
+      <c r="Y21" s="178"/>
+      <c r="Z21" s="178"/>
+      <c r="AA21" s="178"/>
+      <c r="AB21" s="178"/>
+      <c r="AC21" s="178"/>
+      <c r="AD21" s="178"/>
+      <c r="AE21" s="179"/>
+      <c r="AF21" s="174"/>
+      <c r="AG21" s="175"/>
+      <c r="AH21" s="175"/>
+      <c r="AI21" s="176"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="217"/>
-      <c r="C22" s="218"/>
-      <c r="D22" s="219"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="221"/>
-      <c r="G22" s="217"/>
-      <c r="H22" s="222"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="223"/>
-      <c r="K22" s="224"/>
-      <c r="L22" s="224"/>
-      <c r="M22" s="224"/>
-      <c r="N22" s="224"/>
-      <c r="O22" s="224"/>
-      <c r="P22" s="225"/>
-      <c r="Q22" s="226"/>
-      <c r="R22" s="227"/>
-      <c r="S22" s="227"/>
-      <c r="T22" s="227"/>
-      <c r="U22" s="227"/>
-      <c r="V22" s="227"/>
-      <c r="W22" s="227"/>
-      <c r="X22" s="227"/>
-      <c r="Y22" s="227"/>
-      <c r="Z22" s="227"/>
-      <c r="AA22" s="227"/>
-      <c r="AB22" s="227"/>
-      <c r="AC22" s="227"/>
-      <c r="AD22" s="227"/>
-      <c r="AE22" s="228"/>
-      <c r="AF22" s="223"/>
-      <c r="AG22" s="224"/>
-      <c r="AH22" s="224"/>
-      <c r="AI22" s="225"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="176"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="178"/>
+      <c r="S22" s="178"/>
+      <c r="T22" s="178"/>
+      <c r="U22" s="178"/>
+      <c r="V22" s="178"/>
+      <c r="W22" s="178"/>
+      <c r="X22" s="178"/>
+      <c r="Y22" s="178"/>
+      <c r="Z22" s="178"/>
+      <c r="AA22" s="178"/>
+      <c r="AB22" s="178"/>
+      <c r="AC22" s="178"/>
+      <c r="AD22" s="178"/>
+      <c r="AE22" s="179"/>
+      <c r="AF22" s="174"/>
+      <c r="AG22" s="175"/>
+      <c r="AH22" s="175"/>
+      <c r="AI22" s="176"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="217"/>
-      <c r="C23" s="218"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="221"/>
-      <c r="G23" s="217"/>
-      <c r="H23" s="222"/>
-      <c r="I23" s="218"/>
-      <c r="J23" s="223"/>
-      <c r="K23" s="224"/>
-      <c r="L23" s="224"/>
-      <c r="M23" s="224"/>
-      <c r="N23" s="224"/>
-      <c r="O23" s="224"/>
-      <c r="P23" s="225"/>
-      <c r="Q23" s="226"/>
-      <c r="R23" s="227"/>
-      <c r="S23" s="227"/>
-      <c r="T23" s="227"/>
-      <c r="U23" s="227"/>
-      <c r="V23" s="227"/>
-      <c r="W23" s="227"/>
-      <c r="X23" s="227"/>
-      <c r="Y23" s="227"/>
-      <c r="Z23" s="227"/>
-      <c r="AA23" s="227"/>
-      <c r="AB23" s="227"/>
-      <c r="AC23" s="227"/>
-      <c r="AD23" s="227"/>
-      <c r="AE23" s="228"/>
-      <c r="AF23" s="223"/>
-      <c r="AG23" s="224"/>
-      <c r="AH23" s="224"/>
-      <c r="AI23" s="225"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="176"/>
+      <c r="Q23" s="177"/>
+      <c r="R23" s="178"/>
+      <c r="S23" s="178"/>
+      <c r="T23" s="178"/>
+      <c r="U23" s="178"/>
+      <c r="V23" s="178"/>
+      <c r="W23" s="178"/>
+      <c r="X23" s="178"/>
+      <c r="Y23" s="178"/>
+      <c r="Z23" s="178"/>
+      <c r="AA23" s="178"/>
+      <c r="AB23" s="178"/>
+      <c r="AC23" s="178"/>
+      <c r="AD23" s="178"/>
+      <c r="AE23" s="179"/>
+      <c r="AF23" s="174"/>
+      <c r="AG23" s="175"/>
+      <c r="AH23" s="175"/>
+      <c r="AI23" s="176"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="217"/>
-      <c r="C24" s="218"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="217"/>
-      <c r="H24" s="222"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="224"/>
-      <c r="L24" s="224"/>
-      <c r="M24" s="224"/>
-      <c r="N24" s="224"/>
-      <c r="O24" s="224"/>
-      <c r="P24" s="225"/>
-      <c r="Q24" s="226"/>
-      <c r="R24" s="227"/>
-      <c r="S24" s="227"/>
-      <c r="T24" s="227"/>
-      <c r="U24" s="227"/>
-      <c r="V24" s="227"/>
-      <c r="W24" s="227"/>
-      <c r="X24" s="227"/>
-      <c r="Y24" s="227"/>
-      <c r="Z24" s="227"/>
-      <c r="AA24" s="227"/>
-      <c r="AB24" s="227"/>
-      <c r="AC24" s="227"/>
-      <c r="AD24" s="227"/>
-      <c r="AE24" s="228"/>
-      <c r="AF24" s="223"/>
-      <c r="AG24" s="224"/>
-      <c r="AH24" s="224"/>
-      <c r="AI24" s="225"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="176"/>
+      <c r="Q24" s="177"/>
+      <c r="R24" s="178"/>
+      <c r="S24" s="178"/>
+      <c r="T24" s="178"/>
+      <c r="U24" s="178"/>
+      <c r="V24" s="178"/>
+      <c r="W24" s="178"/>
+      <c r="X24" s="178"/>
+      <c r="Y24" s="178"/>
+      <c r="Z24" s="178"/>
+      <c r="AA24" s="178"/>
+      <c r="AB24" s="178"/>
+      <c r="AC24" s="178"/>
+      <c r="AD24" s="178"/>
+      <c r="AE24" s="179"/>
+      <c r="AF24" s="174"/>
+      <c r="AG24" s="175"/>
+      <c r="AH24" s="175"/>
+      <c r="AI24" s="176"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="217"/>
-      <c r="C25" s="218"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="221"/>
-      <c r="G25" s="217"/>
-      <c r="H25" s="222"/>
-      <c r="I25" s="218"/>
-      <c r="J25" s="223"/>
-      <c r="K25" s="224"/>
-      <c r="L25" s="224"/>
-      <c r="M25" s="224"/>
-      <c r="N25" s="224"/>
-      <c r="O25" s="224"/>
-      <c r="P25" s="225"/>
-      <c r="Q25" s="226"/>
-      <c r="R25" s="227"/>
-      <c r="S25" s="227"/>
-      <c r="T25" s="227"/>
-      <c r="U25" s="227"/>
-      <c r="V25" s="227"/>
-      <c r="W25" s="227"/>
-      <c r="X25" s="227"/>
-      <c r="Y25" s="227"/>
-      <c r="Z25" s="227"/>
-      <c r="AA25" s="227"/>
-      <c r="AB25" s="227"/>
-      <c r="AC25" s="227"/>
-      <c r="AD25" s="227"/>
-      <c r="AE25" s="228"/>
-      <c r="AF25" s="223"/>
-      <c r="AG25" s="224"/>
-      <c r="AH25" s="224"/>
-      <c r="AI25" s="225"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="176"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="178"/>
+      <c r="S25" s="178"/>
+      <c r="T25" s="178"/>
+      <c r="U25" s="178"/>
+      <c r="V25" s="178"/>
+      <c r="W25" s="178"/>
+      <c r="X25" s="178"/>
+      <c r="Y25" s="178"/>
+      <c r="Z25" s="178"/>
+      <c r="AA25" s="178"/>
+      <c r="AB25" s="178"/>
+      <c r="AC25" s="178"/>
+      <c r="AD25" s="178"/>
+      <c r="AE25" s="179"/>
+      <c r="AF25" s="174"/>
+      <c r="AG25" s="175"/>
+      <c r="AH25" s="175"/>
+      <c r="AI25" s="176"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="217"/>
-      <c r="C26" s="218"/>
-      <c r="D26" s="219"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="222"/>
-      <c r="I26" s="218"/>
-      <c r="J26" s="223"/>
-      <c r="K26" s="224"/>
-      <c r="L26" s="224"/>
-      <c r="M26" s="224"/>
-      <c r="N26" s="224"/>
-      <c r="O26" s="224"/>
-      <c r="P26" s="225"/>
-      <c r="Q26" s="226"/>
-      <c r="R26" s="227"/>
-      <c r="S26" s="227"/>
-      <c r="T26" s="227"/>
-      <c r="U26" s="227"/>
-      <c r="V26" s="227"/>
-      <c r="W26" s="227"/>
-      <c r="X26" s="227"/>
-      <c r="Y26" s="227"/>
-      <c r="Z26" s="227"/>
-      <c r="AA26" s="227"/>
-      <c r="AB26" s="227"/>
-      <c r="AC26" s="227"/>
-      <c r="AD26" s="227"/>
-      <c r="AE26" s="228"/>
-      <c r="AF26" s="223"/>
-      <c r="AG26" s="224"/>
-      <c r="AH26" s="224"/>
-      <c r="AI26" s="225"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="176"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="178"/>
+      <c r="S26" s="178"/>
+      <c r="T26" s="178"/>
+      <c r="U26" s="178"/>
+      <c r="V26" s="178"/>
+      <c r="W26" s="178"/>
+      <c r="X26" s="178"/>
+      <c r="Y26" s="178"/>
+      <c r="Z26" s="178"/>
+      <c r="AA26" s="178"/>
+      <c r="AB26" s="178"/>
+      <c r="AC26" s="178"/>
+      <c r="AD26" s="178"/>
+      <c r="AE26" s="179"/>
+      <c r="AF26" s="174"/>
+      <c r="AG26" s="175"/>
+      <c r="AH26" s="175"/>
+      <c r="AI26" s="176"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="217"/>
-      <c r="C27" s="218"/>
-      <c r="D27" s="219"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="217"/>
-      <c r="H27" s="222"/>
-      <c r="I27" s="218"/>
-      <c r="J27" s="223"/>
-      <c r="K27" s="224"/>
-      <c r="L27" s="224"/>
-      <c r="M27" s="224"/>
-      <c r="N27" s="224"/>
-      <c r="O27" s="224"/>
-      <c r="P27" s="225"/>
-      <c r="Q27" s="226"/>
-      <c r="R27" s="227"/>
-      <c r="S27" s="227"/>
-      <c r="T27" s="227"/>
-      <c r="U27" s="227"/>
-      <c r="V27" s="227"/>
-      <c r="W27" s="227"/>
-      <c r="X27" s="227"/>
-      <c r="Y27" s="227"/>
-      <c r="Z27" s="227"/>
-      <c r="AA27" s="227"/>
-      <c r="AB27" s="227"/>
-      <c r="AC27" s="227"/>
-      <c r="AD27" s="227"/>
-      <c r="AE27" s="228"/>
-      <c r="AF27" s="223"/>
-      <c r="AG27" s="224"/>
-      <c r="AH27" s="224"/>
-      <c r="AI27" s="225"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="175"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="176"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="178"/>
+      <c r="S27" s="178"/>
+      <c r="T27" s="178"/>
+      <c r="U27" s="178"/>
+      <c r="V27" s="178"/>
+      <c r="W27" s="178"/>
+      <c r="X27" s="178"/>
+      <c r="Y27" s="178"/>
+      <c r="Z27" s="178"/>
+      <c r="AA27" s="178"/>
+      <c r="AB27" s="178"/>
+      <c r="AC27" s="178"/>
+      <c r="AD27" s="178"/>
+      <c r="AE27" s="179"/>
+      <c r="AF27" s="174"/>
+      <c r="AG27" s="175"/>
+      <c r="AH27" s="175"/>
+      <c r="AI27" s="176"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="217"/>
-      <c r="C28" s="218"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="221"/>
-      <c r="G28" s="217"/>
-      <c r="H28" s="222"/>
-      <c r="I28" s="218"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="224"/>
-      <c r="L28" s="224"/>
-      <c r="M28" s="224"/>
-      <c r="N28" s="224"/>
-      <c r="O28" s="224"/>
-      <c r="P28" s="225"/>
-      <c r="Q28" s="226"/>
-      <c r="R28" s="227"/>
-      <c r="S28" s="227"/>
-      <c r="T28" s="227"/>
-      <c r="U28" s="227"/>
-      <c r="V28" s="227"/>
-      <c r="W28" s="227"/>
-      <c r="X28" s="227"/>
-      <c r="Y28" s="227"/>
-      <c r="Z28" s="227"/>
-      <c r="AA28" s="227"/>
-      <c r="AB28" s="227"/>
-      <c r="AC28" s="227"/>
-      <c r="AD28" s="227"/>
-      <c r="AE28" s="228"/>
-      <c r="AF28" s="223"/>
-      <c r="AG28" s="224"/>
-      <c r="AH28" s="224"/>
-      <c r="AI28" s="225"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="178"/>
+      <c r="S28" s="178"/>
+      <c r="T28" s="178"/>
+      <c r="U28" s="178"/>
+      <c r="V28" s="178"/>
+      <c r="W28" s="178"/>
+      <c r="X28" s="178"/>
+      <c r="Y28" s="178"/>
+      <c r="Z28" s="178"/>
+      <c r="AA28" s="178"/>
+      <c r="AB28" s="178"/>
+      <c r="AC28" s="178"/>
+      <c r="AD28" s="178"/>
+      <c r="AE28" s="179"/>
+      <c r="AF28" s="174"/>
+      <c r="AG28" s="175"/>
+      <c r="AH28" s="175"/>
+      <c r="AI28" s="176"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="217"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="221"/>
-      <c r="G29" s="217"/>
-      <c r="H29" s="222"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="223"/>
-      <c r="K29" s="224"/>
-      <c r="L29" s="224"/>
-      <c r="M29" s="224"/>
-      <c r="N29" s="224"/>
-      <c r="O29" s="224"/>
-      <c r="P29" s="225"/>
-      <c r="Q29" s="226"/>
-      <c r="R29" s="227"/>
-      <c r="S29" s="227"/>
-      <c r="T29" s="227"/>
-      <c r="U29" s="227"/>
-      <c r="V29" s="227"/>
-      <c r="W29" s="227"/>
-      <c r="X29" s="227"/>
-      <c r="Y29" s="227"/>
-      <c r="Z29" s="227"/>
-      <c r="AA29" s="227"/>
-      <c r="AB29" s="227"/>
-      <c r="AC29" s="227"/>
-      <c r="AD29" s="227"/>
-      <c r="AE29" s="228"/>
-      <c r="AF29" s="223"/>
-      <c r="AG29" s="224"/>
-      <c r="AH29" s="224"/>
-      <c r="AI29" s="225"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="175"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="176"/>
+      <c r="Q29" s="177"/>
+      <c r="R29" s="178"/>
+      <c r="S29" s="178"/>
+      <c r="T29" s="178"/>
+      <c r="U29" s="178"/>
+      <c r="V29" s="178"/>
+      <c r="W29" s="178"/>
+      <c r="X29" s="178"/>
+      <c r="Y29" s="178"/>
+      <c r="Z29" s="178"/>
+      <c r="AA29" s="178"/>
+      <c r="AB29" s="178"/>
+      <c r="AC29" s="178"/>
+      <c r="AD29" s="178"/>
+      <c r="AE29" s="179"/>
+      <c r="AF29" s="174"/>
+      <c r="AG29" s="175"/>
+      <c r="AH29" s="175"/>
+      <c r="AI29" s="176"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="217"/>
-      <c r="C30" s="218"/>
-      <c r="D30" s="219"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="221"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="222"/>
-      <c r="I30" s="218"/>
-      <c r="J30" s="223"/>
-      <c r="K30" s="224"/>
-      <c r="L30" s="224"/>
-      <c r="M30" s="224"/>
-      <c r="N30" s="224"/>
-      <c r="O30" s="224"/>
-      <c r="P30" s="225"/>
-      <c r="Q30" s="226"/>
-      <c r="R30" s="227"/>
-      <c r="S30" s="227"/>
-      <c r="T30" s="227"/>
-      <c r="U30" s="227"/>
-      <c r="V30" s="227"/>
-      <c r="W30" s="227"/>
-      <c r="X30" s="227"/>
-      <c r="Y30" s="227"/>
-      <c r="Z30" s="227"/>
-      <c r="AA30" s="227"/>
-      <c r="AB30" s="227"/>
-      <c r="AC30" s="227"/>
-      <c r="AD30" s="227"/>
-      <c r="AE30" s="228"/>
-      <c r="AF30" s="223"/>
-      <c r="AG30" s="224"/>
-      <c r="AH30" s="224"/>
-      <c r="AI30" s="225"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="175"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="176"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="178"/>
+      <c r="S30" s="178"/>
+      <c r="T30" s="178"/>
+      <c r="U30" s="178"/>
+      <c r="V30" s="178"/>
+      <c r="W30" s="178"/>
+      <c r="X30" s="178"/>
+      <c r="Y30" s="178"/>
+      <c r="Z30" s="178"/>
+      <c r="AA30" s="178"/>
+      <c r="AB30" s="178"/>
+      <c r="AC30" s="178"/>
+      <c r="AD30" s="178"/>
+      <c r="AE30" s="179"/>
+      <c r="AF30" s="174"/>
+      <c r="AG30" s="175"/>
+      <c r="AH30" s="175"/>
+      <c r="AI30" s="176"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="217"/>
-      <c r="C31" s="218"/>
-      <c r="D31" s="219"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="221"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="222"/>
-      <c r="I31" s="218"/>
-      <c r="J31" s="223"/>
-      <c r="K31" s="224"/>
-      <c r="L31" s="224"/>
-      <c r="M31" s="224"/>
-      <c r="N31" s="224"/>
-      <c r="O31" s="224"/>
-      <c r="P31" s="225"/>
-      <c r="Q31" s="226"/>
-      <c r="R31" s="227"/>
-      <c r="S31" s="227"/>
-      <c r="T31" s="227"/>
-      <c r="U31" s="227"/>
-      <c r="V31" s="227"/>
-      <c r="W31" s="227"/>
-      <c r="X31" s="227"/>
-      <c r="Y31" s="227"/>
-      <c r="Z31" s="227"/>
-      <c r="AA31" s="227"/>
-      <c r="AB31" s="227"/>
-      <c r="AC31" s="227"/>
-      <c r="AD31" s="227"/>
-      <c r="AE31" s="228"/>
-      <c r="AF31" s="223"/>
-      <c r="AG31" s="224"/>
-      <c r="AH31" s="224"/>
-      <c r="AI31" s="225"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+      <c r="M31" s="175"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="176"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="178"/>
+      <c r="S31" s="178"/>
+      <c r="T31" s="178"/>
+      <c r="U31" s="178"/>
+      <c r="V31" s="178"/>
+      <c r="W31" s="178"/>
+      <c r="X31" s="178"/>
+      <c r="Y31" s="178"/>
+      <c r="Z31" s="178"/>
+      <c r="AA31" s="178"/>
+      <c r="AB31" s="178"/>
+      <c r="AC31" s="178"/>
+      <c r="AD31" s="178"/>
+      <c r="AE31" s="179"/>
+      <c r="AF31" s="174"/>
+      <c r="AG31" s="175"/>
+      <c r="AH31" s="175"/>
+      <c r="AI31" s="176"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="217"/>
-      <c r="C32" s="218"/>
-      <c r="D32" s="219"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="221"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="222"/>
-      <c r="I32" s="218"/>
-      <c r="J32" s="223"/>
-      <c r="K32" s="229"/>
-      <c r="L32" s="224"/>
-      <c r="M32" s="224"/>
-      <c r="N32" s="224"/>
-      <c r="O32" s="224"/>
-      <c r="P32" s="225"/>
-      <c r="Q32" s="226"/>
-      <c r="R32" s="227"/>
-      <c r="S32" s="227"/>
-      <c r="T32" s="227"/>
-      <c r="U32" s="227"/>
-      <c r="V32" s="227"/>
-      <c r="W32" s="227"/>
-      <c r="X32" s="227"/>
-      <c r="Y32" s="227"/>
-      <c r="Z32" s="227"/>
-      <c r="AA32" s="227"/>
-      <c r="AB32" s="227"/>
-      <c r="AC32" s="227"/>
-      <c r="AD32" s="227"/>
-      <c r="AE32" s="228"/>
-      <c r="AF32" s="223"/>
-      <c r="AG32" s="224"/>
-      <c r="AH32" s="224"/>
-      <c r="AI32" s="225"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="180"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="176"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="178"/>
+      <c r="S32" s="178"/>
+      <c r="T32" s="178"/>
+      <c r="U32" s="178"/>
+      <c r="V32" s="178"/>
+      <c r="W32" s="178"/>
+      <c r="X32" s="178"/>
+      <c r="Y32" s="178"/>
+      <c r="Z32" s="178"/>
+      <c r="AA32" s="178"/>
+      <c r="AB32" s="178"/>
+      <c r="AC32" s="178"/>
+      <c r="AD32" s="178"/>
+      <c r="AE32" s="179"/>
+      <c r="AF32" s="174"/>
+      <c r="AG32" s="175"/>
+      <c r="AH32" s="175"/>
+      <c r="AI32" s="176"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="217"/>
-      <c r="C33" s="218"/>
-      <c r="D33" s="219"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="221"/>
-      <c r="G33" s="217"/>
-      <c r="H33" s="222"/>
-      <c r="I33" s="218"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="224"/>
-      <c r="L33" s="224"/>
-      <c r="M33" s="224"/>
-      <c r="N33" s="224"/>
-      <c r="O33" s="224"/>
-      <c r="P33" s="225"/>
-      <c r="Q33" s="226"/>
-      <c r="R33" s="227"/>
-      <c r="S33" s="227"/>
-      <c r="T33" s="227"/>
-      <c r="U33" s="227"/>
-      <c r="V33" s="227"/>
-      <c r="W33" s="227"/>
-      <c r="X33" s="227"/>
-      <c r="Y33" s="227"/>
-      <c r="Z33" s="227"/>
-      <c r="AA33" s="227"/>
-      <c r="AB33" s="227"/>
-      <c r="AC33" s="227"/>
-      <c r="AD33" s="227"/>
-      <c r="AE33" s="228"/>
-      <c r="AF33" s="223"/>
-      <c r="AG33" s="224"/>
-      <c r="AH33" s="224"/>
-      <c r="AI33" s="225"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.25">
+      <c r="B33" s="168"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="175"/>
+      <c r="M33" s="175"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="176"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="178"/>
+      <c r="S33" s="178"/>
+      <c r="T33" s="178"/>
+      <c r="U33" s="178"/>
+      <c r="V33" s="178"/>
+      <c r="W33" s="178"/>
+      <c r="X33" s="178"/>
+      <c r="Y33" s="178"/>
+      <c r="Z33" s="178"/>
+      <c r="AA33" s="178"/>
+      <c r="AB33" s="178"/>
+      <c r="AC33" s="178"/>
+      <c r="AD33" s="178"/>
+      <c r="AE33" s="179"/>
+      <c r="AF33" s="174"/>
+      <c r="AG33" s="175"/>
+      <c r="AH33" s="175"/>
+      <c r="AI33" s="176"/>
+    </row>
+    <row r="34" spans="1:35" ht="14">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -10485,167 +10650,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -10660,72 +10664,71 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R295"/>
+  <dimension ref="A1:Q295"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="8.625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="26" customWidth="1"/>
-    <col min="4" max="5" width="8.625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="40.625" style="25" customWidth="1"/>
+    <col min="1" max="2" width="8.58203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.58203125" style="26" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="40.58203125" style="25" customWidth="1"/>
     <col min="7" max="7" width="31" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="16.375" style="25" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.375" style="25" customWidth="1"/>
-    <col min="10" max="11" width="25.625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.33203125" style="25" customWidth="1"/>
+    <col min="10" max="11" width="25.58203125" style="25" customWidth="1"/>
     <col min="12" max="12" width="19.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="25" customWidth="1"/>
-    <col min="14" max="18" width="8.625" style="25" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="25"/>
+    <col min="13" max="17" width="8.58203125" style="25" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="25" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:17">
       <c r="A2" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="N6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="P6" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:17">
       <c r="A7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="N7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="25" t="s">
+      <c r="P7" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" thickBot="1">
+    <row r="8" spans="1:17" ht="11.5" thickBot="1">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
@@ -10743,10 +10746,9 @@
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-    </row>
-    <row r="9" spans="1:18" ht="12" thickTop="1"/>
-    <row r="10" spans="1:18" s="29" customFormat="1">
+    </row>
+    <row r="9" spans="1:17" ht="11.5" thickTop="1"/>
+    <row r="10" spans="1:17" s="29" customFormat="1">
       <c r="A10" s="31" t="s">
         <v>36</v>
       </c>
@@ -10781,28 +10783,25 @@
         <v>1</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>18</v>
+        <v>466</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="N10" s="36" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O10" s="36" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="Q10" s="37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="22.5">
+    <row r="11" spans="1:17" ht="22">
       <c r="A11" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -10838,14 +10837,13 @@
       <c r="J11" s="117"/>
       <c r="K11" s="117"/>
       <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="120"/>
       <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="121"/>
-    </row>
-    <row r="12" spans="1:18" ht="22.5">
+      <c r="P11" s="119"/>
+      <c r="Q11" s="121"/>
+    </row>
+    <row r="12" spans="1:17" ht="22">
       <c r="A12" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -10875,14 +10873,13 @@
       <c r="J12" s="117"/>
       <c r="K12" s="117"/>
       <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="120"/>
       <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="121"/>
-    </row>
-    <row r="13" spans="1:18" s="29" customFormat="1" ht="33.75">
+      <c r="P12" s="119"/>
+      <c r="Q12" s="121"/>
+    </row>
+    <row r="13" spans="1:17" s="29" customFormat="1" ht="33">
       <c r="A13" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -10914,14 +10911,13 @@
       <c r="J13" s="117"/>
       <c r="K13" s="117"/>
       <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="119"/>
-    </row>
-    <row r="14" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M13" s="121"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="119"/>
+    </row>
+    <row r="14" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A14" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -10949,14 +10945,13 @@
       <c r="J14" s="117"/>
       <c r="K14" s="117"/>
       <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="119"/>
-    </row>
-    <row r="15" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M14" s="121"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="119"/>
+    </row>
+    <row r="15" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A15" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -10984,14 +10979,13 @@
       <c r="J15" s="117"/>
       <c r="K15" s="117"/>
       <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
+      <c r="M15" s="119"/>
       <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="119"/>
-    </row>
-    <row r="16" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="O15" s="121"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="119"/>
+    </row>
+    <row r="16" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A16" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -11019,14 +11013,13 @@
       <c r="J16" s="117"/>
       <c r="K16" s="117"/>
       <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="121"/>
-    </row>
-    <row r="17" spans="1:18" s="29" customFormat="1" ht="33.75">
+      <c r="M16" s="119"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="121"/>
+    </row>
+    <row r="17" spans="1:17" s="29" customFormat="1" ht="33">
       <c r="A17" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -11054,14 +11047,13 @@
       <c r="J17" s="117"/>
       <c r="K17" s="125"/>
       <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="121"/>
-    </row>
-    <row r="18" spans="1:18" ht="22.5">
+      <c r="M17" s="119"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="121"/>
+    </row>
+    <row r="18" spans="1:17" ht="22">
       <c r="A18" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -11093,14 +11085,13 @@
       <c r="J18" s="117"/>
       <c r="K18" s="117"/>
       <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="121"/>
-    </row>
-    <row r="19" spans="1:18" ht="22.5">
+      <c r="M18" s="119"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="121"/>
+    </row>
+    <row r="19" spans="1:17" ht="22">
       <c r="A19" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -11128,14 +11119,13 @@
       <c r="J19" s="117"/>
       <c r="K19" s="117"/>
       <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="121"/>
-    </row>
-    <row r="20" spans="1:18" ht="22.5">
+      <c r="M19" s="119"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="121"/>
+    </row>
+    <row r="20" spans="1:17" ht="22">
       <c r="A20" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -11163,14 +11153,13 @@
       <c r="J20" s="117"/>
       <c r="K20" s="117"/>
       <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="120"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="121"/>
-    </row>
-    <row r="21" spans="1:18" ht="22.5">
+      <c r="M20" s="119"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="121"/>
+    </row>
+    <row r="21" spans="1:17" ht="22">
       <c r="A21" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -11200,14 +11189,13 @@
       <c r="J21" s="117"/>
       <c r="K21" s="117"/>
       <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="121"/>
-    </row>
-    <row r="22" spans="1:18" ht="22.5">
+      <c r="M21" s="121"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="121"/>
+    </row>
+    <row r="22" spans="1:17" ht="22">
       <c r="A22" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -11235,14 +11223,13 @@
       <c r="J22" s="117"/>
       <c r="K22" s="117"/>
       <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="121"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="121"/>
-    </row>
-    <row r="23" spans="1:18" ht="22.5">
+      <c r="M22" s="121"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="121"/>
+    </row>
+    <row r="23" spans="1:17" ht="22">
       <c r="A23" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -11270,14 +11257,13 @@
       <c r="J23" s="117"/>
       <c r="K23" s="117"/>
       <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="121"/>
-    </row>
-    <row r="24" spans="1:18" ht="22.5">
+      <c r="M23" s="121"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="121"/>
+    </row>
+    <row r="24" spans="1:17" ht="22">
       <c r="A24" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -11305,14 +11291,13 @@
       <c r="J24" s="117"/>
       <c r="K24" s="117"/>
       <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="121"/>
-    </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M24" s="121"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="119"/>
+      <c r="Q24" s="121"/>
+    </row>
+    <row r="25" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A25" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -11344,14 +11329,13 @@
       <c r="J25" s="117"/>
       <c r="K25" s="117"/>
       <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="120"/>
-      <c r="R25" s="119"/>
-    </row>
-    <row r="26" spans="1:18" s="29" customFormat="1">
+      <c r="M25" s="121"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="120"/>
+      <c r="Q25" s="119"/>
+    </row>
+    <row r="26" spans="1:17" s="29" customFormat="1">
       <c r="A26" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E26),
@@ -11379,14 +11363,13 @@
       <c r="J26" s="117"/>
       <c r="K26" s="117"/>
       <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
+      <c r="M26" s="119"/>
       <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="119"/>
-    </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" ht="33.75">
+      <c r="O26" s="121"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="119"/>
+    </row>
+    <row r="27" spans="1:17" s="29" customFormat="1" ht="33">
       <c r="A27" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -11418,14 +11401,13 @@
       <c r="J27" s="117"/>
       <c r="K27" s="117"/>
       <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="119"/>
-    </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M27" s="121"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="119"/>
+    </row>
+    <row r="28" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A28" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -11453,14 +11435,13 @@
       <c r="J28" s="117"/>
       <c r="K28" s="117"/>
       <c r="L28" s="118"/>
-      <c r="M28" s="118"/>
+      <c r="M28" s="119"/>
       <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="119"/>
-    </row>
-    <row r="29" spans="1:18" ht="22.5">
+      <c r="O28" s="121"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="119"/>
+    </row>
+    <row r="29" spans="1:17" ht="22">
       <c r="A29" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -11490,14 +11471,13 @@
       <c r="J29" s="117"/>
       <c r="K29" s="117"/>
       <c r="L29" s="118"/>
-      <c r="M29" s="118"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="120"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="121"/>
       <c r="P29" s="121"/>
       <c r="Q29" s="121"/>
-      <c r="R29" s="121"/>
-    </row>
-    <row r="30" spans="1:18" ht="22.5">
+    </row>
+    <row r="30" spans="1:17" ht="22">
       <c r="A30" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -11525,14 +11505,13 @@
       <c r="J30" s="117"/>
       <c r="K30" s="117"/>
       <c r="L30" s="118"/>
-      <c r="M30" s="118"/>
+      <c r="M30" s="121"/>
       <c r="N30" s="121"/>
       <c r="O30" s="121"/>
       <c r="P30" s="121"/>
       <c r="Q30" s="121"/>
-      <c r="R30" s="121"/>
-    </row>
-    <row r="31" spans="1:18" ht="22.5">
+    </row>
+    <row r="31" spans="1:17" ht="22">
       <c r="A31" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -11560,14 +11539,13 @@
       <c r="J31" s="117"/>
       <c r="K31" s="117"/>
       <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="121"/>
-      <c r="O31" s="120"/>
+      <c r="M31" s="121"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="121"/>
       <c r="P31" s="121"/>
       <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-    </row>
-    <row r="32" spans="1:18" ht="22.5">
+    </row>
+    <row r="32" spans="1:17" ht="22">
       <c r="A32" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -11595,14 +11573,13 @@
       <c r="J32" s="117"/>
       <c r="K32" s="117"/>
       <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
+      <c r="M32" s="121"/>
       <c r="N32" s="121"/>
       <c r="O32" s="121"/>
       <c r="P32" s="121"/>
       <c r="Q32" s="121"/>
-      <c r="R32" s="121"/>
-    </row>
-    <row r="33" spans="1:18" ht="22.5">
+    </row>
+    <row r="33" spans="1:17" ht="22">
       <c r="A33" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -11632,14 +11609,13 @@
       <c r="J33" s="117"/>
       <c r="K33" s="117"/>
       <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
+      <c r="M33" s="121"/>
       <c r="N33" s="121"/>
       <c r="O33" s="121"/>
       <c r="P33" s="121"/>
       <c r="Q33" s="121"/>
-      <c r="R33" s="121"/>
-    </row>
-    <row r="34" spans="1:18" ht="22.5">
+    </row>
+    <row r="34" spans="1:17" ht="22">
       <c r="A34" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -11667,14 +11643,13 @@
       <c r="J34" s="117"/>
       <c r="K34" s="117"/>
       <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
+      <c r="M34" s="121"/>
       <c r="N34" s="121"/>
       <c r="O34" s="121"/>
       <c r="P34" s="121"/>
       <c r="Q34" s="121"/>
-      <c r="R34" s="121"/>
-    </row>
-    <row r="35" spans="1:18" ht="45">
+    </row>
+    <row r="35" spans="1:17" ht="44">
       <c r="A35" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -11704,14 +11679,13 @@
       <c r="J35" s="116"/>
       <c r="K35" s="117"/>
       <c r="L35" s="118"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="120"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="121"/>
       <c r="P35" s="121"/>
       <c r="Q35" s="121"/>
-      <c r="R35" s="121"/>
-    </row>
-    <row r="36" spans="1:18" ht="33.75">
+    </row>
+    <row r="36" spans="1:17" ht="33">
       <c r="A36" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -11743,14 +11717,13 @@
       <c r="J36" s="43"/>
       <c r="K36" s="55"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
+      <c r="M36" s="47"/>
       <c r="N36" s="47"/>
       <c r="O36" s="47"/>
       <c r="P36" s="47"/>
       <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-    </row>
-    <row r="37" spans="1:18" ht="33.75">
+    </row>
+    <row r="37" spans="1:17" ht="33">
       <c r="A37" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -11776,14 +11749,13 @@
       <c r="J37" s="43"/>
       <c r="K37" s="55"/>
       <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
+      <c r="M37" s="47"/>
       <c r="N37" s="47"/>
       <c r="O37" s="47"/>
       <c r="P37" s="47"/>
       <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-    </row>
-    <row r="38" spans="1:18" ht="22.5">
+    </row>
+    <row r="38" spans="1:17" ht="22">
       <c r="A38" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -11809,14 +11781,13 @@
       <c r="J38" s="43"/>
       <c r="K38" s="43"/>
       <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="46"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="47"/>
       <c r="P38" s="47"/>
       <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-    </row>
-    <row r="39" spans="1:18" s="29" customFormat="1" ht="22.5">
+    </row>
+    <row r="39" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A39" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -11842,14 +11813,13 @@
       <c r="J39" s="43"/>
       <c r="K39" s="43"/>
       <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="46"/>
       <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="47"/>
-    </row>
-    <row r="40" spans="1:18" s="29" customFormat="1" ht="33.75">
+      <c r="P39" s="45"/>
+      <c r="Q39" s="47"/>
+    </row>
+    <row r="40" spans="1:17" s="29" customFormat="1" ht="33">
       <c r="A40" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -11879,14 +11849,13 @@
       <c r="J40" s="43"/>
       <c r="K40" s="51"/>
       <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="47"/>
-    </row>
-    <row r="41" spans="1:18" s="29" customFormat="1">
+      <c r="M40" s="45"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="47"/>
+    </row>
+    <row r="41" spans="1:17" s="29" customFormat="1">
       <c r="A41" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
@@ -11912,14 +11881,13 @@
       <c r="J41" s="43"/>
       <c r="K41" s="51"/>
       <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="47"/>
-    </row>
-    <row r="42" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M41" s="45"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="47"/>
+    </row>
+    <row r="42" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A42" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -11955,14 +11923,13 @@
       <c r="J42" s="132"/>
       <c r="K42" s="125"/>
       <c r="L42" s="118"/>
-      <c r="M42" s="118"/>
-      <c r="N42" s="121"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="121"/>
-      <c r="Q42" s="119"/>
-      <c r="R42" s="121"/>
-    </row>
-    <row r="43" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M42" s="121"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="121"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="121"/>
+    </row>
+    <row r="43" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A43" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -11990,14 +11957,13 @@
       <c r="J43" s="132"/>
       <c r="K43" s="125"/>
       <c r="L43" s="118"/>
-      <c r="M43" s="118"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="119"/>
-      <c r="R43" s="121"/>
-    </row>
-    <row r="44" spans="1:18" s="29" customFormat="1" ht="33.75">
+      <c r="M43" s="121"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="121"/>
+      <c r="P43" s="119"/>
+      <c r="Q43" s="121"/>
+    </row>
+    <row r="44" spans="1:17" s="29" customFormat="1" ht="33">
       <c r="A44" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -12025,14 +11991,13 @@
       <c r="J44" s="132"/>
       <c r="K44" s="125"/>
       <c r="L44" s="118"/>
-      <c r="M44" s="118"/>
-      <c r="N44" s="119"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="119"/>
-      <c r="R44" s="121"/>
-    </row>
-    <row r="45" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M44" s="119"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="121"/>
+    </row>
+    <row r="45" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A45" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -12062,14 +12027,13 @@
       <c r="J45" s="132"/>
       <c r="K45" s="125"/>
       <c r="L45" s="118"/>
-      <c r="M45" s="118"/>
-      <c r="N45" s="119"/>
-      <c r="O45" s="121"/>
-      <c r="P45" s="120"/>
-      <c r="Q45" s="119"/>
-      <c r="R45" s="121"/>
-    </row>
-    <row r="46" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M45" s="119"/>
+      <c r="N45" s="121"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="119"/>
+      <c r="Q45" s="121"/>
+    </row>
+    <row r="46" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A46" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -12097,14 +12061,13 @@
       <c r="J46" s="132"/>
       <c r="K46" s="125"/>
       <c r="L46" s="118"/>
-      <c r="M46" s="118"/>
-      <c r="N46" s="119"/>
-      <c r="O46" s="121"/>
-      <c r="P46" s="120"/>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="121"/>
-    </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" ht="33.75">
+      <c r="M46" s="119"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="121"/>
+    </row>
+    <row r="47" spans="1:17" s="29" customFormat="1" ht="33">
       <c r="A47" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -12132,14 +12095,13 @@
       <c r="J47" s="132"/>
       <c r="K47" s="125"/>
       <c r="L47" s="118"/>
-      <c r="M47" s="118"/>
-      <c r="N47" s="119"/>
-      <c r="O47" s="121"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="119"/>
-      <c r="R47" s="121"/>
-    </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M47" s="119"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="119"/>
+      <c r="Q47" s="121"/>
+    </row>
+    <row r="48" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A48" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -12169,14 +12131,13 @@
       <c r="J48" s="132"/>
       <c r="K48" s="125"/>
       <c r="L48" s="118"/>
-      <c r="M48" s="118"/>
-      <c r="N48" s="121"/>
-      <c r="O48" s="120"/>
-      <c r="P48" s="121"/>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="121"/>
-    </row>
-    <row r="49" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M48" s="121"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="121"/>
+      <c r="P48" s="119"/>
+      <c r="Q48" s="121"/>
+    </row>
+    <row r="49" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A49" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -12204,14 +12165,13 @@
       <c r="J49" s="132"/>
       <c r="K49" s="125"/>
       <c r="L49" s="118"/>
-      <c r="M49" s="118"/>
-      <c r="N49" s="121"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="121"/>
-      <c r="Q49" s="119"/>
-      <c r="R49" s="121"/>
-    </row>
-    <row r="50" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M49" s="121"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="121"/>
+      <c r="P49" s="119"/>
+      <c r="Q49" s="121"/>
+    </row>
+    <row r="50" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A50" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -12241,14 +12201,13 @@
       <c r="J50" s="132"/>
       <c r="K50" s="125"/>
       <c r="L50" s="118"/>
-      <c r="M50" s="118"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="121"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="119"/>
-      <c r="R50" s="121"/>
-    </row>
-    <row r="51" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M50" s="119"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="119"/>
+      <c r="Q50" s="121"/>
+    </row>
+    <row r="51" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A51" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -12276,14 +12235,13 @@
       <c r="J51" s="132"/>
       <c r="K51" s="125"/>
       <c r="L51" s="118"/>
-      <c r="M51" s="118"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="121"/>
-      <c r="P51" s="120"/>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="121"/>
-    </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M51" s="119"/>
+      <c r="N51" s="121"/>
+      <c r="O51" s="120"/>
+      <c r="P51" s="119"/>
+      <c r="Q51" s="121"/>
+    </row>
+    <row r="52" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A52" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -12311,14 +12269,13 @@
       <c r="J52" s="132"/>
       <c r="K52" s="125"/>
       <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="119"/>
-      <c r="O52" s="121"/>
-      <c r="P52" s="120"/>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="121"/>
-    </row>
-    <row r="53" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M52" s="119"/>
+      <c r="N52" s="121"/>
+      <c r="O52" s="120"/>
+      <c r="P52" s="119"/>
+      <c r="Q52" s="121"/>
+    </row>
+    <row r="53" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A53" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -12346,14 +12303,13 @@
       <c r="J53" s="132"/>
       <c r="K53" s="125"/>
       <c r="L53" s="118"/>
-      <c r="M53" s="118"/>
-      <c r="N53" s="119"/>
-      <c r="O53" s="121"/>
-      <c r="P53" s="120"/>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="121"/>
-    </row>
-    <row r="54" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M53" s="119"/>
+      <c r="N53" s="121"/>
+      <c r="O53" s="120"/>
+      <c r="P53" s="119"/>
+      <c r="Q53" s="121"/>
+    </row>
+    <row r="54" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A54" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -12381,14 +12337,13 @@
       <c r="J54" s="132"/>
       <c r="K54" s="125"/>
       <c r="L54" s="118"/>
-      <c r="M54" s="118"/>
-      <c r="N54" s="119"/>
-      <c r="O54" s="121"/>
-      <c r="P54" s="120"/>
-      <c r="Q54" s="119"/>
-      <c r="R54" s="121"/>
-    </row>
-    <row r="55" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M54" s="119"/>
+      <c r="N54" s="121"/>
+      <c r="O54" s="120"/>
+      <c r="P54" s="119"/>
+      <c r="Q54" s="121"/>
+    </row>
+    <row r="55" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A55" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -12416,14 +12371,13 @@
       <c r="J55" s="132"/>
       <c r="K55" s="125"/>
       <c r="L55" s="118"/>
-      <c r="M55" s="118"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="121"/>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="119"/>
-      <c r="R55" s="121"/>
-    </row>
-    <row r="56" spans="1:18" s="29" customFormat="1" ht="33.75">
+      <c r="M55" s="119"/>
+      <c r="N55" s="121"/>
+      <c r="O55" s="120"/>
+      <c r="P55" s="119"/>
+      <c r="Q55" s="121"/>
+    </row>
+    <row r="56" spans="1:17" s="29" customFormat="1" ht="33">
       <c r="A56" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -12453,14 +12407,13 @@
       <c r="J56" s="132"/>
       <c r="K56" s="125"/>
       <c r="L56" s="118"/>
-      <c r="M56" s="118"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="121"/>
-      <c r="P56" s="120"/>
-      <c r="Q56" s="119"/>
-      <c r="R56" s="121"/>
-    </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M56" s="119"/>
+      <c r="N56" s="121"/>
+      <c r="O56" s="120"/>
+      <c r="P56" s="119"/>
+      <c r="Q56" s="121"/>
+    </row>
+    <row r="57" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A57" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -12490,14 +12443,13 @@
       <c r="J57" s="132"/>
       <c r="K57" s="125"/>
       <c r="L57" s="118"/>
-      <c r="M57" s="118"/>
-      <c r="N57" s="119"/>
-      <c r="O57" s="121"/>
-      <c r="P57" s="120"/>
-      <c r="Q57" s="119"/>
-      <c r="R57" s="121"/>
-    </row>
-    <row r="58" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M57" s="119"/>
+      <c r="N57" s="121"/>
+      <c r="O57" s="120"/>
+      <c r="P57" s="119"/>
+      <c r="Q57" s="121"/>
+    </row>
+    <row r="58" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A58" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -12527,14 +12479,13 @@
       <c r="J58" s="132"/>
       <c r="K58" s="125"/>
       <c r="L58" s="118"/>
-      <c r="M58" s="118"/>
-      <c r="N58" s="119"/>
-      <c r="O58" s="121"/>
-      <c r="P58" s="120"/>
-      <c r="Q58" s="119"/>
-      <c r="R58" s="121"/>
-    </row>
-    <row r="59" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M58" s="119"/>
+      <c r="N58" s="121"/>
+      <c r="O58" s="120"/>
+      <c r="P58" s="119"/>
+      <c r="Q58" s="121"/>
+    </row>
+    <row r="59" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A59" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -12566,14 +12517,13 @@
       <c r="J59" s="132"/>
       <c r="K59" s="125"/>
       <c r="L59" s="118"/>
-      <c r="M59" s="118"/>
-      <c r="N59" s="119"/>
-      <c r="O59" s="121"/>
-      <c r="P59" s="120"/>
-      <c r="Q59" s="119"/>
-      <c r="R59" s="121"/>
-    </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M59" s="119"/>
+      <c r="N59" s="121"/>
+      <c r="O59" s="120"/>
+      <c r="P59" s="119"/>
+      <c r="Q59" s="121"/>
+    </row>
+    <row r="60" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A60" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -12601,14 +12551,13 @@
       <c r="J60" s="132"/>
       <c r="K60" s="125"/>
       <c r="L60" s="118"/>
-      <c r="M60" s="118"/>
-      <c r="N60" s="119"/>
-      <c r="O60" s="121"/>
-      <c r="P60" s="120"/>
-      <c r="Q60" s="119"/>
-      <c r="R60" s="121"/>
-    </row>
-    <row r="61" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M60" s="119"/>
+      <c r="N60" s="121"/>
+      <c r="O60" s="120"/>
+      <c r="P60" s="119"/>
+      <c r="Q60" s="121"/>
+    </row>
+    <row r="61" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A61" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -12636,14 +12585,13 @@
       <c r="J61" s="132"/>
       <c r="K61" s="125"/>
       <c r="L61" s="118"/>
-      <c r="M61" s="118"/>
-      <c r="N61" s="119"/>
-      <c r="O61" s="121"/>
-      <c r="P61" s="120"/>
-      <c r="Q61" s="119"/>
-      <c r="R61" s="121"/>
-    </row>
-    <row r="62" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M61" s="119"/>
+      <c r="N61" s="121"/>
+      <c r="O61" s="120"/>
+      <c r="P61" s="119"/>
+      <c r="Q61" s="121"/>
+    </row>
+    <row r="62" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A62" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -12671,14 +12619,13 @@
       <c r="J62" s="132"/>
       <c r="K62" s="125"/>
       <c r="L62" s="118"/>
-      <c r="M62" s="118"/>
-      <c r="N62" s="119"/>
-      <c r="O62" s="121"/>
-      <c r="P62" s="120"/>
-      <c r="Q62" s="119"/>
-      <c r="R62" s="121"/>
-    </row>
-    <row r="63" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M62" s="119"/>
+      <c r="N62" s="121"/>
+      <c r="O62" s="120"/>
+      <c r="P62" s="119"/>
+      <c r="Q62" s="121"/>
+    </row>
+    <row r="63" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A63" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -12706,14 +12653,13 @@
       <c r="J63" s="132"/>
       <c r="K63" s="125"/>
       <c r="L63" s="118"/>
-      <c r="M63" s="118"/>
-      <c r="N63" s="119"/>
-      <c r="O63" s="121"/>
-      <c r="P63" s="120"/>
-      <c r="Q63" s="119"/>
-      <c r="R63" s="121"/>
-    </row>
-    <row r="64" spans="1:18" s="29" customFormat="1" ht="33.75">
+      <c r="M63" s="119"/>
+      <c r="N63" s="121"/>
+      <c r="O63" s="120"/>
+      <c r="P63" s="119"/>
+      <c r="Q63" s="121"/>
+    </row>
+    <row r="64" spans="1:17" s="29" customFormat="1" ht="33">
       <c r="A64" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -12743,14 +12689,13 @@
       <c r="J64" s="132"/>
       <c r="K64" s="125"/>
       <c r="L64" s="118"/>
-      <c r="M64" s="118"/>
-      <c r="N64" s="119"/>
-      <c r="O64" s="121"/>
-      <c r="P64" s="120"/>
-      <c r="Q64" s="119"/>
-      <c r="R64" s="121"/>
-    </row>
-    <row r="65" spans="1:18" s="29" customFormat="1" ht="33.75">
+      <c r="M64" s="119"/>
+      <c r="N64" s="121"/>
+      <c r="O64" s="120"/>
+      <c r="P64" s="119"/>
+      <c r="Q64" s="121"/>
+    </row>
+    <row r="65" spans="1:17" s="29" customFormat="1" ht="33">
       <c r="A65" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -12778,14 +12723,13 @@
       <c r="J65" s="132"/>
       <c r="K65" s="125"/>
       <c r="L65" s="118"/>
-      <c r="M65" s="118"/>
-      <c r="N65" s="119"/>
-      <c r="O65" s="121"/>
-      <c r="P65" s="120"/>
-      <c r="Q65" s="119"/>
-      <c r="R65" s="121"/>
-    </row>
-    <row r="66" spans="1:18" s="29" customFormat="1" ht="33.75">
+      <c r="M65" s="119"/>
+      <c r="N65" s="121"/>
+      <c r="O65" s="120"/>
+      <c r="P65" s="119"/>
+      <c r="Q65" s="121"/>
+    </row>
+    <row r="66" spans="1:17" s="29" customFormat="1" ht="33">
       <c r="A66" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -12813,14 +12757,13 @@
       <c r="J66" s="132"/>
       <c r="K66" s="125"/>
       <c r="L66" s="118"/>
-      <c r="M66" s="118"/>
-      <c r="N66" s="119"/>
-      <c r="O66" s="121"/>
-      <c r="P66" s="120"/>
-      <c r="Q66" s="119"/>
-      <c r="R66" s="121"/>
-    </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="33.75">
+      <c r="M66" s="119"/>
+      <c r="N66" s="121"/>
+      <c r="O66" s="120"/>
+      <c r="P66" s="119"/>
+      <c r="Q66" s="121"/>
+    </row>
+    <row r="67" spans="1:17" s="29" customFormat="1" ht="33">
       <c r="A67" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -12848,14 +12791,13 @@
       <c r="J67" s="132"/>
       <c r="K67" s="125"/>
       <c r="L67" s="118"/>
-      <c r="M67" s="118"/>
-      <c r="N67" s="119"/>
-      <c r="O67" s="121"/>
-      <c r="P67" s="120"/>
-      <c r="Q67" s="119"/>
-      <c r="R67" s="121"/>
-    </row>
-    <row r="68" spans="1:18" s="29" customFormat="1" ht="33.75">
+      <c r="M67" s="119"/>
+      <c r="N67" s="121"/>
+      <c r="O67" s="120"/>
+      <c r="P67" s="119"/>
+      <c r="Q67" s="121"/>
+    </row>
+    <row r="68" spans="1:17" s="29" customFormat="1" ht="33">
       <c r="A68" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -12883,14 +12825,13 @@
       <c r="J68" s="132"/>
       <c r="K68" s="125"/>
       <c r="L68" s="118"/>
-      <c r="M68" s="118"/>
-      <c r="N68" s="119"/>
-      <c r="O68" s="121"/>
-      <c r="P68" s="120"/>
-      <c r="Q68" s="119"/>
-      <c r="R68" s="121"/>
-    </row>
-    <row r="69" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M68" s="119"/>
+      <c r="N68" s="121"/>
+      <c r="O68" s="120"/>
+      <c r="P68" s="119"/>
+      <c r="Q68" s="121"/>
+    </row>
+    <row r="69" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A69" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -12918,14 +12859,13 @@
       <c r="J69" s="132"/>
       <c r="K69" s="125"/>
       <c r="L69" s="118"/>
-      <c r="M69" s="118"/>
-      <c r="N69" s="119"/>
-      <c r="O69" s="121"/>
-      <c r="P69" s="120"/>
-      <c r="Q69" s="119"/>
-      <c r="R69" s="121"/>
-    </row>
-    <row r="70" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M69" s="119"/>
+      <c r="N69" s="121"/>
+      <c r="O69" s="120"/>
+      <c r="P69" s="119"/>
+      <c r="Q69" s="121"/>
+    </row>
+    <row r="70" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A70" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -12953,14 +12893,13 @@
       <c r="J70" s="132"/>
       <c r="K70" s="125"/>
       <c r="L70" s="118"/>
-      <c r="M70" s="118"/>
-      <c r="N70" s="119"/>
-      <c r="O70" s="121"/>
-      <c r="P70" s="120"/>
-      <c r="Q70" s="119"/>
-      <c r="R70" s="121"/>
-    </row>
-    <row r="71" spans="1:18" s="29" customFormat="1" ht="33.75">
+      <c r="M70" s="119"/>
+      <c r="N70" s="121"/>
+      <c r="O70" s="120"/>
+      <c r="P70" s="119"/>
+      <c r="Q70" s="121"/>
+    </row>
+    <row r="71" spans="1:17" s="29" customFormat="1" ht="33">
       <c r="A71" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -12988,14 +12927,13 @@
       <c r="J71" s="133"/>
       <c r="K71" s="134"/>
       <c r="L71" s="135"/>
-      <c r="M71" s="135"/>
-      <c r="N71" s="136"/>
-      <c r="O71" s="137"/>
-      <c r="P71" s="138"/>
-      <c r="Q71" s="136"/>
-      <c r="R71" s="137"/>
-    </row>
-    <row r="72" spans="1:18" s="29" customFormat="1" ht="22.5">
+      <c r="M71" s="136"/>
+      <c r="N71" s="137"/>
+      <c r="O71" s="138"/>
+      <c r="P71" s="136"/>
+      <c r="Q71" s="137"/>
+    </row>
+    <row r="72" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A72" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -13027,12 +12965,11 @@
       <c r="L72" s="125"/>
       <c r="M72" s="121"/>
       <c r="N72" s="121"/>
-      <c r="O72" s="121"/>
-      <c r="P72" s="142"/>
+      <c r="O72" s="142"/>
+      <c r="P72" s="125"/>
       <c r="Q72" s="125"/>
-      <c r="R72" s="125"/>
-    </row>
-    <row r="73" spans="1:18" s="29" customFormat="1" ht="22.5">
+    </row>
+    <row r="73" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A73" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E73),
@@ -13064,12 +13001,11 @@
       <c r="L73" s="125"/>
       <c r="M73" s="121"/>
       <c r="N73" s="121"/>
-      <c r="O73" s="121"/>
-      <c r="P73" s="142"/>
+      <c r="O73" s="142"/>
+      <c r="P73" s="125"/>
       <c r="Q73" s="125"/>
-      <c r="R73" s="125"/>
-    </row>
-    <row r="74" spans="1:18" s="29" customFormat="1" ht="22.5">
+    </row>
+    <row r="74" spans="1:17" s="29" customFormat="1" ht="22">
       <c r="A74" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E74),
@@ -13097,14 +13033,13 @@
       <c r="J74" s="132"/>
       <c r="K74" s="125"/>
       <c r="L74" s="118"/>
-      <c r="M74" s="118"/>
-      <c r="N74" s="119"/>
-      <c r="O74" s="121"/>
-      <c r="P74" s="120"/>
-      <c r="Q74" s="119"/>
-      <c r="R74" s="121"/>
-    </row>
-    <row r="75" spans="1:18" ht="22.5">
+      <c r="M74" s="119"/>
+      <c r="N74" s="121"/>
+      <c r="O74" s="120"/>
+      <c r="P74" s="119"/>
+      <c r="Q74" s="121"/>
+    </row>
+    <row r="75" spans="1:17" ht="22">
       <c r="A75" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A75" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E75),
@@ -13132,14 +13067,13 @@
       <c r="J75" s="132"/>
       <c r="K75" s="121"/>
       <c r="L75" s="118"/>
-      <c r="M75" s="118"/>
+      <c r="M75" s="121"/>
       <c r="N75" s="121"/>
       <c r="O75" s="121"/>
       <c r="P75" s="121"/>
       <c r="Q75" s="121"/>
-      <c r="R75" s="121"/>
-    </row>
-    <row r="76" spans="1:18" ht="22.5">
+    </row>
+    <row r="76" spans="1:17" ht="22">
       <c r="A76" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E76),
@@ -13167,14 +13101,13 @@
       <c r="J76" s="132"/>
       <c r="K76" s="121"/>
       <c r="L76" s="118"/>
-      <c r="M76" s="118"/>
+      <c r="M76" s="121"/>
       <c r="N76" s="121"/>
       <c r="O76" s="121"/>
       <c r="P76" s="121"/>
       <c r="Q76" s="121"/>
-      <c r="R76" s="121"/>
-    </row>
-    <row r="77" spans="1:18" ht="22.5">
+    </row>
+    <row r="77" spans="1:17" ht="22">
       <c r="A77" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -13202,14 +13135,13 @@
       <c r="J77" s="132"/>
       <c r="K77" s="121"/>
       <c r="L77" s="118"/>
-      <c r="M77" s="118"/>
+      <c r="M77" s="121"/>
       <c r="N77" s="121"/>
       <c r="O77" s="121"/>
       <c r="P77" s="121"/>
       <c r="Q77" s="121"/>
-      <c r="R77" s="121"/>
-    </row>
-    <row r="78" spans="1:18" ht="22.5">
+    </row>
+    <row r="78" spans="1:17" ht="22">
       <c r="A78" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -13243,14 +13175,13 @@
       <c r="J78" s="132"/>
       <c r="K78" s="125"/>
       <c r="L78" s="118"/>
-      <c r="M78" s="118"/>
-      <c r="N78" s="121"/>
-      <c r="O78" s="120"/>
+      <c r="M78" s="121"/>
+      <c r="N78" s="120"/>
+      <c r="O78" s="121"/>
       <c r="P78" s="121"/>
       <c r="Q78" s="121"/>
-      <c r="R78" s="121"/>
-    </row>
-    <row r="79" spans="1:18" ht="33.75">
+    </row>
+    <row r="79" spans="1:17" ht="33">
       <c r="A79" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
@@ -13278,14 +13209,13 @@
       <c r="J79" s="132"/>
       <c r="K79" s="125"/>
       <c r="L79" s="118"/>
-      <c r="M79" s="118"/>
-      <c r="N79" s="121"/>
-      <c r="O79" s="120"/>
+      <c r="M79" s="121"/>
+      <c r="N79" s="120"/>
+      <c r="O79" s="121"/>
       <c r="P79" s="121"/>
       <c r="Q79" s="121"/>
-      <c r="R79" s="121"/>
-    </row>
-    <row r="80" spans="1:18" ht="22.5">
+    </row>
+    <row r="80" spans="1:17" ht="22">
       <c r="A80" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A80" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E80),
@@ -13315,14 +13245,13 @@
       <c r="J80" s="132"/>
       <c r="K80" s="121"/>
       <c r="L80" s="118"/>
-      <c r="M80" s="118"/>
+      <c r="M80" s="121"/>
       <c r="N80" s="121"/>
       <c r="O80" s="121"/>
       <c r="P80" s="121"/>
       <c r="Q80" s="121"/>
-      <c r="R80" s="121"/>
-    </row>
-    <row r="81" spans="1:18" ht="33.75">
+    </row>
+    <row r="81" spans="1:17" ht="33">
       <c r="A81" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -13352,14 +13281,13 @@
       <c r="J81" s="132"/>
       <c r="K81" s="125"/>
       <c r="L81" s="118"/>
-      <c r="M81" s="118"/>
+      <c r="M81" s="121"/>
       <c r="N81" s="121"/>
       <c r="O81" s="121"/>
       <c r="P81" s="121"/>
       <c r="Q81" s="121"/>
-      <c r="R81" s="121"/>
-    </row>
-    <row r="82" spans="1:18" ht="33.75">
+    </row>
+    <row r="82" spans="1:17" ht="33">
       <c r="A82" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -13387,14 +13315,13 @@
       <c r="J82" s="132"/>
       <c r="K82" s="121"/>
       <c r="L82" s="118"/>
-      <c r="M82" s="118"/>
+      <c r="M82" s="121"/>
       <c r="N82" s="121"/>
       <c r="O82" s="121"/>
       <c r="P82" s="121"/>
       <c r="Q82" s="121"/>
-      <c r="R82" s="121"/>
-    </row>
-    <row r="83" spans="1:18" ht="22.5">
+    </row>
+    <row r="83" spans="1:17" ht="22">
       <c r="A83" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -13424,14 +13351,13 @@
       <c r="J83" s="132"/>
       <c r="K83" s="121"/>
       <c r="L83" s="118"/>
-      <c r="M83" s="118"/>
+      <c r="M83" s="121"/>
       <c r="N83" s="121"/>
       <c r="O83" s="121"/>
       <c r="P83" s="121"/>
       <c r="Q83" s="121"/>
-      <c r="R83" s="121"/>
-    </row>
-    <row r="84" spans="1:18" ht="22.5">
+    </row>
+    <row r="84" spans="1:17" ht="22">
       <c r="A84" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
@@ -13461,14 +13387,13 @@
       <c r="J84" s="132"/>
       <c r="K84" s="121"/>
       <c r="L84" s="118"/>
-      <c r="M84" s="118"/>
+      <c r="M84" s="121"/>
       <c r="N84" s="121"/>
       <c r="O84" s="121"/>
       <c r="P84" s="121"/>
       <c r="Q84" s="121"/>
-      <c r="R84" s="121"/>
-    </row>
-    <row r="85" spans="1:18" ht="22.5">
+    </row>
+    <row r="85" spans="1:17" ht="22">
       <c r="A85" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -13502,14 +13427,13 @@
       <c r="J85" s="132"/>
       <c r="K85" s="121"/>
       <c r="L85" s="118"/>
-      <c r="M85" s="118"/>
+      <c r="M85" s="121"/>
       <c r="N85" s="121"/>
       <c r="O85" s="121"/>
       <c r="P85" s="121"/>
       <c r="Q85" s="121"/>
-      <c r="R85" s="121"/>
-    </row>
-    <row r="86" spans="1:18" ht="22.5">
+    </row>
+    <row r="86" spans="1:17" ht="22">
       <c r="A86" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E86),
@@ -13539,14 +13463,13 @@
       <c r="J86" s="132"/>
       <c r="K86" s="121"/>
       <c r="L86" s="118"/>
-      <c r="M86" s="118"/>
+      <c r="M86" s="121"/>
       <c r="N86" s="121"/>
       <c r="O86" s="121"/>
       <c r="P86" s="121"/>
       <c r="Q86" s="121"/>
-      <c r="R86" s="121"/>
-    </row>
-    <row r="87" spans="1:18" ht="33.75">
+    </row>
+    <row r="87" spans="1:17" ht="33">
       <c r="A87" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -13576,14 +13499,13 @@
       <c r="J87" s="132"/>
       <c r="K87" s="121"/>
       <c r="L87" s="118"/>
-      <c r="M87" s="118"/>
+      <c r="M87" s="121"/>
       <c r="N87" s="121"/>
       <c r="O87" s="121"/>
       <c r="P87" s="121"/>
       <c r="Q87" s="121"/>
-      <c r="R87" s="121"/>
-    </row>
-    <row r="88" spans="1:18" ht="22.5">
+    </row>
+    <row r="88" spans="1:17" ht="22">
       <c r="A88" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -13617,14 +13539,13 @@
       <c r="J88" s="132"/>
       <c r="K88" s="121"/>
       <c r="L88" s="118"/>
-      <c r="M88" s="118"/>
-      <c r="N88" s="121"/>
-      <c r="O88" s="120"/>
+      <c r="M88" s="121"/>
+      <c r="N88" s="120"/>
+      <c r="O88" s="121"/>
       <c r="P88" s="121"/>
       <c r="Q88" s="121"/>
-      <c r="R88" s="121"/>
-    </row>
-    <row r="89" spans="1:18" ht="33.75">
+    </row>
+    <row r="89" spans="1:17" ht="33">
       <c r="A89" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -13652,14 +13573,13 @@
       <c r="J89" s="132"/>
       <c r="K89" s="121"/>
       <c r="L89" s="118"/>
-      <c r="M89" s="118"/>
+      <c r="M89" s="121"/>
       <c r="N89" s="121"/>
       <c r="O89" s="121"/>
       <c r="P89" s="121"/>
       <c r="Q89" s="121"/>
-      <c r="R89" s="121"/>
-    </row>
-    <row r="90" spans="1:18" ht="22.5">
+    </row>
+    <row r="90" spans="1:17" ht="22">
       <c r="A90" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A90" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E90),
@@ -13689,14 +13609,13 @@
       <c r="J90" s="132"/>
       <c r="K90" s="121"/>
       <c r="L90" s="118"/>
-      <c r="M90" s="118"/>
+      <c r="M90" s="121"/>
       <c r="N90" s="121"/>
       <c r="O90" s="121"/>
       <c r="P90" s="121"/>
       <c r="Q90" s="121"/>
-      <c r="R90" s="121"/>
-    </row>
-    <row r="91" spans="1:18" ht="33.75">
+    </row>
+    <row r="91" spans="1:17" ht="33">
       <c r="A91" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -13726,14 +13645,13 @@
       <c r="J91" s="132"/>
       <c r="K91" s="121"/>
       <c r="L91" s="118"/>
-      <c r="M91" s="118"/>
+      <c r="M91" s="121"/>
       <c r="N91" s="121"/>
       <c r="O91" s="121"/>
       <c r="P91" s="121"/>
       <c r="Q91" s="121"/>
-      <c r="R91" s="121"/>
-    </row>
-    <row r="92" spans="1:18" ht="33.75">
+    </row>
+    <row r="92" spans="1:17" ht="33">
       <c r="A92" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -13761,14 +13679,13 @@
       <c r="J92" s="132"/>
       <c r="K92" s="121"/>
       <c r="L92" s="118"/>
-      <c r="M92" s="118"/>
+      <c r="M92" s="121"/>
       <c r="N92" s="121"/>
       <c r="O92" s="121"/>
       <c r="P92" s="121"/>
       <c r="Q92" s="121"/>
-      <c r="R92" s="121"/>
-    </row>
-    <row r="93" spans="1:18" ht="33.75">
+    </row>
+    <row r="93" spans="1:17" ht="33">
       <c r="A93" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -13798,14 +13715,13 @@
       <c r="J93" s="132"/>
       <c r="K93" s="121"/>
       <c r="L93" s="118"/>
-      <c r="M93" s="118"/>
+      <c r="M93" s="121"/>
       <c r="N93" s="121"/>
       <c r="O93" s="121"/>
       <c r="P93" s="121"/>
       <c r="Q93" s="121"/>
-      <c r="R93" s="121"/>
-    </row>
-    <row r="94" spans="1:18" ht="22.5">
+    </row>
+    <row r="94" spans="1:17" ht="22">
       <c r="A94" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -13839,14 +13755,13 @@
       <c r="J94" s="132"/>
       <c r="K94" s="121"/>
       <c r="L94" s="118"/>
-      <c r="M94" s="118"/>
+      <c r="M94" s="121"/>
       <c r="N94" s="121"/>
       <c r="O94" s="121"/>
       <c r="P94" s="121"/>
       <c r="Q94" s="121"/>
-      <c r="R94" s="121"/>
-    </row>
-    <row r="95" spans="1:18" ht="33.75">
+    </row>
+    <row r="95" spans="1:17" ht="33">
       <c r="A95" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -13874,14 +13789,13 @@
       <c r="J95" s="132"/>
       <c r="K95" s="121"/>
       <c r="L95" s="118"/>
-      <c r="M95" s="118"/>
+      <c r="M95" s="121"/>
       <c r="N95" s="121"/>
       <c r="O95" s="121"/>
       <c r="P95" s="121"/>
       <c r="Q95" s="121"/>
-      <c r="R95" s="121"/>
-    </row>
-    <row r="96" spans="1:18" ht="22.5">
+    </row>
+    <row r="96" spans="1:17" ht="22">
       <c r="A96" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A96" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E96),
@@ -13909,14 +13823,13 @@
       <c r="J96" s="132"/>
       <c r="K96" s="121"/>
       <c r="L96" s="118"/>
-      <c r="M96" s="118"/>
+      <c r="M96" s="121"/>
       <c r="N96" s="121"/>
       <c r="O96" s="121"/>
       <c r="P96" s="121"/>
       <c r="Q96" s="121"/>
-      <c r="R96" s="121"/>
-    </row>
-    <row r="97" spans="1:18" ht="33.75">
+    </row>
+    <row r="97" spans="1:17" ht="33">
       <c r="A97" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -13944,14 +13857,13 @@
       <c r="J97" s="132"/>
       <c r="K97" s="121"/>
       <c r="L97" s="118"/>
-      <c r="M97" s="118"/>
+      <c r="M97" s="121"/>
       <c r="N97" s="121"/>
       <c r="O97" s="121"/>
       <c r="P97" s="121"/>
       <c r="Q97" s="121"/>
-      <c r="R97" s="121"/>
-    </row>
-    <row r="98" spans="1:18" ht="33.75">
+    </row>
+    <row r="98" spans="1:17" ht="33">
       <c r="A98" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -13979,14 +13891,13 @@
       <c r="J98" s="132"/>
       <c r="K98" s="121"/>
       <c r="L98" s="118"/>
-      <c r="M98" s="118"/>
+      <c r="M98" s="121"/>
       <c r="N98" s="121"/>
       <c r="O98" s="121"/>
       <c r="P98" s="121"/>
       <c r="Q98" s="121"/>
-      <c r="R98" s="121"/>
-    </row>
-    <row r="99" spans="1:18" ht="22.5">
+    </row>
+    <row r="99" spans="1:17" ht="22">
       <c r="A99" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -14016,14 +13927,13 @@
       <c r="J99" s="132"/>
       <c r="K99" s="121"/>
       <c r="L99" s="118"/>
-      <c r="M99" s="118"/>
+      <c r="M99" s="121"/>
       <c r="N99" s="121"/>
       <c r="O99" s="121"/>
       <c r="P99" s="121"/>
       <c r="Q99" s="121"/>
-      <c r="R99" s="121"/>
-    </row>
-    <row r="100" spans="1:18" ht="33.75">
+    </row>
+    <row r="100" spans="1:17" ht="33">
       <c r="A100" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
@@ -14051,14 +13961,13 @@
       <c r="J100" s="132"/>
       <c r="K100" s="121"/>
       <c r="L100" s="118"/>
-      <c r="M100" s="118"/>
+      <c r="M100" s="121"/>
       <c r="N100" s="121"/>
       <c r="O100" s="121"/>
       <c r="P100" s="121"/>
       <c r="Q100" s="121"/>
-      <c r="R100" s="121"/>
-    </row>
-    <row r="101" spans="1:18" ht="22.5">
+    </row>
+    <row r="101" spans="1:17" ht="22">
       <c r="A101" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E101),
@@ -14086,14 +13995,13 @@
       <c r="J101" s="132"/>
       <c r="K101" s="121"/>
       <c r="L101" s="118"/>
-      <c r="M101" s="118"/>
+      <c r="M101" s="121"/>
       <c r="N101" s="121"/>
       <c r="O101" s="121"/>
       <c r="P101" s="121"/>
       <c r="Q101" s="121"/>
-      <c r="R101" s="121"/>
-    </row>
-    <row r="102" spans="1:18" ht="33.75">
+    </row>
+    <row r="102" spans="1:17" ht="33">
       <c r="A102" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -14121,14 +14029,13 @@
       <c r="J102" s="132"/>
       <c r="K102" s="121"/>
       <c r="L102" s="118"/>
-      <c r="M102" s="118"/>
+      <c r="M102" s="121"/>
       <c r="N102" s="121"/>
       <c r="O102" s="121"/>
       <c r="P102" s="121"/>
       <c r="Q102" s="121"/>
-      <c r="R102" s="121"/>
-    </row>
-    <row r="103" spans="1:18" ht="33.75">
+    </row>
+    <row r="103" spans="1:17" ht="33">
       <c r="A103" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -14156,14 +14063,13 @@
       <c r="J103" s="133"/>
       <c r="K103" s="137"/>
       <c r="L103" s="135"/>
-      <c r="M103" s="135"/>
+      <c r="M103" s="137"/>
       <c r="N103" s="137"/>
       <c r="O103" s="137"/>
       <c r="P103" s="137"/>
       <c r="Q103" s="137"/>
-      <c r="R103" s="137"/>
-    </row>
-    <row r="104" spans="1:18" ht="33.75">
+    </row>
+    <row r="104" spans="1:17" ht="33">
       <c r="A104" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -14193,14 +14099,13 @@
       <c r="J104" s="132"/>
       <c r="K104" s="121"/>
       <c r="L104" s="118"/>
-      <c r="M104" s="118"/>
+      <c r="M104" s="121"/>
       <c r="N104" s="121"/>
       <c r="O104" s="121"/>
       <c r="P104" s="121"/>
       <c r="Q104" s="121"/>
-      <c r="R104" s="121"/>
-    </row>
-    <row r="105" spans="1:18" ht="33.75">
+    </row>
+    <row r="105" spans="1:17" ht="33">
       <c r="A105" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -14236,14 +14141,13 @@
       <c r="J105" s="121"/>
       <c r="K105" s="121"/>
       <c r="L105" s="118"/>
-      <c r="M105" s="118"/>
+      <c r="M105" s="121"/>
       <c r="N105" s="121"/>
       <c r="O105" s="121"/>
       <c r="P105" s="121"/>
       <c r="Q105" s="121"/>
-      <c r="R105" s="121"/>
-    </row>
-    <row r="106" spans="1:18" ht="22.5">
+    </row>
+    <row r="106" spans="1:17" ht="22">
       <c r="A106" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E106),
@@ -14277,14 +14181,13 @@
       <c r="J106" s="121"/>
       <c r="K106" s="121"/>
       <c r="L106" s="118"/>
-      <c r="M106" s="118"/>
+      <c r="M106" s="121"/>
       <c r="N106" s="121"/>
       <c r="O106" s="121"/>
       <c r="P106" s="121"/>
       <c r="Q106" s="121"/>
-      <c r="R106" s="121"/>
-    </row>
-    <row r="107" spans="1:18" ht="22.5">
+    </row>
+    <row r="107" spans="1:17" ht="22">
       <c r="A107" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E107),
@@ -14312,14 +14215,13 @@
       <c r="J107" s="121"/>
       <c r="K107" s="121"/>
       <c r="L107" s="118"/>
-      <c r="M107" s="118"/>
+      <c r="M107" s="121"/>
       <c r="N107" s="121"/>
       <c r="O107" s="121"/>
       <c r="P107" s="121"/>
       <c r="Q107" s="121"/>
-      <c r="R107" s="121"/>
-    </row>
-    <row r="108" spans="1:18" ht="22.5">
+    </row>
+    <row r="108" spans="1:17" ht="22">
       <c r="A108" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -14353,14 +14255,13 @@
       <c r="J108" s="121"/>
       <c r="K108" s="121"/>
       <c r="L108" s="118"/>
-      <c r="M108" s="118"/>
+      <c r="M108" s="121"/>
       <c r="N108" s="121"/>
       <c r="O108" s="121"/>
       <c r="P108" s="121"/>
       <c r="Q108" s="121"/>
-      <c r="R108" s="121"/>
-    </row>
-    <row r="109" spans="1:18" ht="22.5">
+    </row>
+    <row r="109" spans="1:17" ht="22">
       <c r="A109" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -14394,14 +14295,13 @@
       <c r="J109" s="121"/>
       <c r="K109" s="121"/>
       <c r="L109" s="118"/>
-      <c r="M109" s="118"/>
+      <c r="M109" s="121"/>
       <c r="N109" s="121"/>
       <c r="O109" s="121"/>
       <c r="P109" s="121"/>
       <c r="Q109" s="121"/>
-      <c r="R109" s="121"/>
-    </row>
-    <row r="110" spans="1:18" ht="22.5">
+    </row>
+    <row r="110" spans="1:17" ht="22">
       <c r="A110" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A110" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E110),
@@ -14429,14 +14329,13 @@
       <c r="J110" s="121"/>
       <c r="K110" s="121"/>
       <c r="L110" s="118"/>
-      <c r="M110" s="118"/>
+      <c r="M110" s="121"/>
       <c r="N110" s="121"/>
       <c r="O110" s="121"/>
       <c r="P110" s="121"/>
       <c r="Q110" s="121"/>
-      <c r="R110" s="121"/>
-    </row>
-    <row r="111" spans="1:18" ht="22.5">
+    </row>
+    <row r="111" spans="1:17" ht="22">
       <c r="A111" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -14477,9 +14376,8 @@
       <c r="O111" s="121"/>
       <c r="P111" s="121"/>
       <c r="Q111" s="121"/>
-      <c r="R111" s="121"/>
-    </row>
-    <row r="112" spans="1:18" ht="22.5">
+    </row>
+    <row r="112" spans="1:17" ht="22">
       <c r="A112" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -14514,9 +14412,8 @@
       <c r="O112" s="121"/>
       <c r="P112" s="121"/>
       <c r="Q112" s="121"/>
-      <c r="R112" s="121"/>
-    </row>
-    <row r="113" spans="1:18" ht="22.5">
+    </row>
+    <row r="113" spans="1:17" ht="22">
       <c r="A113" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -14549,9 +14446,8 @@
       <c r="O113" s="121"/>
       <c r="P113" s="121"/>
       <c r="Q113" s="121"/>
-      <c r="R113" s="121"/>
-    </row>
-    <row r="114" spans="1:18" ht="22.5">
+    </row>
+    <row r="114" spans="1:17" ht="22">
       <c r="A114" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -14584,9 +14480,8 @@
       <c r="O114" s="121"/>
       <c r="P114" s="121"/>
       <c r="Q114" s="121"/>
-      <c r="R114" s="121"/>
-    </row>
-    <row r="115" spans="1:18" ht="22.5">
+    </row>
+    <row r="115" spans="1:17" ht="22">
       <c r="A115" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -14621,9 +14516,8 @@
       <c r="O115" s="121"/>
       <c r="P115" s="121"/>
       <c r="Q115" s="121"/>
-      <c r="R115" s="121"/>
-    </row>
-    <row r="116" spans="1:18" ht="22.5">
+    </row>
+    <row r="116" spans="1:17" ht="22">
       <c r="A116" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -14656,9 +14550,8 @@
       <c r="O116" s="121"/>
       <c r="P116" s="121"/>
       <c r="Q116" s="121"/>
-      <c r="R116" s="121"/>
-    </row>
-    <row r="117" spans="1:18" ht="22.5">
+    </row>
+    <row r="117" spans="1:17" ht="22">
       <c r="A117" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -14691,9 +14584,8 @@
       <c r="O117" s="121"/>
       <c r="P117" s="121"/>
       <c r="Q117" s="121"/>
-      <c r="R117" s="121"/>
-    </row>
-    <row r="118" spans="1:18" ht="22.5">
+    </row>
+    <row r="118" spans="1:17" ht="22">
       <c r="A118" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -14726,9 +14618,8 @@
       <c r="O118" s="121"/>
       <c r="P118" s="121"/>
       <c r="Q118" s="121"/>
-      <c r="R118" s="121"/>
-    </row>
-    <row r="119" spans="1:18" ht="33.75">
+    </row>
+    <row r="119" spans="1:17" ht="33">
       <c r="A119" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -14761,9 +14652,8 @@
       <c r="O119" s="121"/>
       <c r="P119" s="121"/>
       <c r="Q119" s="121"/>
-      <c r="R119" s="121"/>
-    </row>
-    <row r="120" spans="1:18" ht="33.75">
+    </row>
+    <row r="120" spans="1:17" ht="33">
       <c r="A120" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -14798,9 +14688,8 @@
       <c r="O120" s="121"/>
       <c r="P120" s="121"/>
       <c r="Q120" s="121"/>
-      <c r="R120" s="121"/>
-    </row>
-    <row r="121" spans="1:18" ht="33.75">
+    </row>
+    <row r="121" spans="1:17" ht="33">
       <c r="A121" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -14833,9 +14722,8 @@
       <c r="O121" s="121"/>
       <c r="P121" s="121"/>
       <c r="Q121" s="121"/>
-      <c r="R121" s="121"/>
-    </row>
-    <row r="122" spans="1:18" ht="45">
+    </row>
+    <row r="122" spans="1:17" ht="44">
       <c r="A122" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -14868,9 +14756,8 @@
       <c r="O122" s="121"/>
       <c r="P122" s="121"/>
       <c r="Q122" s="121"/>
-      <c r="R122" s="121"/>
-    </row>
-    <row r="123" spans="1:18" ht="45">
+    </row>
+    <row r="123" spans="1:17" ht="44">
       <c r="A123" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -14903,9 +14790,8 @@
       <c r="O123" s="121"/>
       <c r="P123" s="121"/>
       <c r="Q123" s="121"/>
-      <c r="R123" s="121"/>
-    </row>
-    <row r="124" spans="1:18" ht="33.75">
+    </row>
+    <row r="124" spans="1:17" ht="33">
       <c r="A124" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -14938,9 +14824,8 @@
       <c r="O124" s="121"/>
       <c r="P124" s="121"/>
       <c r="Q124" s="121"/>
-      <c r="R124" s="121"/>
-    </row>
-    <row r="125" spans="1:18" ht="33.75">
+    </row>
+    <row r="125" spans="1:17" ht="33">
       <c r="A125" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -14975,9 +14860,8 @@
       <c r="O125" s="121"/>
       <c r="P125" s="121"/>
       <c r="Q125" s="121"/>
-      <c r="R125" s="121"/>
-    </row>
-    <row r="126" spans="1:18" ht="33.75">
+    </row>
+    <row r="126" spans="1:17" ht="33">
       <c r="A126" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -15014,9 +14898,8 @@
       <c r="O126" s="121"/>
       <c r="P126" s="121"/>
       <c r="Q126" s="121"/>
-      <c r="R126" s="121"/>
-    </row>
-    <row r="127" spans="1:18" ht="33.75">
+    </row>
+    <row r="127" spans="1:17" ht="33">
       <c r="A127" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -15055,9 +14938,8 @@
       <c r="O127" s="121"/>
       <c r="P127" s="121"/>
       <c r="Q127" s="121"/>
-      <c r="R127" s="121"/>
-    </row>
-    <row r="128" spans="1:18" ht="22.5">
+    </row>
+    <row r="128" spans="1:17" ht="22">
       <c r="A128" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -15092,9 +14974,8 @@
       <c r="O128" s="121"/>
       <c r="P128" s="121"/>
       <c r="Q128" s="121"/>
-      <c r="R128" s="121"/>
-    </row>
-    <row r="129" spans="1:18" ht="22.5">
+    </row>
+    <row r="129" spans="1:17" ht="22">
       <c r="A129" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -15127,9 +15008,8 @@
       <c r="O129" s="121"/>
       <c r="P129" s="121"/>
       <c r="Q129" s="121"/>
-      <c r="R129" s="121"/>
-    </row>
-    <row r="130" spans="1:18" ht="45">
+    </row>
+    <row r="130" spans="1:17" ht="44">
       <c r="A130" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -15162,9 +15042,8 @@
       <c r="O130" s="121"/>
       <c r="P130" s="121"/>
       <c r="Q130" s="121"/>
-      <c r="R130" s="121"/>
-    </row>
-    <row r="131" spans="1:18" ht="22.5">
+    </row>
+    <row r="131" spans="1:17" ht="22">
       <c r="A131" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -15205,9 +15084,8 @@
       <c r="O131" s="121"/>
       <c r="P131" s="121"/>
       <c r="Q131" s="121"/>
-      <c r="R131" s="121"/>
-    </row>
-    <row r="132" spans="1:18" ht="22.5">
+    </row>
+    <row r="132" spans="1:17" ht="22">
       <c r="A132" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -15242,9 +15120,8 @@
       <c r="O132" s="121"/>
       <c r="P132" s="121"/>
       <c r="Q132" s="121"/>
-      <c r="R132" s="121"/>
-    </row>
-    <row r="133" spans="1:18" ht="22.5">
+    </row>
+    <row r="133" spans="1:17" ht="22">
       <c r="A133" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -15277,9 +15154,8 @@
       <c r="O133" s="121"/>
       <c r="P133" s="121"/>
       <c r="Q133" s="121"/>
-      <c r="R133" s="121"/>
-    </row>
-    <row r="134" spans="1:18" ht="22.5">
+    </row>
+    <row r="134" spans="1:17" ht="22">
       <c r="A134" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -15312,9 +15188,8 @@
       <c r="O134" s="121"/>
       <c r="P134" s="121"/>
       <c r="Q134" s="121"/>
-      <c r="R134" s="121"/>
-    </row>
-    <row r="135" spans="1:18" ht="22.5">
+    </row>
+    <row r="135" spans="1:17" ht="22">
       <c r="A135" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -15349,9 +15224,8 @@
       <c r="O135" s="121"/>
       <c r="P135" s="121"/>
       <c r="Q135" s="121"/>
-      <c r="R135" s="121"/>
-    </row>
-    <row r="136" spans="1:18" ht="33.75">
+    </row>
+    <row r="136" spans="1:17" ht="33">
       <c r="A136" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -15384,9 +15258,8 @@
       <c r="O136" s="121"/>
       <c r="P136" s="121"/>
       <c r="Q136" s="121"/>
-      <c r="R136" s="121"/>
-    </row>
-    <row r="137" spans="1:18" ht="33.75">
+    </row>
+    <row r="137" spans="1:17" ht="33">
       <c r="A137" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -15423,9 +15296,8 @@
       <c r="O137" s="121"/>
       <c r="P137" s="121"/>
       <c r="Q137" s="121"/>
-      <c r="R137" s="121"/>
-    </row>
-    <row r="138" spans="1:18" ht="33.75">
+    </row>
+    <row r="138" spans="1:17" ht="33">
       <c r="A138" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -15464,9 +15336,8 @@
       <c r="O138" s="121"/>
       <c r="P138" s="121"/>
       <c r="Q138" s="121"/>
-      <c r="R138" s="121"/>
-    </row>
-    <row r="139" spans="1:18" ht="33.75">
+    </row>
+    <row r="139" spans="1:17" ht="33">
       <c r="A139" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -15501,9 +15372,8 @@
       <c r="O139" s="121"/>
       <c r="P139" s="121"/>
       <c r="Q139" s="121"/>
-      <c r="R139" s="121"/>
-    </row>
-    <row r="140" spans="1:18" ht="33.75">
+    </row>
+    <row r="140" spans="1:17" ht="33">
       <c r="A140" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -15538,9 +15408,8 @@
       <c r="O140" s="121"/>
       <c r="P140" s="121"/>
       <c r="Q140" s="121"/>
-      <c r="R140" s="121"/>
-    </row>
-    <row r="141" spans="1:18" ht="33.75">
+    </row>
+    <row r="141" spans="1:17" ht="33">
       <c r="A141" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -15575,9 +15444,8 @@
       <c r="O141" s="121"/>
       <c r="P141" s="121"/>
       <c r="Q141" s="121"/>
-      <c r="R141" s="121"/>
-    </row>
-    <row r="142" spans="1:18" ht="33.75">
+    </row>
+    <row r="142" spans="1:17" ht="33">
       <c r="A142" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -15612,9 +15480,8 @@
       <c r="O142" s="121"/>
       <c r="P142" s="121"/>
       <c r="Q142" s="121"/>
-      <c r="R142" s="121"/>
-    </row>
-    <row r="143" spans="1:18" ht="22.5">
+    </row>
+    <row r="143" spans="1:17" ht="22">
       <c r="A143" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -15649,9 +15516,8 @@
       <c r="O143" s="121"/>
       <c r="P143" s="121"/>
       <c r="Q143" s="121"/>
-      <c r="R143" s="121"/>
-    </row>
-    <row r="144" spans="1:18" ht="22.5">
+    </row>
+    <row r="144" spans="1:17" ht="22">
       <c r="A144" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -15684,9 +15550,8 @@
       <c r="O144" s="121"/>
       <c r="P144" s="121"/>
       <c r="Q144" s="121"/>
-      <c r="R144" s="121"/>
-    </row>
-    <row r="145" spans="1:18" ht="22.5">
+    </row>
+    <row r="145" spans="1:17" ht="22">
       <c r="A145" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -15719,9 +15584,8 @@
       <c r="O145" s="121"/>
       <c r="P145" s="121"/>
       <c r="Q145" s="121"/>
-      <c r="R145" s="121"/>
-    </row>
-    <row r="146" spans="1:18" ht="22.5">
+    </row>
+    <row r="146" spans="1:17" ht="22">
       <c r="A146" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -15754,9 +15618,8 @@
       <c r="O146" s="121"/>
       <c r="P146" s="121"/>
       <c r="Q146" s="121"/>
-      <c r="R146" s="121"/>
-    </row>
-    <row r="147" spans="1:18" ht="22.5">
+    </row>
+    <row r="147" spans="1:17" ht="22">
       <c r="A147" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -15789,9 +15652,8 @@
       <c r="O147" s="121"/>
       <c r="P147" s="121"/>
       <c r="Q147" s="121"/>
-      <c r="R147" s="121"/>
-    </row>
-    <row r="148" spans="1:18" ht="22.5">
+    </row>
+    <row r="148" spans="1:17" ht="22">
       <c r="A148" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -15824,9 +15686,8 @@
       <c r="O148" s="121"/>
       <c r="P148" s="121"/>
       <c r="Q148" s="121"/>
-      <c r="R148" s="121"/>
-    </row>
-    <row r="149" spans="1:18" ht="22.5">
+    </row>
+    <row r="149" spans="1:17" ht="22">
       <c r="A149" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -15863,9 +15724,8 @@
       <c r="O149" s="121"/>
       <c r="P149" s="121"/>
       <c r="Q149" s="121"/>
-      <c r="R149" s="121"/>
-    </row>
-    <row r="150" spans="1:18" ht="22.5">
+    </row>
+    <row r="150" spans="1:17" ht="22">
       <c r="A150" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -15898,9 +15758,8 @@
       <c r="O150" s="121"/>
       <c r="P150" s="121"/>
       <c r="Q150" s="121"/>
-      <c r="R150" s="121"/>
-    </row>
-    <row r="151" spans="1:18" ht="33.75">
+    </row>
+    <row r="151" spans="1:17" ht="33">
       <c r="A151" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -15935,9 +15794,8 @@
       <c r="O151" s="121"/>
       <c r="P151" s="121"/>
       <c r="Q151" s="121"/>
-      <c r="R151" s="121"/>
-    </row>
-    <row r="152" spans="1:18" ht="33.75">
+    </row>
+    <row r="152" spans="1:17" ht="33">
       <c r="A152" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -15970,9 +15828,8 @@
       <c r="O152" s="121"/>
       <c r="P152" s="121"/>
       <c r="Q152" s="121"/>
-      <c r="R152" s="121"/>
-    </row>
-    <row r="153" spans="1:18" ht="33.75">
+    </row>
+    <row r="153" spans="1:17" ht="33">
       <c r="A153" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -16005,9 +15862,8 @@
       <c r="O153" s="121"/>
       <c r="P153" s="121"/>
       <c r="Q153" s="121"/>
-      <c r="R153" s="121"/>
-    </row>
-    <row r="154" spans="1:18" ht="33.75">
+    </row>
+    <row r="154" spans="1:17" ht="33">
       <c r="A154" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -16040,9 +15896,8 @@
       <c r="O154" s="121"/>
       <c r="P154" s="121"/>
       <c r="Q154" s="121"/>
-      <c r="R154" s="121"/>
-    </row>
-    <row r="155" spans="1:18" ht="33.75">
+    </row>
+    <row r="155" spans="1:17" ht="33">
       <c r="A155" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -16075,9 +15930,8 @@
       <c r="O155" s="121"/>
       <c r="P155" s="121"/>
       <c r="Q155" s="121"/>
-      <c r="R155" s="121"/>
-    </row>
-    <row r="156" spans="1:18" ht="22.5">
+    </row>
+    <row r="156" spans="1:17" ht="22">
       <c r="A156" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -16110,9 +15964,8 @@
       <c r="O156" s="121"/>
       <c r="P156" s="121"/>
       <c r="Q156" s="121"/>
-      <c r="R156" s="121"/>
-    </row>
-    <row r="157" spans="1:18" ht="22.5">
+    </row>
+    <row r="157" spans="1:17" ht="22">
       <c r="A157" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -16145,9 +15998,8 @@
       <c r="O157" s="121"/>
       <c r="P157" s="121"/>
       <c r="Q157" s="121"/>
-      <c r="R157" s="121"/>
-    </row>
-    <row r="158" spans="1:18" ht="33.75">
+    </row>
+    <row r="158" spans="1:17" ht="33">
       <c r="A158" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -16180,9 +16032,8 @@
       <c r="O158" s="121"/>
       <c r="P158" s="121"/>
       <c r="Q158" s="121"/>
-      <c r="R158" s="121"/>
-    </row>
-    <row r="159" spans="1:18" ht="33.75">
+    </row>
+    <row r="159" spans="1:17" ht="33">
       <c r="A159" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -16215,9 +16066,8 @@
       <c r="O159" s="121"/>
       <c r="P159" s="121"/>
       <c r="Q159" s="121"/>
-      <c r="R159" s="121"/>
-    </row>
-    <row r="160" spans="1:18" ht="33.75">
+    </row>
+    <row r="160" spans="1:17" ht="33">
       <c r="A160" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -16250,9 +16100,8 @@
       <c r="O160" s="121"/>
       <c r="P160" s="121"/>
       <c r="Q160" s="121"/>
-      <c r="R160" s="121"/>
-    </row>
-    <row r="161" spans="1:18" ht="33.75">
+    </row>
+    <row r="161" spans="1:17" ht="33">
       <c r="A161" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -16285,9 +16134,8 @@
       <c r="O161" s="121"/>
       <c r="P161" s="121"/>
       <c r="Q161" s="121"/>
-      <c r="R161" s="121"/>
-    </row>
-    <row r="162" spans="1:18" ht="22.5">
+    </row>
+    <row r="162" spans="1:17" ht="22">
       <c r="A162" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E162),
@@ -16322,9 +16170,8 @@
       <c r="O162" s="121"/>
       <c r="P162" s="121"/>
       <c r="Q162" s="121"/>
-      <c r="R162" s="121"/>
-    </row>
-    <row r="163" spans="1:18" ht="22.5">
+    </row>
+    <row r="163" spans="1:17" ht="22">
       <c r="A163" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E163),
@@ -16357,9 +16204,8 @@
       <c r="O163" s="121"/>
       <c r="P163" s="121"/>
       <c r="Q163" s="121"/>
-      <c r="R163" s="121"/>
-    </row>
-    <row r="164" spans="1:18" ht="22.5">
+    </row>
+    <row r="164" spans="1:17" ht="22">
       <c r="A164" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -16392,9 +16238,8 @@
       <c r="O164" s="121"/>
       <c r="P164" s="121"/>
       <c r="Q164" s="121"/>
-      <c r="R164" s="121"/>
-    </row>
-    <row r="165" spans="1:18" ht="22.5">
+    </row>
+    <row r="165" spans="1:17" ht="22">
       <c r="A165" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -16427,9 +16272,8 @@
       <c r="O165" s="121"/>
       <c r="P165" s="121"/>
       <c r="Q165" s="121"/>
-      <c r="R165" s="121"/>
-    </row>
-    <row r="166" spans="1:18" ht="22.5">
+    </row>
+    <row r="166" spans="1:17" ht="22">
       <c r="A166" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -16462,9 +16306,8 @@
       <c r="O166" s="121"/>
       <c r="P166" s="121"/>
       <c r="Q166" s="121"/>
-      <c r="R166" s="121"/>
-    </row>
-    <row r="167" spans="1:18" ht="33.75">
+    </row>
+    <row r="167" spans="1:17" ht="33">
       <c r="A167" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -16497,9 +16340,8 @@
       <c r="O167" s="121"/>
       <c r="P167" s="121"/>
       <c r="Q167" s="121"/>
-      <c r="R167" s="121"/>
-    </row>
-    <row r="168" spans="1:18" ht="22.5">
+    </row>
+    <row r="168" spans="1:17" ht="22">
       <c r="A168" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -16532,9 +16374,8 @@
       <c r="O168" s="121"/>
       <c r="P168" s="121"/>
       <c r="Q168" s="121"/>
-      <c r="R168" s="121"/>
-    </row>
-    <row r="169" spans="1:18" ht="22.5">
+    </row>
+    <row r="169" spans="1:17" ht="22">
       <c r="A169" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -16569,9 +16410,8 @@
       <c r="O169" s="121"/>
       <c r="P169" s="121"/>
       <c r="Q169" s="121"/>
-      <c r="R169" s="121"/>
-    </row>
-    <row r="170" spans="1:18" ht="33.75">
+    </row>
+    <row r="170" spans="1:17" ht="33">
       <c r="A170" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -16604,9 +16444,8 @@
       <c r="O170" s="121"/>
       <c r="P170" s="121"/>
       <c r="Q170" s="121"/>
-      <c r="R170" s="121"/>
-    </row>
-    <row r="171" spans="1:18" ht="33.75">
+    </row>
+    <row r="171" spans="1:17" ht="33">
       <c r="A171" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -16639,9 +16478,8 @@
       <c r="O171" s="121"/>
       <c r="P171" s="121"/>
       <c r="Q171" s="121"/>
-      <c r="R171" s="121"/>
-    </row>
-    <row r="172" spans="1:18" ht="45">
+    </row>
+    <row r="172" spans="1:17" ht="44">
       <c r="A172" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -16674,9 +16512,8 @@
       <c r="O172" s="121"/>
       <c r="P172" s="121"/>
       <c r="Q172" s="121"/>
-      <c r="R172" s="121"/>
-    </row>
-    <row r="173" spans="1:18" ht="45">
+    </row>
+    <row r="173" spans="1:17" ht="44">
       <c r="A173" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -16709,9 +16546,8 @@
       <c r="O173" s="121"/>
       <c r="P173" s="121"/>
       <c r="Q173" s="121"/>
-      <c r="R173" s="121"/>
-    </row>
-    <row r="174" spans="1:18" ht="33.75">
+    </row>
+    <row r="174" spans="1:17" ht="33">
       <c r="A174" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -16744,9 +16580,8 @@
       <c r="O174" s="121"/>
       <c r="P174" s="121"/>
       <c r="Q174" s="121"/>
-      <c r="R174" s="121"/>
-    </row>
-    <row r="175" spans="1:18" ht="45">
+    </row>
+    <row r="175" spans="1:17" ht="44">
       <c r="A175" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -16779,9 +16614,8 @@
       <c r="O175" s="121"/>
       <c r="P175" s="121"/>
       <c r="Q175" s="121"/>
-      <c r="R175" s="121"/>
-    </row>
-    <row r="176" spans="1:18" ht="45">
+    </row>
+    <row r="176" spans="1:17" ht="44">
       <c r="A176" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -16814,9 +16648,8 @@
       <c r="O176" s="121"/>
       <c r="P176" s="121"/>
       <c r="Q176" s="121"/>
-      <c r="R176" s="121"/>
-    </row>
-    <row r="177" spans="1:18" ht="22.5">
+    </row>
+    <row r="177" spans="1:17" ht="22">
       <c r="A177" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -16849,9 +16682,8 @@
       <c r="O177" s="121"/>
       <c r="P177" s="121"/>
       <c r="Q177" s="121"/>
-      <c r="R177" s="121"/>
-    </row>
-    <row r="178" spans="1:18" ht="33.75">
+    </row>
+    <row r="178" spans="1:17" ht="33">
       <c r="A178" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -16886,9 +16718,8 @@
       <c r="O178" s="121"/>
       <c r="P178" s="121"/>
       <c r="Q178" s="121"/>
-      <c r="R178" s="121"/>
-    </row>
-    <row r="179" spans="1:18" ht="22.5">
+    </row>
+    <row r="179" spans="1:17" ht="22">
       <c r="A179" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -16923,9 +16754,8 @@
       <c r="O179" s="121"/>
       <c r="P179" s="121"/>
       <c r="Q179" s="121"/>
-      <c r="R179" s="121"/>
-    </row>
-    <row r="180" spans="1:18" ht="22.5">
+    </row>
+    <row r="180" spans="1:17" ht="22">
       <c r="A180" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -16966,9 +16796,8 @@
       <c r="O180" s="121"/>
       <c r="P180" s="121"/>
       <c r="Q180" s="121"/>
-      <c r="R180" s="121"/>
-    </row>
-    <row r="181" spans="1:18" ht="22.5">
+    </row>
+    <row r="181" spans="1:17" ht="22">
       <c r="A181" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -17005,9 +16834,8 @@
       <c r="O181" s="121"/>
       <c r="P181" s="121"/>
       <c r="Q181" s="121"/>
-      <c r="R181" s="121"/>
-    </row>
-    <row r="182" spans="1:18" ht="22.5">
+    </row>
+    <row r="182" spans="1:17" ht="22">
       <c r="A182" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -17044,9 +16872,8 @@
       <c r="O182" s="121"/>
       <c r="P182" s="121"/>
       <c r="Q182" s="121"/>
-      <c r="R182" s="121"/>
-    </row>
-    <row r="183" spans="1:18" ht="22.5">
+    </row>
+    <row r="183" spans="1:17" ht="22">
       <c r="A183" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -17087,9 +16914,8 @@
       <c r="O183" s="121"/>
       <c r="P183" s="121"/>
       <c r="Q183" s="121"/>
-      <c r="R183" s="121"/>
-    </row>
-    <row r="184" spans="1:18" ht="22.5">
+    </row>
+    <row r="184" spans="1:17" ht="22">
       <c r="A184" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -17124,9 +16950,8 @@
       <c r="O184" s="121"/>
       <c r="P184" s="121"/>
       <c r="Q184" s="121"/>
-      <c r="R184" s="121"/>
-    </row>
-    <row r="185" spans="1:18" ht="22.5">
+    </row>
+    <row r="185" spans="1:17" ht="22">
       <c r="A185" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -17159,9 +16984,8 @@
       <c r="O185" s="121"/>
       <c r="P185" s="121"/>
       <c r="Q185" s="121"/>
-      <c r="R185" s="121"/>
-    </row>
-    <row r="186" spans="1:18" ht="22.5">
+    </row>
+    <row r="186" spans="1:17" ht="22">
       <c r="A186" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -17196,9 +17020,8 @@
       <c r="O186" s="121"/>
       <c r="P186" s="121"/>
       <c r="Q186" s="121"/>
-      <c r="R186" s="121"/>
-    </row>
-    <row r="187" spans="1:18" ht="22.5">
+    </row>
+    <row r="187" spans="1:17" ht="22">
       <c r="A187" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -17231,9 +17054,8 @@
       <c r="O187" s="121"/>
       <c r="P187" s="121"/>
       <c r="Q187" s="121"/>
-      <c r="R187" s="121"/>
-    </row>
-    <row r="188" spans="1:18" ht="33.75">
+    </row>
+    <row r="188" spans="1:17" ht="33">
       <c r="A188" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -17270,9 +17092,8 @@
       <c r="O188" s="121"/>
       <c r="P188" s="121"/>
       <c r="Q188" s="121"/>
-      <c r="R188" s="121"/>
-    </row>
-    <row r="189" spans="1:18" ht="22.5">
+    </row>
+    <row r="189" spans="1:17" ht="22">
       <c r="A189" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -17311,9 +17132,8 @@
       <c r="O189" s="121"/>
       <c r="P189" s="121"/>
       <c r="Q189" s="121"/>
-      <c r="R189" s="121"/>
-    </row>
-    <row r="190" spans="1:18" ht="22.5">
+    </row>
+    <row r="190" spans="1:17" ht="22">
       <c r="A190" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -17346,9 +17166,8 @@
       <c r="O190" s="121"/>
       <c r="P190" s="121"/>
       <c r="Q190" s="121"/>
-      <c r="R190" s="121"/>
-    </row>
-    <row r="191" spans="1:18" ht="22.5">
+    </row>
+    <row r="191" spans="1:17" ht="22">
       <c r="A191" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -17381,9 +17200,8 @@
       <c r="O191" s="121"/>
       <c r="P191" s="121"/>
       <c r="Q191" s="121"/>
-      <c r="R191" s="121"/>
-    </row>
-    <row r="192" spans="1:18" ht="22.5">
+    </row>
+    <row r="192" spans="1:17" ht="22">
       <c r="A192" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -17416,9 +17234,8 @@
       <c r="O192" s="121"/>
       <c r="P192" s="121"/>
       <c r="Q192" s="121"/>
-      <c r="R192" s="121"/>
-    </row>
-    <row r="193" spans="1:18" ht="22.5">
+    </row>
+    <row r="193" spans="1:17" ht="22">
       <c r="A193" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -17451,9 +17268,8 @@
       <c r="O193" s="121"/>
       <c r="P193" s="121"/>
       <c r="Q193" s="121"/>
-      <c r="R193" s="121"/>
-    </row>
-    <row r="194" spans="1:18" ht="22.5">
+    </row>
+    <row r="194" spans="1:17" ht="22">
       <c r="A194" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -17486,9 +17302,8 @@
       <c r="O194" s="121"/>
       <c r="P194" s="121"/>
       <c r="Q194" s="121"/>
-      <c r="R194" s="121"/>
-    </row>
-    <row r="195" spans="1:18" ht="22.5">
+    </row>
+    <row r="195" spans="1:17" ht="22">
       <c r="A195" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -17521,9 +17336,8 @@
       <c r="O195" s="121"/>
       <c r="P195" s="121"/>
       <c r="Q195" s="121"/>
-      <c r="R195" s="121"/>
-    </row>
-    <row r="196" spans="1:18" ht="22.5">
+    </row>
+    <row r="196" spans="1:17" ht="22">
       <c r="A196" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -17558,9 +17372,8 @@
       <c r="O196" s="121"/>
       <c r="P196" s="121"/>
       <c r="Q196" s="121"/>
-      <c r="R196" s="121"/>
-    </row>
-    <row r="197" spans="1:18" ht="22.5">
+    </row>
+    <row r="197" spans="1:17" ht="22">
       <c r="A197" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -17597,9 +17410,8 @@
       <c r="O197" s="121"/>
       <c r="P197" s="121"/>
       <c r="Q197" s="121"/>
-      <c r="R197" s="121"/>
-    </row>
-    <row r="198" spans="1:18" ht="22.5">
+    </row>
+    <row r="198" spans="1:17" ht="22">
       <c r="A198" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -17632,9 +17444,8 @@
       <c r="O198" s="121"/>
       <c r="P198" s="121"/>
       <c r="Q198" s="121"/>
-      <c r="R198" s="121"/>
-    </row>
-    <row r="199" spans="1:18" ht="22.5">
+    </row>
+    <row r="199" spans="1:17" ht="22">
       <c r="A199" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
@@ -17667,9 +17478,8 @@
       <c r="O199" s="121"/>
       <c r="P199" s="121"/>
       <c r="Q199" s="121"/>
-      <c r="R199" s="121"/>
-    </row>
-    <row r="200" spans="1:18" ht="22.5">
+    </row>
+    <row r="200" spans="1:17" ht="22">
       <c r="A200" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -17702,9 +17512,8 @@
       <c r="O200" s="121"/>
       <c r="P200" s="121"/>
       <c r="Q200" s="121"/>
-      <c r="R200" s="121"/>
-    </row>
-    <row r="201" spans="1:18" ht="33.75">
+    </row>
+    <row r="201" spans="1:17" ht="33">
       <c r="A201" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -17737,9 +17546,8 @@
       <c r="O201" s="121"/>
       <c r="P201" s="121"/>
       <c r="Q201" s="121"/>
-      <c r="R201" s="121"/>
-    </row>
-    <row r="202" spans="1:18" ht="33.75">
+    </row>
+    <row r="202" spans="1:17" ht="33">
       <c r="A202" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -17772,9 +17580,8 @@
       <c r="O202" s="121"/>
       <c r="P202" s="121"/>
       <c r="Q202" s="121"/>
-      <c r="R202" s="121"/>
-    </row>
-    <row r="203" spans="1:18" ht="45">
+    </row>
+    <row r="203" spans="1:17" ht="44">
       <c r="A203" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -17807,9 +17614,8 @@
       <c r="O203" s="121"/>
       <c r="P203" s="121"/>
       <c r="Q203" s="121"/>
-      <c r="R203" s="121"/>
-    </row>
-    <row r="204" spans="1:18" ht="33.75">
+    </row>
+    <row r="204" spans="1:17" ht="33">
       <c r="A204" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -17842,9 +17648,8 @@
       <c r="O204" s="121"/>
       <c r="P204" s="121"/>
       <c r="Q204" s="121"/>
-      <c r="R204" s="121"/>
-    </row>
-    <row r="205" spans="1:18" ht="33.75">
+    </row>
+    <row r="205" spans="1:17" ht="33">
       <c r="A205" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -17877,9 +17682,8 @@
       <c r="O205" s="121"/>
       <c r="P205" s="121"/>
       <c r="Q205" s="121"/>
-      <c r="R205" s="121"/>
-    </row>
-    <row r="206" spans="1:18" ht="22.5">
+    </row>
+    <row r="206" spans="1:17" ht="22">
       <c r="A206" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -17912,9 +17716,8 @@
       <c r="O206" s="121"/>
       <c r="P206" s="121"/>
       <c r="Q206" s="121"/>
-      <c r="R206" s="121"/>
-    </row>
-    <row r="207" spans="1:18" ht="22.5">
+    </row>
+    <row r="207" spans="1:17" ht="22">
       <c r="A207" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -17947,9 +17750,8 @@
       <c r="O207" s="121"/>
       <c r="P207" s="121"/>
       <c r="Q207" s="121"/>
-      <c r="R207" s="121"/>
-    </row>
-    <row r="208" spans="1:18" ht="33.75">
+    </row>
+    <row r="208" spans="1:17" ht="33">
       <c r="A208" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -17982,9 +17784,8 @@
       <c r="O208" s="121"/>
       <c r="P208" s="121"/>
       <c r="Q208" s="121"/>
-      <c r="R208" s="121"/>
-    </row>
-    <row r="209" spans="1:18" ht="22.5">
+    </row>
+    <row r="209" spans="1:17" ht="22">
       <c r="A209" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -18017,9 +17818,8 @@
       <c r="O209" s="121"/>
       <c r="P209" s="121"/>
       <c r="Q209" s="121"/>
-      <c r="R209" s="121"/>
-    </row>
-    <row r="210" spans="1:18" ht="22.5">
+    </row>
+    <row r="210" spans="1:17" ht="22">
       <c r="A210" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -18056,9 +17856,8 @@
       <c r="O210" s="121"/>
       <c r="P210" s="121"/>
       <c r="Q210" s="121"/>
-      <c r="R210" s="121"/>
-    </row>
-    <row r="211" spans="1:18" ht="22.5">
+    </row>
+    <row r="211" spans="1:17" ht="22">
       <c r="A211" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -18091,9 +17890,8 @@
       <c r="O211" s="121"/>
       <c r="P211" s="121"/>
       <c r="Q211" s="121"/>
-      <c r="R211" s="121"/>
-    </row>
-    <row r="212" spans="1:18" ht="22.5">
+    </row>
+    <row r="212" spans="1:17" ht="22">
       <c r="A212" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -18126,9 +17924,8 @@
       <c r="O212" s="121"/>
       <c r="P212" s="121"/>
       <c r="Q212" s="121"/>
-      <c r="R212" s="121"/>
-    </row>
-    <row r="213" spans="1:18" ht="22.5">
+    </row>
+    <row r="213" spans="1:17" ht="22">
       <c r="A213" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -18161,9 +17958,8 @@
       <c r="O213" s="121"/>
       <c r="P213" s="121"/>
       <c r="Q213" s="121"/>
-      <c r="R213" s="121"/>
-    </row>
-    <row r="214" spans="1:18" ht="22.5">
+    </row>
+    <row r="214" spans="1:17" ht="22">
       <c r="A214" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -18196,9 +17992,8 @@
       <c r="O214" s="121"/>
       <c r="P214" s="121"/>
       <c r="Q214" s="121"/>
-      <c r="R214" s="121"/>
-    </row>
-    <row r="215" spans="1:18" ht="45">
+    </row>
+    <row r="215" spans="1:17" ht="44">
       <c r="A215" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -18231,9 +18026,8 @@
       <c r="O215" s="121"/>
       <c r="P215" s="121"/>
       <c r="Q215" s="121"/>
-      <c r="R215" s="121"/>
-    </row>
-    <row r="216" spans="1:18" ht="33.75">
+    </row>
+    <row r="216" spans="1:17" ht="33">
       <c r="A216" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -18266,9 +18060,8 @@
       <c r="O216" s="121"/>
       <c r="P216" s="121"/>
       <c r="Q216" s="121"/>
-      <c r="R216" s="121"/>
-    </row>
-    <row r="217" spans="1:18" ht="33.75">
+    </row>
+    <row r="217" spans="1:17" ht="33">
       <c r="A217" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -18301,9 +18094,8 @@
       <c r="O217" s="121"/>
       <c r="P217" s="121"/>
       <c r="Q217" s="121"/>
-      <c r="R217" s="121"/>
-    </row>
-    <row r="218" spans="1:18" ht="45">
+    </row>
+    <row r="218" spans="1:17" ht="44">
       <c r="A218" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -18336,9 +18128,8 @@
       <c r="O218" s="121"/>
       <c r="P218" s="121"/>
       <c r="Q218" s="121"/>
-      <c r="R218" s="121"/>
-    </row>
-    <row r="219" spans="1:18" ht="33.75">
+    </row>
+    <row r="219" spans="1:17" ht="33">
       <c r="A219" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -18371,9 +18162,8 @@
       <c r="O219" s="121"/>
       <c r="P219" s="121"/>
       <c r="Q219" s="121"/>
-      <c r="R219" s="121"/>
-    </row>
-    <row r="220" spans="1:18" ht="33.75">
+    </row>
+    <row r="220" spans="1:17" ht="33">
       <c r="A220" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -18406,9 +18196,8 @@
       <c r="O220" s="121"/>
       <c r="P220" s="121"/>
       <c r="Q220" s="121"/>
-      <c r="R220" s="121"/>
-    </row>
-    <row r="221" spans="1:18" ht="22.5">
+    </row>
+    <row r="221" spans="1:17" ht="22">
       <c r="A221" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -18441,9 +18230,8 @@
       <c r="O221" s="121"/>
       <c r="P221" s="121"/>
       <c r="Q221" s="121"/>
-      <c r="R221" s="121"/>
-    </row>
-    <row r="222" spans="1:18" ht="22.5">
+    </row>
+    <row r="222" spans="1:17" ht="22">
       <c r="A222" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -18476,9 +18264,8 @@
       <c r="O222" s="121"/>
       <c r="P222" s="121"/>
       <c r="Q222" s="121"/>
-      <c r="R222" s="121"/>
-    </row>
-    <row r="223" spans="1:18" ht="33.75">
+    </row>
+    <row r="223" spans="1:17" ht="33">
       <c r="A223" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -18511,9 +18298,8 @@
       <c r="O223" s="121"/>
       <c r="P223" s="121"/>
       <c r="Q223" s="121"/>
-      <c r="R223" s="121"/>
-    </row>
-    <row r="224" spans="1:18" ht="22.5">
+    </row>
+    <row r="224" spans="1:17" ht="22">
       <c r="A224" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -18546,9 +18332,8 @@
       <c r="O224" s="121"/>
       <c r="P224" s="121"/>
       <c r="Q224" s="121"/>
-      <c r="R224" s="121"/>
-    </row>
-    <row r="225" spans="1:18" ht="45">
+    </row>
+    <row r="225" spans="1:17" ht="44">
       <c r="A225" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -18583,9 +18368,8 @@
       <c r="O225" s="121"/>
       <c r="P225" s="121"/>
       <c r="Q225" s="121"/>
-      <c r="R225" s="121"/>
-    </row>
-    <row r="226" spans="1:18" ht="45">
+    </row>
+    <row r="226" spans="1:17" ht="44">
       <c r="A226" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -18618,9 +18402,8 @@
       <c r="O226" s="121"/>
       <c r="P226" s="121"/>
       <c r="Q226" s="121"/>
-      <c r="R226" s="121"/>
-    </row>
-    <row r="227" spans="1:18" ht="33.75">
+    </row>
+    <row r="227" spans="1:17" ht="33">
       <c r="A227" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -18653,9 +18436,8 @@
       <c r="O227" s="121"/>
       <c r="P227" s="121"/>
       <c r="Q227" s="121"/>
-      <c r="R227" s="121"/>
-    </row>
-    <row r="228" spans="1:18" ht="33.75">
+    </row>
+    <row r="228" spans="1:17" ht="33">
       <c r="A228" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -18690,9 +18472,8 @@
       <c r="O228" s="121"/>
       <c r="P228" s="121"/>
       <c r="Q228" s="121"/>
-      <c r="R228" s="121"/>
-    </row>
-    <row r="229" spans="1:18" ht="22.5">
+    </row>
+    <row r="229" spans="1:17" ht="22">
       <c r="A229" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -18727,9 +18508,8 @@
       <c r="O229" s="121"/>
       <c r="P229" s="121"/>
       <c r="Q229" s="121"/>
-      <c r="R229" s="121"/>
-    </row>
-    <row r="230" spans="1:18" ht="22.5">
+    </row>
+    <row r="230" spans="1:17" ht="22">
       <c r="A230" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -18770,9 +18550,8 @@
       <c r="O230" s="121"/>
       <c r="P230" s="121"/>
       <c r="Q230" s="121"/>
-      <c r="R230" s="121"/>
-    </row>
-    <row r="231" spans="1:18" ht="22.5">
+    </row>
+    <row r="231" spans="1:17" ht="22">
       <c r="A231" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -18807,9 +18586,8 @@
       <c r="O231" s="121"/>
       <c r="P231" s="121"/>
       <c r="Q231" s="121"/>
-      <c r="R231" s="121"/>
-    </row>
-    <row r="232" spans="1:18" ht="22.5">
+    </row>
+    <row r="232" spans="1:17" ht="22">
       <c r="A232" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -18842,9 +18620,8 @@
       <c r="O232" s="121"/>
       <c r="P232" s="121"/>
       <c r="Q232" s="121"/>
-      <c r="R232" s="121"/>
-    </row>
-    <row r="233" spans="1:18" ht="22.5">
+    </row>
+    <row r="233" spans="1:17" ht="22">
       <c r="A233" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -18877,9 +18654,8 @@
       <c r="O233" s="121"/>
       <c r="P233" s="121"/>
       <c r="Q233" s="121"/>
-      <c r="R233" s="121"/>
-    </row>
-    <row r="234" spans="1:18" ht="22.5">
+    </row>
+    <row r="234" spans="1:17" ht="22">
       <c r="A234" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -18912,9 +18688,8 @@
       <c r="O234" s="121"/>
       <c r="P234" s="121"/>
       <c r="Q234" s="121"/>
-      <c r="R234" s="121"/>
-    </row>
-    <row r="235" spans="1:18" ht="33.75">
+    </row>
+    <row r="235" spans="1:17" ht="33">
       <c r="A235" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -18947,9 +18722,8 @@
       <c r="O235" s="121"/>
       <c r="P235" s="121"/>
       <c r="Q235" s="121"/>
-      <c r="R235" s="121"/>
-    </row>
-    <row r="236" spans="1:18" ht="33.75">
+    </row>
+    <row r="236" spans="1:17" ht="33">
       <c r="A236" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -18984,9 +18758,8 @@
       <c r="O236" s="121"/>
       <c r="P236" s="121"/>
       <c r="Q236" s="121"/>
-      <c r="R236" s="121"/>
-    </row>
-    <row r="237" spans="1:18" ht="33.75">
+    </row>
+    <row r="237" spans="1:17" ht="33">
       <c r="A237" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -19019,9 +18792,8 @@
       <c r="O237" s="121"/>
       <c r="P237" s="121"/>
       <c r="Q237" s="121"/>
-      <c r="R237" s="121"/>
-    </row>
-    <row r="238" spans="1:18" ht="45">
+    </row>
+    <row r="238" spans="1:17" ht="44">
       <c r="A238" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -19054,9 +18826,8 @@
       <c r="O238" s="121"/>
       <c r="P238" s="121"/>
       <c r="Q238" s="121"/>
-      <c r="R238" s="121"/>
-    </row>
-    <row r="239" spans="1:18" ht="45">
+    </row>
+    <row r="239" spans="1:17" ht="44">
       <c r="A239" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -19089,9 +18860,8 @@
       <c r="O239" s="121"/>
       <c r="P239" s="121"/>
       <c r="Q239" s="121"/>
-      <c r="R239" s="121"/>
-    </row>
-    <row r="240" spans="1:18" ht="33.75">
+    </row>
+    <row r="240" spans="1:17" ht="33">
       <c r="A240" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -19124,9 +18894,8 @@
       <c r="O240" s="121"/>
       <c r="P240" s="121"/>
       <c r="Q240" s="121"/>
-      <c r="R240" s="121"/>
-    </row>
-    <row r="241" spans="1:18" ht="33.75">
+    </row>
+    <row r="241" spans="1:17" ht="33">
       <c r="A241" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -19161,9 +18930,8 @@
       <c r="O241" s="121"/>
       <c r="P241" s="121"/>
       <c r="Q241" s="121"/>
-      <c r="R241" s="121"/>
-    </row>
-    <row r="242" spans="1:18" ht="33.75">
+    </row>
+    <row r="242" spans="1:17" ht="33">
       <c r="A242" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -19202,9 +18970,8 @@
       <c r="O242" s="121"/>
       <c r="P242" s="121"/>
       <c r="Q242" s="121"/>
-      <c r="R242" s="121"/>
-    </row>
-    <row r="243" spans="1:18" ht="22.5">
+    </row>
+    <row r="243" spans="1:17" ht="22">
       <c r="A243" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -19245,9 +19012,8 @@
       <c r="O243" s="121"/>
       <c r="P243" s="121"/>
       <c r="Q243" s="121"/>
-      <c r="R243" s="121"/>
-    </row>
-    <row r="244" spans="1:18" ht="22.5">
+    </row>
+    <row r="244" spans="1:17" ht="22">
       <c r="A244" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -19280,9 +19046,8 @@
       <c r="O244" s="121"/>
       <c r="P244" s="121"/>
       <c r="Q244" s="121"/>
-      <c r="R244" s="121"/>
-    </row>
-    <row r="245" spans="1:18" ht="33.75">
+    </row>
+    <row r="245" spans="1:17" ht="33">
       <c r="A245" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -19319,9 +19084,8 @@
       <c r="O245" s="121"/>
       <c r="P245" s="121"/>
       <c r="Q245" s="121"/>
-      <c r="R245" s="121"/>
-    </row>
-    <row r="246" spans="1:18" ht="33.75">
+    </row>
+    <row r="246" spans="1:17" ht="33">
       <c r="A246" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -19354,9 +19118,8 @@
       <c r="O246" s="121"/>
       <c r="P246" s="121"/>
       <c r="Q246" s="121"/>
-      <c r="R246" s="121"/>
-    </row>
-    <row r="247" spans="1:18" ht="33.75">
+    </row>
+    <row r="247" spans="1:17" ht="33">
       <c r="A247" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -19395,9 +19158,8 @@
       <c r="O247" s="121"/>
       <c r="P247" s="121"/>
       <c r="Q247" s="121"/>
-      <c r="R247" s="121"/>
-    </row>
-    <row r="248" spans="1:18" ht="33.75">
+    </row>
+    <row r="248" spans="1:17" ht="33">
       <c r="A248" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -19432,9 +19194,8 @@
       <c r="O248" s="121"/>
       <c r="P248" s="121"/>
       <c r="Q248" s="121"/>
-      <c r="R248" s="121"/>
-    </row>
-    <row r="249" spans="1:18" ht="33.75">
+    </row>
+    <row r="249" spans="1:17" ht="33">
       <c r="A249" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -19469,9 +19230,8 @@
       <c r="O249" s="121"/>
       <c r="P249" s="121"/>
       <c r="Q249" s="121"/>
-      <c r="R249" s="121"/>
-    </row>
-    <row r="250" spans="1:18" ht="33.75">
+    </row>
+    <row r="250" spans="1:17" ht="33">
       <c r="A250" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -19506,9 +19266,8 @@
       <c r="O250" s="121"/>
       <c r="P250" s="121"/>
       <c r="Q250" s="121"/>
-      <c r="R250" s="121"/>
-    </row>
-    <row r="251" spans="1:18" ht="22.5">
+    </row>
+    <row r="251" spans="1:17" ht="22">
       <c r="A251" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -19545,9 +19304,8 @@
       <c r="O251" s="121"/>
       <c r="P251" s="121"/>
       <c r="Q251" s="121"/>
-      <c r="R251" s="121"/>
-    </row>
-    <row r="252" spans="1:18" ht="22.5">
+    </row>
+    <row r="252" spans="1:17" ht="22">
       <c r="A252" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -19580,9 +19338,8 @@
       <c r="O252" s="121"/>
       <c r="P252" s="121"/>
       <c r="Q252" s="121"/>
-      <c r="R252" s="121"/>
-    </row>
-    <row r="253" spans="1:18" ht="33.75">
+    </row>
+    <row r="253" spans="1:17" ht="33">
       <c r="A253" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -19617,9 +19374,8 @@
       <c r="O253" s="121"/>
       <c r="P253" s="121"/>
       <c r="Q253" s="121"/>
-      <c r="R253" s="121"/>
-    </row>
-    <row r="254" spans="1:18" ht="33.75">
+    </row>
+    <row r="254" spans="1:17" ht="33">
       <c r="A254" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -19652,9 +19408,8 @@
       <c r="O254" s="121"/>
       <c r="P254" s="121"/>
       <c r="Q254" s="121"/>
-      <c r="R254" s="121"/>
-    </row>
-    <row r="255" spans="1:18" ht="33.75">
+    </row>
+    <row r="255" spans="1:17" ht="33">
       <c r="A255" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -19687,9 +19442,8 @@
       <c r="O255" s="121"/>
       <c r="P255" s="121"/>
       <c r="Q255" s="121"/>
-      <c r="R255" s="121"/>
-    </row>
-    <row r="256" spans="1:18" ht="33.75">
+    </row>
+    <row r="256" spans="1:17" ht="33">
       <c r="A256" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -19722,9 +19476,8 @@
       <c r="O256" s="121"/>
       <c r="P256" s="121"/>
       <c r="Q256" s="121"/>
-      <c r="R256" s="121"/>
-    </row>
-    <row r="257" spans="1:18" ht="33.75">
+    </row>
+    <row r="257" spans="1:17" ht="33">
       <c r="A257" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -19757,9 +19510,8 @@
       <c r="O257" s="121"/>
       <c r="P257" s="121"/>
       <c r="Q257" s="121"/>
-      <c r="R257" s="121"/>
-    </row>
-    <row r="258" spans="1:18" ht="22.5">
+    </row>
+    <row r="258" spans="1:17" ht="22">
       <c r="A258" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -19792,9 +19544,8 @@
       <c r="O258" s="121"/>
       <c r="P258" s="121"/>
       <c r="Q258" s="121"/>
-      <c r="R258" s="121"/>
-    </row>
-    <row r="259" spans="1:18" ht="22.5">
+    </row>
+    <row r="259" spans="1:17" ht="22">
       <c r="A259" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -19827,9 +19578,8 @@
       <c r="O259" s="121"/>
       <c r="P259" s="121"/>
       <c r="Q259" s="121"/>
-      <c r="R259" s="121"/>
-    </row>
-    <row r="260" spans="1:18" ht="33.75">
+    </row>
+    <row r="260" spans="1:17" ht="33">
       <c r="A260" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -19862,9 +19612,8 @@
       <c r="O260" s="121"/>
       <c r="P260" s="121"/>
       <c r="Q260" s="121"/>
-      <c r="R260" s="121"/>
-    </row>
-    <row r="261" spans="1:18" ht="33.75">
+    </row>
+    <row r="261" spans="1:17" ht="33">
       <c r="A261" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -19897,9 +19646,8 @@
       <c r="O261" s="121"/>
       <c r="P261" s="121"/>
       <c r="Q261" s="121"/>
-      <c r="R261" s="121"/>
-    </row>
-    <row r="262" spans="1:18" ht="33.75">
+    </row>
+    <row r="262" spans="1:17" ht="33">
       <c r="A262" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -19932,9 +19680,8 @@
       <c r="O262" s="121"/>
       <c r="P262" s="121"/>
       <c r="Q262" s="121"/>
-      <c r="R262" s="121"/>
-    </row>
-    <row r="263" spans="1:18" ht="33.75">
+    </row>
+    <row r="263" spans="1:17" ht="33">
       <c r="A263" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -19967,9 +19714,8 @@
       <c r="O263" s="121"/>
       <c r="P263" s="121"/>
       <c r="Q263" s="121"/>
-      <c r="R263" s="121"/>
-    </row>
-    <row r="264" spans="1:18">
+    </row>
+    <row r="264" spans="1:17">
       <c r="A264" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A264" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E264),
@@ -20004,9 +19750,8 @@
       <c r="O264" s="121"/>
       <c r="P264" s="121"/>
       <c r="Q264" s="121"/>
-      <c r="R264" s="121"/>
-    </row>
-    <row r="265" spans="1:18">
+    </row>
+    <row r="265" spans="1:17">
       <c r="A265" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A265" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E265),
@@ -20039,9 +19784,8 @@
       <c r="O265" s="121"/>
       <c r="P265" s="121"/>
       <c r="Q265" s="121"/>
-      <c r="R265" s="121"/>
-    </row>
-    <row r="266" spans="1:18" ht="22.5">
+    </row>
+    <row r="266" spans="1:17" ht="22">
       <c r="A266" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -20074,9 +19818,8 @@
       <c r="O266" s="121"/>
       <c r="P266" s="121"/>
       <c r="Q266" s="121"/>
-      <c r="R266" s="121"/>
-    </row>
-    <row r="267" spans="1:18" ht="22.5">
+    </row>
+    <row r="267" spans="1:17" ht="22">
       <c r="A267" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -20109,9 +19852,8 @@
       <c r="O267" s="121"/>
       <c r="P267" s="121"/>
       <c r="Q267" s="121"/>
-      <c r="R267" s="121"/>
-    </row>
-    <row r="268" spans="1:18" ht="22.5">
+    </row>
+    <row r="268" spans="1:17" ht="22">
       <c r="A268" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -20144,9 +19886,8 @@
       <c r="O268" s="121"/>
       <c r="P268" s="121"/>
       <c r="Q268" s="121"/>
-      <c r="R268" s="121"/>
-    </row>
-    <row r="269" spans="1:18" ht="33.75">
+    </row>
+    <row r="269" spans="1:17" ht="33">
       <c r="A269" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -20179,9 +19920,8 @@
       <c r="O269" s="121"/>
       <c r="P269" s="121"/>
       <c r="Q269" s="121"/>
-      <c r="R269" s="121"/>
-    </row>
-    <row r="270" spans="1:18" ht="22.5">
+    </row>
+    <row r="270" spans="1:17" ht="22">
       <c r="A270" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -20216,9 +19956,8 @@
       <c r="O270" s="121"/>
       <c r="P270" s="121"/>
       <c r="Q270" s="121"/>
-      <c r="R270" s="121"/>
-    </row>
-    <row r="271" spans="1:18" ht="33.75">
+    </row>
+    <row r="271" spans="1:17" ht="33">
       <c r="A271" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -20251,9 +19990,8 @@
       <c r="O271" s="121"/>
       <c r="P271" s="121"/>
       <c r="Q271" s="121"/>
-      <c r="R271" s="121"/>
-    </row>
-    <row r="272" spans="1:18" ht="45">
+    </row>
+    <row r="272" spans="1:17" ht="44">
       <c r="A272" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -20286,9 +20024,8 @@
       <c r="O272" s="121"/>
       <c r="P272" s="121"/>
       <c r="Q272" s="121"/>
-      <c r="R272" s="121"/>
-    </row>
-    <row r="273" spans="1:18" ht="45">
+    </row>
+    <row r="273" spans="1:17" ht="44">
       <c r="A273" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -20321,9 +20058,8 @@
       <c r="O273" s="121"/>
       <c r="P273" s="121"/>
       <c r="Q273" s="121"/>
-      <c r="R273" s="121"/>
-    </row>
-    <row r="274" spans="1:18" ht="22.5">
+    </row>
+    <row r="274" spans="1:17" ht="22">
       <c r="A274" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -20356,9 +20092,8 @@
       <c r="O274" s="121"/>
       <c r="P274" s="121"/>
       <c r="Q274" s="121"/>
-      <c r="R274" s="121"/>
-    </row>
-    <row r="275" spans="1:18" ht="45">
+    </row>
+    <row r="275" spans="1:17" ht="44">
       <c r="A275" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -20391,9 +20126,8 @@
       <c r="O275" s="121"/>
       <c r="P275" s="121"/>
       <c r="Q275" s="121"/>
-      <c r="R275" s="121"/>
-    </row>
-    <row r="276" spans="1:18" ht="45">
+    </row>
+    <row r="276" spans="1:17" ht="44">
       <c r="A276" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -20426,9 +20160,8 @@
       <c r="O276" s="121"/>
       <c r="P276" s="121"/>
       <c r="Q276" s="121"/>
-      <c r="R276" s="121"/>
-    </row>
-    <row r="277" spans="1:18" ht="22.5">
+    </row>
+    <row r="277" spans="1:17" ht="22">
       <c r="A277" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -20461,9 +20194,8 @@
       <c r="O277" s="121"/>
       <c r="P277" s="121"/>
       <c r="Q277" s="121"/>
-      <c r="R277" s="121"/>
-    </row>
-    <row r="278" spans="1:18" ht="22.5">
+    </row>
+    <row r="278" spans="1:17" ht="22">
       <c r="A278" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -20498,9 +20230,8 @@
       <c r="O278" s="121"/>
       <c r="P278" s="121"/>
       <c r="Q278" s="121"/>
-      <c r="R278" s="121"/>
-    </row>
-    <row r="279" spans="1:18" ht="22.5">
+    </row>
+    <row r="279" spans="1:17" ht="22">
       <c r="A279" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -20534,14 +20265,13 @@
       <c r="J279" s="47"/>
       <c r="K279" s="47"/>
       <c r="L279" s="44"/>
-      <c r="M279" s="44"/>
+      <c r="M279" s="47"/>
       <c r="N279" s="47"/>
       <c r="O279" s="47"/>
       <c r="P279" s="47"/>
       <c r="Q279" s="47"/>
-      <c r="R279" s="47"/>
-    </row>
-    <row r="280" spans="1:18" ht="22.5">
+    </row>
+    <row r="280" spans="1:17" ht="22">
       <c r="A280" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -20567,14 +20297,13 @@
       <c r="J280" s="47"/>
       <c r="K280" s="47"/>
       <c r="L280" s="44"/>
-      <c r="M280" s="44"/>
+      <c r="M280" s="47"/>
       <c r="N280" s="47"/>
       <c r="O280" s="47"/>
       <c r="P280" s="47"/>
       <c r="Q280" s="47"/>
-      <c r="R280" s="47"/>
-    </row>
-    <row r="281" spans="1:18" ht="22.5">
+    </row>
+    <row r="281" spans="1:17" ht="22">
       <c r="A281" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -20600,14 +20329,13 @@
       <c r="J281" s="47"/>
       <c r="K281" s="47"/>
       <c r="L281" s="44"/>
-      <c r="M281" s="44"/>
+      <c r="M281" s="47"/>
       <c r="N281" s="47"/>
       <c r="O281" s="47"/>
       <c r="P281" s="47"/>
       <c r="Q281" s="47"/>
-      <c r="R281" s="47"/>
-    </row>
-    <row r="282" spans="1:18" ht="22.5">
+    </row>
+    <row r="282" spans="1:17" ht="22">
       <c r="A282" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -20633,14 +20361,13 @@
       <c r="J282" s="47"/>
       <c r="K282" s="47"/>
       <c r="L282" s="44"/>
-      <c r="M282" s="44"/>
+      <c r="M282" s="47"/>
       <c r="N282" s="47"/>
       <c r="O282" s="47"/>
       <c r="P282" s="47"/>
       <c r="Q282" s="47"/>
-      <c r="R282" s="47"/>
-    </row>
-    <row r="283" spans="1:18" ht="22.5">
+    </row>
+    <row r="283" spans="1:17" ht="22">
       <c r="A283" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -20672,14 +20399,13 @@
       <c r="J283" s="47"/>
       <c r="K283" s="47"/>
       <c r="L283" s="44"/>
-      <c r="M283" s="44"/>
+      <c r="M283" s="47"/>
       <c r="N283" s="47"/>
       <c r="O283" s="47"/>
       <c r="P283" s="47"/>
       <c r="Q283" s="47"/>
-      <c r="R283" s="47"/>
-    </row>
-    <row r="284" spans="1:18" ht="22.5">
+    </row>
+    <row r="284" spans="1:17" ht="22">
       <c r="A284" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -20707,14 +20433,13 @@
       <c r="J284" s="47"/>
       <c r="K284" s="47"/>
       <c r="L284" s="44"/>
-      <c r="M284" s="44"/>
+      <c r="M284" s="47"/>
       <c r="N284" s="47"/>
       <c r="O284" s="47"/>
       <c r="P284" s="47"/>
       <c r="Q284" s="47"/>
-      <c r="R284" s="47"/>
-    </row>
-    <row r="285" spans="1:18" ht="22.5">
+    </row>
+    <row r="285" spans="1:17" ht="22">
       <c r="A285" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -20742,14 +20467,13 @@
       <c r="J285" s="47"/>
       <c r="K285" s="47"/>
       <c r="L285" s="44"/>
-      <c r="M285" s="44"/>
+      <c r="M285" s="47"/>
       <c r="N285" s="47"/>
       <c r="O285" s="47"/>
       <c r="P285" s="47"/>
       <c r="Q285" s="47"/>
-      <c r="R285" s="47"/>
-    </row>
-    <row r="286" spans="1:18" ht="22.5">
+    </row>
+    <row r="286" spans="1:17" ht="22">
       <c r="A286" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -20777,14 +20501,13 @@
       <c r="J286" s="47"/>
       <c r="K286" s="47"/>
       <c r="L286" s="44"/>
-      <c r="M286" s="44"/>
+      <c r="M286" s="47"/>
       <c r="N286" s="47"/>
       <c r="O286" s="47"/>
       <c r="P286" s="47"/>
       <c r="Q286" s="47"/>
-      <c r="R286" s="47"/>
-    </row>
-    <row r="287" spans="1:18" ht="22.5">
+    </row>
+    <row r="287" spans="1:17" ht="22">
       <c r="A287" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -20814,14 +20537,13 @@
       <c r="J287" s="47"/>
       <c r="K287" s="47"/>
       <c r="L287" s="44"/>
-      <c r="M287" s="44"/>
+      <c r="M287" s="47"/>
       <c r="N287" s="47"/>
       <c r="O287" s="47"/>
       <c r="P287" s="47"/>
       <c r="Q287" s="47"/>
-      <c r="R287" s="47"/>
-    </row>
-    <row r="288" spans="1:18" ht="22.5">
+    </row>
+    <row r="288" spans="1:17" ht="22">
       <c r="A288" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -20847,14 +20569,13 @@
       <c r="J288" s="47"/>
       <c r="K288" s="47"/>
       <c r="L288" s="44"/>
-      <c r="M288" s="44"/>
+      <c r="M288" s="47"/>
       <c r="N288" s="47"/>
       <c r="O288" s="47"/>
       <c r="P288" s="47"/>
       <c r="Q288" s="47"/>
-      <c r="R288" s="47"/>
-    </row>
-    <row r="289" spans="1:18" ht="33.75">
+    </row>
+    <row r="289" spans="1:17" ht="33">
       <c r="A289" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -20880,14 +20601,13 @@
       <c r="J289" s="47"/>
       <c r="K289" s="47"/>
       <c r="L289" s="44"/>
-      <c r="M289" s="44"/>
+      <c r="M289" s="47"/>
       <c r="N289" s="47"/>
       <c r="O289" s="47"/>
       <c r="P289" s="47"/>
       <c r="Q289" s="47"/>
-      <c r="R289" s="47"/>
-    </row>
-    <row r="290" spans="1:18" ht="33.75">
+    </row>
+    <row r="290" spans="1:17" ht="33">
       <c r="A290" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -20913,14 +20633,13 @@
       <c r="J290" s="47"/>
       <c r="K290" s="47"/>
       <c r="L290" s="44"/>
-      <c r="M290" s="44"/>
+      <c r="M290" s="47"/>
       <c r="N290" s="47"/>
       <c r="O290" s="47"/>
       <c r="P290" s="47"/>
       <c r="Q290" s="47"/>
-      <c r="R290" s="47"/>
-    </row>
-    <row r="291" spans="1:18" ht="33.75">
+    </row>
+    <row r="291" spans="1:17" ht="33">
       <c r="A291" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -20946,14 +20665,13 @@
       <c r="J291" s="47"/>
       <c r="K291" s="47"/>
       <c r="L291" s="44"/>
-      <c r="M291" s="44"/>
+      <c r="M291" s="47"/>
       <c r="N291" s="47"/>
       <c r="O291" s="47"/>
       <c r="P291" s="47"/>
       <c r="Q291" s="47"/>
-      <c r="R291" s="47"/>
-    </row>
-    <row r="292" spans="1:18" ht="33.75">
+    </row>
+    <row r="292" spans="1:17" ht="33">
       <c r="A292" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -20979,14 +20697,13 @@
       <c r="J292" s="47"/>
       <c r="K292" s="47"/>
       <c r="L292" s="44"/>
-      <c r="M292" s="44"/>
+      <c r="M292" s="47"/>
       <c r="N292" s="47"/>
       <c r="O292" s="47"/>
       <c r="P292" s="47"/>
       <c r="Q292" s="47"/>
-      <c r="R292" s="47"/>
-    </row>
-    <row r="293" spans="1:18" ht="33.75">
+    </row>
+    <row r="293" spans="1:17" ht="33">
       <c r="A293" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -21012,14 +20729,13 @@
       <c r="J293" s="47"/>
       <c r="K293" s="47"/>
       <c r="L293" s="44"/>
-      <c r="M293" s="44"/>
+      <c r="M293" s="47"/>
       <c r="N293" s="47"/>
       <c r="O293" s="47"/>
       <c r="P293" s="47"/>
       <c r="Q293" s="47"/>
-      <c r="R293" s="47"/>
-    </row>
-    <row r="294" spans="1:18" ht="22.5">
+    </row>
+    <row r="294" spans="1:17" ht="22">
       <c r="A294" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -21045,14 +20761,13 @@
       <c r="J294" s="47"/>
       <c r="K294" s="47"/>
       <c r="L294" s="44"/>
-      <c r="M294" s="44"/>
+      <c r="M294" s="47"/>
       <c r="N294" s="47"/>
       <c r="O294" s="47"/>
       <c r="P294" s="47"/>
       <c r="Q294" s="47"/>
-      <c r="R294" s="47"/>
-    </row>
-    <row r="295" spans="1:18" ht="22.5">
+    </row>
+    <row r="295" spans="1:17" ht="22">
       <c r="A295" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -21078,28 +20793,27 @@
       <c r="J295" s="47"/>
       <c r="K295" s="47"/>
       <c r="L295" s="44"/>
-      <c r="M295" s="44"/>
+      <c r="M295" s="47"/>
       <c r="N295" s="47"/>
       <c r="O295" s="47"/>
       <c r="P295" s="47"/>
       <c r="Q295" s="47"/>
-      <c r="R295" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A10:R10" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A10:Q10" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="B112:B113"/>
     <mergeCell ref="B132:B133"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P11:P295" xr:uid="{D15EFF95-1FFB-4642-ACD4-C2751FA4A6BD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11:O295" xr:uid="{D15EFF95-1FFB-4642-ACD4-C2751FA4A6BD}">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
@@ -21129,19 +20843,19 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="8.625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="26" customWidth="1"/>
-    <col min="4" max="5" width="8.625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="40.625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="28.125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="16.375" style="25" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.375" style="25" customWidth="1"/>
-    <col min="10" max="11" width="25.625" style="25" customWidth="1"/>
+    <col min="1" max="2" width="8.58203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.58203125" style="26" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="40.58203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="28.08203125" style="25" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="16.33203125" style="25" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.33203125" style="25" customWidth="1"/>
+    <col min="10" max="11" width="25.58203125" style="25" customWidth="1"/>
     <col min="12" max="12" width="19.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="25" customWidth="1"/>
-    <col min="14" max="18" width="8.625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" style="25" customWidth="1"/>
+    <col min="14" max="18" width="8.58203125" style="25" customWidth="1"/>
     <col min="19" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
@@ -21187,7 +20901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" thickBot="1">
+    <row r="8" spans="1:18" ht="11.5" thickBot="1">
       <c r="A8" s="27" t="s">
         <v>16</v>
       </c>
@@ -21266,7 +20980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="22.5">
+    <row r="11" spans="1:18" ht="22">
       <c r="A11" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -21309,7 +21023,7 @@
       <c r="Q11" s="119"/>
       <c r="R11" s="121"/>
     </row>
-    <row r="12" spans="1:18" ht="22.5">
+    <row r="12" spans="1:18" ht="22">
       <c r="A12" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -21346,7 +21060,7 @@
       <c r="Q12" s="119"/>
       <c r="R12" s="121"/>
     </row>
-    <row r="13" spans="1:18" s="29" customFormat="1" ht="33.75">
+    <row r="13" spans="1:18" s="29" customFormat="1" ht="33">
       <c r="A13" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -21385,7 +21099,7 @@
       <c r="Q13" s="120"/>
       <c r="R13" s="119"/>
     </row>
-    <row r="14" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="14" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A14" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -21420,7 +21134,7 @@
       <c r="Q14" s="120"/>
       <c r="R14" s="119"/>
     </row>
-    <row r="15" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="15" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A15" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -21455,7 +21169,7 @@
       <c r="Q15" s="120"/>
       <c r="R15" s="119"/>
     </row>
-    <row r="16" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="16" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A16" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -21490,7 +21204,7 @@
       <c r="Q16" s="119"/>
       <c r="R16" s="121"/>
     </row>
-    <row r="17" spans="1:18" s="29" customFormat="1" ht="33.75">
+    <row r="17" spans="1:18" s="29" customFormat="1" ht="33">
       <c r="A17" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -21525,7 +21239,7 @@
       <c r="Q17" s="119"/>
       <c r="R17" s="121"/>
     </row>
-    <row r="18" spans="1:18" ht="22.5">
+    <row r="18" spans="1:18" ht="22">
       <c r="A18" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -21564,7 +21278,7 @@
       <c r="Q18" s="119"/>
       <c r="R18" s="121"/>
     </row>
-    <row r="19" spans="1:18" ht="22.5">
+    <row r="19" spans="1:18" ht="22">
       <c r="A19" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -21599,7 +21313,7 @@
       <c r="Q19" s="119"/>
       <c r="R19" s="121"/>
     </row>
-    <row r="20" spans="1:18" ht="22.5">
+    <row r="20" spans="1:18" ht="22">
       <c r="A20" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -21634,7 +21348,7 @@
       <c r="Q20" s="119"/>
       <c r="R20" s="121"/>
     </row>
-    <row r="21" spans="1:18" ht="22.5">
+    <row r="21" spans="1:18" ht="22">
       <c r="A21" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -21671,7 +21385,7 @@
       <c r="Q21" s="119"/>
       <c r="R21" s="121"/>
     </row>
-    <row r="22" spans="1:18" ht="22.5">
+    <row r="22" spans="1:18" ht="22">
       <c r="A22" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -21706,7 +21420,7 @@
       <c r="Q22" s="119"/>
       <c r="R22" s="121"/>
     </row>
-    <row r="23" spans="1:18" ht="22.5">
+    <row r="23" spans="1:18" ht="22">
       <c r="A23" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -21741,7 +21455,7 @@
       <c r="Q23" s="119"/>
       <c r="R23" s="121"/>
     </row>
-    <row r="24" spans="1:18" ht="22.5">
+    <row r="24" spans="1:18" ht="22">
       <c r="A24" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -21776,7 +21490,7 @@
       <c r="Q24" s="119"/>
       <c r="R24" s="121"/>
     </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="25" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A25" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -21850,7 +21564,7 @@
       <c r="Q26" s="120"/>
       <c r="R26" s="119"/>
     </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" ht="33.75">
+    <row r="27" spans="1:18" s="29" customFormat="1" ht="33">
       <c r="A27" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -21889,7 +21603,7 @@
       <c r="Q27" s="120"/>
       <c r="R27" s="119"/>
     </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="28" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A28" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -21924,7 +21638,7 @@
       <c r="Q28" s="120"/>
       <c r="R28" s="119"/>
     </row>
-    <row r="29" spans="1:18" ht="22.5">
+    <row r="29" spans="1:18" ht="22">
       <c r="A29" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -21961,7 +21675,7 @@
       <c r="Q29" s="121"/>
       <c r="R29" s="121"/>
     </row>
-    <row r="30" spans="1:18" ht="22.5">
+    <row r="30" spans="1:18" ht="22">
       <c r="A30" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -21996,7 +21710,7 @@
       <c r="Q30" s="121"/>
       <c r="R30" s="121"/>
     </row>
-    <row r="31" spans="1:18" ht="22.5">
+    <row r="31" spans="1:18" ht="22">
       <c r="A31" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -22031,7 +21745,7 @@
       <c r="Q31" s="121"/>
       <c r="R31" s="121"/>
     </row>
-    <row r="32" spans="1:18" ht="22.5">
+    <row r="32" spans="1:18" ht="22">
       <c r="A32" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -22066,7 +21780,7 @@
       <c r="Q32" s="121"/>
       <c r="R32" s="121"/>
     </row>
-    <row r="33" spans="1:18" ht="22.5">
+    <row r="33" spans="1:18" ht="22">
       <c r="A33" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -22103,7 +21817,7 @@
       <c r="Q33" s="121"/>
       <c r="R33" s="121"/>
     </row>
-    <row r="34" spans="1:18" ht="22.5">
+    <row r="34" spans="1:18" ht="22">
       <c r="A34" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -22138,7 +21852,7 @@
       <c r="Q34" s="121"/>
       <c r="R34" s="121"/>
     </row>
-    <row r="35" spans="1:18" ht="45">
+    <row r="35" spans="1:18" ht="44">
       <c r="A35" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -22175,7 +21889,7 @@
       <c r="Q35" s="121"/>
       <c r="R35" s="121"/>
     </row>
-    <row r="36" spans="1:18" ht="33.75">
+    <row r="36" spans="1:18" ht="33">
       <c r="A36" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -22216,7 +21930,7 @@
       <c r="Q36" s="121"/>
       <c r="R36" s="121"/>
     </row>
-    <row r="37" spans="1:18" ht="33.75">
+    <row r="37" spans="1:18" ht="33">
       <c r="A37" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -22251,7 +21965,7 @@
       <c r="Q37" s="121"/>
       <c r="R37" s="121"/>
     </row>
-    <row r="38" spans="1:18" ht="22.5">
+    <row r="38" spans="1:18" ht="22">
       <c r="A38" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -22286,7 +22000,7 @@
       <c r="Q38" s="121"/>
       <c r="R38" s="121"/>
     </row>
-    <row r="39" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="39" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A39" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -22321,7 +22035,7 @@
       <c r="Q39" s="119"/>
       <c r="R39" s="121"/>
     </row>
-    <row r="40" spans="1:18" s="29" customFormat="1" ht="33.75">
+    <row r="40" spans="1:18" s="29" customFormat="1" ht="33">
       <c r="A40" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -22395,7 +22109,7 @@
       <c r="Q41" s="119"/>
       <c r="R41" s="121"/>
     </row>
-    <row r="42" spans="1:18" ht="33.75">
+    <row r="42" spans="1:18" ht="33">
       <c r="A42" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -22434,7 +22148,7 @@
       <c r="Q42" s="70"/>
       <c r="R42" s="44"/>
     </row>
-    <row r="43" spans="1:18" ht="22.5">
+    <row r="43" spans="1:18" ht="22">
       <c r="A43" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -22467,7 +22181,7 @@
       <c r="Q43" s="70"/>
       <c r="R43" s="44"/>
     </row>
-    <row r="44" spans="1:18" ht="33.75">
+    <row r="44" spans="1:18" ht="33">
       <c r="A44" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -22504,7 +22218,7 @@
       <c r="Q44" s="70"/>
       <c r="R44" s="44"/>
     </row>
-    <row r="45" spans="1:18" ht="22.5">
+    <row r="45" spans="1:18" ht="22">
       <c r="A45" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -22537,7 +22251,7 @@
       <c r="Q45" s="70"/>
       <c r="R45" s="44"/>
     </row>
-    <row r="46" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A46" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -22578,7 +22292,7 @@
       <c r="Q46" s="45"/>
       <c r="R46" s="47"/>
     </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="47" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A47" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -22611,7 +22325,7 @@
       <c r="Q47" s="45"/>
       <c r="R47" s="47"/>
     </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" ht="33.75">
+    <row r="48" spans="1:18" s="29" customFormat="1" ht="33">
       <c r="A48" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -22644,7 +22358,7 @@
       <c r="Q48" s="45"/>
       <c r="R48" s="47"/>
     </row>
-    <row r="49" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="49" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A49" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -22679,7 +22393,7 @@
       <c r="Q49" s="45"/>
       <c r="R49" s="47"/>
     </row>
-    <row r="50" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="50" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A50" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -22712,7 +22426,7 @@
       <c r="Q50" s="45"/>
       <c r="R50" s="47"/>
     </row>
-    <row r="51" spans="1:18" s="29" customFormat="1" ht="33.75">
+    <row r="51" spans="1:18" s="29" customFormat="1" ht="33">
       <c r="A51" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -22745,7 +22459,7 @@
       <c r="Q51" s="45"/>
       <c r="R51" s="47"/>
     </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A52" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -22780,7 +22494,7 @@
       <c r="Q52" s="45"/>
       <c r="R52" s="47"/>
     </row>
-    <row r="53" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="53" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A53" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -22813,7 +22527,7 @@
       <c r="Q53" s="45"/>
       <c r="R53" s="47"/>
     </row>
-    <row r="54" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A54" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -22848,7 +22562,7 @@
       <c r="Q54" s="45"/>
       <c r="R54" s="47"/>
     </row>
-    <row r="55" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="55" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A55" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -22881,7 +22595,7 @@
       <c r="Q55" s="45"/>
       <c r="R55" s="47"/>
     </row>
-    <row r="56" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="56" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A56" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -22914,7 +22628,7 @@
       <c r="Q56" s="45"/>
       <c r="R56" s="47"/>
     </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="57" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A57" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -22947,7 +22661,7 @@
       <c r="Q57" s="45"/>
       <c r="R57" s="47"/>
     </row>
-    <row r="58" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="58" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A58" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -22980,7 +22694,7 @@
       <c r="Q58" s="45"/>
       <c r="R58" s="47"/>
     </row>
-    <row r="59" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="59" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A59" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -23013,7 +22727,7 @@
       <c r="Q59" s="45"/>
       <c r="R59" s="47"/>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" ht="33.75">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="33">
       <c r="A60" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -23048,7 +22762,7 @@
       <c r="Q60" s="45"/>
       <c r="R60" s="47"/>
     </row>
-    <row r="61" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A61" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -23083,7 +22797,7 @@
       <c r="Q61" s="45"/>
       <c r="R61" s="47"/>
     </row>
-    <row r="62" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A62" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -23118,7 +22832,7 @@
       <c r="Q62" s="45"/>
       <c r="R62" s="47"/>
     </row>
-    <row r="63" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A63" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -23155,7 +22869,7 @@
       <c r="Q63" s="45"/>
       <c r="R63" s="47"/>
     </row>
-    <row r="64" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="64" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A64" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -23188,7 +22902,7 @@
       <c r="Q64" s="45"/>
       <c r="R64" s="47"/>
     </row>
-    <row r="65" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A65" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -23221,7 +22935,7 @@
       <c r="Q65" s="45"/>
       <c r="R65" s="47"/>
     </row>
-    <row r="66" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="66" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A66" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -23254,7 +22968,7 @@
       <c r="Q66" s="45"/>
       <c r="R66" s="47"/>
     </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A67" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -23287,7 +23001,7 @@
       <c r="Q67" s="45"/>
       <c r="R67" s="47"/>
     </row>
-    <row r="68" spans="1:18" s="29" customFormat="1" ht="33.75">
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="33">
       <c r="A68" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -23322,7 +23036,7 @@
       <c r="Q68" s="45"/>
       <c r="R68" s="47"/>
     </row>
-    <row r="69" spans="1:18" s="29" customFormat="1" ht="33.75">
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="33">
       <c r="A69" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -23355,7 +23069,7 @@
       <c r="Q69" s="45"/>
       <c r="R69" s="47"/>
     </row>
-    <row r="70" spans="1:18" s="29" customFormat="1" ht="33.75">
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="33">
       <c r="A70" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -23388,7 +23102,7 @@
       <c r="Q70" s="45"/>
       <c r="R70" s="47"/>
     </row>
-    <row r="71" spans="1:18" s="29" customFormat="1" ht="33.75">
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="33">
       <c r="A71" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -23421,7 +23135,7 @@
       <c r="Q71" s="45"/>
       <c r="R71" s="47"/>
     </row>
-    <row r="72" spans="1:18" s="29" customFormat="1" ht="33.75">
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="33">
       <c r="A72" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -23454,7 +23168,7 @@
       <c r="Q72" s="45"/>
       <c r="R72" s="47"/>
     </row>
-    <row r="73" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A73" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E73),
@@ -23487,7 +23201,7 @@
       <c r="Q73" s="45"/>
       <c r="R73" s="47"/>
     </row>
-    <row r="74" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A74" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E74),
@@ -23520,7 +23234,7 @@
       <c r="Q74" s="45"/>
       <c r="R74" s="47"/>
     </row>
-    <row r="75" spans="1:18" s="29" customFormat="1" ht="33.75">
+    <row r="75" spans="1:18" s="29" customFormat="1" ht="33">
       <c r="A75" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A75" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E75),
@@ -23553,7 +23267,7 @@
       <c r="Q75" s="64"/>
       <c r="R75" s="65"/>
     </row>
-    <row r="76" spans="1:18" s="29" customFormat="1" ht="22.5">
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="22">
       <c r="A76" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E76),
@@ -23722,7 +23436,7 @@
       <c r="Q80" s="47"/>
       <c r="R80" s="47"/>
     </row>
-    <row r="81" spans="1:18" ht="22.5">
+    <row r="81" spans="1:18" ht="22">
       <c r="A81" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -23757,7 +23471,7 @@
       <c r="Q81" s="121"/>
       <c r="R81" s="121"/>
     </row>
-    <row r="82" spans="1:18" ht="22.5">
+    <row r="82" spans="1:18" ht="22">
       <c r="A82" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -23796,7 +23510,7 @@
       <c r="Q82" s="47"/>
       <c r="R82" s="47"/>
     </row>
-    <row r="83" spans="1:18" ht="33.75">
+    <row r="83" spans="1:18" ht="33">
       <c r="A83" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -23864,7 +23578,7 @@
       <c r="Q84" s="47"/>
       <c r="R84" s="47"/>
     </row>
-    <row r="85" spans="1:18" ht="33.75">
+    <row r="85" spans="1:18" ht="33">
       <c r="A85" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -23899,7 +23613,7 @@
       <c r="Q85" s="47"/>
       <c r="R85" s="47"/>
     </row>
-    <row r="86" spans="1:18" ht="33.75">
+    <row r="86" spans="1:18" ht="33">
       <c r="A86" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E86),
@@ -23932,7 +23646,7 @@
       <c r="Q86" s="47"/>
       <c r="R86" s="47"/>
     </row>
-    <row r="87" spans="1:18" ht="22.5">
+    <row r="87" spans="1:18" ht="22">
       <c r="A87" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -23967,7 +23681,7 @@
       <c r="Q87" s="47"/>
       <c r="R87" s="47"/>
     </row>
-    <row r="88" spans="1:18" ht="22.5">
+    <row r="88" spans="1:18" ht="22">
       <c r="A88" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -24002,7 +23716,7 @@
       <c r="Q88" s="47"/>
       <c r="R88" s="47"/>
     </row>
-    <row r="89" spans="1:18" ht="22.5">
+    <row r="89" spans="1:18" ht="22">
       <c r="A89" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -24076,7 +23790,7 @@
       <c r="Q90" s="47"/>
       <c r="R90" s="47"/>
     </row>
-    <row r="91" spans="1:18" ht="33.75">
+    <row r="91" spans="1:18" ht="33">
       <c r="A91" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -24111,7 +23825,7 @@
       <c r="Q91" s="47"/>
       <c r="R91" s="47"/>
     </row>
-    <row r="92" spans="1:18" ht="22.5">
+    <row r="92" spans="1:18" ht="22">
       <c r="A92" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -24150,7 +23864,7 @@
       <c r="Q92" s="47"/>
       <c r="R92" s="47"/>
     </row>
-    <row r="93" spans="1:18" ht="33.75">
+    <row r="93" spans="1:18" ht="33">
       <c r="A93" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -24218,7 +23932,7 @@
       <c r="Q94" s="47"/>
       <c r="R94" s="47"/>
     </row>
-    <row r="95" spans="1:18" ht="33.75">
+    <row r="95" spans="1:18" ht="33">
       <c r="A95" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -24253,7 +23967,7 @@
       <c r="Q95" s="47"/>
       <c r="R95" s="47"/>
     </row>
-    <row r="96" spans="1:18" ht="33.75">
+    <row r="96" spans="1:18" ht="33">
       <c r="A96" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A96" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E96),
@@ -24286,7 +24000,7 @@
       <c r="Q96" s="47"/>
       <c r="R96" s="47"/>
     </row>
-    <row r="97" spans="1:18" ht="33.75">
+    <row r="97" spans="1:18" ht="33">
       <c r="A97" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -24321,7 +24035,7 @@
       <c r="Q97" s="47"/>
       <c r="R97" s="47"/>
     </row>
-    <row r="98" spans="1:18" ht="22.5">
+    <row r="98" spans="1:18" ht="22">
       <c r="A98" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -24360,7 +24074,7 @@
       <c r="Q98" s="47"/>
       <c r="R98" s="47"/>
     </row>
-    <row r="99" spans="1:18" ht="33.75">
+    <row r="99" spans="1:18" ht="33">
       <c r="A99" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -24426,7 +24140,7 @@
       <c r="Q100" s="47"/>
       <c r="R100" s="47"/>
     </row>
-    <row r="101" spans="1:18" ht="33.75">
+    <row r="101" spans="1:18" ht="33">
       <c r="A101" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E101),
@@ -24459,7 +24173,7 @@
       <c r="Q101" s="47"/>
       <c r="R101" s="47"/>
     </row>
-    <row r="102" spans="1:18" ht="33.75">
+    <row r="102" spans="1:18" ht="33">
       <c r="A102" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -24492,7 +24206,7 @@
       <c r="Q102" s="47"/>
       <c r="R102" s="47"/>
     </row>
-    <row r="103" spans="1:18" ht="22.5">
+    <row r="103" spans="1:18" ht="22">
       <c r="A103" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -24527,7 +24241,7 @@
       <c r="Q103" s="47"/>
       <c r="R103" s="47"/>
     </row>
-    <row r="104" spans="1:18" ht="33.75">
+    <row r="104" spans="1:18" ht="33">
       <c r="A104" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -24593,7 +24307,7 @@
       <c r="Q105" s="47"/>
       <c r="R105" s="47"/>
     </row>
-    <row r="106" spans="1:18" ht="33.75">
+    <row r="106" spans="1:18" ht="33">
       <c r="A106" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E106),
@@ -24626,7 +24340,7 @@
       <c r="Q106" s="47"/>
       <c r="R106" s="47"/>
     </row>
-    <row r="107" spans="1:18" ht="33.75">
+    <row r="107" spans="1:18" ht="33">
       <c r="A107" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E107),
@@ -24659,7 +24373,7 @@
       <c r="Q107" s="65"/>
       <c r="R107" s="65"/>
     </row>
-    <row r="108" spans="1:18" ht="33.75">
+    <row r="108" spans="1:18" ht="33">
       <c r="A108" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -24694,7 +24408,7 @@
       <c r="Q108" s="47"/>
       <c r="R108" s="47"/>
     </row>
-    <row r="109" spans="1:18" ht="33.75">
+    <row r="109" spans="1:18" ht="33">
       <c r="A109" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -24807,7 +24521,7 @@
       <c r="Q111" s="47"/>
       <c r="R111" s="47"/>
     </row>
-    <row r="112" spans="1:18" ht="22.5">
+    <row r="112" spans="1:18" ht="22">
       <c r="A112" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -24846,7 +24560,7 @@
       <c r="Q112" s="47"/>
       <c r="R112" s="47"/>
     </row>
-    <row r="113" spans="1:18" ht="22.5">
+    <row r="113" spans="1:18" ht="22">
       <c r="A113" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -24918,7 +24632,7 @@
       <c r="Q114" s="47"/>
       <c r="R114" s="47"/>
     </row>
-    <row r="115" spans="1:18" ht="22.5">
+    <row r="115" spans="1:18" ht="22">
       <c r="A115" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -24961,7 +24675,7 @@
       <c r="Q115" s="121"/>
       <c r="R115" s="121"/>
     </row>
-    <row r="116" spans="1:18" ht="22.5">
+    <row r="116" spans="1:18" ht="22">
       <c r="A116" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -24998,7 +24712,7 @@
       <c r="Q116" s="121"/>
       <c r="R116" s="121"/>
     </row>
-    <row r="117" spans="1:18" ht="22.5">
+    <row r="117" spans="1:18" ht="22">
       <c r="A117" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -25033,7 +24747,7 @@
       <c r="Q117" s="121"/>
       <c r="R117" s="121"/>
     </row>
-    <row r="118" spans="1:18" ht="22.5">
+    <row r="118" spans="1:18" ht="22">
       <c r="A118" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -25068,7 +24782,7 @@
       <c r="Q118" s="121"/>
       <c r="R118" s="121"/>
     </row>
-    <row r="119" spans="1:18" ht="22.5">
+    <row r="119" spans="1:18" ht="22">
       <c r="A119" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -25105,7 +24819,7 @@
       <c r="Q119" s="121"/>
       <c r="R119" s="121"/>
     </row>
-    <row r="120" spans="1:18" ht="22.5">
+    <row r="120" spans="1:18" ht="22">
       <c r="A120" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -25140,7 +24854,7 @@
       <c r="Q120" s="121"/>
       <c r="R120" s="121"/>
     </row>
-    <row r="121" spans="1:18" ht="22.5">
+    <row r="121" spans="1:18" ht="22">
       <c r="A121" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -25175,7 +24889,7 @@
       <c r="Q121" s="121"/>
       <c r="R121" s="121"/>
     </row>
-    <row r="122" spans="1:18" ht="22.5">
+    <row r="122" spans="1:18" ht="22">
       <c r="A122" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -25210,7 +24924,7 @@
       <c r="Q122" s="121"/>
       <c r="R122" s="121"/>
     </row>
-    <row r="123" spans="1:18" ht="33.75">
+    <row r="123" spans="1:18" ht="33">
       <c r="A123" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -25245,7 +24959,7 @@
       <c r="Q123" s="121"/>
       <c r="R123" s="121"/>
     </row>
-    <row r="124" spans="1:18" ht="33.75">
+    <row r="124" spans="1:18" ht="33">
       <c r="A124" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -25282,7 +24996,7 @@
       <c r="Q124" s="121"/>
       <c r="R124" s="121"/>
     </row>
-    <row r="125" spans="1:18" ht="33.75">
+    <row r="125" spans="1:18" ht="33">
       <c r="A125" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -25317,7 +25031,7 @@
       <c r="Q125" s="121"/>
       <c r="R125" s="121"/>
     </row>
-    <row r="126" spans="1:18" ht="45">
+    <row r="126" spans="1:18" ht="44">
       <c r="A126" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -25352,7 +25066,7 @@
       <c r="Q126" s="121"/>
       <c r="R126" s="121"/>
     </row>
-    <row r="127" spans="1:18" ht="45">
+    <row r="127" spans="1:18" ht="44">
       <c r="A127" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -25387,7 +25101,7 @@
       <c r="Q127" s="121"/>
       <c r="R127" s="121"/>
     </row>
-    <row r="128" spans="1:18" ht="33.75">
+    <row r="128" spans="1:18" ht="33">
       <c r="A128" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -25422,7 +25136,7 @@
       <c r="Q128" s="121"/>
       <c r="R128" s="121"/>
     </row>
-    <row r="129" spans="1:18" ht="33.75">
+    <row r="129" spans="1:18" ht="33">
       <c r="A129" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -25459,7 +25173,7 @@
       <c r="Q129" s="121"/>
       <c r="R129" s="121"/>
     </row>
-    <row r="130" spans="1:18" ht="33.75">
+    <row r="130" spans="1:18" ht="33">
       <c r="A130" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -25498,7 +25212,7 @@
       <c r="Q130" s="121"/>
       <c r="R130" s="121"/>
     </row>
-    <row r="131" spans="1:18" ht="33.75">
+    <row r="131" spans="1:18" ht="33">
       <c r="A131" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -25539,7 +25253,7 @@
       <c r="Q131" s="121"/>
       <c r="R131" s="121"/>
     </row>
-    <row r="132" spans="1:18" ht="22.5">
+    <row r="132" spans="1:18" ht="22">
       <c r="A132" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -25576,7 +25290,7 @@
       <c r="Q132" s="121"/>
       <c r="R132" s="121"/>
     </row>
-    <row r="133" spans="1:18" ht="22.5">
+    <row r="133" spans="1:18" ht="22">
       <c r="A133" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -25611,7 +25325,7 @@
       <c r="Q133" s="121"/>
       <c r="R133" s="121"/>
     </row>
-    <row r="134" spans="1:18" ht="45">
+    <row r="134" spans="1:18" ht="44">
       <c r="A134" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -25646,7 +25360,7 @@
       <c r="Q134" s="121"/>
       <c r="R134" s="121"/>
     </row>
-    <row r="135" spans="1:18" ht="22.5">
+    <row r="135" spans="1:18" ht="22">
       <c r="A135" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -25689,7 +25403,7 @@
       <c r="Q135" s="121"/>
       <c r="R135" s="121"/>
     </row>
-    <row r="136" spans="1:18" ht="33.75">
+    <row r="136" spans="1:18" ht="33">
       <c r="A136" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -25726,7 +25440,7 @@
       <c r="Q136" s="121"/>
       <c r="R136" s="121"/>
     </row>
-    <row r="137" spans="1:18" ht="33.75">
+    <row r="137" spans="1:18" ht="33">
       <c r="A137" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -25761,7 +25475,7 @@
       <c r="Q137" s="121"/>
       <c r="R137" s="121"/>
     </row>
-    <row r="138" spans="1:18" ht="33.75">
+    <row r="138" spans="1:18" ht="33">
       <c r="A138" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -25796,7 +25510,7 @@
       <c r="Q138" s="121"/>
       <c r="R138" s="121"/>
     </row>
-    <row r="139" spans="1:18" ht="22.5">
+    <row r="139" spans="1:18" ht="22">
       <c r="A139" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -25833,7 +25547,7 @@
       <c r="Q139" s="121"/>
       <c r="R139" s="121"/>
     </row>
-    <row r="140" spans="1:18" ht="33.75">
+    <row r="140" spans="1:18" ht="33">
       <c r="A140" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -25868,7 +25582,7 @@
       <c r="Q140" s="121"/>
       <c r="R140" s="121"/>
     </row>
-    <row r="141" spans="1:18" ht="33.75">
+    <row r="141" spans="1:18" ht="33">
       <c r="A141" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -25907,7 +25621,7 @@
       <c r="Q141" s="121"/>
       <c r="R141" s="121"/>
     </row>
-    <row r="142" spans="1:18" ht="33.75">
+    <row r="142" spans="1:18" ht="33">
       <c r="A142" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -25948,7 +25662,7 @@
       <c r="Q142" s="121"/>
       <c r="R142" s="121"/>
     </row>
-    <row r="143" spans="1:18" ht="33.75">
+    <row r="143" spans="1:18" ht="33">
       <c r="A143" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -25985,7 +25699,7 @@
       <c r="Q143" s="121"/>
       <c r="R143" s="121"/>
     </row>
-    <row r="144" spans="1:18" ht="33.75">
+    <row r="144" spans="1:18" ht="33">
       <c r="A144" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -26022,7 +25736,7 @@
       <c r="Q144" s="121"/>
       <c r="R144" s="121"/>
     </row>
-    <row r="145" spans="1:18" ht="33.75">
+    <row r="145" spans="1:18" ht="33">
       <c r="A145" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -26059,7 +25773,7 @@
       <c r="Q145" s="121"/>
       <c r="R145" s="121"/>
     </row>
-    <row r="146" spans="1:18" ht="33.75">
+    <row r="146" spans="1:18" ht="33">
       <c r="A146" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -26096,7 +25810,7 @@
       <c r="Q146" s="121"/>
       <c r="R146" s="121"/>
     </row>
-    <row r="147" spans="1:18" ht="22.5">
+    <row r="147" spans="1:18" ht="22">
       <c r="A147" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -26133,7 +25847,7 @@
       <c r="Q147" s="121"/>
       <c r="R147" s="121"/>
     </row>
-    <row r="148" spans="1:18" ht="22.5">
+    <row r="148" spans="1:18" ht="22">
       <c r="A148" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -26168,7 +25882,7 @@
       <c r="Q148" s="121"/>
       <c r="R148" s="121"/>
     </row>
-    <row r="149" spans="1:18" ht="22.5">
+    <row r="149" spans="1:18" ht="22">
       <c r="A149" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -26203,7 +25917,7 @@
       <c r="Q149" s="121"/>
       <c r="R149" s="121"/>
     </row>
-    <row r="150" spans="1:18" ht="22.5">
+    <row r="150" spans="1:18" ht="22">
       <c r="A150" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -26238,7 +25952,7 @@
       <c r="Q150" s="121"/>
       <c r="R150" s="121"/>
     </row>
-    <row r="151" spans="1:18" ht="22.5">
+    <row r="151" spans="1:18" ht="22">
       <c r="A151" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -26273,7 +25987,7 @@
       <c r="Q151" s="121"/>
       <c r="R151" s="121"/>
     </row>
-    <row r="152" spans="1:18" ht="22.5">
+    <row r="152" spans="1:18" ht="22">
       <c r="A152" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -26308,7 +26022,7 @@
       <c r="Q152" s="121"/>
       <c r="R152" s="121"/>
     </row>
-    <row r="153" spans="1:18" ht="22.5">
+    <row r="153" spans="1:18" ht="22">
       <c r="A153" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -26347,7 +26061,7 @@
       <c r="Q153" s="121"/>
       <c r="R153" s="121"/>
     </row>
-    <row r="154" spans="1:18" ht="22.5">
+    <row r="154" spans="1:18" ht="22">
       <c r="A154" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -26382,7 +26096,7 @@
       <c r="Q154" s="121"/>
       <c r="R154" s="121"/>
     </row>
-    <row r="155" spans="1:18" ht="33.75">
+    <row r="155" spans="1:18" ht="33">
       <c r="A155" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -26419,7 +26133,7 @@
       <c r="Q155" s="121"/>
       <c r="R155" s="121"/>
     </row>
-    <row r="156" spans="1:18" ht="33.75">
+    <row r="156" spans="1:18" ht="33">
       <c r="A156" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -26454,7 +26168,7 @@
       <c r="Q156" s="121"/>
       <c r="R156" s="121"/>
     </row>
-    <row r="157" spans="1:18" ht="33.75">
+    <row r="157" spans="1:18" ht="33">
       <c r="A157" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -26489,7 +26203,7 @@
       <c r="Q157" s="121"/>
       <c r="R157" s="121"/>
     </row>
-    <row r="158" spans="1:18" ht="33.75">
+    <row r="158" spans="1:18" ht="33">
       <c r="A158" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -26524,7 +26238,7 @@
       <c r="Q158" s="121"/>
       <c r="R158" s="121"/>
     </row>
-    <row r="159" spans="1:18" ht="33.75">
+    <row r="159" spans="1:18" ht="33">
       <c r="A159" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -26559,7 +26273,7 @@
       <c r="Q159" s="121"/>
       <c r="R159" s="121"/>
     </row>
-    <row r="160" spans="1:18" ht="22.5">
+    <row r="160" spans="1:18" ht="22">
       <c r="A160" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -26594,7 +26308,7 @@
       <c r="Q160" s="121"/>
       <c r="R160" s="121"/>
     </row>
-    <row r="161" spans="1:18" ht="22.5">
+    <row r="161" spans="1:18" ht="22">
       <c r="A161" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -26629,7 +26343,7 @@
       <c r="Q161" s="121"/>
       <c r="R161" s="121"/>
     </row>
-    <row r="162" spans="1:18" ht="33.75">
+    <row r="162" spans="1:18" ht="33">
       <c r="A162" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E162),
@@ -26664,7 +26378,7 @@
       <c r="Q162" s="121"/>
       <c r="R162" s="121"/>
     </row>
-    <row r="163" spans="1:18" ht="33.75">
+    <row r="163" spans="1:18" ht="33">
       <c r="A163" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E163),
@@ -26699,7 +26413,7 @@
       <c r="Q163" s="121"/>
       <c r="R163" s="121"/>
     </row>
-    <row r="164" spans="1:18" ht="33.75">
+    <row r="164" spans="1:18" ht="33">
       <c r="A164" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -26734,7 +26448,7 @@
       <c r="Q164" s="121"/>
       <c r="R164" s="121"/>
     </row>
-    <row r="165" spans="1:18" ht="33.75">
+    <row r="165" spans="1:18" ht="33">
       <c r="A165" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -26769,7 +26483,7 @@
       <c r="Q165" s="121"/>
       <c r="R165" s="121"/>
     </row>
-    <row r="166" spans="1:18" ht="22.5">
+    <row r="166" spans="1:18" ht="22">
       <c r="A166" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -26806,7 +26520,7 @@
       <c r="Q166" s="121"/>
       <c r="R166" s="121"/>
     </row>
-    <row r="167" spans="1:18" ht="22.5">
+    <row r="167" spans="1:18" ht="22">
       <c r="A167" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -26841,7 +26555,7 @@
       <c r="Q167" s="121"/>
       <c r="R167" s="121"/>
     </row>
-    <row r="168" spans="1:18" ht="22.5">
+    <row r="168" spans="1:18" ht="22">
       <c r="A168" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -26876,7 +26590,7 @@
       <c r="Q168" s="121"/>
       <c r="R168" s="121"/>
     </row>
-    <row r="169" spans="1:18" ht="22.5">
+    <row r="169" spans="1:18" ht="22">
       <c r="A169" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -26911,7 +26625,7 @@
       <c r="Q169" s="121"/>
       <c r="R169" s="121"/>
     </row>
-    <row r="170" spans="1:18" ht="22.5">
+    <row r="170" spans="1:18" ht="22">
       <c r="A170" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -26946,7 +26660,7 @@
       <c r="Q170" s="121"/>
       <c r="R170" s="121"/>
     </row>
-    <row r="171" spans="1:18" ht="33.75">
+    <row r="171" spans="1:18" ht="33">
       <c r="A171" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -26981,7 +26695,7 @@
       <c r="Q171" s="121"/>
       <c r="R171" s="121"/>
     </row>
-    <row r="172" spans="1:18" ht="22.5">
+    <row r="172" spans="1:18" ht="22">
       <c r="A172" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -27016,7 +26730,7 @@
       <c r="Q172" s="121"/>
       <c r="R172" s="121"/>
     </row>
-    <row r="173" spans="1:18" ht="22.5">
+    <row r="173" spans="1:18" ht="22">
       <c r="A173" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -27053,7 +26767,7 @@
       <c r="Q173" s="121"/>
       <c r="R173" s="121"/>
     </row>
-    <row r="174" spans="1:18" ht="33.75">
+    <row r="174" spans="1:18" ht="33">
       <c r="A174" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -27088,7 +26802,7 @@
       <c r="Q174" s="121"/>
       <c r="R174" s="121"/>
     </row>
-    <row r="175" spans="1:18" ht="33.75">
+    <row r="175" spans="1:18" ht="33">
       <c r="A175" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -27123,7 +26837,7 @@
       <c r="Q175" s="121"/>
       <c r="R175" s="121"/>
     </row>
-    <row r="176" spans="1:18" ht="45">
+    <row r="176" spans="1:18" ht="44">
       <c r="A176" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -27158,7 +26872,7 @@
       <c r="Q176" s="121"/>
       <c r="R176" s="121"/>
     </row>
-    <row r="177" spans="1:18" ht="45">
+    <row r="177" spans="1:18" ht="44">
       <c r="A177" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -27193,7 +26907,7 @@
       <c r="Q177" s="121"/>
       <c r="R177" s="121"/>
     </row>
-    <row r="178" spans="1:18" ht="33.75">
+    <row r="178" spans="1:18" ht="33">
       <c r="A178" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -27228,7 +26942,7 @@
       <c r="Q178" s="121"/>
       <c r="R178" s="121"/>
     </row>
-    <row r="179" spans="1:18" ht="45">
+    <row r="179" spans="1:18" ht="44">
       <c r="A179" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -27263,7 +26977,7 @@
       <c r="Q179" s="121"/>
       <c r="R179" s="121"/>
     </row>
-    <row r="180" spans="1:18" ht="45">
+    <row r="180" spans="1:18" ht="44">
       <c r="A180" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -27298,7 +27012,7 @@
       <c r="Q180" s="121"/>
       <c r="R180" s="121"/>
     </row>
-    <row r="181" spans="1:18" ht="33.75">
+    <row r="181" spans="1:18" ht="33">
       <c r="A181" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -27333,7 +27047,7 @@
       <c r="Q181" s="121"/>
       <c r="R181" s="121"/>
     </row>
-    <row r="182" spans="1:18" ht="33.75">
+    <row r="182" spans="1:18" ht="33">
       <c r="A182" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -27370,7 +27084,7 @@
       <c r="Q182" s="121"/>
       <c r="R182" s="121"/>
     </row>
-    <row r="183" spans="1:18" ht="22.5">
+    <row r="183" spans="1:18" ht="22">
       <c r="A183" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -27407,7 +27121,7 @@
       <c r="Q183" s="121"/>
       <c r="R183" s="121"/>
     </row>
-    <row r="184" spans="1:18" ht="22.5">
+    <row r="184" spans="1:18" ht="22">
       <c r="A184" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -27450,7 +27164,7 @@
       <c r="Q184" s="121"/>
       <c r="R184" s="121"/>
     </row>
-    <row r="185" spans="1:18" ht="22.5">
+    <row r="185" spans="1:18" ht="22">
       <c r="A185" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -27489,7 +27203,7 @@
       <c r="Q185" s="121"/>
       <c r="R185" s="121"/>
     </row>
-    <row r="186" spans="1:18" ht="22.5">
+    <row r="186" spans="1:18" ht="22">
       <c r="A186" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -27528,7 +27242,7 @@
       <c r="Q186" s="121"/>
       <c r="R186" s="121"/>
     </row>
-    <row r="187" spans="1:18" ht="22.5">
+    <row r="187" spans="1:18" ht="22">
       <c r="A187" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -27571,7 +27285,7 @@
       <c r="Q187" s="121"/>
       <c r="R187" s="121"/>
     </row>
-    <row r="188" spans="1:18" ht="22.5">
+    <row r="188" spans="1:18" ht="22">
       <c r="A188" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -27608,7 +27322,7 @@
       <c r="Q188" s="121"/>
       <c r="R188" s="121"/>
     </row>
-    <row r="189" spans="1:18" ht="22.5">
+    <row r="189" spans="1:18" ht="22">
       <c r="A189" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -27643,7 +27357,7 @@
       <c r="Q189" s="121"/>
       <c r="R189" s="121"/>
     </row>
-    <row r="190" spans="1:18" ht="22.5">
+    <row r="190" spans="1:18" ht="22">
       <c r="A190" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -27680,7 +27394,7 @@
       <c r="Q190" s="121"/>
       <c r="R190" s="121"/>
     </row>
-    <row r="191" spans="1:18" ht="22.5">
+    <row r="191" spans="1:18" ht="22">
       <c r="A191" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -27715,7 +27429,7 @@
       <c r="Q191" s="121"/>
       <c r="R191" s="121"/>
     </row>
-    <row r="192" spans="1:18" ht="33.75">
+    <row r="192" spans="1:18" ht="33">
       <c r="A192" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -27754,7 +27468,7 @@
       <c r="Q192" s="121"/>
       <c r="R192" s="121"/>
     </row>
-    <row r="193" spans="1:18" ht="22.5">
+    <row r="193" spans="1:18" ht="22">
       <c r="A193" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -27795,7 +27509,7 @@
       <c r="Q193" s="121"/>
       <c r="R193" s="121"/>
     </row>
-    <row r="194" spans="1:18" ht="22.5">
+    <row r="194" spans="1:18" ht="22">
       <c r="A194" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -27830,7 +27544,7 @@
       <c r="Q194" s="121"/>
       <c r="R194" s="121"/>
     </row>
-    <row r="195" spans="1:18" ht="22.5">
+    <row r="195" spans="1:18" ht="22">
       <c r="A195" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -27865,7 +27579,7 @@
       <c r="Q195" s="121"/>
       <c r="R195" s="121"/>
     </row>
-    <row r="196" spans="1:18" ht="22.5">
+    <row r="196" spans="1:18" ht="22">
       <c r="A196" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -27900,7 +27614,7 @@
       <c r="Q196" s="121"/>
       <c r="R196" s="121"/>
     </row>
-    <row r="197" spans="1:18" ht="22.5">
+    <row r="197" spans="1:18" ht="22">
       <c r="A197" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -27935,7 +27649,7 @@
       <c r="Q197" s="121"/>
       <c r="R197" s="121"/>
     </row>
-    <row r="198" spans="1:18" ht="22.5">
+    <row r="198" spans="1:18" ht="22">
       <c r="A198" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -27970,7 +27684,7 @@
       <c r="Q198" s="121"/>
       <c r="R198" s="121"/>
     </row>
-    <row r="199" spans="1:18" ht="22.5">
+    <row r="199" spans="1:18" ht="22">
       <c r="A199" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
@@ -28005,7 +27719,7 @@
       <c r="Q199" s="121"/>
       <c r="R199" s="121"/>
     </row>
-    <row r="200" spans="1:18" ht="22.5">
+    <row r="200" spans="1:18" ht="22">
       <c r="A200" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -28042,7 +27756,7 @@
       <c r="Q200" s="121"/>
       <c r="R200" s="121"/>
     </row>
-    <row r="201" spans="1:18" ht="22.5">
+    <row r="201" spans="1:18" ht="22">
       <c r="A201" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -28081,7 +27795,7 @@
       <c r="Q201" s="121"/>
       <c r="R201" s="121"/>
     </row>
-    <row r="202" spans="1:18" ht="22.5">
+    <row r="202" spans="1:18" ht="22">
       <c r="A202" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -28116,7 +27830,7 @@
       <c r="Q202" s="121"/>
       <c r="R202" s="121"/>
     </row>
-    <row r="203" spans="1:18" ht="22.5">
+    <row r="203" spans="1:18" ht="22">
       <c r="A203" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -28151,7 +27865,7 @@
       <c r="Q203" s="121"/>
       <c r="R203" s="121"/>
     </row>
-    <row r="204" spans="1:18" ht="22.5">
+    <row r="204" spans="1:18" ht="22">
       <c r="A204" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -28186,7 +27900,7 @@
       <c r="Q204" s="121"/>
       <c r="R204" s="121"/>
     </row>
-    <row r="205" spans="1:18" ht="33.75">
+    <row r="205" spans="1:18" ht="33">
       <c r="A205" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -28221,7 +27935,7 @@
       <c r="Q205" s="121"/>
       <c r="R205" s="121"/>
     </row>
-    <row r="206" spans="1:18" ht="33.75">
+    <row r="206" spans="1:18" ht="33">
       <c r="A206" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -28256,7 +27970,7 @@
       <c r="Q206" s="121"/>
       <c r="R206" s="121"/>
     </row>
-    <row r="207" spans="1:18" ht="45">
+    <row r="207" spans="1:18" ht="44">
       <c r="A207" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -28291,7 +28005,7 @@
       <c r="Q207" s="121"/>
       <c r="R207" s="121"/>
     </row>
-    <row r="208" spans="1:18" ht="33.75">
+    <row r="208" spans="1:18" ht="33">
       <c r="A208" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -28326,7 +28040,7 @@
       <c r="Q208" s="121"/>
       <c r="R208" s="121"/>
     </row>
-    <row r="209" spans="1:18" ht="33.75">
+    <row r="209" spans="1:18" ht="33">
       <c r="A209" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -28361,7 +28075,7 @@
       <c r="Q209" s="121"/>
       <c r="R209" s="121"/>
     </row>
-    <row r="210" spans="1:18" ht="22.5">
+    <row r="210" spans="1:18" ht="22">
       <c r="A210" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -28396,7 +28110,7 @@
       <c r="Q210" s="121"/>
       <c r="R210" s="121"/>
     </row>
-    <row r="211" spans="1:18" ht="22.5">
+    <row r="211" spans="1:18" ht="22">
       <c r="A211" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -28431,7 +28145,7 @@
       <c r="Q211" s="121"/>
       <c r="R211" s="121"/>
     </row>
-    <row r="212" spans="1:18" ht="33.75">
+    <row r="212" spans="1:18" ht="33">
       <c r="A212" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -28466,7 +28180,7 @@
       <c r="Q212" s="121"/>
       <c r="R212" s="121"/>
     </row>
-    <row r="213" spans="1:18" ht="22.5">
+    <row r="213" spans="1:18" ht="22">
       <c r="A213" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -28501,7 +28215,7 @@
       <c r="Q213" s="121"/>
       <c r="R213" s="121"/>
     </row>
-    <row r="214" spans="1:18" ht="22.5">
+    <row r="214" spans="1:18" ht="22">
       <c r="A214" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -28540,7 +28254,7 @@
       <c r="Q214" s="121"/>
       <c r="R214" s="121"/>
     </row>
-    <row r="215" spans="1:18" ht="22.5">
+    <row r="215" spans="1:18" ht="22">
       <c r="A215" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -28575,7 +28289,7 @@
       <c r="Q215" s="121"/>
       <c r="R215" s="121"/>
     </row>
-    <row r="216" spans="1:18" ht="22.5">
+    <row r="216" spans="1:18" ht="22">
       <c r="A216" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -28610,7 +28324,7 @@
       <c r="Q216" s="121"/>
       <c r="R216" s="121"/>
     </row>
-    <row r="217" spans="1:18" ht="22.5">
+    <row r="217" spans="1:18" ht="22">
       <c r="A217" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -28645,7 +28359,7 @@
       <c r="Q217" s="121"/>
       <c r="R217" s="121"/>
     </row>
-    <row r="218" spans="1:18" ht="22.5">
+    <row r="218" spans="1:18" ht="22">
       <c r="A218" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -28680,7 +28394,7 @@
       <c r="Q218" s="121"/>
       <c r="R218" s="121"/>
     </row>
-    <row r="219" spans="1:18" ht="45">
+    <row r="219" spans="1:18" ht="44">
       <c r="A219" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -28715,7 +28429,7 @@
       <c r="Q219" s="121"/>
       <c r="R219" s="121"/>
     </row>
-    <row r="220" spans="1:18" ht="33.75">
+    <row r="220" spans="1:18" ht="33">
       <c r="A220" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -28750,7 +28464,7 @@
       <c r="Q220" s="121"/>
       <c r="R220" s="121"/>
     </row>
-    <row r="221" spans="1:18" ht="33.75">
+    <row r="221" spans="1:18" ht="33">
       <c r="A221" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -28785,7 +28499,7 @@
       <c r="Q221" s="121"/>
       <c r="R221" s="121"/>
     </row>
-    <row r="222" spans="1:18" ht="45">
+    <row r="222" spans="1:18" ht="44">
       <c r="A222" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -28820,7 +28534,7 @@
       <c r="Q222" s="121"/>
       <c r="R222" s="121"/>
     </row>
-    <row r="223" spans="1:18" ht="33.75">
+    <row r="223" spans="1:18" ht="33">
       <c r="A223" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -28855,7 +28569,7 @@
       <c r="Q223" s="121"/>
       <c r="R223" s="121"/>
     </row>
-    <row r="224" spans="1:18" ht="33.75">
+    <row r="224" spans="1:18" ht="33">
       <c r="A224" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -28890,7 +28604,7 @@
       <c r="Q224" s="121"/>
       <c r="R224" s="121"/>
     </row>
-    <row r="225" spans="1:18" ht="22.5">
+    <row r="225" spans="1:18" ht="22">
       <c r="A225" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -28925,7 +28639,7 @@
       <c r="Q225" s="121"/>
       <c r="R225" s="121"/>
     </row>
-    <row r="226" spans="1:18" ht="22.5">
+    <row r="226" spans="1:18" ht="22">
       <c r="A226" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -28960,7 +28674,7 @@
       <c r="Q226" s="121"/>
       <c r="R226" s="121"/>
     </row>
-    <row r="227" spans="1:18" ht="33.75">
+    <row r="227" spans="1:18" ht="33">
       <c r="A227" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -28995,7 +28709,7 @@
       <c r="Q227" s="121"/>
       <c r="R227" s="121"/>
     </row>
-    <row r="228" spans="1:18" ht="22.5">
+    <row r="228" spans="1:18" ht="22">
       <c r="A228" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -29030,7 +28744,7 @@
       <c r="Q228" s="121"/>
       <c r="R228" s="121"/>
     </row>
-    <row r="229" spans="1:18" ht="45">
+    <row r="229" spans="1:18" ht="44">
       <c r="A229" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -29067,7 +28781,7 @@
       <c r="Q229" s="121"/>
       <c r="R229" s="121"/>
     </row>
-    <row r="230" spans="1:18" ht="45">
+    <row r="230" spans="1:18" ht="44">
       <c r="A230" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -29102,7 +28816,7 @@
       <c r="Q230" s="121"/>
       <c r="R230" s="121"/>
     </row>
-    <row r="231" spans="1:18" ht="33.75">
+    <row r="231" spans="1:18" ht="33">
       <c r="A231" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -29137,7 +28851,7 @@
       <c r="Q231" s="121"/>
       <c r="R231" s="121"/>
     </row>
-    <row r="232" spans="1:18" ht="33.75">
+    <row r="232" spans="1:18" ht="33">
       <c r="A232" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -29174,7 +28888,7 @@
       <c r="Q232" s="121"/>
       <c r="R232" s="121"/>
     </row>
-    <row r="233" spans="1:18" ht="22.5">
+    <row r="233" spans="1:18" ht="22">
       <c r="A233" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -29211,7 +28925,7 @@
       <c r="Q233" s="121"/>
       <c r="R233" s="121"/>
     </row>
-    <row r="234" spans="1:18" ht="22.5">
+    <row r="234" spans="1:18" ht="22">
       <c r="A234" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -29254,7 +28968,7 @@
       <c r="Q234" s="121"/>
       <c r="R234" s="121"/>
     </row>
-    <row r="235" spans="1:18" ht="22.5">
+    <row r="235" spans="1:18" ht="22">
       <c r="A235" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -29291,7 +29005,7 @@
       <c r="Q235" s="121"/>
       <c r="R235" s="121"/>
     </row>
-    <row r="236" spans="1:18" ht="22.5">
+    <row r="236" spans="1:18" ht="22">
       <c r="A236" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -29326,7 +29040,7 @@
       <c r="Q236" s="121"/>
       <c r="R236" s="121"/>
     </row>
-    <row r="237" spans="1:18" ht="22.5">
+    <row r="237" spans="1:18" ht="22">
       <c r="A237" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -29361,7 +29075,7 @@
       <c r="Q237" s="121"/>
       <c r="R237" s="121"/>
     </row>
-    <row r="238" spans="1:18" ht="22.5">
+    <row r="238" spans="1:18" ht="22">
       <c r="A238" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -29396,7 +29110,7 @@
       <c r="Q238" s="121"/>
       <c r="R238" s="121"/>
     </row>
-    <row r="239" spans="1:18" ht="33.75">
+    <row r="239" spans="1:18" ht="33">
       <c r="A239" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -29431,7 +29145,7 @@
       <c r="Q239" s="121"/>
       <c r="R239" s="121"/>
     </row>
-    <row r="240" spans="1:18" ht="33.75">
+    <row r="240" spans="1:18" ht="33">
       <c r="A240" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -29468,7 +29182,7 @@
       <c r="Q240" s="121"/>
       <c r="R240" s="121"/>
     </row>
-    <row r="241" spans="1:18" ht="33.75">
+    <row r="241" spans="1:18" ht="33">
       <c r="A241" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -29503,7 +29217,7 @@
       <c r="Q241" s="121"/>
       <c r="R241" s="121"/>
     </row>
-    <row r="242" spans="1:18" ht="45">
+    <row r="242" spans="1:18" ht="44">
       <c r="A242" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -29538,7 +29252,7 @@
       <c r="Q242" s="121"/>
       <c r="R242" s="121"/>
     </row>
-    <row r="243" spans="1:18" ht="45">
+    <row r="243" spans="1:18" ht="44">
       <c r="A243" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -29573,7 +29287,7 @@
       <c r="Q243" s="121"/>
       <c r="R243" s="121"/>
     </row>
-    <row r="244" spans="1:18" ht="33.75">
+    <row r="244" spans="1:18" ht="33">
       <c r="A244" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -29608,7 +29322,7 @@
       <c r="Q244" s="121"/>
       <c r="R244" s="121"/>
     </row>
-    <row r="245" spans="1:18" ht="33.75">
+    <row r="245" spans="1:18" ht="33">
       <c r="A245" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -29645,7 +29359,7 @@
       <c r="Q245" s="121"/>
       <c r="R245" s="121"/>
     </row>
-    <row r="246" spans="1:18" ht="33.75">
+    <row r="246" spans="1:18" ht="33">
       <c r="A246" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -29686,7 +29400,7 @@
       <c r="Q246" s="121"/>
       <c r="R246" s="121"/>
     </row>
-    <row r="247" spans="1:18" ht="22.5">
+    <row r="247" spans="1:18" ht="22">
       <c r="A247" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -29729,7 +29443,7 @@
       <c r="Q247" s="121"/>
       <c r="R247" s="121"/>
     </row>
-    <row r="248" spans="1:18" ht="22.5">
+    <row r="248" spans="1:18" ht="22">
       <c r="A248" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -29764,7 +29478,7 @@
       <c r="Q248" s="121"/>
       <c r="R248" s="121"/>
     </row>
-    <row r="249" spans="1:18" ht="33.75">
+    <row r="249" spans="1:18" ht="33">
       <c r="A249" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -29803,7 +29517,7 @@
       <c r="Q249" s="121"/>
       <c r="R249" s="121"/>
     </row>
-    <row r="250" spans="1:18" ht="33.75">
+    <row r="250" spans="1:18" ht="33">
       <c r="A250" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -29838,7 +29552,7 @@
       <c r="Q250" s="121"/>
       <c r="R250" s="121"/>
     </row>
-    <row r="251" spans="1:18" ht="33.75">
+    <row r="251" spans="1:18" ht="33">
       <c r="A251" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -29879,7 +29593,7 @@
       <c r="Q251" s="121"/>
       <c r="R251" s="121"/>
     </row>
-    <row r="252" spans="1:18" ht="33.75">
+    <row r="252" spans="1:18" ht="33">
       <c r="A252" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -29916,7 +29630,7 @@
       <c r="Q252" s="121"/>
       <c r="R252" s="121"/>
     </row>
-    <row r="253" spans="1:18" ht="33.75">
+    <row r="253" spans="1:18" ht="33">
       <c r="A253" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -29953,7 +29667,7 @@
       <c r="Q253" s="121"/>
       <c r="R253" s="121"/>
     </row>
-    <row r="254" spans="1:18" ht="33.75">
+    <row r="254" spans="1:18" ht="33">
       <c r="A254" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -29990,7 +29704,7 @@
       <c r="Q254" s="121"/>
       <c r="R254" s="121"/>
     </row>
-    <row r="255" spans="1:18" ht="22.5">
+    <row r="255" spans="1:18" ht="22">
       <c r="A255" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -30029,7 +29743,7 @@
       <c r="Q255" s="121"/>
       <c r="R255" s="121"/>
     </row>
-    <row r="256" spans="1:18" ht="22.5">
+    <row r="256" spans="1:18" ht="22">
       <c r="A256" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -30064,7 +29778,7 @@
       <c r="Q256" s="121"/>
       <c r="R256" s="121"/>
     </row>
-    <row r="257" spans="1:18" ht="33.75">
+    <row r="257" spans="1:18" ht="33">
       <c r="A257" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -30101,7 +29815,7 @@
       <c r="Q257" s="121"/>
       <c r="R257" s="121"/>
     </row>
-    <row r="258" spans="1:18" ht="33.75">
+    <row r="258" spans="1:18" ht="33">
       <c r="A258" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -30136,7 +29850,7 @@
       <c r="Q258" s="121"/>
       <c r="R258" s="121"/>
     </row>
-    <row r="259" spans="1:18" ht="33.75">
+    <row r="259" spans="1:18" ht="33">
       <c r="A259" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -30171,7 +29885,7 @@
       <c r="Q259" s="121"/>
       <c r="R259" s="121"/>
     </row>
-    <row r="260" spans="1:18" ht="33.75">
+    <row r="260" spans="1:18" ht="33">
       <c r="A260" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -30206,7 +29920,7 @@
       <c r="Q260" s="121"/>
       <c r="R260" s="121"/>
     </row>
-    <row r="261" spans="1:18" ht="33.75">
+    <row r="261" spans="1:18" ht="33">
       <c r="A261" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -30241,7 +29955,7 @@
       <c r="Q261" s="121"/>
       <c r="R261" s="121"/>
     </row>
-    <row r="262" spans="1:18" ht="22.5">
+    <row r="262" spans="1:18" ht="22">
       <c r="A262" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -30276,7 +29990,7 @@
       <c r="Q262" s="121"/>
       <c r="R262" s="121"/>
     </row>
-    <row r="263" spans="1:18" ht="22.5">
+    <row r="263" spans="1:18" ht="22">
       <c r="A263" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -30311,7 +30025,7 @@
       <c r="Q263" s="121"/>
       <c r="R263" s="121"/>
     </row>
-    <row r="264" spans="1:18" ht="33.75">
+    <row r="264" spans="1:18" ht="33">
       <c r="A264" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A264" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E264),
@@ -30346,7 +30060,7 @@
       <c r="Q264" s="121"/>
       <c r="R264" s="121"/>
     </row>
-    <row r="265" spans="1:18" ht="33.75">
+    <row r="265" spans="1:18" ht="33">
       <c r="A265" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A265" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E265),
@@ -30381,7 +30095,7 @@
       <c r="Q265" s="121"/>
       <c r="R265" s="121"/>
     </row>
-    <row r="266" spans="1:18" ht="33.75">
+    <row r="266" spans="1:18" ht="33">
       <c r="A266" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -30416,7 +30130,7 @@
       <c r="Q266" s="121"/>
       <c r="R266" s="121"/>
     </row>
-    <row r="267" spans="1:18" ht="33.75">
+    <row r="267" spans="1:18" ht="33">
       <c r="A267" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -30523,7 +30237,7 @@
       <c r="Q269" s="121"/>
       <c r="R269" s="121"/>
     </row>
-    <row r="270" spans="1:18" ht="22.5">
+    <row r="270" spans="1:18" ht="22">
       <c r="A270" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -30558,7 +30272,7 @@
       <c r="Q270" s="121"/>
       <c r="R270" s="121"/>
     </row>
-    <row r="271" spans="1:18" ht="22.5">
+    <row r="271" spans="1:18" ht="22">
       <c r="A271" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -30593,7 +30307,7 @@
       <c r="Q271" s="121"/>
       <c r="R271" s="121"/>
     </row>
-    <row r="272" spans="1:18" ht="22.5">
+    <row r="272" spans="1:18" ht="22">
       <c r="A272" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -30628,7 +30342,7 @@
       <c r="Q272" s="121"/>
       <c r="R272" s="121"/>
     </row>
-    <row r="273" spans="1:18" ht="33.75">
+    <row r="273" spans="1:18" ht="33">
       <c r="A273" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -30663,7 +30377,7 @@
       <c r="Q273" s="121"/>
       <c r="R273" s="121"/>
     </row>
-    <row r="274" spans="1:18" ht="22.5">
+    <row r="274" spans="1:18" ht="22">
       <c r="A274" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -30700,7 +30414,7 @@
       <c r="Q274" s="121"/>
       <c r="R274" s="121"/>
     </row>
-    <row r="275" spans="1:18" ht="33.75">
+    <row r="275" spans="1:18" ht="33">
       <c r="A275" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -30735,7 +30449,7 @@
       <c r="Q275" s="121"/>
       <c r="R275" s="121"/>
     </row>
-    <row r="276" spans="1:18" ht="45">
+    <row r="276" spans="1:18" ht="44">
       <c r="A276" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -30770,7 +30484,7 @@
       <c r="Q276" s="121"/>
       <c r="R276" s="121"/>
     </row>
-    <row r="277" spans="1:18" ht="45">
+    <row r="277" spans="1:18" ht="44">
       <c r="A277" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -30805,7 +30519,7 @@
       <c r="Q277" s="121"/>
       <c r="R277" s="121"/>
     </row>
-    <row r="278" spans="1:18" ht="22.5">
+    <row r="278" spans="1:18" ht="22">
       <c r="A278" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -30840,7 +30554,7 @@
       <c r="Q278" s="121"/>
       <c r="R278" s="121"/>
     </row>
-    <row r="279" spans="1:18" ht="45">
+    <row r="279" spans="1:18" ht="44">
       <c r="A279" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -30875,7 +30589,7 @@
       <c r="Q279" s="121"/>
       <c r="R279" s="121"/>
     </row>
-    <row r="280" spans="1:18" ht="45">
+    <row r="280" spans="1:18" ht="44">
       <c r="A280" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -30910,7 +30624,7 @@
       <c r="Q280" s="121"/>
       <c r="R280" s="121"/>
     </row>
-    <row r="281" spans="1:18" ht="22.5">
+    <row r="281" spans="1:18" ht="22">
       <c r="A281" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -30945,7 +30659,7 @@
       <c r="Q281" s="121"/>
       <c r="R281" s="121"/>
     </row>
-    <row r="282" spans="1:18" ht="22.5">
+    <row r="282" spans="1:18" ht="22">
       <c r="A282" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -30982,7 +30696,7 @@
       <c r="Q282" s="121"/>
       <c r="R282" s="121"/>
     </row>
-    <row r="283" spans="1:18" ht="22.5">
+    <row r="283" spans="1:18" ht="22">
       <c r="A283" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -31023,7 +30737,7 @@
       <c r="Q283" s="47"/>
       <c r="R283" s="47"/>
     </row>
-    <row r="284" spans="1:18" ht="22.5">
+    <row r="284" spans="1:18" ht="22">
       <c r="A284" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -31056,7 +30770,7 @@
       <c r="Q284" s="47"/>
       <c r="R284" s="47"/>
     </row>
-    <row r="285" spans="1:18" ht="22.5">
+    <row r="285" spans="1:18" ht="22">
       <c r="A285" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -31089,7 +30803,7 @@
       <c r="Q285" s="47"/>
       <c r="R285" s="47"/>
     </row>
-    <row r="286" spans="1:18" ht="22.5">
+    <row r="286" spans="1:18" ht="22">
       <c r="A286" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -31122,7 +30836,7 @@
       <c r="Q286" s="47"/>
       <c r="R286" s="47"/>
     </row>
-    <row r="287" spans="1:18" ht="22.5">
+    <row r="287" spans="1:18" ht="22">
       <c r="A287" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -31161,7 +30875,7 @@
       <c r="Q287" s="47"/>
       <c r="R287" s="47"/>
     </row>
-    <row r="288" spans="1:18" ht="22.5">
+    <row r="288" spans="1:18" ht="22">
       <c r="A288" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -31196,7 +30910,7 @@
       <c r="Q288" s="47"/>
       <c r="R288" s="47"/>
     </row>
-    <row r="289" spans="1:20" ht="22.5">
+    <row r="289" spans="1:20" ht="22">
       <c r="A289" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -31231,7 +30945,7 @@
       <c r="Q289" s="47"/>
       <c r="R289" s="47"/>
     </row>
-    <row r="290" spans="1:20" ht="22.5">
+    <row r="290" spans="1:20" ht="22">
       <c r="A290" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -31266,7 +30980,7 @@
       <c r="Q290" s="47"/>
       <c r="R290" s="47"/>
     </row>
-    <row r="291" spans="1:20" ht="22.5">
+    <row r="291" spans="1:20" ht="22">
       <c r="A291" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -31303,7 +31017,7 @@
       <c r="Q291" s="47"/>
       <c r="R291" s="47"/>
     </row>
-    <row r="292" spans="1:20" ht="22.5">
+    <row r="292" spans="1:20" ht="22">
       <c r="A292" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -31336,7 +31050,7 @@
       <c r="Q292" s="47"/>
       <c r="R292" s="47"/>
     </row>
-    <row r="293" spans="1:20" ht="33.75">
+    <row r="293" spans="1:20" ht="33">
       <c r="A293" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -31369,7 +31083,7 @@
       <c r="Q293" s="47"/>
       <c r="R293" s="47"/>
     </row>
-    <row r="294" spans="1:20" ht="33.75">
+    <row r="294" spans="1:20" ht="33">
       <c r="A294" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -31402,7 +31116,7 @@
       <c r="Q294" s="47"/>
       <c r="R294" s="47"/>
     </row>
-    <row r="295" spans="1:20" ht="33.75">
+    <row r="295" spans="1:20" ht="33">
       <c r="A295" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -31435,7 +31149,7 @@
       <c r="Q295" s="47"/>
       <c r="R295" s="47"/>
     </row>
-    <row r="296" spans="1:20" ht="33.75">
+    <row r="296" spans="1:20" ht="33">
       <c r="A296" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E296),
@@ -31468,7 +31182,7 @@
       <c r="Q296" s="47"/>
       <c r="R296" s="47"/>
     </row>
-    <row r="297" spans="1:20" ht="33.75">
+    <row r="297" spans="1:20" ht="33">
       <c r="A297" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A297" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E297),
@@ -31501,7 +31215,7 @@
       <c r="Q297" s="47"/>
       <c r="R297" s="47"/>
     </row>
-    <row r="298" spans="1:20" ht="22.5">
+    <row r="298" spans="1:20" ht="22">
       <c r="A298" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A298" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E298),
@@ -31534,7 +31248,7 @@
       <c r="Q298" s="47"/>
       <c r="R298" s="47"/>
     </row>
-    <row r="299" spans="1:20" ht="22.5">
+    <row r="299" spans="1:20" ht="22">
       <c r="A299" s="38" t="str" cm="1">
         <f t="array" aca="1" ref="A299" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E299),
@@ -31567,7 +31281,7 @@
       <c r="Q299" s="47"/>
       <c r="R299" s="47"/>
     </row>
-    <row r="300" spans="1:20" s="29" customFormat="1" ht="33.75">
+    <row r="300" spans="1:20" s="29" customFormat="1" ht="33">
       <c r="A300" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A300" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E300),
@@ -31610,7 +31324,7 @@
       <c r="S300" s="88"/>
       <c r="T300" s="88"/>
     </row>
-    <row r="301" spans="1:20" s="29" customFormat="1" ht="22.5">
+    <row r="301" spans="1:20" s="29" customFormat="1" ht="22">
       <c r="A301" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A301" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E301),
@@ -31649,7 +31363,7 @@
       <c r="S301" s="88"/>
       <c r="T301" s="88"/>
     </row>
-    <row r="302" spans="1:20" s="29" customFormat="1" ht="33.75">
+    <row r="302" spans="1:20" s="29" customFormat="1" ht="33">
       <c r="A302" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A302" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E302),
@@ -31688,7 +31402,7 @@
       <c r="S302" s="88"/>
       <c r="T302" s="88"/>
     </row>
-    <row r="303" spans="1:20" s="29" customFormat="1" ht="33.75">
+    <row r="303" spans="1:20" s="29" customFormat="1" ht="33">
       <c r="A303" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A303" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E303),
@@ -31723,7 +31437,7 @@
       <c r="S303" s="88"/>
       <c r="T303" s="88"/>
     </row>
-    <row r="304" spans="1:20" s="29" customFormat="1" ht="33.75">
+    <row r="304" spans="1:20" s="29" customFormat="1" ht="33">
       <c r="A304" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A304" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E304),
@@ -31758,7 +31472,7 @@
       <c r="S304" s="88"/>
       <c r="T304" s="88"/>
     </row>
-    <row r="305" spans="1:20" s="29" customFormat="1" ht="22.5">
+    <row r="305" spans="1:20" s="29" customFormat="1" ht="22">
       <c r="A305" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E305),
@@ -31797,7 +31511,7 @@
       <c r="S305" s="88"/>
       <c r="T305" s="88"/>
     </row>
-    <row r="306" spans="1:20" s="29" customFormat="1" ht="45">
+    <row r="306" spans="1:20" s="29" customFormat="1" ht="44">
       <c r="A306" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A306" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E306),
@@ -31834,7 +31548,7 @@
       <c r="S306" s="88"/>
       <c r="T306" s="88"/>
     </row>
-    <row r="307" spans="1:20" s="29" customFormat="1" ht="22.5">
+    <row r="307" spans="1:20" s="29" customFormat="1" ht="22">
       <c r="A307" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A307" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E307),
@@ -31873,7 +31587,7 @@
       <c r="S307" s="88"/>
       <c r="T307" s="88"/>
     </row>
-    <row r="308" spans="1:20" s="29" customFormat="1" ht="33.75">
+    <row r="308" spans="1:20" s="29" customFormat="1" ht="33">
       <c r="A308" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A308" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E308),
@@ -31908,7 +31622,7 @@
       <c r="S308" s="88"/>
       <c r="T308" s="88"/>
     </row>
-    <row r="309" spans="1:20" s="29" customFormat="1" ht="45">
+    <row r="309" spans="1:20" s="29" customFormat="1" ht="44">
       <c r="A309" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E309),
@@ -31943,7 +31657,7 @@
       <c r="S309" s="88"/>
       <c r="T309" s="88"/>
     </row>
-    <row r="310" spans="1:20" s="29" customFormat="1" ht="33.75">
+    <row r="310" spans="1:20" s="29" customFormat="1" ht="33">
       <c r="A310" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E310),
@@ -31978,7 +31692,7 @@
       <c r="S310" s="88"/>
       <c r="T310" s="88"/>
     </row>
-    <row r="311" spans="1:20" s="29" customFormat="1" ht="45">
+    <row r="311" spans="1:20" s="29" customFormat="1" ht="44">
       <c r="A311" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A311" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E311),
@@ -32013,7 +31727,7 @@
       <c r="S311" s="88"/>
       <c r="T311" s="88"/>
     </row>
-    <row r="312" spans="1:20" s="29" customFormat="1" ht="33.75">
+    <row r="312" spans="1:20" s="29" customFormat="1" ht="33">
       <c r="A312" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A312" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E312),
@@ -32048,7 +31762,7 @@
       <c r="S312" s="88"/>
       <c r="T312" s="88"/>
     </row>
-    <row r="313" spans="1:20" s="29" customFormat="1" ht="45">
+    <row r="313" spans="1:20" s="29" customFormat="1" ht="44">
       <c r="A313" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A313" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E313),
@@ -32083,7 +31797,7 @@
       <c r="S313" s="88"/>
       <c r="T313" s="88"/>
     </row>
-    <row r="314" spans="1:20" s="29" customFormat="1" ht="22.5">
+    <row r="314" spans="1:20" s="29" customFormat="1" ht="22">
       <c r="A314" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A314" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E314),

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(Webサービス)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(Webサービス)_(取引ID)_(取引名).xlsx
@@ -3,25 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF9D32B-529B-4751-A731-743D19E359DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6419466-7420-47F8-81CE-C418DBE5C28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="21" r:id="rId2"/>
-    <sheet name="【テストターゲット名】_クラス単体" sheetId="23" r:id="rId3"/>
-    <sheet name="【リクエストID】_リクエスト単体" sheetId="24" r:id="rId4"/>
+    <sheet name="【リクエストID】_クラス単体テスト" sheetId="23" r:id="rId3"/>
+    <sheet name="【リクエストID】_リクエスト単体テスト" sheetId="24" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【テストターゲット名】_クラス単体!$A$10:$Q$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【リクエストID】_リクエスト単体!$A$10:$R$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">【テストターゲット名】_クラス単体!$A$1:$Q$295</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">【リクエストID】_リクエスト単体!$A$1:$R$314</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【リクエストID】_クラス単体テスト!$A$10:$Q$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【リクエストID】_リクエスト単体テスト!$A$10:$R$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">【リクエストID】_クラス単体テスト!$A$1:$Q$295</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">【リクエストID】_リクエスト単体テスト!$A$1:$R$314</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">【テストターゲット名】_クラス単体!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">【リクエストID】_リクエスト単体!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">【リクエストID】_クラス単体テスト!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">【リクエストID】_リクエスト単体テスト!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -57,8 +57,8 @@
           </rPr>
           <t>ケースNoは数値で以下の形式で付与する.
 　A-B-C
-A：確認観点2の項目が変わったらインクリメント
-B：確認観点3の項目が変わったらインクリメント
+A：詳細が変わったらインクリメント
+B：観点が変わったらインクリメント
 C：テスト内容が変わったらインクリメント</t>
         </r>
       </text>
@@ -85,8 +85,8 @@
           </rPr>
           <t>ケースNoは数値で以下の形式で付与する.
 　A-B-C
-A：確認観点2の項目が変わったらインクリメント
-B：確認観点3の項目が変わったらインクリメント
+A：詳細が変わったらインクリメント
+B：観点が変わったらインクリメント
 C：テスト内容が変わったらインクリメント</t>
         </r>
       </text>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="466">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -253,10 +253,6 @@
     <rPh sb="0" eb="3">
       <t>コウシンビ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リクエストID：</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -8693,7 +8689,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1">
@@ -8746,7 +8742,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="3"/>
       <c r="J32" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="6:10" ht="19">
@@ -8758,7 +8754,7 @@
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="6:10" ht="13.5" customHeight="1"/>
@@ -9271,13 +9267,13 @@
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="197" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="202"/>
       <c r="C1" s="202"/>
       <c r="D1" s="198"/>
       <c r="E1" s="203" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F1" s="204"/>
       <c r="G1" s="204"/>
@@ -9289,13 +9285,13 @@
       <c r="M1" s="204"/>
       <c r="N1" s="205"/>
       <c r="O1" s="212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P1" s="213"/>
       <c r="Q1" s="213"/>
       <c r="R1" s="214"/>
       <c r="S1" s="221" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T1" s="222"/>
       <c r="U1" s="222"/>
@@ -9305,7 +9301,7 @@
       <c r="Y1" s="222"/>
       <c r="Z1" s="223"/>
       <c r="AA1" s="197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB1" s="198"/>
       <c r="AC1" s="199" t="str">
@@ -9329,13 +9325,13 @@
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="202"/>
       <c r="C2" s="202"/>
       <c r="D2" s="198"/>
       <c r="E2" s="203" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F2" s="204"/>
       <c r="G2" s="204"/>
@@ -9359,7 +9355,7 @@
       <c r="Y2" s="225"/>
       <c r="Z2" s="226"/>
       <c r="AA2" s="197" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB2" s="198"/>
       <c r="AC2" s="209" t="str">
@@ -9383,13 +9379,13 @@
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="197" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="202"/>
       <c r="C3" s="202"/>
       <c r="D3" s="198"/>
       <c r="E3" s="203" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F3" s="204"/>
       <c r="G3" s="204"/>
@@ -9429,7 +9425,7 @@
     </row>
     <row r="5" spans="1:40" s="17" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA5" s="18"/>
       <c r="AB5" s="18"/>
@@ -9455,14 +9451,14 @@
     </row>
     <row r="7" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="181" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="182"/>
       <c r="D7" s="181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="183"/>
       <c r="F7" s="182"/>
@@ -9472,7 +9468,7 @@
       <c r="H7" s="183"/>
       <c r="I7" s="182"/>
       <c r="J7" s="181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="183"/>
       <c r="L7" s="183"/>
@@ -9481,7 +9477,7 @@
       <c r="O7" s="183"/>
       <c r="P7" s="182"/>
       <c r="Q7" s="181" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R7" s="183"/>
       <c r="S7" s="183"/>
@@ -9498,7 +9494,7 @@
       <c r="AD7" s="183"/>
       <c r="AE7" s="182"/>
       <c r="AF7" s="181" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG7" s="183"/>
       <c r="AH7" s="183"/>
@@ -10688,17 +10684,17 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -10750,31 +10746,31 @@
     <row r="9" spans="1:17" ht="11.5" thickTop="1"/>
     <row r="10" spans="1:17" s="29" customFormat="1">
       <c r="A10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="C10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="D10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="E10" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="F10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="H10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="I10" s="32" t="s">
         <v>43</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>44</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>0</v>
@@ -10783,7 +10779,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M10" s="36" t="s">
         <v>3</v>
@@ -10815,22 +10811,22 @@
         <v>1-1-1</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="D11" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="E11" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="F11" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="114" t="s">
-        <v>50</v>
-      </c>
       <c r="G11" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H11" s="117"/>
       <c r="I11" s="117"/>
@@ -10860,13 +10856,13 @@
       <c r="C12" s="122"/>
       <c r="D12" s="115"/>
       <c r="E12" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="114" t="s">
-        <v>52</v>
-      </c>
       <c r="G12" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H12" s="117"/>
       <c r="I12" s="117"/>
@@ -10895,16 +10891,16 @@
       <c r="B13" s="48"/>
       <c r="C13" s="122"/>
       <c r="D13" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="114" t="s">
+      <c r="F13" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="114" t="s">
-        <v>55</v>
-      </c>
       <c r="G13" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H13" s="117"/>
       <c r="I13" s="117"/>
@@ -10935,10 +10931,10 @@
       <c r="D14" s="115"/>
       <c r="E14" s="115"/>
       <c r="F14" s="114" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H14" s="117"/>
       <c r="I14" s="117"/>
@@ -10969,10 +10965,10 @@
       <c r="D15" s="115"/>
       <c r="E15" s="115"/>
       <c r="F15" s="116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H15" s="117"/>
       <c r="I15" s="116"/>
@@ -11003,10 +10999,10 @@
       <c r="D16" s="115"/>
       <c r="E16" s="115"/>
       <c r="F16" s="116" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H16" s="117"/>
       <c r="I16" s="116"/>
@@ -11037,10 +11033,10 @@
       <c r="D17" s="123"/>
       <c r="E17" s="124"/>
       <c r="F17" s="116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H17" s="117"/>
       <c r="I17" s="116"/>
@@ -11069,16 +11065,16 @@
       <c r="B18" s="48"/>
       <c r="C18" s="122"/>
       <c r="D18" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="115" t="s">
+      <c r="F18" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="114" t="s">
-        <v>62</v>
-      </c>
       <c r="G18" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H18" s="117"/>
       <c r="I18" s="117"/>
@@ -11109,10 +11105,10 @@
       <c r="D19" s="126"/>
       <c r="E19" s="115"/>
       <c r="F19" s="114" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H19" s="117"/>
       <c r="I19" s="117"/>
@@ -11143,10 +11139,10 @@
       <c r="D20" s="126"/>
       <c r="E20" s="124"/>
       <c r="F20" s="116" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H20" s="117"/>
       <c r="I20" s="116"/>
@@ -11176,13 +11172,13 @@
       <c r="C21" s="122"/>
       <c r="D21" s="126"/>
       <c r="E21" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="114" t="s">
-        <v>66</v>
-      </c>
       <c r="G21" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H21" s="117"/>
       <c r="I21" s="117"/>
@@ -11213,10 +11209,10 @@
       <c r="D22" s="126"/>
       <c r="E22" s="115"/>
       <c r="F22" s="114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
@@ -11247,10 +11243,10 @@
       <c r="D23" s="126"/>
       <c r="E23" s="115"/>
       <c r="F23" s="114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H23" s="117"/>
       <c r="I23" s="117"/>
@@ -11281,10 +11277,10 @@
       <c r="D24" s="123"/>
       <c r="E24" s="124"/>
       <c r="F24" s="114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H24" s="117"/>
       <c r="I24" s="117"/>
@@ -11313,16 +11309,16 @@
       <c r="B25" s="48"/>
       <c r="C25" s="122"/>
       <c r="D25" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="126" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="126" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="114" t="s">
-        <v>71</v>
-      </c>
       <c r="G25" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H25" s="117"/>
       <c r="I25" s="117"/>
@@ -11353,10 +11349,10 @@
       <c r="D26" s="126"/>
       <c r="E26" s="115"/>
       <c r="F26" s="114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G26" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H26" s="117"/>
       <c r="I26" s="117"/>
@@ -11385,16 +11381,16 @@
       <c r="B27" s="48"/>
       <c r="C27" s="122"/>
       <c r="D27" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="114" t="s">
+      <c r="F27" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="114" t="s">
-        <v>75</v>
-      </c>
       <c r="G27" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H27" s="117"/>
       <c r="I27" s="117"/>
@@ -11425,10 +11421,10 @@
       <c r="D28" s="126"/>
       <c r="E28" s="115"/>
       <c r="F28" s="114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H28" s="117"/>
       <c r="I28" s="117"/>
@@ -11458,13 +11454,13 @@
       <c r="C29" s="122"/>
       <c r="D29" s="115"/>
       <c r="E29" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="114" t="s">
-        <v>78</v>
-      </c>
       <c r="G29" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H29" s="117"/>
       <c r="I29" s="117"/>
@@ -11495,10 +11491,10 @@
       <c r="D30" s="126"/>
       <c r="E30" s="115"/>
       <c r="F30" s="114" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G30" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H30" s="117"/>
       <c r="I30" s="117"/>
@@ -11529,10 +11525,10 @@
       <c r="D31" s="126"/>
       <c r="E31" s="115"/>
       <c r="F31" s="114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H31" s="117"/>
       <c r="I31" s="117"/>
@@ -11563,10 +11559,10 @@
       <c r="D32" s="126"/>
       <c r="E32" s="115"/>
       <c r="F32" s="114" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H32" s="117"/>
       <c r="I32" s="117"/>
@@ -11596,13 +11592,13 @@
       <c r="C33" s="122"/>
       <c r="D33" s="126"/>
       <c r="E33" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="116" t="s">
-        <v>83</v>
-      </c>
       <c r="G33" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H33" s="117"/>
       <c r="I33" s="116"/>
@@ -11633,10 +11629,10 @@
       <c r="D34" s="126"/>
       <c r="E34" s="124"/>
       <c r="F34" s="116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H34" s="117"/>
       <c r="I34" s="116"/>
@@ -11666,13 +11662,13 @@
       <c r="C35" s="128"/>
       <c r="D35" s="115"/>
       <c r="E35" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="114" t="s">
-        <v>86</v>
-      </c>
       <c r="G35" s="129" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H35" s="116"/>
       <c r="I35" s="116"/>
@@ -11700,16 +11696,16 @@
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="E36" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="42" t="s">
         <v>88</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>89</v>
       </c>
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
@@ -11741,7 +11737,7 @@
       <c r="D37" s="52"/>
       <c r="E37" s="41"/>
       <c r="F37" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G37" s="42"/>
       <c r="H37" s="42"/>
@@ -11773,7 +11769,7 @@
       <c r="D38" s="52"/>
       <c r="E38" s="41"/>
       <c r="F38" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G38" s="42"/>
       <c r="H38" s="42"/>
@@ -11805,7 +11801,7 @@
       <c r="D39" s="49"/>
       <c r="E39" s="50"/>
       <c r="F39" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="42"/>
       <c r="H39" s="42"/>
@@ -11835,13 +11831,13 @@
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
       <c r="D40" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="42" t="s">
         <v>93</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>94</v>
       </c>
       <c r="G40" s="42"/>
       <c r="H40" s="42"/>
@@ -11873,7 +11869,7 @@
       <c r="D41" s="49"/>
       <c r="E41" s="50"/>
       <c r="F41" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G41" s="42"/>
       <c r="H41" s="42"/>
@@ -11901,22 +11897,22 @@
         <v>13-1-1</v>
       </c>
       <c r="B42" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="131" t="s">
+      <c r="D42" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="131" t="s">
+      <c r="E42" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="E42" s="131" t="s">
+      <c r="F42" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="F42" s="116" t="s">
-        <v>100</v>
-      </c>
       <c r="G42" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H42" s="116"/>
       <c r="I42" s="116"/>
@@ -11947,10 +11943,10 @@
       <c r="D43" s="115"/>
       <c r="E43" s="115"/>
       <c r="F43" s="114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G43" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H43" s="116"/>
       <c r="I43" s="116"/>
@@ -11981,10 +11977,10 @@
       <c r="D44" s="115"/>
       <c r="E44" s="124"/>
       <c r="F44" s="116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G44" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H44" s="116"/>
       <c r="I44" s="116"/>
@@ -12014,13 +12010,13 @@
       <c r="C45" s="128"/>
       <c r="D45" s="115"/>
       <c r="E45" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="116" t="s">
-        <v>104</v>
-      </c>
       <c r="G45" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H45" s="116"/>
       <c r="I45" s="116"/>
@@ -12051,10 +12047,10 @@
       <c r="D46" s="115"/>
       <c r="E46" s="115"/>
       <c r="F46" s="116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G46" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H46" s="116"/>
       <c r="I46" s="116"/>
@@ -12085,10 +12081,10 @@
       <c r="D47" s="115"/>
       <c r="E47" s="124"/>
       <c r="F47" s="116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G47" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H47" s="116"/>
       <c r="I47" s="116"/>
@@ -12118,13 +12114,13 @@
       <c r="C48" s="128"/>
       <c r="D48" s="115"/>
       <c r="E48" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="F48" s="114" t="s">
-        <v>107</v>
-      </c>
       <c r="G48" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H48" s="116"/>
       <c r="I48" s="116"/>
@@ -12155,10 +12151,10 @@
       <c r="D49" s="115"/>
       <c r="E49" s="115"/>
       <c r="F49" s="114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G49" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H49" s="116"/>
       <c r="I49" s="116"/>
@@ -12188,13 +12184,13 @@
       <c r="C50" s="128"/>
       <c r="D50" s="115"/>
       <c r="E50" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="116" t="s">
-        <v>110</v>
-      </c>
       <c r="G50" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H50" s="116"/>
       <c r="I50" s="116"/>
@@ -12225,10 +12221,10 @@
       <c r="D51" s="115"/>
       <c r="E51" s="115"/>
       <c r="F51" s="116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G51" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H51" s="116"/>
       <c r="I51" s="116"/>
@@ -12259,10 +12255,10 @@
       <c r="D52" s="115"/>
       <c r="E52" s="115"/>
       <c r="F52" s="116" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G52" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H52" s="116"/>
       <c r="I52" s="116"/>
@@ -12293,10 +12289,10 @@
       <c r="D53" s="115"/>
       <c r="E53" s="115"/>
       <c r="F53" s="116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G53" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H53" s="116"/>
       <c r="I53" s="116"/>
@@ -12327,10 +12323,10 @@
       <c r="D54" s="115"/>
       <c r="E54" s="115"/>
       <c r="F54" s="116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G54" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H54" s="116"/>
       <c r="I54" s="116"/>
@@ -12361,10 +12357,10 @@
       <c r="D55" s="115"/>
       <c r="E55" s="124"/>
       <c r="F55" s="116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G55" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H55" s="116"/>
       <c r="I55" s="116"/>
@@ -12394,13 +12390,13 @@
       <c r="C56" s="128"/>
       <c r="D56" s="115"/>
       <c r="E56" s="124" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="F56" s="116" t="s">
-        <v>117</v>
-      </c>
       <c r="G56" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H56" s="116"/>
       <c r="I56" s="116"/>
@@ -12430,13 +12426,13 @@
       <c r="C57" s="128"/>
       <c r="D57" s="115"/>
       <c r="E57" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" s="116" t="s">
         <v>118</v>
       </c>
-      <c r="F57" s="116" t="s">
-        <v>119</v>
-      </c>
       <c r="G57" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H57" s="116"/>
       <c r="I57" s="116"/>
@@ -12466,13 +12462,13 @@
       <c r="C58" s="128"/>
       <c r="D58" s="124"/>
       <c r="E58" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="116" t="s">
-        <v>121</v>
-      </c>
       <c r="G58" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H58" s="116"/>
       <c r="I58" s="116"/>
@@ -12501,16 +12497,16 @@
       <c r="B59" s="122"/>
       <c r="C59" s="128"/>
       <c r="D59" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="116" t="s">
         <v>122</v>
       </c>
-      <c r="E59" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="116" t="s">
-        <v>123</v>
-      </c>
       <c r="G59" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H59" s="116"/>
       <c r="I59" s="116"/>
@@ -12541,10 +12537,10 @@
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G60" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H60" s="116"/>
       <c r="I60" s="116"/>
@@ -12575,10 +12571,10 @@
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G61" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H61" s="116"/>
       <c r="I61" s="116"/>
@@ -12609,10 +12605,10 @@
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G62" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H62" s="116"/>
       <c r="I62" s="116"/>
@@ -12643,10 +12639,10 @@
       <c r="D63" s="115"/>
       <c r="E63" s="124"/>
       <c r="F63" s="116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G63" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H63" s="116"/>
       <c r="I63" s="116"/>
@@ -12676,13 +12672,13 @@
       <c r="C64" s="122"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="F64" s="116" t="s">
-        <v>129</v>
-      </c>
       <c r="G64" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H64" s="116"/>
       <c r="I64" s="116"/>
@@ -12713,10 +12709,10 @@
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G65" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H65" s="116"/>
       <c r="I65" s="116"/>
@@ -12747,10 +12743,10 @@
       <c r="D66" s="115"/>
       <c r="E66" s="115"/>
       <c r="F66" s="116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G66" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H66" s="116"/>
       <c r="I66" s="116"/>
@@ -12781,10 +12777,10 @@
       <c r="D67" s="115"/>
       <c r="E67" s="115"/>
       <c r="F67" s="116" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G67" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H67" s="116"/>
       <c r="I67" s="116"/>
@@ -12815,10 +12811,10 @@
       <c r="D68" s="115"/>
       <c r="E68" s="115"/>
       <c r="F68" s="116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G68" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H68" s="116"/>
       <c r="I68" s="116"/>
@@ -12849,10 +12845,10 @@
       <c r="D69" s="115"/>
       <c r="E69" s="115"/>
       <c r="F69" s="116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G69" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H69" s="116"/>
       <c r="I69" s="116"/>
@@ -12883,10 +12879,10 @@
       <c r="D70" s="115"/>
       <c r="E70" s="115"/>
       <c r="F70" s="116" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G70" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H70" s="116"/>
       <c r="I70" s="116"/>
@@ -12917,10 +12913,10 @@
       <c r="D71" s="115"/>
       <c r="E71" s="115"/>
       <c r="F71" s="114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G71" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H71" s="114"/>
       <c r="I71" s="114"/>
@@ -12950,13 +12946,13 @@
       <c r="C72" s="139"/>
       <c r="D72" s="140"/>
       <c r="E72" s="114" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="F72" s="114" t="s">
-        <v>138</v>
-      </c>
       <c r="G72" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H72" s="116"/>
       <c r="I72" s="141"/>
@@ -12986,13 +12982,13 @@
       <c r="C73" s="143"/>
       <c r="D73" s="115"/>
       <c r="E73" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="F73" s="114" t="s">
-        <v>140</v>
-      </c>
       <c r="G73" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H73" s="116"/>
       <c r="I73" s="144"/>
@@ -13023,10 +13019,10 @@
       <c r="D74" s="115"/>
       <c r="E74" s="115"/>
       <c r="F74" s="116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G74" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H74" s="116"/>
       <c r="I74" s="116"/>
@@ -13057,10 +13053,10 @@
       <c r="D75" s="115"/>
       <c r="E75" s="115"/>
       <c r="F75" s="116" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G75" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H75" s="116"/>
       <c r="I75" s="116"/>
@@ -13091,10 +13087,10 @@
       <c r="D76" s="115"/>
       <c r="E76" s="115"/>
       <c r="F76" s="116" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G76" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H76" s="116"/>
       <c r="I76" s="116"/>
@@ -13125,10 +13121,10 @@
       <c r="D77" s="124"/>
       <c r="E77" s="124"/>
       <c r="F77" s="116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G77" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H77" s="116"/>
       <c r="I77" s="116"/>
@@ -13156,19 +13152,19 @@
       </c>
       <c r="B78" s="128"/>
       <c r="C78" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="D78" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="D78" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="F78" s="114" t="s">
-        <v>146</v>
-      </c>
       <c r="G78" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H78" s="116"/>
       <c r="I78" s="116"/>
@@ -13199,10 +13195,10 @@
       <c r="D79" s="115"/>
       <c r="E79" s="115"/>
       <c r="F79" s="114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G79" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H79" s="116"/>
       <c r="I79" s="116"/>
@@ -13232,13 +13228,13 @@
       <c r="C80" s="146"/>
       <c r="D80" s="115"/>
       <c r="E80" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="F80" s="114" t="s">
-        <v>149</v>
-      </c>
       <c r="G80" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H80" s="116"/>
       <c r="I80" s="116"/>
@@ -13268,13 +13264,13 @@
       <c r="C81" s="146"/>
       <c r="D81" s="115"/>
       <c r="E81" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="F81" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="F81" s="116" t="s">
-        <v>151</v>
-      </c>
       <c r="G81" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H81" s="116"/>
       <c r="I81" s="116"/>
@@ -13305,10 +13301,10 @@
       <c r="D82" s="115"/>
       <c r="E82" s="124"/>
       <c r="F82" s="116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G82" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H82" s="116"/>
       <c r="I82" s="116"/>
@@ -13338,13 +13334,13 @@
       <c r="C83" s="146"/>
       <c r="D83" s="115"/>
       <c r="E83" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="F83" s="116" t="s">
-        <v>154</v>
-      </c>
       <c r="G83" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H83" s="116"/>
       <c r="I83" s="116"/>
@@ -13374,13 +13370,13 @@
       <c r="C84" s="147"/>
       <c r="D84" s="124"/>
       <c r="E84" s="124" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" s="116" t="s">
         <v>155</v>
       </c>
-      <c r="F84" s="116" t="s">
-        <v>156</v>
-      </c>
       <c r="G84" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H84" s="116"/>
       <c r="I84" s="116"/>
@@ -13408,19 +13404,19 @@
       </c>
       <c r="B85" s="122"/>
       <c r="C85" s="115" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="F85" s="116" t="s">
         <v>157</v>
       </c>
-      <c r="D85" s="115" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="F85" s="116" t="s">
-        <v>158</v>
-      </c>
       <c r="G85" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H85" s="116"/>
       <c r="I85" s="148"/>
@@ -13450,13 +13446,13 @@
       <c r="C86" s="146"/>
       <c r="D86" s="115"/>
       <c r="E86" s="124" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F86" s="116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G86" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H86" s="116"/>
       <c r="I86" s="148"/>
@@ -13486,13 +13482,13 @@
       <c r="C87" s="147"/>
       <c r="D87" s="124"/>
       <c r="E87" s="124" t="s">
+        <v>159</v>
+      </c>
+      <c r="F87" s="116" t="s">
         <v>160</v>
       </c>
-      <c r="F87" s="116" t="s">
-        <v>161</v>
-      </c>
       <c r="G87" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H87" s="116"/>
       <c r="I87" s="116"/>
@@ -13520,19 +13516,19 @@
       </c>
       <c r="B88" s="122"/>
       <c r="C88" s="126" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="D88" s="115" t="s">
-        <v>35</v>
-      </c>
-      <c r="E88" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="F88" s="114" t="s">
-        <v>163</v>
-      </c>
       <c r="G88" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H88" s="116"/>
       <c r="I88" s="148"/>
@@ -13563,10 +13559,10 @@
       <c r="D89" s="115"/>
       <c r="E89" s="124"/>
       <c r="F89" s="114" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G89" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H89" s="116"/>
       <c r="I89" s="148"/>
@@ -13596,13 +13592,13 @@
       <c r="C90" s="146"/>
       <c r="D90" s="115"/>
       <c r="E90" s="116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F90" s="116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G90" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H90" s="116"/>
       <c r="I90" s="148"/>
@@ -13632,13 +13628,13 @@
       <c r="C91" s="146"/>
       <c r="D91" s="115"/>
       <c r="E91" s="115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F91" s="116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G91" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H91" s="116"/>
       <c r="I91" s="116"/>
@@ -13669,10 +13665,10 @@
       <c r="D92" s="115"/>
       <c r="E92" s="124"/>
       <c r="F92" s="116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G92" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H92" s="116"/>
       <c r="I92" s="116"/>
@@ -13702,13 +13698,13 @@
       <c r="C93" s="147"/>
       <c r="D93" s="124"/>
       <c r="E93" s="124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F93" s="116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G93" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H93" s="116"/>
       <c r="I93" s="116"/>
@@ -13736,19 +13732,19 @@
       </c>
       <c r="B94" s="122"/>
       <c r="C94" s="115" t="s">
+        <v>168</v>
+      </c>
+      <c r="D94" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="D94" s="115" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94" s="115" t="s">
+      <c r="F94" s="116" t="s">
         <v>170</v>
       </c>
-      <c r="F94" s="116" t="s">
-        <v>171</v>
-      </c>
       <c r="G94" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H94" s="116"/>
       <c r="I94" s="116"/>
@@ -13779,10 +13775,10 @@
       <c r="D95" s="115"/>
       <c r="E95" s="115"/>
       <c r="F95" s="116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G95" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H95" s="116"/>
       <c r="I95" s="116"/>
@@ -13813,10 +13809,10 @@
       <c r="D96" s="115"/>
       <c r="E96" s="115"/>
       <c r="F96" s="116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G96" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H96" s="116"/>
       <c r="I96" s="116"/>
@@ -13847,10 +13843,10 @@
       <c r="D97" s="115"/>
       <c r="E97" s="115"/>
       <c r="F97" s="116" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G97" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H97" s="116"/>
       <c r="I97" s="116"/>
@@ -13881,10 +13877,10 @@
       <c r="D98" s="115"/>
       <c r="E98" s="124"/>
       <c r="F98" s="116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G98" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H98" s="116"/>
       <c r="I98" s="116"/>
@@ -13914,13 +13910,13 @@
       <c r="C99" s="122"/>
       <c r="D99" s="115"/>
       <c r="E99" s="115" t="s">
+        <v>175</v>
+      </c>
+      <c r="F99" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="F99" s="116" t="s">
-        <v>177</v>
-      </c>
       <c r="G99" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H99" s="116"/>
       <c r="I99" s="148"/>
@@ -13951,10 +13947,10 @@
       <c r="D100" s="115"/>
       <c r="E100" s="115"/>
       <c r="F100" s="116" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G100" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H100" s="116"/>
       <c r="I100" s="116"/>
@@ -13985,10 +13981,10 @@
       <c r="D101" s="115"/>
       <c r="E101" s="115"/>
       <c r="F101" s="116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G101" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H101" s="116"/>
       <c r="I101" s="148"/>
@@ -14019,10 +14015,10 @@
       <c r="D102" s="115"/>
       <c r="E102" s="115"/>
       <c r="F102" s="116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G102" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H102" s="116"/>
       <c r="I102" s="116"/>
@@ -14053,10 +14049,10 @@
       <c r="D103" s="115"/>
       <c r="E103" s="115"/>
       <c r="F103" s="114" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G103" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H103" s="114"/>
       <c r="I103" s="114"/>
@@ -14086,13 +14082,13 @@
       <c r="C104" s="147"/>
       <c r="D104" s="124"/>
       <c r="E104" s="116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F104" s="116" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G104" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H104" s="116"/>
       <c r="I104" s="116"/>
@@ -14119,22 +14115,22 @@
         <v>39-1-1</v>
       </c>
       <c r="B105" s="149" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="116" t="s">
+      <c r="D105" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="E105" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="F105" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="D105" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="E105" s="124" t="s">
-        <v>54</v>
-      </c>
-      <c r="F105" s="116" t="s">
-        <v>185</v>
-      </c>
       <c r="G105" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H105" s="116"/>
       <c r="I105" s="116"/>
@@ -14162,19 +14158,19 @@
       </c>
       <c r="B106" s="122"/>
       <c r="C106" s="115" t="s">
+        <v>185</v>
+      </c>
+      <c r="D106" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="E106" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="F106" s="116" t="s">
         <v>186</v>
       </c>
-      <c r="D106" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="E106" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="F106" s="116" t="s">
-        <v>187</v>
-      </c>
       <c r="G106" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H106" s="116"/>
       <c r="I106" s="116"/>
@@ -14205,10 +14201,10 @@
       <c r="D107" s="124"/>
       <c r="E107" s="124"/>
       <c r="F107" s="116" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G107" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H107" s="116"/>
       <c r="I107" s="116"/>
@@ -14236,19 +14232,19 @@
       </c>
       <c r="B108" s="122"/>
       <c r="C108" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="D108" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="E108" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="F108" s="116" t="s">
         <v>189</v>
       </c>
-      <c r="D108" s="124" t="s">
-        <v>54</v>
-      </c>
-      <c r="E108" s="124" t="s">
-        <v>54</v>
-      </c>
-      <c r="F108" s="116" t="s">
-        <v>190</v>
-      </c>
       <c r="G108" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H108" s="116"/>
       <c r="I108" s="116"/>
@@ -14276,19 +14272,19 @@
       </c>
       <c r="B109" s="122"/>
       <c r="C109" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="D109" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="E109" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="F109" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="D109" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="E109" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="F109" s="116" t="s">
-        <v>192</v>
-      </c>
       <c r="G109" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H109" s="116"/>
       <c r="I109" s="116"/>
@@ -14319,10 +14315,10 @@
       <c r="D110" s="124"/>
       <c r="E110" s="124"/>
       <c r="F110" s="116" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G110" s="156" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H110" s="116"/>
       <c r="I110" s="116"/>
@@ -14349,22 +14345,22 @@
         <v>43-1-1</v>
       </c>
       <c r="B111" s="151" t="s">
+        <v>193</v>
+      </c>
+      <c r="C111" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="C111" s="114" t="s">
+      <c r="D111" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E111" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="F111" s="116" t="s">
         <v>195</v>
       </c>
-      <c r="D111" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="E111" s="151" t="s">
-        <v>54</v>
-      </c>
-      <c r="F111" s="116" t="s">
-        <v>196</v>
-      </c>
       <c r="G111" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H111" s="116"/>
       <c r="I111" s="116"/>
@@ -14391,16 +14387,16 @@
         <v>43-2-1</v>
       </c>
       <c r="B112" s="230" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C112" s="126"/>
       <c r="D112" s="115"/>
       <c r="E112" s="130"/>
       <c r="F112" s="116" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G112" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H112" s="116"/>
       <c r="I112" s="116"/>
@@ -14431,10 +14427,10 @@
       <c r="D113" s="115"/>
       <c r="E113" s="130"/>
       <c r="F113" s="116" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G113" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H113" s="116"/>
       <c r="I113" s="116"/>
@@ -14465,10 +14461,10 @@
       <c r="D114" s="115"/>
       <c r="E114" s="124"/>
       <c r="F114" s="116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G114" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H114" s="116"/>
       <c r="I114" s="116"/>
@@ -14498,13 +14494,13 @@
       <c r="C115" s="126"/>
       <c r="D115" s="115"/>
       <c r="E115" s="115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F115" s="116" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G115" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H115" s="116"/>
       <c r="I115" s="116"/>
@@ -14535,10 +14531,10 @@
       <c r="D116" s="115"/>
       <c r="E116" s="115"/>
       <c r="F116" s="116" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G116" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H116" s="116"/>
       <c r="I116" s="116"/>
@@ -14569,10 +14565,10 @@
       <c r="D117" s="115"/>
       <c r="E117" s="115"/>
       <c r="F117" s="116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G117" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H117" s="116"/>
       <c r="I117" s="116"/>
@@ -14603,10 +14599,10 @@
       <c r="D118" s="115"/>
       <c r="E118" s="115"/>
       <c r="F118" s="116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G118" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H118" s="116"/>
       <c r="I118" s="116"/>
@@ -14637,10 +14633,10 @@
       <c r="D119" s="115"/>
       <c r="E119" s="124"/>
       <c r="F119" s="116" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G119" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H119" s="116"/>
       <c r="I119" s="116"/>
@@ -14670,13 +14666,13 @@
       <c r="C120" s="126"/>
       <c r="D120" s="115"/>
       <c r="E120" s="115" t="s">
+        <v>205</v>
+      </c>
+      <c r="F120" s="116" t="s">
         <v>206</v>
       </c>
-      <c r="F120" s="116" t="s">
-        <v>207</v>
-      </c>
       <c r="G120" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H120" s="116"/>
       <c r="I120" s="116"/>
@@ -14707,10 +14703,10 @@
       <c r="D121" s="115"/>
       <c r="E121" s="115"/>
       <c r="F121" s="116" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G121" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H121" s="116"/>
       <c r="I121" s="116"/>
@@ -14741,10 +14737,10 @@
       <c r="D122" s="115"/>
       <c r="E122" s="115"/>
       <c r="F122" s="116" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G122" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H122" s="116"/>
       <c r="I122" s="116"/>
@@ -14775,10 +14771,10 @@
       <c r="D123" s="115"/>
       <c r="E123" s="115"/>
       <c r="F123" s="116" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G123" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H123" s="116"/>
       <c r="I123" s="116"/>
@@ -14809,10 +14805,10 @@
       <c r="D124" s="115"/>
       <c r="E124" s="124"/>
       <c r="F124" s="116" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G124" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H124" s="116"/>
       <c r="I124" s="116"/>
@@ -14842,13 +14838,13 @@
       <c r="C125" s="126"/>
       <c r="D125" s="124"/>
       <c r="E125" s="124" t="s">
+        <v>211</v>
+      </c>
+      <c r="F125" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="F125" s="116" t="s">
-        <v>213</v>
-      </c>
       <c r="G125" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H125" s="116"/>
       <c r="I125" s="116"/>
@@ -14877,16 +14873,16 @@
       <c r="B126" s="130"/>
       <c r="C126" s="123"/>
       <c r="D126" s="124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E126" s="124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F126" s="116" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G126" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H126" s="116"/>
       <c r="I126" s="116"/>
@@ -14914,19 +14910,19 @@
       </c>
       <c r="B127" s="130"/>
       <c r="C127" s="115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D127" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="E127" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="E127" s="116" t="s">
+      <c r="F127" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="F127" s="116" t="s">
-        <v>217</v>
-      </c>
       <c r="G127" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H127" s="116"/>
       <c r="I127" s="116"/>
@@ -14956,13 +14952,13 @@
       <c r="C128" s="115"/>
       <c r="D128" s="115"/>
       <c r="E128" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="F128" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="F128" s="116" t="s">
-        <v>219</v>
-      </c>
       <c r="G128" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H128" s="116"/>
       <c r="I128" s="116"/>
@@ -14993,10 +14989,10 @@
       <c r="D129" s="115"/>
       <c r="E129" s="115"/>
       <c r="F129" s="116" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G129" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H129" s="116"/>
       <c r="I129" s="116"/>
@@ -15027,10 +15023,10 @@
       <c r="D130" s="124"/>
       <c r="E130" s="124"/>
       <c r="F130" s="116" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G130" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H130" s="116"/>
       <c r="I130" s="116"/>
@@ -15057,22 +15053,22 @@
         <v>50-1-1</v>
       </c>
       <c r="B131" s="151" t="s">
+        <v>221</v>
+      </c>
+      <c r="C131" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="D131" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E131" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="F131" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="C131" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="D131" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="E131" s="151" t="s">
-        <v>54</v>
-      </c>
-      <c r="F131" s="116" t="s">
-        <v>223</v>
-      </c>
       <c r="G131" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H131" s="116"/>
       <c r="I131" s="116"/>
@@ -15099,16 +15095,16 @@
         <v>50-2-1</v>
       </c>
       <c r="B132" s="230" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C132" s="126"/>
       <c r="D132" s="115"/>
       <c r="E132" s="115"/>
       <c r="F132" s="116" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G132" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H132" s="116"/>
       <c r="I132" s="116"/>
@@ -15139,10 +15135,10 @@
       <c r="D133" s="115"/>
       <c r="E133" s="115"/>
       <c r="F133" s="116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G133" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H133" s="116"/>
       <c r="I133" s="116"/>
@@ -15173,10 +15169,10 @@
       <c r="D134" s="115"/>
       <c r="E134" s="124"/>
       <c r="F134" s="116" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G134" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H134" s="116"/>
       <c r="I134" s="116"/>
@@ -15206,13 +15202,13 @@
       <c r="C135" s="126"/>
       <c r="D135" s="115"/>
       <c r="E135" s="115" t="s">
+        <v>227</v>
+      </c>
+      <c r="F135" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="F135" s="116" t="s">
-        <v>229</v>
-      </c>
       <c r="G135" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H135" s="116"/>
       <c r="I135" s="116"/>
@@ -15243,10 +15239,10 @@
       <c r="D136" s="124"/>
       <c r="E136" s="124"/>
       <c r="F136" s="116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G136" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H136" s="116"/>
       <c r="I136" s="116"/>
@@ -15275,16 +15271,16 @@
       <c r="B137" s="130"/>
       <c r="C137" s="123"/>
       <c r="D137" s="124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E137" s="124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F137" s="116" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G137" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H137" s="116"/>
       <c r="I137" s="116"/>
@@ -15312,19 +15308,19 @@
       </c>
       <c r="B138" s="130"/>
       <c r="C138" s="126" t="s">
+        <v>231</v>
+      </c>
+      <c r="D138" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="E138" s="116" t="s">
         <v>232</v>
       </c>
-      <c r="D138" s="115" t="s">
-        <v>215</v>
-      </c>
-      <c r="E138" s="116" t="s">
+      <c r="F138" s="116" t="s">
         <v>233</v>
       </c>
-      <c r="F138" s="116" t="s">
-        <v>234</v>
-      </c>
       <c r="G138" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H138" s="116"/>
       <c r="I138" s="116"/>
@@ -15354,13 +15350,13 @@
       <c r="C139" s="126"/>
       <c r="D139" s="115"/>
       <c r="E139" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="F139" s="116" t="s">
         <v>235</v>
       </c>
-      <c r="F139" s="116" t="s">
-        <v>236</v>
-      </c>
       <c r="G139" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H139" s="116"/>
       <c r="I139" s="116"/>
@@ -15390,13 +15386,13 @@
       <c r="C140" s="126"/>
       <c r="D140" s="115"/>
       <c r="E140" s="116" t="s">
+        <v>236</v>
+      </c>
+      <c r="F140" s="116" t="s">
         <v>237</v>
       </c>
-      <c r="F140" s="116" t="s">
-        <v>238</v>
-      </c>
       <c r="G140" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H140" s="116"/>
       <c r="I140" s="116"/>
@@ -15426,13 +15422,13 @@
       <c r="C141" s="126"/>
       <c r="D141" s="115"/>
       <c r="E141" s="116" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F141" s="116" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G141" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H141" s="116"/>
       <c r="I141" s="116"/>
@@ -15462,13 +15458,13 @@
       <c r="C142" s="126"/>
       <c r="D142" s="115"/>
       <c r="E142" s="116" t="s">
+        <v>239</v>
+      </c>
+      <c r="F142" s="116" t="s">
         <v>240</v>
       </c>
-      <c r="F142" s="116" t="s">
-        <v>241</v>
-      </c>
       <c r="G142" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H142" s="116"/>
       <c r="I142" s="116"/>
@@ -15498,13 +15494,13 @@
       <c r="C143" s="126"/>
       <c r="D143" s="115"/>
       <c r="E143" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="F143" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="F143" s="116" t="s">
-        <v>243</v>
-      </c>
       <c r="G143" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H143" s="116"/>
       <c r="I143" s="116"/>
@@ -15535,10 +15531,10 @@
       <c r="D144" s="115"/>
       <c r="E144" s="130"/>
       <c r="F144" s="116" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G144" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H144" s="116"/>
       <c r="I144" s="116"/>
@@ -15569,10 +15565,10 @@
       <c r="D145" s="115"/>
       <c r="E145" s="130"/>
       <c r="F145" s="116" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G145" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H145" s="116"/>
       <c r="I145" s="116"/>
@@ -15603,10 +15599,10 @@
       <c r="D146" s="115"/>
       <c r="E146" s="130"/>
       <c r="F146" s="116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G146" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H146" s="116"/>
       <c r="I146" s="116"/>
@@ -15637,10 +15633,10 @@
       <c r="D147" s="115"/>
       <c r="E147" s="130"/>
       <c r="F147" s="116" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G147" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H147" s="116"/>
       <c r="I147" s="116"/>
@@ -15671,10 +15667,10 @@
       <c r="D148" s="124"/>
       <c r="E148" s="152"/>
       <c r="F148" s="116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G148" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H148" s="116"/>
       <c r="I148" s="116"/>
@@ -15703,16 +15699,16 @@
       <c r="B149" s="130"/>
       <c r="C149" s="126"/>
       <c r="D149" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="E149" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="F149" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="E149" s="130" t="s">
-        <v>54</v>
-      </c>
-      <c r="F149" s="116" t="s">
-        <v>250</v>
-      </c>
       <c r="G149" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H149" s="116"/>
       <c r="I149" s="116"/>
@@ -15743,10 +15739,10 @@
       <c r="D150" s="115"/>
       <c r="E150" s="124"/>
       <c r="F150" s="116" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G150" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H150" s="116"/>
       <c r="I150" s="116"/>
@@ -15776,13 +15772,13 @@
       <c r="C151" s="126"/>
       <c r="D151" s="115"/>
       <c r="E151" s="115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F151" s="116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G151" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H151" s="116"/>
       <c r="I151" s="116"/>
@@ -15813,10 +15809,10 @@
       <c r="D152" s="115"/>
       <c r="E152" s="130"/>
       <c r="F152" s="116" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G152" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H152" s="116"/>
       <c r="I152" s="116"/>
@@ -15847,10 +15843,10 @@
       <c r="D153" s="115"/>
       <c r="E153" s="130"/>
       <c r="F153" s="116" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G153" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H153" s="116"/>
       <c r="I153" s="116"/>
@@ -15881,10 +15877,10 @@
       <c r="D154" s="115"/>
       <c r="E154" s="130"/>
       <c r="F154" s="116" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G154" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H154" s="116"/>
       <c r="I154" s="116"/>
@@ -15915,10 +15911,10 @@
       <c r="D155" s="115"/>
       <c r="E155" s="130"/>
       <c r="F155" s="116" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G155" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H155" s="116"/>
       <c r="I155" s="116"/>
@@ -15949,10 +15945,10 @@
       <c r="D156" s="115"/>
       <c r="E156" s="130"/>
       <c r="F156" s="116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G156" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H156" s="116"/>
       <c r="I156" s="116"/>
@@ -15983,10 +15979,10 @@
       <c r="D157" s="115"/>
       <c r="E157" s="130"/>
       <c r="F157" s="116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G157" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H157" s="116"/>
       <c r="I157" s="116"/>
@@ -16017,10 +16013,10 @@
       <c r="D158" s="115"/>
       <c r="E158" s="130"/>
       <c r="F158" s="116" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G158" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H158" s="116"/>
       <c r="I158" s="116"/>
@@ -16051,10 +16047,10 @@
       <c r="D159" s="115"/>
       <c r="E159" s="130"/>
       <c r="F159" s="116" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G159" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H159" s="116"/>
       <c r="I159" s="116"/>
@@ -16085,10 +16081,10 @@
       <c r="D160" s="115"/>
       <c r="E160" s="130"/>
       <c r="F160" s="116" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G160" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H160" s="116"/>
       <c r="I160" s="116"/>
@@ -16119,10 +16115,10 @@
       <c r="D161" s="115"/>
       <c r="E161" s="124"/>
       <c r="F161" s="116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G161" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H161" s="116"/>
       <c r="I161" s="116"/>
@@ -16152,13 +16148,13 @@
       <c r="C162" s="126"/>
       <c r="D162" s="115"/>
       <c r="E162" s="115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F162" s="116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G162" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H162" s="116"/>
       <c r="I162" s="116"/>
@@ -16189,10 +16185,10 @@
       <c r="D163" s="115"/>
       <c r="E163" s="115"/>
       <c r="F163" s="116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G163" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H163" s="116"/>
       <c r="I163" s="116"/>
@@ -16223,10 +16219,10 @@
       <c r="D164" s="115"/>
       <c r="E164" s="115"/>
       <c r="F164" s="116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G164" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H164" s="116"/>
       <c r="I164" s="116"/>
@@ -16257,10 +16253,10 @@
       <c r="D165" s="115"/>
       <c r="E165" s="115"/>
       <c r="F165" s="116" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G165" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H165" s="116"/>
       <c r="I165" s="116"/>
@@ -16291,10 +16287,10 @@
       <c r="D166" s="115"/>
       <c r="E166" s="115"/>
       <c r="F166" s="116" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G166" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H166" s="116"/>
       <c r="I166" s="116"/>
@@ -16325,10 +16321,10 @@
       <c r="D167" s="115"/>
       <c r="E167" s="115"/>
       <c r="F167" s="116" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G167" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H167" s="116"/>
       <c r="I167" s="116"/>
@@ -16359,10 +16355,10 @@
       <c r="D168" s="115"/>
       <c r="E168" s="124"/>
       <c r="F168" s="116" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G168" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H168" s="116"/>
       <c r="I168" s="116"/>
@@ -16392,13 +16388,13 @@
       <c r="C169" s="126"/>
       <c r="D169" s="115"/>
       <c r="E169" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F169" s="116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G169" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H169" s="116"/>
       <c r="I169" s="116"/>
@@ -16429,10 +16425,10 @@
       <c r="D170" s="115"/>
       <c r="E170" s="115"/>
       <c r="F170" s="116" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G170" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H170" s="116"/>
       <c r="I170" s="116"/>
@@ -16463,10 +16459,10 @@
       <c r="D171" s="115"/>
       <c r="E171" s="115"/>
       <c r="F171" s="116" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G171" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H171" s="116"/>
       <c r="I171" s="116"/>
@@ -16497,10 +16493,10 @@
       <c r="D172" s="115"/>
       <c r="E172" s="115"/>
       <c r="F172" s="116" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G172" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H172" s="116"/>
       <c r="I172" s="116"/>
@@ -16531,10 +16527,10 @@
       <c r="D173" s="115"/>
       <c r="E173" s="115"/>
       <c r="F173" s="116" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G173" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H173" s="116"/>
       <c r="I173" s="116"/>
@@ -16565,10 +16561,10 @@
       <c r="D174" s="115"/>
       <c r="E174" s="115"/>
       <c r="F174" s="116" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G174" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H174" s="116"/>
       <c r="I174" s="116"/>
@@ -16599,10 +16595,10 @@
       <c r="D175" s="115"/>
       <c r="E175" s="115"/>
       <c r="F175" s="116" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G175" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H175" s="116"/>
       <c r="I175" s="116"/>
@@ -16633,10 +16629,10 @@
       <c r="D176" s="115"/>
       <c r="E176" s="115"/>
       <c r="F176" s="116" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G176" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H176" s="116"/>
       <c r="I176" s="116"/>
@@ -16667,10 +16663,10 @@
       <c r="D177" s="115"/>
       <c r="E177" s="124"/>
       <c r="F177" s="116" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G177" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H177" s="116"/>
       <c r="I177" s="116"/>
@@ -16700,13 +16696,13 @@
       <c r="C178" s="126"/>
       <c r="D178" s="115"/>
       <c r="E178" s="116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F178" s="116" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G178" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H178" s="116"/>
       <c r="I178" s="116"/>
@@ -16736,13 +16732,13 @@
       <c r="C179" s="123"/>
       <c r="D179" s="124"/>
       <c r="E179" s="123" t="s">
+        <v>279</v>
+      </c>
+      <c r="F179" s="116" t="s">
         <v>280</v>
       </c>
-      <c r="F179" s="116" t="s">
-        <v>281</v>
-      </c>
       <c r="G179" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H179" s="116"/>
       <c r="I179" s="116"/>
@@ -16769,22 +16765,22 @@
         <v>65-1-1</v>
       </c>
       <c r="B180" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="C180" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="D180" s="153" t="s">
         <v>282</v>
       </c>
-      <c r="C180" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="D180" s="153" t="s">
+      <c r="E180" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="F180" s="116" t="s">
         <v>283</v>
       </c>
-      <c r="E180" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="F180" s="116" t="s">
-        <v>284</v>
-      </c>
       <c r="G180" s="157" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H180" s="116"/>
       <c r="I180" s="116"/>
@@ -16813,16 +16809,16 @@
       <c r="B181" s="115"/>
       <c r="C181" s="126"/>
       <c r="D181" s="153" t="s">
+        <v>284</v>
+      </c>
+      <c r="E181" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="F181" s="116" t="s">
         <v>285</v>
       </c>
-      <c r="E181" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="F181" s="116" t="s">
-        <v>286</v>
-      </c>
       <c r="G181" s="157" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H181" s="116"/>
       <c r="I181" s="116"/>
@@ -16851,16 +16847,16 @@
       <c r="B182" s="124"/>
       <c r="C182" s="123"/>
       <c r="D182" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="E182" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="F182" s="116" t="s">
         <v>287</v>
       </c>
-      <c r="E182" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="F182" s="116" t="s">
-        <v>288</v>
-      </c>
       <c r="G182" s="157" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H182" s="116"/>
       <c r="I182" s="116"/>
@@ -16887,22 +16883,22 @@
         <v>68-1-1</v>
       </c>
       <c r="B183" s="114" t="s">
+        <v>288</v>
+      </c>
+      <c r="C183" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="D183" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E183" s="116" t="s">
         <v>289</v>
       </c>
-      <c r="C183" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="D183" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="E183" s="116" t="s">
+      <c r="F183" s="116" t="s">
         <v>290</v>
       </c>
-      <c r="F183" s="116" t="s">
-        <v>291</v>
-      </c>
       <c r="G183" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H183" s="116"/>
       <c r="I183" s="116"/>
@@ -16932,13 +16928,13 @@
       <c r="C184" s="130"/>
       <c r="D184" s="115"/>
       <c r="E184" s="115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F184" s="116" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G184" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H184" s="116"/>
       <c r="I184" s="116"/>
@@ -16969,10 +16965,10 @@
       <c r="D185" s="115"/>
       <c r="E185" s="124"/>
       <c r="F185" s="116" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G185" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H185" s="116"/>
       <c r="I185" s="116"/>
@@ -17002,13 +16998,13 @@
       <c r="C186" s="126"/>
       <c r="D186" s="115"/>
       <c r="E186" s="115" t="s">
+        <v>293</v>
+      </c>
+      <c r="F186" s="116" t="s">
         <v>294</v>
       </c>
-      <c r="F186" s="116" t="s">
-        <v>295</v>
-      </c>
       <c r="G186" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H186" s="116"/>
       <c r="I186" s="116"/>
@@ -17039,10 +17035,10 @@
       <c r="D187" s="155"/>
       <c r="E187" s="124"/>
       <c r="F187" s="116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G187" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H187" s="116"/>
       <c r="I187" s="116"/>
@@ -17071,16 +17067,16 @@
       <c r="B188" s="130"/>
       <c r="C188" s="123"/>
       <c r="D188" s="124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E188" s="124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F188" s="116" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G188" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H188" s="116"/>
       <c r="I188" s="116"/>
@@ -17108,19 +17104,19 @@
       </c>
       <c r="B189" s="130"/>
       <c r="C189" s="126" t="s">
+        <v>297</v>
+      </c>
+      <c r="D189" s="115" t="s">
         <v>298</v>
       </c>
-      <c r="D189" s="115" t="s">
+      <c r="E189" s="115" t="s">
         <v>299</v>
       </c>
-      <c r="E189" s="115" t="s">
+      <c r="F189" s="116" t="s">
         <v>300</v>
       </c>
-      <c r="F189" s="116" t="s">
-        <v>301</v>
-      </c>
       <c r="G189" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H189" s="116"/>
       <c r="I189" s="116"/>
@@ -17151,10 +17147,10 @@
       <c r="D190" s="115"/>
       <c r="E190" s="115"/>
       <c r="F190" s="116" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G190" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H190" s="116"/>
       <c r="I190" s="116"/>
@@ -17185,10 +17181,10 @@
       <c r="D191" s="115"/>
       <c r="E191" s="115"/>
       <c r="F191" s="116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G191" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H191" s="116"/>
       <c r="I191" s="116"/>
@@ -17219,10 +17215,10 @@
       <c r="D192" s="115"/>
       <c r="E192" s="115"/>
       <c r="F192" s="116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G192" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H192" s="116"/>
       <c r="I192" s="116"/>
@@ -17253,10 +17249,10 @@
       <c r="D193" s="115"/>
       <c r="E193" s="115"/>
       <c r="F193" s="116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G193" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H193" s="116"/>
       <c r="I193" s="116"/>
@@ -17287,10 +17283,10 @@
       <c r="D194" s="115"/>
       <c r="E194" s="115"/>
       <c r="F194" s="116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G194" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H194" s="116"/>
       <c r="I194" s="116"/>
@@ -17321,10 +17317,10 @@
       <c r="D195" s="115"/>
       <c r="E195" s="124"/>
       <c r="F195" s="116" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G195" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H195" s="116"/>
       <c r="I195" s="116"/>
@@ -17354,13 +17350,13 @@
       <c r="C196" s="130"/>
       <c r="D196" s="124"/>
       <c r="E196" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="F196" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="F196" s="116" t="s">
-        <v>309</v>
-      </c>
       <c r="G196" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H196" s="116"/>
       <c r="I196" s="116"/>
@@ -17389,16 +17385,16 @@
       <c r="B197" s="130"/>
       <c r="C197" s="130"/>
       <c r="D197" s="115" t="s">
+        <v>309</v>
+      </c>
+      <c r="E197" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="F197" s="116" t="s">
         <v>310</v>
       </c>
-      <c r="E197" s="115" t="s">
-        <v>128</v>
-      </c>
-      <c r="F197" s="116" t="s">
-        <v>311</v>
-      </c>
       <c r="G197" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H197" s="116"/>
       <c r="I197" s="116"/>
@@ -17429,10 +17425,10 @@
       <c r="D198" s="115"/>
       <c r="E198" s="115"/>
       <c r="F198" s="116" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G198" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H198" s="116"/>
       <c r="I198" s="116"/>
@@ -17463,10 +17459,10 @@
       <c r="D199" s="115"/>
       <c r="E199" s="115"/>
       <c r="F199" s="116" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G199" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H199" s="116"/>
       <c r="I199" s="116"/>
@@ -17497,10 +17493,10 @@
       <c r="D200" s="115"/>
       <c r="E200" s="115"/>
       <c r="F200" s="116" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G200" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H200" s="116"/>
       <c r="I200" s="116"/>
@@ -17531,10 +17527,10 @@
       <c r="D201" s="115"/>
       <c r="E201" s="115"/>
       <c r="F201" s="116" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G201" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H201" s="116"/>
       <c r="I201" s="116"/>
@@ -17565,10 +17561,10 @@
       <c r="D202" s="115"/>
       <c r="E202" s="115"/>
       <c r="F202" s="116" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G202" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H202" s="116"/>
       <c r="I202" s="116"/>
@@ -17599,10 +17595,10 @@
       <c r="D203" s="115"/>
       <c r="E203" s="115"/>
       <c r="F203" s="116" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G203" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H203" s="116"/>
       <c r="I203" s="116"/>
@@ -17633,10 +17629,10 @@
       <c r="D204" s="115"/>
       <c r="E204" s="115"/>
       <c r="F204" s="116" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G204" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H204" s="116"/>
       <c r="I204" s="116"/>
@@ -17667,10 +17663,10 @@
       <c r="D205" s="115"/>
       <c r="E205" s="115"/>
       <c r="F205" s="116" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G205" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H205" s="116"/>
       <c r="I205" s="116"/>
@@ -17701,10 +17697,10 @@
       <c r="D206" s="115"/>
       <c r="E206" s="115"/>
       <c r="F206" s="116" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G206" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H206" s="116"/>
       <c r="I206" s="116"/>
@@ -17735,10 +17731,10 @@
       <c r="D207" s="115"/>
       <c r="E207" s="115"/>
       <c r="F207" s="116" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G207" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H207" s="116"/>
       <c r="I207" s="116"/>
@@ -17769,10 +17765,10 @@
       <c r="D208" s="115"/>
       <c r="E208" s="115"/>
       <c r="F208" s="116" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G208" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H208" s="116"/>
       <c r="I208" s="116"/>
@@ -17803,10 +17799,10 @@
       <c r="D209" s="124"/>
       <c r="E209" s="124"/>
       <c r="F209" s="116" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G209" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H209" s="116"/>
       <c r="I209" s="116"/>
@@ -17835,16 +17831,16 @@
       <c r="B210" s="115"/>
       <c r="C210" s="130"/>
       <c r="D210" s="114" t="s">
+        <v>323</v>
+      </c>
+      <c r="E210" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="F210" s="116" t="s">
         <v>324</v>
       </c>
-      <c r="E210" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="F210" s="116" t="s">
-        <v>325</v>
-      </c>
       <c r="G210" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H210" s="116"/>
       <c r="I210" s="116"/>
@@ -17875,10 +17871,10 @@
       <c r="D211" s="115"/>
       <c r="E211" s="115"/>
       <c r="F211" s="116" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G211" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H211" s="116"/>
       <c r="I211" s="116"/>
@@ -17909,10 +17905,10 @@
       <c r="D212" s="115"/>
       <c r="E212" s="115"/>
       <c r="F212" s="116" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G212" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H212" s="116"/>
       <c r="I212" s="116"/>
@@ -17943,10 +17939,10 @@
       <c r="D213" s="115"/>
       <c r="E213" s="115"/>
       <c r="F213" s="116" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G213" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H213" s="116"/>
       <c r="I213" s="116"/>
@@ -17977,10 +17973,10 @@
       <c r="D214" s="115"/>
       <c r="E214" s="115"/>
       <c r="F214" s="116" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G214" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H214" s="116"/>
       <c r="I214" s="116"/>
@@ -18011,10 +18007,10 @@
       <c r="D215" s="115"/>
       <c r="E215" s="115"/>
       <c r="F215" s="116" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G215" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H215" s="116"/>
       <c r="I215" s="116"/>
@@ -18045,10 +18041,10 @@
       <c r="D216" s="115"/>
       <c r="E216" s="115"/>
       <c r="F216" s="116" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G216" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H216" s="116"/>
       <c r="I216" s="116"/>
@@ -18079,10 +18075,10 @@
       <c r="D217" s="115"/>
       <c r="E217" s="115"/>
       <c r="F217" s="116" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G217" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H217" s="116"/>
       <c r="I217" s="116"/>
@@ -18113,10 +18109,10 @@
       <c r="D218" s="115"/>
       <c r="E218" s="115"/>
       <c r="F218" s="116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G218" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H218" s="116"/>
       <c r="I218" s="116"/>
@@ -18147,10 +18143,10 @@
       <c r="D219" s="115"/>
       <c r="E219" s="115"/>
       <c r="F219" s="116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G219" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H219" s="116"/>
       <c r="I219" s="116"/>
@@ -18181,10 +18177,10 @@
       <c r="D220" s="115"/>
       <c r="E220" s="115"/>
       <c r="F220" s="116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G220" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H220" s="116"/>
       <c r="I220" s="116"/>
@@ -18215,10 +18211,10 @@
       <c r="D221" s="115"/>
       <c r="E221" s="115"/>
       <c r="F221" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G221" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H221" s="116"/>
       <c r="I221" s="116"/>
@@ -18249,10 +18245,10 @@
       <c r="D222" s="115"/>
       <c r="E222" s="115"/>
       <c r="F222" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G222" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H222" s="116"/>
       <c r="I222" s="116"/>
@@ -18283,10 +18279,10 @@
       <c r="D223" s="115"/>
       <c r="E223" s="115"/>
       <c r="F223" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G223" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H223" s="116"/>
       <c r="I223" s="116"/>
@@ -18317,10 +18313,10 @@
       <c r="D224" s="115"/>
       <c r="E224" s="124"/>
       <c r="F224" s="116" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G224" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H224" s="116"/>
       <c r="I224" s="116"/>
@@ -18350,13 +18346,13 @@
       <c r="C225" s="130"/>
       <c r="D225" s="115"/>
       <c r="E225" s="115" t="s">
+        <v>336</v>
+      </c>
+      <c r="F225" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="F225" s="116" t="s">
-        <v>338</v>
-      </c>
       <c r="G225" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H225" s="116"/>
       <c r="I225" s="116"/>
@@ -18387,10 +18383,10 @@
       <c r="D226" s="115"/>
       <c r="E226" s="115"/>
       <c r="F226" s="116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G226" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H226" s="116"/>
       <c r="I226" s="116"/>
@@ -18421,10 +18417,10 @@
       <c r="D227" s="115"/>
       <c r="E227" s="124"/>
       <c r="F227" s="116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G227" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H227" s="116"/>
       <c r="I227" s="116"/>
@@ -18454,13 +18450,13 @@
       <c r="C228" s="130"/>
       <c r="D228" s="115"/>
       <c r="E228" s="124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F228" s="116" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G228" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H228" s="116"/>
       <c r="I228" s="116"/>
@@ -18490,13 +18486,13 @@
       <c r="C229" s="124"/>
       <c r="D229" s="124"/>
       <c r="E229" s="152" t="s">
+        <v>341</v>
+      </c>
+      <c r="F229" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="F229" s="116" t="s">
-        <v>343</v>
-      </c>
       <c r="G229" s="157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H229" s="116"/>
       <c r="I229" s="116"/>
@@ -18523,22 +18519,22 @@
         <v>79-1-1</v>
       </c>
       <c r="B230" s="114" t="s">
+        <v>343</v>
+      </c>
+      <c r="C230" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="D230" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E230" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="F230" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="C230" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="D230" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="E230" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="F230" s="116" t="s">
-        <v>345</v>
-      </c>
       <c r="G230" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H230" s="116"/>
       <c r="I230" s="116"/>
@@ -18568,13 +18564,13 @@
       <c r="C231" s="115"/>
       <c r="D231" s="115"/>
       <c r="E231" s="115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F231" s="116" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G231" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H231" s="116"/>
       <c r="I231" s="116"/>
@@ -18605,10 +18601,10 @@
       <c r="D232" s="115"/>
       <c r="E232" s="115"/>
       <c r="F232" s="116" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G232" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H232" s="116"/>
       <c r="I232" s="116"/>
@@ -18639,10 +18635,10 @@
       <c r="D233" s="115"/>
       <c r="E233" s="115"/>
       <c r="F233" s="116" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G233" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H233" s="116"/>
       <c r="I233" s="116"/>
@@ -18673,10 +18669,10 @@
       <c r="D234" s="115"/>
       <c r="E234" s="115"/>
       <c r="F234" s="116" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G234" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H234" s="116"/>
       <c r="I234" s="116"/>
@@ -18707,10 +18703,10 @@
       <c r="D235" s="115"/>
       <c r="E235" s="124"/>
       <c r="F235" s="116" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G235" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H235" s="116"/>
       <c r="I235" s="116"/>
@@ -18740,13 +18736,13 @@
       <c r="C236" s="115"/>
       <c r="D236" s="115"/>
       <c r="E236" s="115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F236" s="116" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G236" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H236" s="116"/>
       <c r="I236" s="116"/>
@@ -18777,10 +18773,10 @@
       <c r="D237" s="115"/>
       <c r="E237" s="115"/>
       <c r="F237" s="116" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G237" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H237" s="116"/>
       <c r="I237" s="116"/>
@@ -18811,10 +18807,10 @@
       <c r="D238" s="115"/>
       <c r="E238" s="115"/>
       <c r="F238" s="116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G238" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H238" s="116"/>
       <c r="I238" s="116"/>
@@ -18845,10 +18841,10 @@
       <c r="D239" s="115"/>
       <c r="E239" s="115"/>
       <c r="F239" s="116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G239" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H239" s="116"/>
       <c r="I239" s="116"/>
@@ -18879,10 +18875,10 @@
       <c r="D240" s="115"/>
       <c r="E240" s="124"/>
       <c r="F240" s="116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G240" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H240" s="116"/>
       <c r="I240" s="116"/>
@@ -18912,13 +18908,13 @@
       <c r="C241" s="123"/>
       <c r="D241" s="124"/>
       <c r="E241" s="124" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F241" s="116" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G241" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H241" s="116"/>
       <c r="I241" s="116"/>
@@ -18946,19 +18942,19 @@
       </c>
       <c r="B242" s="124"/>
       <c r="C242" s="124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D242" s="124" t="s">
+        <v>214</v>
+      </c>
+      <c r="E242" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="E242" s="124" t="s">
-        <v>216</v>
-      </c>
       <c r="F242" s="116" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G242" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H242" s="116"/>
       <c r="I242" s="116"/>
@@ -18985,22 +18981,22 @@
         <v>84-1-1</v>
       </c>
       <c r="B243" s="114" t="s">
+        <v>357</v>
+      </c>
+      <c r="C243" s="114" t="s">
         <v>358</v>
       </c>
-      <c r="C243" s="114" t="s">
+      <c r="D243" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E243" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="F243" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D243" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="E243" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="F243" s="116" t="s">
-        <v>360</v>
-      </c>
       <c r="G243" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H243" s="116"/>
       <c r="I243" s="116"/>
@@ -19031,10 +19027,10 @@
       <c r="D244" s="124"/>
       <c r="E244" s="124"/>
       <c r="F244" s="116" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G244" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H244" s="116"/>
       <c r="I244" s="116"/>
@@ -19063,16 +19059,16 @@
       <c r="B245" s="130"/>
       <c r="C245" s="115"/>
       <c r="D245" s="115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E245" s="115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F245" s="116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G245" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H245" s="116"/>
       <c r="I245" s="116"/>
@@ -19103,10 +19099,10 @@
       <c r="D246" s="124"/>
       <c r="E246" s="124"/>
       <c r="F246" s="116" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G246" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H246" s="116"/>
       <c r="I246" s="116"/>
@@ -19134,19 +19130,19 @@
       </c>
       <c r="B247" s="130"/>
       <c r="C247" s="126" t="s">
+        <v>363</v>
+      </c>
+      <c r="D247" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="E247" s="116" t="s">
+        <v>232</v>
+      </c>
+      <c r="F247" s="116" t="s">
         <v>364</v>
       </c>
-      <c r="D247" s="115" t="s">
-        <v>215</v>
-      </c>
-      <c r="E247" s="116" t="s">
-        <v>233</v>
-      </c>
-      <c r="F247" s="116" t="s">
-        <v>365</v>
-      </c>
       <c r="G247" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H247" s="116"/>
       <c r="I247" s="116"/>
@@ -19176,13 +19172,13 @@
       <c r="C248" s="126"/>
       <c r="D248" s="115"/>
       <c r="E248" s="116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F248" s="116" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G248" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H248" s="116"/>
       <c r="I248" s="116"/>
@@ -19212,13 +19208,13 @@
       <c r="C249" s="130"/>
       <c r="D249" s="126"/>
       <c r="E249" s="116" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F249" s="116" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G249" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H249" s="116"/>
       <c r="I249" s="116"/>
@@ -19248,13 +19244,13 @@
       <c r="C250" s="126"/>
       <c r="D250" s="124"/>
       <c r="E250" s="116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F250" s="116" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G250" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H250" s="116"/>
       <c r="I250" s="116"/>
@@ -19283,16 +19279,16 @@
       <c r="B251" s="130"/>
       <c r="C251" s="130"/>
       <c r="D251" s="115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E251" s="130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F251" s="116" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G251" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H251" s="116"/>
       <c r="I251" s="116"/>
@@ -19323,10 +19319,10 @@
       <c r="D252" s="126"/>
       <c r="E252" s="124"/>
       <c r="F252" s="116" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G252" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H252" s="116"/>
       <c r="I252" s="116"/>
@@ -19356,13 +19352,13 @@
       <c r="C253" s="130"/>
       <c r="D253" s="126"/>
       <c r="E253" s="115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F253" s="116" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G253" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H253" s="116"/>
       <c r="I253" s="116"/>
@@ -19393,10 +19389,10 @@
       <c r="D254" s="126"/>
       <c r="E254" s="115"/>
       <c r="F254" s="116" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G254" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H254" s="116"/>
       <c r="I254" s="116"/>
@@ -19427,10 +19423,10 @@
       <c r="D255" s="126"/>
       <c r="E255" s="115"/>
       <c r="F255" s="116" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G255" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H255" s="116"/>
       <c r="I255" s="116"/>
@@ -19461,10 +19457,10 @@
       <c r="D256" s="126"/>
       <c r="E256" s="115"/>
       <c r="F256" s="116" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G256" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H256" s="116"/>
       <c r="I256" s="116"/>
@@ -19495,10 +19491,10 @@
       <c r="D257" s="115"/>
       <c r="E257" s="130"/>
       <c r="F257" s="116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G257" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H257" s="116"/>
       <c r="I257" s="116"/>
@@ -19529,10 +19525,10 @@
       <c r="D258" s="115"/>
       <c r="E258" s="130"/>
       <c r="F258" s="116" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G258" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H258" s="116"/>
       <c r="I258" s="116"/>
@@ -19563,10 +19559,10 @@
       <c r="D259" s="115"/>
       <c r="E259" s="130"/>
       <c r="F259" s="116" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G259" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H259" s="116"/>
       <c r="I259" s="116"/>
@@ -19597,10 +19593,10 @@
       <c r="D260" s="115"/>
       <c r="E260" s="130"/>
       <c r="F260" s="116" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G260" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H260" s="116"/>
       <c r="I260" s="116"/>
@@ -19631,10 +19627,10 @@
       <c r="D261" s="115"/>
       <c r="E261" s="130"/>
       <c r="F261" s="116" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G261" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H261" s="116"/>
       <c r="I261" s="116"/>
@@ -19665,10 +19661,10 @@
       <c r="D262" s="115"/>
       <c r="E262" s="115"/>
       <c r="F262" s="116" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G262" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H262" s="116"/>
       <c r="I262" s="116"/>
@@ -19699,10 +19695,10 @@
       <c r="D263" s="115"/>
       <c r="E263" s="124"/>
       <c r="F263" s="116" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G263" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H263" s="116"/>
       <c r="I263" s="116"/>
@@ -19732,13 +19728,13 @@
       <c r="C264" s="115"/>
       <c r="D264" s="115"/>
       <c r="E264" s="115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F264" s="116" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G264" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H264" s="116"/>
       <c r="I264" s="116"/>
@@ -19769,10 +19765,10 @@
       <c r="D265" s="115"/>
       <c r="E265" s="115"/>
       <c r="F265" s="116" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G265" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H265" s="116"/>
       <c r="I265" s="116"/>
@@ -19803,10 +19799,10 @@
       <c r="D266" s="115"/>
       <c r="E266" s="115"/>
       <c r="F266" s="116" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G266" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H266" s="116"/>
       <c r="I266" s="116"/>
@@ -19837,10 +19833,10 @@
       <c r="D267" s="126"/>
       <c r="E267" s="115"/>
       <c r="F267" s="116" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G267" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H267" s="116"/>
       <c r="I267" s="116"/>
@@ -19871,10 +19867,10 @@
       <c r="D268" s="126"/>
       <c r="E268" s="115"/>
       <c r="F268" s="116" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G268" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H268" s="116"/>
       <c r="I268" s="116"/>
@@ -19905,10 +19901,10 @@
       <c r="D269" s="126"/>
       <c r="E269" s="124"/>
       <c r="F269" s="116" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G269" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H269" s="116"/>
       <c r="I269" s="116"/>
@@ -19938,13 +19934,13 @@
       <c r="C270" s="130"/>
       <c r="D270" s="126"/>
       <c r="E270" s="115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F270" s="116" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G270" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H270" s="116"/>
       <c r="I270" s="116"/>
@@ -19975,10 +19971,10 @@
       <c r="D271" s="126"/>
       <c r="E271" s="115"/>
       <c r="F271" s="116" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G271" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H271" s="116"/>
       <c r="I271" s="116"/>
@@ -20009,10 +20005,10 @@
       <c r="D272" s="126"/>
       <c r="E272" s="115"/>
       <c r="F272" s="116" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G272" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H272" s="116"/>
       <c r="I272" s="116"/>
@@ -20043,10 +20039,10 @@
       <c r="D273" s="126"/>
       <c r="E273" s="115"/>
       <c r="F273" s="116" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G273" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H273" s="116"/>
       <c r="I273" s="116"/>
@@ -20077,10 +20073,10 @@
       <c r="D274" s="126"/>
       <c r="E274" s="115"/>
       <c r="F274" s="116" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G274" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H274" s="116"/>
       <c r="I274" s="116"/>
@@ -20111,10 +20107,10 @@
       <c r="D275" s="126"/>
       <c r="E275" s="115"/>
       <c r="F275" s="116" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G275" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H275" s="116"/>
       <c r="I275" s="116"/>
@@ -20145,10 +20141,10 @@
       <c r="D276" s="126"/>
       <c r="E276" s="115"/>
       <c r="F276" s="116" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G276" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H276" s="116"/>
       <c r="I276" s="116"/>
@@ -20179,10 +20175,10 @@
       <c r="D277" s="126"/>
       <c r="E277" s="124"/>
       <c r="F277" s="116" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G277" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H277" s="116"/>
       <c r="I277" s="116"/>
@@ -20212,13 +20208,13 @@
       <c r="C278" s="152"/>
       <c r="D278" s="123"/>
       <c r="E278" s="124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F278" s="116" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G278" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H278" s="116"/>
       <c r="I278" s="116"/>
@@ -20245,19 +20241,19 @@
         <v>95-1-1</v>
       </c>
       <c r="B279" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="C279" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="C279" s="40" t="s">
+      <c r="D279" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E279" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F279" s="42" t="s">
         <v>398</v>
-      </c>
-      <c r="D279" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E279" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F279" s="42" t="s">
-        <v>399</v>
       </c>
       <c r="G279" s="42"/>
       <c r="H279" s="42"/>
@@ -20289,7 +20285,7 @@
       <c r="D280" s="41"/>
       <c r="E280" s="41"/>
       <c r="F280" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G280" s="42"/>
       <c r="H280" s="42"/>
@@ -20321,7 +20317,7 @@
       <c r="D281" s="41"/>
       <c r="E281" s="41"/>
       <c r="F281" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G281" s="42"/>
       <c r="H281" s="42"/>
@@ -20353,7 +20349,7 @@
       <c r="D282" s="50"/>
       <c r="E282" s="50"/>
       <c r="F282" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G282" s="42"/>
       <c r="H282" s="42"/>
@@ -20382,16 +20378,16 @@
       </c>
       <c r="B283" s="48"/>
       <c r="C283" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="D283" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E283" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="F283" s="42" t="s">
         <v>403</v>
-      </c>
-      <c r="D283" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="E283" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="F283" s="42" t="s">
-        <v>404</v>
       </c>
       <c r="G283" s="42"/>
       <c r="H283" s="42"/>
@@ -20422,10 +20418,10 @@
       <c r="C284" s="54"/>
       <c r="D284" s="41"/>
       <c r="E284" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F284" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G284" s="42"/>
       <c r="H284" s="42"/>
@@ -20456,10 +20452,10 @@
       <c r="C285" s="54"/>
       <c r="D285" s="41"/>
       <c r="E285" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F285" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G285" s="42"/>
       <c r="H285" s="42"/>
@@ -20490,10 +20486,10 @@
       <c r="C286" s="54"/>
       <c r="D286" s="50"/>
       <c r="E286" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F286" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G286" s="42"/>
       <c r="H286" s="42"/>
@@ -20523,13 +20519,13 @@
       <c r="B287" s="48"/>
       <c r="C287" s="48"/>
       <c r="D287" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="E287" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="E287" s="41" t="s">
+      <c r="F287" s="42" t="s">
         <v>409</v>
-      </c>
-      <c r="F287" s="42" t="s">
-        <v>410</v>
       </c>
       <c r="G287" s="42"/>
       <c r="H287" s="42"/>
@@ -20561,7 +20557,7 @@
       <c r="D288" s="52"/>
       <c r="E288" s="41"/>
       <c r="F288" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G288" s="42"/>
       <c r="H288" s="42"/>
@@ -20593,7 +20589,7 @@
       <c r="D289" s="52"/>
       <c r="E289" s="41"/>
       <c r="F289" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G289" s="42"/>
       <c r="H289" s="42"/>
@@ -20625,7 +20621,7 @@
       <c r="D290" s="52"/>
       <c r="E290" s="41"/>
       <c r="F290" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G290" s="42"/>
       <c r="H290" s="42"/>
@@ -20657,7 +20653,7 @@
       <c r="D291" s="52"/>
       <c r="E291" s="41"/>
       <c r="F291" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G291" s="42"/>
       <c r="H291" s="42"/>
@@ -20689,7 +20685,7 @@
       <c r="D292" s="52"/>
       <c r="E292" s="41"/>
       <c r="F292" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G292" s="42"/>
       <c r="H292" s="42"/>
@@ -20721,7 +20717,7 @@
       <c r="D293" s="52"/>
       <c r="E293" s="41"/>
       <c r="F293" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G293" s="42"/>
       <c r="H293" s="42"/>
@@ -20753,7 +20749,7 @@
       <c r="D294" s="52"/>
       <c r="E294" s="41"/>
       <c r="F294" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G294" s="42"/>
       <c r="H294" s="42"/>
@@ -20785,7 +20781,7 @@
       <c r="D295" s="49"/>
       <c r="E295" s="50"/>
       <c r="F295" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G295" s="42"/>
       <c r="H295" s="42"/>
@@ -20861,7 +20857,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -20871,7 +20867,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -20902,9 +20898,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="11.5" thickBot="1">
-      <c r="A8" s="27" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="27"/>
@@ -20926,31 +20920,31 @@
     <row r="9" spans="1:18" ht="12" customHeight="1" thickTop="1"/>
     <row r="10" spans="1:18" s="29" customFormat="1">
       <c r="A10" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="C10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="D10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="E10" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="F10" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="H10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="I10" s="32" t="s">
         <v>43</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>44</v>
       </c>
       <c r="J10" s="33" t="s">
         <v>0</v>
@@ -20959,10 +20953,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N10" s="36" t="s">
         <v>3</v>
@@ -20994,22 +20988,22 @@
         <v>1-1-1</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="D11" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="E11" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="F11" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="114" t="s">
-        <v>50</v>
-      </c>
       <c r="G11" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H11" s="117"/>
       <c r="I11" s="117"/>
@@ -21040,13 +21034,13 @@
       <c r="C12" s="122"/>
       <c r="D12" s="115"/>
       <c r="E12" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="114" t="s">
-        <v>52</v>
-      </c>
       <c r="G12" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H12" s="117"/>
       <c r="I12" s="117"/>
@@ -21076,16 +21070,16 @@
       <c r="B13" s="48"/>
       <c r="C13" s="122"/>
       <c r="D13" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="114" t="s">
+      <c r="F13" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="114" t="s">
-        <v>55</v>
-      </c>
       <c r="G13" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H13" s="117"/>
       <c r="I13" s="117"/>
@@ -21117,10 +21111,10 @@
       <c r="D14" s="115"/>
       <c r="E14" s="115"/>
       <c r="F14" s="114" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H14" s="117"/>
       <c r="I14" s="117"/>
@@ -21152,10 +21146,10 @@
       <c r="D15" s="115"/>
       <c r="E15" s="115"/>
       <c r="F15" s="116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H15" s="117"/>
       <c r="I15" s="116"/>
@@ -21187,10 +21181,10 @@
       <c r="D16" s="115"/>
       <c r="E16" s="115"/>
       <c r="F16" s="116" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H16" s="117"/>
       <c r="I16" s="116"/>
@@ -21222,10 +21216,10 @@
       <c r="D17" s="123"/>
       <c r="E17" s="124"/>
       <c r="F17" s="116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H17" s="117"/>
       <c r="I17" s="116"/>
@@ -21255,16 +21249,16 @@
       <c r="B18" s="48"/>
       <c r="C18" s="122"/>
       <c r="D18" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="115" t="s">
+      <c r="F18" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="114" t="s">
-        <v>62</v>
-      </c>
       <c r="G18" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H18" s="117"/>
       <c r="I18" s="117"/>
@@ -21296,10 +21290,10 @@
       <c r="D19" s="126"/>
       <c r="E19" s="115"/>
       <c r="F19" s="114" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H19" s="117"/>
       <c r="I19" s="117"/>
@@ -21331,10 +21325,10 @@
       <c r="D20" s="126"/>
       <c r="E20" s="124"/>
       <c r="F20" s="116" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H20" s="117"/>
       <c r="I20" s="116"/>
@@ -21365,13 +21359,13 @@
       <c r="C21" s="122"/>
       <c r="D21" s="126"/>
       <c r="E21" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="114" t="s">
-        <v>66</v>
-      </c>
       <c r="G21" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H21" s="117"/>
       <c r="I21" s="117"/>
@@ -21403,10 +21397,10 @@
       <c r="D22" s="126"/>
       <c r="E22" s="115"/>
       <c r="F22" s="114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H22" s="117"/>
       <c r="I22" s="117"/>
@@ -21438,10 +21432,10 @@
       <c r="D23" s="126"/>
       <c r="E23" s="115"/>
       <c r="F23" s="114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H23" s="117"/>
       <c r="I23" s="117"/>
@@ -21473,10 +21467,10 @@
       <c r="D24" s="123"/>
       <c r="E24" s="124"/>
       <c r="F24" s="114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H24" s="117"/>
       <c r="I24" s="117"/>
@@ -21506,16 +21500,16 @@
       <c r="B25" s="48"/>
       <c r="C25" s="122"/>
       <c r="D25" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="126" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="126" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="114" t="s">
-        <v>71</v>
-      </c>
       <c r="G25" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H25" s="117"/>
       <c r="I25" s="117"/>
@@ -21547,10 +21541,10 @@
       <c r="D26" s="126"/>
       <c r="E26" s="115"/>
       <c r="F26" s="114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G26" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H26" s="117"/>
       <c r="I26" s="117"/>
@@ -21580,16 +21574,16 @@
       <c r="B27" s="48"/>
       <c r="C27" s="122"/>
       <c r="D27" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="114" t="s">
+      <c r="F27" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="114" t="s">
-        <v>75</v>
-      </c>
       <c r="G27" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H27" s="117"/>
       <c r="I27" s="117"/>
@@ -21621,10 +21615,10 @@
       <c r="D28" s="126"/>
       <c r="E28" s="115"/>
       <c r="F28" s="114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H28" s="117"/>
       <c r="I28" s="117"/>
@@ -21655,13 +21649,13 @@
       <c r="C29" s="122"/>
       <c r="D29" s="115"/>
       <c r="E29" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="114" t="s">
-        <v>78</v>
-      </c>
       <c r="G29" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H29" s="117"/>
       <c r="I29" s="117"/>
@@ -21693,10 +21687,10 @@
       <c r="D30" s="126"/>
       <c r="E30" s="115"/>
       <c r="F30" s="114" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G30" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H30" s="117"/>
       <c r="I30" s="117"/>
@@ -21728,10 +21722,10 @@
       <c r="D31" s="126"/>
       <c r="E31" s="115"/>
       <c r="F31" s="114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H31" s="117"/>
       <c r="I31" s="117"/>
@@ -21763,10 +21757,10 @@
       <c r="D32" s="126"/>
       <c r="E32" s="115"/>
       <c r="F32" s="114" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H32" s="117"/>
       <c r="I32" s="117"/>
@@ -21797,13 +21791,13 @@
       <c r="C33" s="122"/>
       <c r="D33" s="126"/>
       <c r="E33" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="116" t="s">
-        <v>83</v>
-      </c>
       <c r="G33" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H33" s="117"/>
       <c r="I33" s="116"/>
@@ -21835,10 +21829,10 @@
       <c r="D34" s="126"/>
       <c r="E34" s="124"/>
       <c r="F34" s="116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="118" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H34" s="117"/>
       <c r="I34" s="116"/>
@@ -21869,13 +21863,13 @@
       <c r="C35" s="128"/>
       <c r="D35" s="115"/>
       <c r="E35" s="114" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="114" t="s">
-        <v>86</v>
-      </c>
       <c r="G35" s="118" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H35" s="116"/>
       <c r="I35" s="116"/>
@@ -21904,19 +21898,19 @@
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="127" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="127" t="s">
+      <c r="E36" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="116" t="s">
-        <v>89</v>
-      </c>
       <c r="G36" s="160" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H36" s="116"/>
       <c r="I36" s="116"/>
@@ -21948,10 +21942,10 @@
       <c r="D37" s="126"/>
       <c r="E37" s="115"/>
       <c r="F37" s="116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G37" s="160" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H37" s="116"/>
       <c r="I37" s="116"/>
@@ -21983,10 +21977,10 @@
       <c r="D38" s="126"/>
       <c r="E38" s="115"/>
       <c r="F38" s="114" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G38" s="160" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H38" s="116"/>
       <c r="I38" s="117"/>
@@ -22018,10 +22012,10 @@
       <c r="D39" s="123"/>
       <c r="E39" s="124"/>
       <c r="F39" s="159" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="160" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H39" s="116"/>
       <c r="I39" s="117"/>
@@ -22051,16 +22045,16 @@
       <c r="B40" s="48"/>
       <c r="C40" s="122"/>
       <c r="D40" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="116" t="s">
-        <v>94</v>
-      </c>
       <c r="G40" s="160" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H40" s="116"/>
       <c r="I40" s="116"/>
@@ -22092,10 +22086,10 @@
       <c r="D41" s="123"/>
       <c r="E41" s="124"/>
       <c r="F41" s="116" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G41" s="160" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H41" s="116"/>
       <c r="I41" s="116"/>
@@ -22124,16 +22118,16 @@
       </c>
       <c r="B42" s="161"/>
       <c r="C42" s="162" t="s">
+        <v>451</v>
+      </c>
+      <c r="D42" s="162" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="162" t="s">
         <v>452</v>
       </c>
-      <c r="D42" s="162" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="162" t="s">
+      <c r="F42" s="163" t="s">
         <v>453</v>
-      </c>
-      <c r="F42" s="163" t="s">
-        <v>454</v>
       </c>
       <c r="G42" s="164"/>
       <c r="H42" s="47"/>
@@ -22166,7 +22160,7 @@
       <c r="D43" s="165"/>
       <c r="E43" s="165"/>
       <c r="F43" s="163" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G43" s="164"/>
       <c r="H43" s="47"/>
@@ -22197,13 +22191,13 @@
       <c r="B44" s="161"/>
       <c r="C44" s="161"/>
       <c r="D44" s="162" t="s">
+        <v>455</v>
+      </c>
+      <c r="E44" s="162" t="s">
         <v>456</v>
       </c>
-      <c r="E44" s="162" t="s">
+      <c r="F44" s="163" t="s">
         <v>457</v>
-      </c>
-      <c r="F44" s="163" t="s">
-        <v>458</v>
       </c>
       <c r="G44" s="164"/>
       <c r="H44" s="47"/>
@@ -22236,7 +22230,7 @@
       <c r="D45" s="165"/>
       <c r="E45" s="165"/>
       <c r="F45" s="163" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G45" s="164"/>
       <c r="H45" s="47"/>
@@ -22265,19 +22259,19 @@
         <v>15-1-1</v>
       </c>
       <c r="B46" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="D46" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="E46" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="F46" s="42" t="s">
         <v>99</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>100</v>
       </c>
       <c r="G46" s="42"/>
       <c r="H46" s="42"/>
@@ -22310,7 +22304,7 @@
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
       <c r="F47" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
@@ -22343,7 +22337,7 @@
       <c r="D48" s="41"/>
       <c r="E48" s="50"/>
       <c r="F48" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G48" s="42"/>
       <c r="H48" s="42"/>
@@ -22375,10 +22369,10 @@
       <c r="C49" s="54"/>
       <c r="D49" s="41"/>
       <c r="E49" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" s="42" t="s">
         <v>103</v>
-      </c>
-      <c r="F49" s="42" t="s">
-        <v>104</v>
       </c>
       <c r="G49" s="42"/>
       <c r="H49" s="42"/>
@@ -22411,7 +22405,7 @@
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G50" s="42"/>
       <c r="H50" s="42"/>
@@ -22444,7 +22438,7 @@
       <c r="D51" s="41"/>
       <c r="E51" s="50"/>
       <c r="F51" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G51" s="42"/>
       <c r="H51" s="42"/>
@@ -22476,10 +22470,10 @@
       <c r="C52" s="54"/>
       <c r="D52" s="41"/>
       <c r="E52" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="40" t="s">
         <v>106</v>
-      </c>
-      <c r="F52" s="40" t="s">
-        <v>107</v>
       </c>
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
@@ -22512,7 +22506,7 @@
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
       <c r="F53" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G53" s="42"/>
       <c r="H53" s="42"/>
@@ -22544,10 +22538,10 @@
       <c r="C54" s="54"/>
       <c r="D54" s="41"/>
       <c r="E54" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="42" t="s">
         <v>109</v>
-      </c>
-      <c r="F54" s="42" t="s">
-        <v>110</v>
       </c>
       <c r="G54" s="42"/>
       <c r="H54" s="42"/>
@@ -22580,7 +22574,7 @@
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
       <c r="F55" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G55" s="42"/>
       <c r="H55" s="42"/>
@@ -22613,7 +22607,7 @@
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G56" s="42"/>
       <c r="H56" s="42"/>
@@ -22646,7 +22640,7 @@
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G57" s="42"/>
       <c r="H57" s="42"/>
@@ -22679,7 +22673,7 @@
       <c r="D58" s="41"/>
       <c r="E58" s="41"/>
       <c r="F58" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G58" s="42"/>
       <c r="H58" s="42"/>
@@ -22712,7 +22706,7 @@
       <c r="D59" s="41"/>
       <c r="E59" s="50"/>
       <c r="F59" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G59" s="42"/>
       <c r="H59" s="42"/>
@@ -22744,10 +22738,10 @@
       <c r="C60" s="54"/>
       <c r="D60" s="41"/>
       <c r="E60" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="42" t="s">
         <v>116</v>
-      </c>
-      <c r="F60" s="42" t="s">
-        <v>117</v>
       </c>
       <c r="G60" s="42"/>
       <c r="H60" s="42"/>
@@ -22779,10 +22773,10 @@
       <c r="C61" s="54"/>
       <c r="D61" s="41"/>
       <c r="E61" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="42" t="s">
         <v>118</v>
-      </c>
-      <c r="F61" s="42" t="s">
-        <v>119</v>
       </c>
       <c r="G61" s="42"/>
       <c r="H61" s="42"/>
@@ -22814,10 +22808,10 @@
       <c r="C62" s="54"/>
       <c r="D62" s="50"/>
       <c r="E62" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" s="42" t="s">
         <v>120</v>
-      </c>
-      <c r="F62" s="42" t="s">
-        <v>121</v>
       </c>
       <c r="G62" s="42"/>
       <c r="H62" s="42"/>
@@ -22848,13 +22842,13 @@
       <c r="B63" s="48"/>
       <c r="C63" s="54"/>
       <c r="D63" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" s="42" t="s">
         <v>122</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F63" s="42" t="s">
-        <v>123</v>
       </c>
       <c r="G63" s="42"/>
       <c r="H63" s="42"/>
@@ -22887,7 +22881,7 @@
       <c r="D64" s="41"/>
       <c r="E64" s="41"/>
       <c r="F64" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G64" s="42"/>
       <c r="H64" s="42"/>
@@ -22920,7 +22914,7 @@
       <c r="D65" s="41"/>
       <c r="E65" s="41"/>
       <c r="F65" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G65" s="42"/>
       <c r="H65" s="42"/>
@@ -22953,7 +22947,7 @@
       <c r="D66" s="41"/>
       <c r="E66" s="41"/>
       <c r="F66" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G66" s="42"/>
       <c r="H66" s="42"/>
@@ -22986,7 +22980,7 @@
       <c r="D67" s="41"/>
       <c r="E67" s="50"/>
       <c r="F67" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G67" s="42"/>
       <c r="H67" s="42"/>
@@ -23018,10 +23012,10 @@
       <c r="C68" s="48"/>
       <c r="D68" s="41"/>
       <c r="E68" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="42" t="s">
         <v>128</v>
-      </c>
-      <c r="F68" s="42" t="s">
-        <v>129</v>
       </c>
       <c r="G68" s="42"/>
       <c r="H68" s="42"/>
@@ -23054,7 +23048,7 @@
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
       <c r="F69" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G69" s="42"/>
       <c r="H69" s="42"/>
@@ -23087,7 +23081,7 @@
       <c r="D70" s="41"/>
       <c r="E70" s="41"/>
       <c r="F70" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G70" s="42"/>
       <c r="H70" s="42"/>
@@ -23120,7 +23114,7 @@
       <c r="D71" s="41"/>
       <c r="E71" s="41"/>
       <c r="F71" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G71" s="42"/>
       <c r="H71" s="42"/>
@@ -23153,7 +23147,7 @@
       <c r="D72" s="41"/>
       <c r="E72" s="41"/>
       <c r="F72" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G72" s="42"/>
       <c r="H72" s="42"/>
@@ -23186,7 +23180,7 @@
       <c r="D73" s="41"/>
       <c r="E73" s="41"/>
       <c r="F73" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G73" s="42"/>
       <c r="H73" s="42"/>
@@ -23219,7 +23213,7 @@
       <c r="D74" s="41"/>
       <c r="E74" s="41"/>
       <c r="F74" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G74" s="42"/>
       <c r="H74" s="42"/>
@@ -23252,7 +23246,7 @@
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
       <c r="F75" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
@@ -23284,10 +23278,10 @@
       <c r="C76" s="67"/>
       <c r="D76" s="68"/>
       <c r="E76" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" s="40" t="s">
         <v>137</v>
-      </c>
-      <c r="F76" s="40" t="s">
-        <v>138</v>
       </c>
       <c r="G76" s="62"/>
       <c r="H76" s="42"/>
@@ -23319,10 +23313,10 @@
       <c r="C77" s="71"/>
       <c r="D77" s="41"/>
       <c r="E77" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F77" s="40" t="s">
         <v>139</v>
-      </c>
-      <c r="F77" s="40" t="s">
-        <v>140</v>
       </c>
       <c r="G77" s="40"/>
       <c r="H77" s="42"/>
@@ -23355,7 +23349,7 @@
       <c r="D78" s="41"/>
       <c r="E78" s="41"/>
       <c r="F78" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G78" s="42"/>
       <c r="H78" s="42"/>
@@ -23388,7 +23382,7 @@
       <c r="D79" s="41"/>
       <c r="E79" s="41"/>
       <c r="F79" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G79" s="42"/>
       <c r="H79" s="42"/>
@@ -23421,7 +23415,7 @@
       <c r="D80" s="41"/>
       <c r="E80" s="41"/>
       <c r="F80" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G80" s="42"/>
       <c r="H80" s="42"/>
@@ -23454,10 +23448,10 @@
       <c r="D81" s="50"/>
       <c r="E81" s="50"/>
       <c r="F81" s="116" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G81" s="118" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H81" s="116"/>
       <c r="I81" s="116"/>
@@ -23486,16 +23480,16 @@
       </c>
       <c r="B82" s="54"/>
       <c r="C82" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F82" s="40" t="s">
         <v>145</v>
-      </c>
-      <c r="D82" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F82" s="40" t="s">
-        <v>146</v>
       </c>
       <c r="G82" s="42"/>
       <c r="H82" s="42"/>
@@ -23528,7 +23522,7 @@
       <c r="D83" s="41"/>
       <c r="E83" s="41"/>
       <c r="F83" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G83" s="42"/>
       <c r="H83" s="42"/>
@@ -23560,10 +23554,10 @@
       <c r="C84" s="74"/>
       <c r="D84" s="41"/>
       <c r="E84" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F84" s="40" t="s">
         <v>148</v>
-      </c>
-      <c r="F84" s="40" t="s">
-        <v>149</v>
       </c>
       <c r="G84" s="42"/>
       <c r="H84" s="42"/>
@@ -23595,10 +23589,10 @@
       <c r="C85" s="74"/>
       <c r="D85" s="41"/>
       <c r="E85" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" s="42" t="s">
         <v>150</v>
-      </c>
-      <c r="F85" s="42" t="s">
-        <v>151</v>
       </c>
       <c r="G85" s="42"/>
       <c r="H85" s="42"/>
@@ -23631,7 +23625,7 @@
       <c r="D86" s="41"/>
       <c r="E86" s="50"/>
       <c r="F86" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G86" s="42"/>
       <c r="H86" s="42"/>
@@ -23663,10 +23657,10 @@
       <c r="C87" s="74"/>
       <c r="D87" s="41"/>
       <c r="E87" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F87" s="42" t="s">
         <v>153</v>
-      </c>
-      <c r="F87" s="42" t="s">
-        <v>154</v>
       </c>
       <c r="G87" s="42"/>
       <c r="H87" s="42"/>
@@ -23698,10 +23692,10 @@
       <c r="C88" s="75"/>
       <c r="D88" s="50"/>
       <c r="E88" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="F88" s="42" t="s">
         <v>155</v>
-      </c>
-      <c r="F88" s="42" t="s">
-        <v>156</v>
       </c>
       <c r="G88" s="42"/>
       <c r="H88" s="42"/>
@@ -23731,16 +23725,16 @@
       </c>
       <c r="B89" s="48"/>
       <c r="C89" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" s="42" t="s">
         <v>157</v>
-      </c>
-      <c r="D89" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E89" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F89" s="42" t="s">
-        <v>158</v>
       </c>
       <c r="G89" s="42"/>
       <c r="H89" s="42"/>
@@ -23772,10 +23766,10 @@
       <c r="C90" s="74"/>
       <c r="D90" s="41"/>
       <c r="E90" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F90" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G90" s="42"/>
       <c r="H90" s="42"/>
@@ -23807,10 +23801,10 @@
       <c r="C91" s="75"/>
       <c r="D91" s="50"/>
       <c r="E91" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="F91" s="42" t="s">
         <v>160</v>
-      </c>
-      <c r="F91" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="G91" s="42"/>
       <c r="H91" s="42"/>
@@ -23840,16 +23834,16 @@
       </c>
       <c r="B92" s="48"/>
       <c r="C92" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F92" s="40" t="s">
         <v>162</v>
-      </c>
-      <c r="D92" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F92" s="40" t="s">
-        <v>163</v>
       </c>
       <c r="G92" s="40"/>
       <c r="H92" s="42"/>
@@ -23882,7 +23876,7 @@
       <c r="D93" s="41"/>
       <c r="E93" s="50"/>
       <c r="F93" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G93" s="40"/>
       <c r="H93" s="42"/>
@@ -23914,10 +23908,10 @@
       <c r="C94" s="74"/>
       <c r="D94" s="41"/>
       <c r="E94" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F94" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G94" s="42"/>
       <c r="H94" s="42"/>
@@ -23949,10 +23943,10 @@
       <c r="C95" s="74"/>
       <c r="D95" s="41"/>
       <c r="E95" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F95" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G95" s="42"/>
       <c r="H95" s="42"/>
@@ -23985,7 +23979,7 @@
       <c r="D96" s="41"/>
       <c r="E96" s="50"/>
       <c r="F96" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G96" s="42"/>
       <c r="H96" s="42"/>
@@ -24017,10 +24011,10 @@
       <c r="C97" s="75"/>
       <c r="D97" s="50"/>
       <c r="E97" s="50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F97" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G97" s="42"/>
       <c r="H97" s="42"/>
@@ -24050,16 +24044,16 @@
       </c>
       <c r="B98" s="48"/>
       <c r="C98" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="D98" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E98" s="41" t="s">
+      <c r="F98" s="42" t="s">
         <v>170</v>
-      </c>
-      <c r="F98" s="42" t="s">
-        <v>171</v>
       </c>
       <c r="G98" s="42"/>
       <c r="H98" s="42"/>
@@ -24092,7 +24086,7 @@
       <c r="D99" s="41"/>
       <c r="E99" s="41"/>
       <c r="F99" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G99" s="42"/>
       <c r="H99" s="42"/>
@@ -24125,7 +24119,7 @@
       <c r="D100" s="41"/>
       <c r="E100" s="41"/>
       <c r="F100" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G100" s="42"/>
       <c r="H100" s="42"/>
@@ -24158,7 +24152,7 @@
       <c r="D101" s="41"/>
       <c r="E101" s="41"/>
       <c r="F101" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G101" s="42"/>
       <c r="H101" s="42"/>
@@ -24191,7 +24185,7 @@
       <c r="D102" s="41"/>
       <c r="E102" s="50"/>
       <c r="F102" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G102" s="42"/>
       <c r="H102" s="42"/>
@@ -24223,10 +24217,10 @@
       <c r="C103" s="48"/>
       <c r="D103" s="41"/>
       <c r="E103" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="F103" s="42" t="s">
         <v>176</v>
-      </c>
-      <c r="F103" s="42" t="s">
-        <v>177</v>
       </c>
       <c r="G103" s="42"/>
       <c r="H103" s="42"/>
@@ -24259,7 +24253,7 @@
       <c r="D104" s="41"/>
       <c r="E104" s="41"/>
       <c r="F104" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G104" s="42"/>
       <c r="H104" s="42"/>
@@ -24292,7 +24286,7 @@
       <c r="D105" s="41"/>
       <c r="E105" s="41"/>
       <c r="F105" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G105" s="42"/>
       <c r="H105" s="42"/>
@@ -24325,7 +24319,7 @@
       <c r="D106" s="41"/>
       <c r="E106" s="41"/>
       <c r="F106" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G106" s="42"/>
       <c r="H106" s="42"/>
@@ -24358,7 +24352,7 @@
       <c r="D107" s="41"/>
       <c r="E107" s="41"/>
       <c r="F107" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G107" s="42"/>
       <c r="H107" s="40"/>
@@ -24390,10 +24384,10 @@
       <c r="C108" s="75"/>
       <c r="D108" s="50"/>
       <c r="E108" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F108" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G108" s="42"/>
       <c r="H108" s="42"/>
@@ -24422,19 +24416,19 @@
         <v>41-1-1</v>
       </c>
       <c r="B109" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="C109" s="42" t="s">
+      <c r="D109" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E109" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F109" s="42" t="s">
         <v>184</v>
-      </c>
-      <c r="D109" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E109" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="F109" s="42" t="s">
-        <v>185</v>
       </c>
       <c r="G109" s="42"/>
       <c r="H109" s="42"/>
@@ -24464,16 +24458,16 @@
       </c>
       <c r="B110" s="48"/>
       <c r="C110" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E110" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F110" s="42" t="s">
         <v>186</v>
-      </c>
-      <c r="D110" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E110" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F110" s="42" t="s">
-        <v>187</v>
       </c>
       <c r="G110" s="42"/>
       <c r="H110" s="42"/>
@@ -24506,7 +24500,7 @@
       <c r="D111" s="50"/>
       <c r="E111" s="50"/>
       <c r="F111" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G111" s="42"/>
       <c r="H111" s="42"/>
@@ -24536,16 +24530,16 @@
       </c>
       <c r="B112" s="48"/>
       <c r="C112" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E112" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F112" s="42" t="s">
         <v>189</v>
-      </c>
-      <c r="D112" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E112" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="F112" s="42" t="s">
-        <v>190</v>
       </c>
       <c r="G112" s="42"/>
       <c r="H112" s="42"/>
@@ -24575,16 +24569,16 @@
       </c>
       <c r="B113" s="48"/>
       <c r="C113" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D113" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F113" s="42" t="s">
         <v>191</v>
-      </c>
-      <c r="D113" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E113" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F113" s="42" t="s">
-        <v>192</v>
       </c>
       <c r="G113" s="42"/>
       <c r="H113" s="42"/>
@@ -24617,7 +24611,7 @@
       <c r="D114" s="50"/>
       <c r="E114" s="50"/>
       <c r="F114" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G114" s="42"/>
       <c r="H114" s="42"/>
@@ -24646,22 +24640,22 @@
         <v>45-1-1</v>
       </c>
       <c r="B115" s="151" t="s">
+        <v>193</v>
+      </c>
+      <c r="C115" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="C115" s="114" t="s">
+      <c r="D115" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E115" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="F115" s="116" t="s">
         <v>195</v>
       </c>
-      <c r="D115" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="E115" s="151" t="s">
-        <v>54</v>
-      </c>
-      <c r="F115" s="116" t="s">
-        <v>196</v>
-      </c>
       <c r="G115" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H115" s="116"/>
       <c r="I115" s="116"/>
@@ -24689,16 +24683,16 @@
         <v>45-2-1</v>
       </c>
       <c r="B116" s="230" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C116" s="126"/>
       <c r="D116" s="115"/>
       <c r="E116" s="130"/>
       <c r="F116" s="116" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G116" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H116" s="116"/>
       <c r="I116" s="116"/>
@@ -24730,10 +24724,10 @@
       <c r="D117" s="115"/>
       <c r="E117" s="130"/>
       <c r="F117" s="116" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G117" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H117" s="116"/>
       <c r="I117" s="116"/>
@@ -24765,10 +24759,10 @@
       <c r="D118" s="115"/>
       <c r="E118" s="124"/>
       <c r="F118" s="116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G118" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H118" s="116"/>
       <c r="I118" s="116"/>
@@ -24799,13 +24793,13 @@
       <c r="C119" s="126"/>
       <c r="D119" s="115"/>
       <c r="E119" s="115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F119" s="116" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G119" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H119" s="116"/>
       <c r="I119" s="116"/>
@@ -24837,10 +24831,10 @@
       <c r="D120" s="115"/>
       <c r="E120" s="115"/>
       <c r="F120" s="116" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G120" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H120" s="116"/>
       <c r="I120" s="116"/>
@@ -24872,10 +24866,10 @@
       <c r="D121" s="115"/>
       <c r="E121" s="115"/>
       <c r="F121" s="116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G121" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H121" s="116"/>
       <c r="I121" s="116"/>
@@ -24907,10 +24901,10 @@
       <c r="D122" s="115"/>
       <c r="E122" s="115"/>
       <c r="F122" s="116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G122" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H122" s="116"/>
       <c r="I122" s="116"/>
@@ -24942,10 +24936,10 @@
       <c r="D123" s="115"/>
       <c r="E123" s="124"/>
       <c r="F123" s="116" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G123" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H123" s="116"/>
       <c r="I123" s="116"/>
@@ -24976,13 +24970,13 @@
       <c r="C124" s="126"/>
       <c r="D124" s="115"/>
       <c r="E124" s="115" t="s">
+        <v>205</v>
+      </c>
+      <c r="F124" s="116" t="s">
         <v>206</v>
       </c>
-      <c r="F124" s="116" t="s">
-        <v>207</v>
-      </c>
       <c r="G124" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H124" s="116"/>
       <c r="I124" s="116"/>
@@ -25014,10 +25008,10 @@
       <c r="D125" s="115"/>
       <c r="E125" s="115"/>
       <c r="F125" s="116" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G125" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H125" s="116"/>
       <c r="I125" s="116"/>
@@ -25049,10 +25043,10 @@
       <c r="D126" s="115"/>
       <c r="E126" s="115"/>
       <c r="F126" s="116" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G126" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H126" s="116"/>
       <c r="I126" s="116"/>
@@ -25084,10 +25078,10 @@
       <c r="D127" s="115"/>
       <c r="E127" s="115"/>
       <c r="F127" s="116" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G127" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H127" s="116"/>
       <c r="I127" s="116"/>
@@ -25119,10 +25113,10 @@
       <c r="D128" s="115"/>
       <c r="E128" s="124"/>
       <c r="F128" s="116" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G128" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H128" s="116"/>
       <c r="I128" s="116"/>
@@ -25153,13 +25147,13 @@
       <c r="C129" s="126"/>
       <c r="D129" s="124"/>
       <c r="E129" s="124" t="s">
+        <v>211</v>
+      </c>
+      <c r="F129" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="F129" s="116" t="s">
-        <v>213</v>
-      </c>
       <c r="G129" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H129" s="116"/>
       <c r="I129" s="116"/>
@@ -25189,16 +25183,16 @@
       <c r="B130" s="130"/>
       <c r="C130" s="123"/>
       <c r="D130" s="124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E130" s="124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F130" s="116" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G130" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H130" s="116"/>
       <c r="I130" s="116"/>
@@ -25227,19 +25221,19 @@
       </c>
       <c r="B131" s="130"/>
       <c r="C131" s="115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D131" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="E131" s="116" t="s">
         <v>215</v>
       </c>
-      <c r="E131" s="116" t="s">
+      <c r="F131" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="F131" s="116" t="s">
-        <v>217</v>
-      </c>
       <c r="G131" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H131" s="116"/>
       <c r="I131" s="116"/>
@@ -25270,13 +25264,13 @@
       <c r="C132" s="115"/>
       <c r="D132" s="115"/>
       <c r="E132" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="F132" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="F132" s="116" t="s">
-        <v>219</v>
-      </c>
       <c r="G132" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H132" s="116"/>
       <c r="I132" s="116"/>
@@ -25308,10 +25302,10 @@
       <c r="D133" s="115"/>
       <c r="E133" s="115"/>
       <c r="F133" s="116" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G133" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H133" s="116"/>
       <c r="I133" s="116"/>
@@ -25343,10 +25337,10 @@
       <c r="D134" s="124"/>
       <c r="E134" s="124"/>
       <c r="F134" s="116" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G134" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H134" s="116"/>
       <c r="I134" s="116"/>
@@ -25374,22 +25368,22 @@
         <v>52-1-1</v>
       </c>
       <c r="B135" s="151" t="s">
+        <v>221</v>
+      </c>
+      <c r="C135" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="D135" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E135" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="F135" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="C135" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="D135" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="E135" s="151" t="s">
-        <v>54</v>
-      </c>
-      <c r="F135" s="116" t="s">
-        <v>223</v>
-      </c>
       <c r="G135" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H135" s="116"/>
       <c r="I135" s="116"/>
@@ -25417,16 +25411,16 @@
         <v>52-2-1</v>
       </c>
       <c r="B136" s="230" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C136" s="126"/>
       <c r="D136" s="115"/>
       <c r="E136" s="115"/>
       <c r="F136" s="116" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G136" s="116" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H136" s="116"/>
       <c r="I136" s="116"/>
@@ -25458,10 +25452,10 @@
       <c r="D137" s="115"/>
       <c r="E137" s="115"/>
       <c r="F137" s="116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G137" s="116" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H137" s="116"/>
       <c r="I137" s="116"/>
@@ -25493,10 +25487,10 @@
       <c r="D138" s="115"/>
       <c r="E138" s="124"/>
       <c r="F138" s="116" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G138" s="116" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H138" s="116"/>
       <c r="I138" s="116"/>
@@ -25527,13 +25521,13 @@
       <c r="C139" s="126"/>
       <c r="D139" s="115"/>
       <c r="E139" s="115" t="s">
+        <v>227</v>
+      </c>
+      <c r="F139" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="F139" s="116" t="s">
-        <v>229</v>
-      </c>
       <c r="G139" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H139" s="116"/>
       <c r="I139" s="116"/>
@@ -25565,10 +25559,10 @@
       <c r="D140" s="124"/>
       <c r="E140" s="124"/>
       <c r="F140" s="116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G140" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H140" s="116"/>
       <c r="I140" s="116"/>
@@ -25598,16 +25592,16 @@
       <c r="B141" s="130"/>
       <c r="C141" s="123"/>
       <c r="D141" s="124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E141" s="124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F141" s="116" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G141" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H141" s="116"/>
       <c r="I141" s="116"/>
@@ -25636,19 +25630,19 @@
       </c>
       <c r="B142" s="130"/>
       <c r="C142" s="126" t="s">
+        <v>231</v>
+      </c>
+      <c r="D142" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="E142" s="116" t="s">
         <v>232</v>
       </c>
-      <c r="D142" s="115" t="s">
-        <v>215</v>
-      </c>
-      <c r="E142" s="116" t="s">
+      <c r="F142" s="116" t="s">
         <v>233</v>
       </c>
-      <c r="F142" s="116" t="s">
-        <v>234</v>
-      </c>
       <c r="G142" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H142" s="116"/>
       <c r="I142" s="116"/>
@@ -25679,13 +25673,13 @@
       <c r="C143" s="126"/>
       <c r="D143" s="115"/>
       <c r="E143" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="F143" s="116" t="s">
         <v>235</v>
       </c>
-      <c r="F143" s="116" t="s">
-        <v>236</v>
-      </c>
       <c r="G143" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H143" s="116"/>
       <c r="I143" s="116"/>
@@ -25716,13 +25710,13 @@
       <c r="C144" s="126"/>
       <c r="D144" s="115"/>
       <c r="E144" s="116" t="s">
+        <v>236</v>
+      </c>
+      <c r="F144" s="116" t="s">
         <v>237</v>
       </c>
-      <c r="F144" s="116" t="s">
-        <v>238</v>
-      </c>
       <c r="G144" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H144" s="116"/>
       <c r="I144" s="116"/>
@@ -25753,13 +25747,13 @@
       <c r="C145" s="126"/>
       <c r="D145" s="115"/>
       <c r="E145" s="116" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F145" s="116" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G145" s="116" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H145" s="116"/>
       <c r="I145" s="116"/>
@@ -25790,13 +25784,13 @@
       <c r="C146" s="126"/>
       <c r="D146" s="115"/>
       <c r="E146" s="116" t="s">
+        <v>239</v>
+      </c>
+      <c r="F146" s="116" t="s">
         <v>240</v>
       </c>
-      <c r="F146" s="116" t="s">
-        <v>241</v>
-      </c>
       <c r="G146" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H146" s="116"/>
       <c r="I146" s="116"/>
@@ -25827,13 +25821,13 @@
       <c r="C147" s="126"/>
       <c r="D147" s="115"/>
       <c r="E147" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="F147" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="F147" s="116" t="s">
-        <v>243</v>
-      </c>
       <c r="G147" s="116" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H147" s="116"/>
       <c r="I147" s="116"/>
@@ -25865,10 +25859,10 @@
       <c r="D148" s="115"/>
       <c r="E148" s="130"/>
       <c r="F148" s="116" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G148" s="116" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H148" s="116"/>
       <c r="I148" s="116"/>
@@ -25900,10 +25894,10 @@
       <c r="D149" s="115"/>
       <c r="E149" s="130"/>
       <c r="F149" s="116" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G149" s="116" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H149" s="116"/>
       <c r="I149" s="116"/>
@@ -25935,10 +25929,10 @@
       <c r="D150" s="115"/>
       <c r="E150" s="130"/>
       <c r="F150" s="116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G150" s="116" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H150" s="116"/>
       <c r="I150" s="116"/>
@@ -25970,10 +25964,10 @@
       <c r="D151" s="115"/>
       <c r="E151" s="130"/>
       <c r="F151" s="116" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G151" s="116" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H151" s="116"/>
       <c r="I151" s="116"/>
@@ -26005,10 +25999,10 @@
       <c r="D152" s="124"/>
       <c r="E152" s="152"/>
       <c r="F152" s="116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G152" s="116" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H152" s="116"/>
       <c r="I152" s="116"/>
@@ -26038,16 +26032,16 @@
       <c r="B153" s="130"/>
       <c r="C153" s="126"/>
       <c r="D153" s="115" t="s">
+        <v>248</v>
+      </c>
+      <c r="E153" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="F153" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="E153" s="130" t="s">
-        <v>54</v>
-      </c>
-      <c r="F153" s="116" t="s">
-        <v>250</v>
-      </c>
       <c r="G153" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H153" s="116"/>
       <c r="I153" s="116"/>
@@ -26079,10 +26073,10 @@
       <c r="D154" s="115"/>
       <c r="E154" s="124"/>
       <c r="F154" s="116" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G154" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H154" s="116"/>
       <c r="I154" s="116"/>
@@ -26113,13 +26107,13 @@
       <c r="C155" s="126"/>
       <c r="D155" s="115"/>
       <c r="E155" s="115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F155" s="116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G155" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H155" s="116"/>
       <c r="I155" s="116"/>
@@ -26151,10 +26145,10 @@
       <c r="D156" s="115"/>
       <c r="E156" s="130"/>
       <c r="F156" s="116" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G156" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H156" s="116"/>
       <c r="I156" s="116"/>
@@ -26186,10 +26180,10 @@
       <c r="D157" s="115"/>
       <c r="E157" s="130"/>
       <c r="F157" s="116" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G157" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H157" s="116"/>
       <c r="I157" s="116"/>
@@ -26221,10 +26215,10 @@
       <c r="D158" s="115"/>
       <c r="E158" s="130"/>
       <c r="F158" s="116" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G158" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H158" s="116"/>
       <c r="I158" s="116"/>
@@ -26256,10 +26250,10 @@
       <c r="D159" s="115"/>
       <c r="E159" s="130"/>
       <c r="F159" s="116" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G159" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H159" s="116"/>
       <c r="I159" s="116"/>
@@ -26291,10 +26285,10 @@
       <c r="D160" s="115"/>
       <c r="E160" s="130"/>
       <c r="F160" s="116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G160" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H160" s="116"/>
       <c r="I160" s="116"/>
@@ -26326,10 +26320,10 @@
       <c r="D161" s="115"/>
       <c r="E161" s="130"/>
       <c r="F161" s="116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G161" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H161" s="116"/>
       <c r="I161" s="116"/>
@@ -26361,10 +26355,10 @@
       <c r="D162" s="115"/>
       <c r="E162" s="130"/>
       <c r="F162" s="116" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G162" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H162" s="116"/>
       <c r="I162" s="116"/>
@@ -26396,10 +26390,10 @@
       <c r="D163" s="115"/>
       <c r="E163" s="130"/>
       <c r="F163" s="116" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G163" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H163" s="116"/>
       <c r="I163" s="116"/>
@@ -26431,10 +26425,10 @@
       <c r="D164" s="115"/>
       <c r="E164" s="130"/>
       <c r="F164" s="116" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G164" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H164" s="116"/>
       <c r="I164" s="116"/>
@@ -26466,10 +26460,10 @@
       <c r="D165" s="115"/>
       <c r="E165" s="124"/>
       <c r="F165" s="116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G165" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H165" s="116"/>
       <c r="I165" s="116"/>
@@ -26500,13 +26494,13 @@
       <c r="C166" s="126"/>
       <c r="D166" s="115"/>
       <c r="E166" s="115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F166" s="116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G166" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H166" s="116"/>
       <c r="I166" s="116"/>
@@ -26538,10 +26532,10 @@
       <c r="D167" s="115"/>
       <c r="E167" s="115"/>
       <c r="F167" s="116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G167" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H167" s="116"/>
       <c r="I167" s="116"/>
@@ -26573,10 +26567,10 @@
       <c r="D168" s="115"/>
       <c r="E168" s="115"/>
       <c r="F168" s="116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G168" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H168" s="116"/>
       <c r="I168" s="116"/>
@@ -26608,10 +26602,10 @@
       <c r="D169" s="115"/>
       <c r="E169" s="115"/>
       <c r="F169" s="116" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G169" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H169" s="116"/>
       <c r="I169" s="116"/>
@@ -26643,10 +26637,10 @@
       <c r="D170" s="115"/>
       <c r="E170" s="115"/>
       <c r="F170" s="116" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G170" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H170" s="116"/>
       <c r="I170" s="116"/>
@@ -26678,10 +26672,10 @@
       <c r="D171" s="115"/>
       <c r="E171" s="115"/>
       <c r="F171" s="116" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G171" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H171" s="116"/>
       <c r="I171" s="116"/>
@@ -26713,10 +26707,10 @@
       <c r="D172" s="115"/>
       <c r="E172" s="124"/>
       <c r="F172" s="116" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G172" s="116" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H172" s="116"/>
       <c r="I172" s="116"/>
@@ -26747,13 +26741,13 @@
       <c r="C173" s="126"/>
       <c r="D173" s="115"/>
       <c r="E173" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F173" s="116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G173" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H173" s="116"/>
       <c r="I173" s="116"/>
@@ -26785,10 +26779,10 @@
       <c r="D174" s="115"/>
       <c r="E174" s="115"/>
       <c r="F174" s="116" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G174" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H174" s="116"/>
       <c r="I174" s="116"/>
@@ -26820,10 +26814,10 @@
       <c r="D175" s="115"/>
       <c r="E175" s="115"/>
       <c r="F175" s="116" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G175" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H175" s="116"/>
       <c r="I175" s="116"/>
@@ -26855,10 +26849,10 @@
       <c r="D176" s="115"/>
       <c r="E176" s="115"/>
       <c r="F176" s="116" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G176" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H176" s="116"/>
       <c r="I176" s="116"/>
@@ -26890,10 +26884,10 @@
       <c r="D177" s="115"/>
       <c r="E177" s="115"/>
       <c r="F177" s="116" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G177" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H177" s="116"/>
       <c r="I177" s="116"/>
@@ -26925,10 +26919,10 @@
       <c r="D178" s="115"/>
       <c r="E178" s="115"/>
       <c r="F178" s="116" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G178" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H178" s="116"/>
       <c r="I178" s="116"/>
@@ -26960,10 +26954,10 @@
       <c r="D179" s="115"/>
       <c r="E179" s="115"/>
       <c r="F179" s="116" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G179" s="116" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H179" s="116"/>
       <c r="I179" s="116"/>
@@ -26995,10 +26989,10 @@
       <c r="D180" s="115"/>
       <c r="E180" s="115"/>
       <c r="F180" s="116" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G180" s="116" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H180" s="116"/>
       <c r="I180" s="116"/>
@@ -27030,10 +27024,10 @@
       <c r="D181" s="115"/>
       <c r="E181" s="124"/>
       <c r="F181" s="116" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G181" s="116" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H181" s="116"/>
       <c r="I181" s="116"/>
@@ -27064,13 +27058,13 @@
       <c r="C182" s="126"/>
       <c r="D182" s="115"/>
       <c r="E182" s="116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F182" s="116" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G182" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H182" s="116"/>
       <c r="I182" s="116"/>
@@ -27101,13 +27095,13 @@
       <c r="C183" s="123"/>
       <c r="D183" s="124"/>
       <c r="E183" s="123" t="s">
+        <v>279</v>
+      </c>
+      <c r="F183" s="116" t="s">
         <v>280</v>
       </c>
-      <c r="F183" s="116" t="s">
-        <v>281</v>
-      </c>
       <c r="G183" s="116" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H183" s="116"/>
       <c r="I183" s="116"/>
@@ -27135,22 +27129,22 @@
         <v>67-1-1</v>
       </c>
       <c r="B184" s="114" t="s">
+        <v>281</v>
+      </c>
+      <c r="C184" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="D184" s="153" t="s">
         <v>282</v>
       </c>
-      <c r="C184" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="D184" s="153" t="s">
+      <c r="E184" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="F184" s="116" t="s">
         <v>283</v>
       </c>
-      <c r="E184" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="F184" s="116" t="s">
-        <v>284</v>
-      </c>
       <c r="G184" s="116" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H184" s="116"/>
       <c r="I184" s="116"/>
@@ -27180,16 +27174,16 @@
       <c r="B185" s="115"/>
       <c r="C185" s="126"/>
       <c r="D185" s="153" t="s">
+        <v>284</v>
+      </c>
+      <c r="E185" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="F185" s="116" t="s">
         <v>285</v>
       </c>
-      <c r="E185" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="F185" s="116" t="s">
-        <v>286</v>
-      </c>
       <c r="G185" s="116" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H185" s="116"/>
       <c r="I185" s="116"/>
@@ -27219,16 +27213,16 @@
       <c r="B186" s="124"/>
       <c r="C186" s="123"/>
       <c r="D186" s="123" t="s">
+        <v>286</v>
+      </c>
+      <c r="E186" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="F186" s="116" t="s">
         <v>287</v>
       </c>
-      <c r="E186" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="F186" s="116" t="s">
-        <v>288</v>
-      </c>
       <c r="G186" s="116" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H186" s="116"/>
       <c r="I186" s="116"/>
@@ -27256,22 +27250,22 @@
         <v>70-1-1</v>
       </c>
       <c r="B187" s="114" t="s">
+        <v>288</v>
+      </c>
+      <c r="C187" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="D187" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E187" s="116" t="s">
         <v>289</v>
       </c>
-      <c r="C187" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="D187" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="E187" s="116" t="s">
+      <c r="F187" s="116" t="s">
         <v>290</v>
       </c>
-      <c r="F187" s="116" t="s">
-        <v>291</v>
-      </c>
       <c r="G187" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H187" s="116"/>
       <c r="I187" s="116"/>
@@ -27302,13 +27296,13 @@
       <c r="C188" s="130"/>
       <c r="D188" s="115"/>
       <c r="E188" s="115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F188" s="116" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G188" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H188" s="116"/>
       <c r="I188" s="116"/>
@@ -27340,10 +27334,10 @@
       <c r="D189" s="115"/>
       <c r="E189" s="124"/>
       <c r="F189" s="116" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G189" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H189" s="116"/>
       <c r="I189" s="116"/>
@@ -27374,13 +27368,13 @@
       <c r="C190" s="126"/>
       <c r="D190" s="115"/>
       <c r="E190" s="115" t="s">
+        <v>293</v>
+      </c>
+      <c r="F190" s="116" t="s">
         <v>294</v>
       </c>
-      <c r="F190" s="116" t="s">
-        <v>295</v>
-      </c>
       <c r="G190" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H190" s="116"/>
       <c r="I190" s="116"/>
@@ -27412,10 +27406,10 @@
       <c r="D191" s="155"/>
       <c r="E191" s="124"/>
       <c r="F191" s="116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G191" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H191" s="116"/>
       <c r="I191" s="116"/>
@@ -27445,16 +27439,16 @@
       <c r="B192" s="130"/>
       <c r="C192" s="123"/>
       <c r="D192" s="124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E192" s="124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F192" s="116" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G192" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H192" s="116"/>
       <c r="I192" s="116"/>
@@ -27483,19 +27477,19 @@
       </c>
       <c r="B193" s="130"/>
       <c r="C193" s="126" t="s">
+        <v>297</v>
+      </c>
+      <c r="D193" s="115" t="s">
         <v>298</v>
       </c>
-      <c r="D193" s="115" t="s">
+      <c r="E193" s="115" t="s">
         <v>299</v>
       </c>
-      <c r="E193" s="115" t="s">
+      <c r="F193" s="116" t="s">
         <v>300</v>
       </c>
-      <c r="F193" s="116" t="s">
-        <v>301</v>
-      </c>
       <c r="G193" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H193" s="116"/>
       <c r="I193" s="116"/>
@@ -27527,10 +27521,10 @@
       <c r="D194" s="115"/>
       <c r="E194" s="115"/>
       <c r="F194" s="116" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G194" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H194" s="116"/>
       <c r="I194" s="116"/>
@@ -27562,10 +27556,10 @@
       <c r="D195" s="115"/>
       <c r="E195" s="115"/>
       <c r="F195" s="116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G195" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H195" s="116"/>
       <c r="I195" s="116"/>
@@ -27597,10 +27591,10 @@
       <c r="D196" s="115"/>
       <c r="E196" s="115"/>
       <c r="F196" s="116" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G196" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H196" s="116"/>
       <c r="I196" s="116"/>
@@ -27632,10 +27626,10 @@
       <c r="D197" s="115"/>
       <c r="E197" s="115"/>
       <c r="F197" s="116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G197" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H197" s="116"/>
       <c r="I197" s="116"/>
@@ -27667,10 +27661,10 @@
       <c r="D198" s="115"/>
       <c r="E198" s="115"/>
       <c r="F198" s="116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G198" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H198" s="116"/>
       <c r="I198" s="116"/>
@@ -27702,10 +27696,10 @@
       <c r="D199" s="115"/>
       <c r="E199" s="124"/>
       <c r="F199" s="116" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G199" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H199" s="116"/>
       <c r="I199" s="116"/>
@@ -27736,13 +27730,13 @@
       <c r="C200" s="130"/>
       <c r="D200" s="124"/>
       <c r="E200" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="F200" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="F200" s="116" t="s">
-        <v>309</v>
-      </c>
       <c r="G200" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H200" s="116"/>
       <c r="I200" s="116"/>
@@ -27772,16 +27766,16 @@
       <c r="B201" s="130"/>
       <c r="C201" s="130"/>
       <c r="D201" s="115" t="s">
+        <v>309</v>
+      </c>
+      <c r="E201" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="F201" s="116" t="s">
         <v>310</v>
       </c>
-      <c r="E201" s="115" t="s">
-        <v>128</v>
-      </c>
-      <c r="F201" s="116" t="s">
-        <v>311</v>
-      </c>
       <c r="G201" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H201" s="116"/>
       <c r="I201" s="116"/>
@@ -27813,10 +27807,10 @@
       <c r="D202" s="115"/>
       <c r="E202" s="115"/>
       <c r="F202" s="116" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G202" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H202" s="116"/>
       <c r="I202" s="116"/>
@@ -27848,10 +27842,10 @@
       <c r="D203" s="115"/>
       <c r="E203" s="115"/>
       <c r="F203" s="116" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G203" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H203" s="116"/>
       <c r="I203" s="116"/>
@@ -27883,10 +27877,10 @@
       <c r="D204" s="115"/>
       <c r="E204" s="115"/>
       <c r="F204" s="116" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G204" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H204" s="116"/>
       <c r="I204" s="116"/>
@@ -27918,10 +27912,10 @@
       <c r="D205" s="115"/>
       <c r="E205" s="115"/>
       <c r="F205" s="116" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G205" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H205" s="116"/>
       <c r="I205" s="116"/>
@@ -27953,10 +27947,10 @@
       <c r="D206" s="115"/>
       <c r="E206" s="115"/>
       <c r="F206" s="116" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G206" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H206" s="116"/>
       <c r="I206" s="116"/>
@@ -27988,10 +27982,10 @@
       <c r="D207" s="115"/>
       <c r="E207" s="115"/>
       <c r="F207" s="116" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G207" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H207" s="116"/>
       <c r="I207" s="116"/>
@@ -28023,10 +28017,10 @@
       <c r="D208" s="115"/>
       <c r="E208" s="115"/>
       <c r="F208" s="116" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G208" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H208" s="116"/>
       <c r="I208" s="116"/>
@@ -28058,10 +28052,10 @@
       <c r="D209" s="115"/>
       <c r="E209" s="115"/>
       <c r="F209" s="116" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G209" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H209" s="116"/>
       <c r="I209" s="116"/>
@@ -28093,10 +28087,10 @@
       <c r="D210" s="115"/>
       <c r="E210" s="115"/>
       <c r="F210" s="116" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G210" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H210" s="116"/>
       <c r="I210" s="116"/>
@@ -28128,10 +28122,10 @@
       <c r="D211" s="115"/>
       <c r="E211" s="115"/>
       <c r="F211" s="116" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G211" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H211" s="116"/>
       <c r="I211" s="116"/>
@@ -28163,10 +28157,10 @@
       <c r="D212" s="115"/>
       <c r="E212" s="115"/>
       <c r="F212" s="116" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G212" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H212" s="116"/>
       <c r="I212" s="116"/>
@@ -28198,10 +28192,10 @@
       <c r="D213" s="124"/>
       <c r="E213" s="124"/>
       <c r="F213" s="116" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G213" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H213" s="116"/>
       <c r="I213" s="116"/>
@@ -28231,16 +28225,16 @@
       <c r="B214" s="115"/>
       <c r="C214" s="130"/>
       <c r="D214" s="114" t="s">
+        <v>323</v>
+      </c>
+      <c r="E214" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="F214" s="116" t="s">
         <v>324</v>
       </c>
-      <c r="E214" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="F214" s="116" t="s">
-        <v>325</v>
-      </c>
       <c r="G214" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H214" s="116"/>
       <c r="I214" s="116"/>
@@ -28272,10 +28266,10 @@
       <c r="D215" s="115"/>
       <c r="E215" s="115"/>
       <c r="F215" s="116" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G215" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H215" s="116"/>
       <c r="I215" s="116"/>
@@ -28307,10 +28301,10 @@
       <c r="D216" s="115"/>
       <c r="E216" s="115"/>
       <c r="F216" s="116" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G216" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H216" s="116"/>
       <c r="I216" s="116"/>
@@ -28342,10 +28336,10 @@
       <c r="D217" s="115"/>
       <c r="E217" s="115"/>
       <c r="F217" s="116" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G217" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H217" s="116"/>
       <c r="I217" s="116"/>
@@ -28377,10 +28371,10 @@
       <c r="D218" s="115"/>
       <c r="E218" s="115"/>
       <c r="F218" s="116" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G218" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H218" s="116"/>
       <c r="I218" s="116"/>
@@ -28412,10 +28406,10 @@
       <c r="D219" s="115"/>
       <c r="E219" s="115"/>
       <c r="F219" s="116" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G219" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H219" s="116"/>
       <c r="I219" s="116"/>
@@ -28447,10 +28441,10 @@
       <c r="D220" s="115"/>
       <c r="E220" s="115"/>
       <c r="F220" s="116" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G220" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H220" s="116"/>
       <c r="I220" s="116"/>
@@ -28482,10 +28476,10 @@
       <c r="D221" s="115"/>
       <c r="E221" s="115"/>
       <c r="F221" s="116" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G221" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H221" s="116"/>
       <c r="I221" s="116"/>
@@ -28517,10 +28511,10 @@
       <c r="D222" s="115"/>
       <c r="E222" s="115"/>
       <c r="F222" s="116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G222" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H222" s="116"/>
       <c r="I222" s="116"/>
@@ -28552,10 +28546,10 @@
       <c r="D223" s="115"/>
       <c r="E223" s="115"/>
       <c r="F223" s="116" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G223" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H223" s="116"/>
       <c r="I223" s="116"/>
@@ -28587,10 +28581,10 @@
       <c r="D224" s="115"/>
       <c r="E224" s="115"/>
       <c r="F224" s="116" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G224" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H224" s="116"/>
       <c r="I224" s="116"/>
@@ -28622,10 +28616,10 @@
       <c r="D225" s="115"/>
       <c r="E225" s="115"/>
       <c r="F225" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G225" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H225" s="116"/>
       <c r="I225" s="116"/>
@@ -28657,10 +28651,10 @@
       <c r="D226" s="115"/>
       <c r="E226" s="115"/>
       <c r="F226" s="116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G226" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H226" s="116"/>
       <c r="I226" s="116"/>
@@ -28692,10 +28686,10 @@
       <c r="D227" s="115"/>
       <c r="E227" s="115"/>
       <c r="F227" s="116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G227" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H227" s="116"/>
       <c r="I227" s="116"/>
@@ -28727,10 +28721,10 @@
       <c r="D228" s="115"/>
       <c r="E228" s="124"/>
       <c r="F228" s="116" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G228" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H228" s="116"/>
       <c r="I228" s="116"/>
@@ -28761,13 +28755,13 @@
       <c r="C229" s="130"/>
       <c r="D229" s="115"/>
       <c r="E229" s="115" t="s">
+        <v>336</v>
+      </c>
+      <c r="F229" s="116" t="s">
         <v>337</v>
       </c>
-      <c r="F229" s="116" t="s">
-        <v>338</v>
-      </c>
       <c r="G229" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H229" s="116"/>
       <c r="I229" s="116"/>
@@ -28799,10 +28793,10 @@
       <c r="D230" s="115"/>
       <c r="E230" s="115"/>
       <c r="F230" s="116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G230" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H230" s="116"/>
       <c r="I230" s="116"/>
@@ -28834,10 +28828,10 @@
       <c r="D231" s="115"/>
       <c r="E231" s="124"/>
       <c r="F231" s="116" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G231" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H231" s="116"/>
       <c r="I231" s="116"/>
@@ -28868,13 +28862,13 @@
       <c r="C232" s="130"/>
       <c r="D232" s="115"/>
       <c r="E232" s="124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F232" s="116" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G232" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H232" s="116"/>
       <c r="I232" s="116"/>
@@ -28905,13 +28899,13 @@
       <c r="C233" s="124"/>
       <c r="D233" s="124"/>
       <c r="E233" s="152" t="s">
+        <v>341</v>
+      </c>
+      <c r="F233" s="116" t="s">
         <v>342</v>
       </c>
-      <c r="F233" s="116" t="s">
-        <v>343</v>
-      </c>
       <c r="G233" s="166" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H233" s="116"/>
       <c r="I233" s="116"/>
@@ -28939,22 +28933,22 @@
         <v>81-1-1</v>
       </c>
       <c r="B234" s="114" t="s">
+        <v>343</v>
+      </c>
+      <c r="C234" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="D234" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E234" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="F234" s="116" t="s">
         <v>344</v>
       </c>
-      <c r="C234" s="114" t="s">
-        <v>195</v>
-      </c>
-      <c r="D234" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="E234" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="F234" s="116" t="s">
-        <v>345</v>
-      </c>
       <c r="G234" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H234" s="116"/>
       <c r="I234" s="116"/>
@@ -28985,13 +28979,13 @@
       <c r="C235" s="115"/>
       <c r="D235" s="115"/>
       <c r="E235" s="115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F235" s="116" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G235" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H235" s="116"/>
       <c r="I235" s="116"/>
@@ -29023,10 +29017,10 @@
       <c r="D236" s="115"/>
       <c r="E236" s="115"/>
       <c r="F236" s="116" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G236" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H236" s="116"/>
       <c r="I236" s="116"/>
@@ -29058,10 +29052,10 @@
       <c r="D237" s="115"/>
       <c r="E237" s="115"/>
       <c r="F237" s="116" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G237" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H237" s="116"/>
       <c r="I237" s="116"/>
@@ -29093,10 +29087,10 @@
       <c r="D238" s="115"/>
       <c r="E238" s="115"/>
       <c r="F238" s="116" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G238" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H238" s="116"/>
       <c r="I238" s="116"/>
@@ -29128,10 +29122,10 @@
       <c r="D239" s="115"/>
       <c r="E239" s="124"/>
       <c r="F239" s="116" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G239" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H239" s="116"/>
       <c r="I239" s="116"/>
@@ -29162,13 +29156,13 @@
       <c r="C240" s="115"/>
       <c r="D240" s="115"/>
       <c r="E240" s="115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F240" s="116" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G240" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H240" s="116"/>
       <c r="I240" s="116"/>
@@ -29200,10 +29194,10 @@
       <c r="D241" s="115"/>
       <c r="E241" s="115"/>
       <c r="F241" s="116" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G241" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H241" s="116"/>
       <c r="I241" s="116"/>
@@ -29235,10 +29229,10 @@
       <c r="D242" s="115"/>
       <c r="E242" s="115"/>
       <c r="F242" s="116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G242" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H242" s="116"/>
       <c r="I242" s="116"/>
@@ -29270,10 +29264,10 @@
       <c r="D243" s="115"/>
       <c r="E243" s="115"/>
       <c r="F243" s="116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G243" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H243" s="116"/>
       <c r="I243" s="116"/>
@@ -29305,10 +29299,10 @@
       <c r="D244" s="115"/>
       <c r="E244" s="124"/>
       <c r="F244" s="116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G244" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H244" s="116"/>
       <c r="I244" s="116"/>
@@ -29339,13 +29333,13 @@
       <c r="C245" s="123"/>
       <c r="D245" s="124"/>
       <c r="E245" s="124" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F245" s="116" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G245" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H245" s="116"/>
       <c r="I245" s="116"/>
@@ -29374,19 +29368,19 @@
       </c>
       <c r="B246" s="124"/>
       <c r="C246" s="124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D246" s="124" t="s">
+        <v>214</v>
+      </c>
+      <c r="E246" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="E246" s="124" t="s">
-        <v>216</v>
-      </c>
       <c r="F246" s="116" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G246" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H246" s="116"/>
       <c r="I246" s="116"/>
@@ -29414,22 +29408,22 @@
         <v>86-1-1</v>
       </c>
       <c r="B247" s="114" t="s">
+        <v>357</v>
+      </c>
+      <c r="C247" s="114" t="s">
         <v>358</v>
       </c>
-      <c r="C247" s="114" t="s">
+      <c r="D247" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E247" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="F247" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="D247" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="E247" s="114" t="s">
-        <v>54</v>
-      </c>
-      <c r="F247" s="116" t="s">
-        <v>360</v>
-      </c>
       <c r="G247" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H247" s="116"/>
       <c r="I247" s="116"/>
@@ -29461,10 +29455,10 @@
       <c r="D248" s="124"/>
       <c r="E248" s="124"/>
       <c r="F248" s="116" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G248" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H248" s="116"/>
       <c r="I248" s="116"/>
@@ -29494,16 +29488,16 @@
       <c r="B249" s="130"/>
       <c r="C249" s="115"/>
       <c r="D249" s="115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E249" s="115" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F249" s="116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G249" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H249" s="116"/>
       <c r="I249" s="116"/>
@@ -29535,10 +29529,10 @@
       <c r="D250" s="124"/>
       <c r="E250" s="124"/>
       <c r="F250" s="116" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G250" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H250" s="116"/>
       <c r="I250" s="116"/>
@@ -29567,19 +29561,19 @@
       </c>
       <c r="B251" s="130"/>
       <c r="C251" s="126" t="s">
+        <v>363</v>
+      </c>
+      <c r="D251" s="115" t="s">
+        <v>214</v>
+      </c>
+      <c r="E251" s="116" t="s">
+        <v>232</v>
+      </c>
+      <c r="F251" s="116" t="s">
         <v>364</v>
       </c>
-      <c r="D251" s="115" t="s">
-        <v>215</v>
-      </c>
-      <c r="E251" s="116" t="s">
-        <v>233</v>
-      </c>
-      <c r="F251" s="116" t="s">
-        <v>365</v>
-      </c>
       <c r="G251" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H251" s="116"/>
       <c r="I251" s="116"/>
@@ -29610,13 +29604,13 @@
       <c r="C252" s="126"/>
       <c r="D252" s="115"/>
       <c r="E252" s="116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F252" s="116" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G252" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H252" s="116"/>
       <c r="I252" s="116"/>
@@ -29647,13 +29641,13 @@
       <c r="C253" s="130"/>
       <c r="D253" s="126"/>
       <c r="E253" s="116" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F253" s="116" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G253" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H253" s="116"/>
       <c r="I253" s="116"/>
@@ -29684,13 +29678,13 @@
       <c r="C254" s="126"/>
       <c r="D254" s="124"/>
       <c r="E254" s="116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F254" s="116" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G254" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H254" s="116"/>
       <c r="I254" s="116"/>
@@ -29720,16 +29714,16 @@
       <c r="B255" s="130"/>
       <c r="C255" s="130"/>
       <c r="D255" s="115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E255" s="130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F255" s="116" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G255" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H255" s="116"/>
       <c r="I255" s="116"/>
@@ -29761,10 +29755,10 @@
       <c r="D256" s="126"/>
       <c r="E256" s="124"/>
       <c r="F256" s="116" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G256" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H256" s="116"/>
       <c r="I256" s="116"/>
@@ -29795,13 +29789,13 @@
       <c r="C257" s="130"/>
       <c r="D257" s="126"/>
       <c r="E257" s="115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F257" s="116" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G257" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H257" s="116"/>
       <c r="I257" s="116"/>
@@ -29833,10 +29827,10 @@
       <c r="D258" s="126"/>
       <c r="E258" s="115"/>
       <c r="F258" s="116" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G258" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H258" s="116"/>
       <c r="I258" s="116"/>
@@ -29868,10 +29862,10 @@
       <c r="D259" s="126"/>
       <c r="E259" s="115"/>
       <c r="F259" s="116" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G259" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H259" s="116"/>
       <c r="I259" s="116"/>
@@ -29903,10 +29897,10 @@
       <c r="D260" s="126"/>
       <c r="E260" s="115"/>
       <c r="F260" s="116" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G260" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H260" s="116"/>
       <c r="I260" s="116"/>
@@ -29938,10 +29932,10 @@
       <c r="D261" s="115"/>
       <c r="E261" s="130"/>
       <c r="F261" s="116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G261" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H261" s="116"/>
       <c r="I261" s="116"/>
@@ -29973,10 +29967,10 @@
       <c r="D262" s="115"/>
       <c r="E262" s="130"/>
       <c r="F262" s="116" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G262" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H262" s="116"/>
       <c r="I262" s="116"/>
@@ -30008,10 +30002,10 @@
       <c r="D263" s="115"/>
       <c r="E263" s="130"/>
       <c r="F263" s="116" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G263" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H263" s="116"/>
       <c r="I263" s="116"/>
@@ -30043,10 +30037,10 @@
       <c r="D264" s="115"/>
       <c r="E264" s="130"/>
       <c r="F264" s="116" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G264" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H264" s="116"/>
       <c r="I264" s="116"/>
@@ -30078,10 +30072,10 @@
       <c r="D265" s="115"/>
       <c r="E265" s="130"/>
       <c r="F265" s="116" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G265" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H265" s="116"/>
       <c r="I265" s="116"/>
@@ -30113,10 +30107,10 @@
       <c r="D266" s="115"/>
       <c r="E266" s="115"/>
       <c r="F266" s="116" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G266" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H266" s="116"/>
       <c r="I266" s="116"/>
@@ -30148,10 +30142,10 @@
       <c r="D267" s="115"/>
       <c r="E267" s="124"/>
       <c r="F267" s="116" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G267" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H267" s="116"/>
       <c r="I267" s="116"/>
@@ -30182,13 +30176,13 @@
       <c r="C268" s="115"/>
       <c r="D268" s="115"/>
       <c r="E268" s="115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F268" s="116" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G268" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H268" s="116"/>
       <c r="I268" s="116"/>
@@ -30220,10 +30214,10 @@
       <c r="D269" s="115"/>
       <c r="E269" s="115"/>
       <c r="F269" s="116" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G269" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H269" s="116"/>
       <c r="I269" s="116"/>
@@ -30255,10 +30249,10 @@
       <c r="D270" s="115"/>
       <c r="E270" s="115"/>
       <c r="F270" s="116" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G270" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H270" s="116"/>
       <c r="I270" s="116"/>
@@ -30290,10 +30284,10 @@
       <c r="D271" s="126"/>
       <c r="E271" s="115"/>
       <c r="F271" s="116" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G271" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H271" s="116"/>
       <c r="I271" s="116"/>
@@ -30325,10 +30319,10 @@
       <c r="D272" s="126"/>
       <c r="E272" s="115"/>
       <c r="F272" s="116" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G272" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H272" s="116"/>
       <c r="I272" s="116"/>
@@ -30360,10 +30354,10 @@
       <c r="D273" s="126"/>
       <c r="E273" s="124"/>
       <c r="F273" s="116" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G273" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H273" s="116"/>
       <c r="I273" s="116"/>
@@ -30394,13 +30388,13 @@
       <c r="C274" s="130"/>
       <c r="D274" s="126"/>
       <c r="E274" s="115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F274" s="116" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G274" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H274" s="116"/>
       <c r="I274" s="116"/>
@@ -30432,10 +30426,10 @@
       <c r="D275" s="126"/>
       <c r="E275" s="115"/>
       <c r="F275" s="116" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G275" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H275" s="116"/>
       <c r="I275" s="116"/>
@@ -30467,10 +30461,10 @@
       <c r="D276" s="126"/>
       <c r="E276" s="115"/>
       <c r="F276" s="116" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G276" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H276" s="116"/>
       <c r="I276" s="116"/>
@@ -30502,10 +30496,10 @@
       <c r="D277" s="126"/>
       <c r="E277" s="115"/>
       <c r="F277" s="116" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G277" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H277" s="116"/>
       <c r="I277" s="116"/>
@@ -30537,10 +30531,10 @@
       <c r="D278" s="126"/>
       <c r="E278" s="115"/>
       <c r="F278" s="116" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G278" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H278" s="116"/>
       <c r="I278" s="116"/>
@@ -30572,10 +30566,10 @@
       <c r="D279" s="126"/>
       <c r="E279" s="115"/>
       <c r="F279" s="116" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G279" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H279" s="116"/>
       <c r="I279" s="116"/>
@@ -30607,10 +30601,10 @@
       <c r="D280" s="126"/>
       <c r="E280" s="115"/>
       <c r="F280" s="116" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G280" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H280" s="116"/>
       <c r="I280" s="116"/>
@@ -30642,10 +30636,10 @@
       <c r="D281" s="126"/>
       <c r="E281" s="124"/>
       <c r="F281" s="116" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G281" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H281" s="116"/>
       <c r="I281" s="116"/>
@@ -30676,13 +30670,13 @@
       <c r="C282" s="152"/>
       <c r="D282" s="123"/>
       <c r="E282" s="124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F282" s="116" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G282" s="116" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H282" s="116"/>
       <c r="I282" s="116"/>
@@ -30710,19 +30704,19 @@
         <v>97-1-1</v>
       </c>
       <c r="B283" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="C283" s="40" t="s">
         <v>397</v>
       </c>
-      <c r="C283" s="40" t="s">
+      <c r="D283" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E283" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F283" s="42" t="s">
         <v>398</v>
-      </c>
-      <c r="D283" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E283" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F283" s="42" t="s">
-        <v>399</v>
       </c>
       <c r="G283" s="42"/>
       <c r="H283" s="42"/>
@@ -30755,7 +30749,7 @@
       <c r="D284" s="41"/>
       <c r="E284" s="41"/>
       <c r="F284" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G284" s="42"/>
       <c r="H284" s="42"/>
@@ -30788,7 +30782,7 @@
       <c r="D285" s="41"/>
       <c r="E285" s="41"/>
       <c r="F285" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G285" s="42"/>
       <c r="H285" s="42"/>
@@ -30821,7 +30815,7 @@
       <c r="D286" s="50"/>
       <c r="E286" s="50"/>
       <c r="F286" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G286" s="42"/>
       <c r="H286" s="42"/>
@@ -30851,16 +30845,16 @@
       </c>
       <c r="B287" s="48"/>
       <c r="C287" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="D287" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E287" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="F287" s="42" t="s">
         <v>403</v>
-      </c>
-      <c r="D287" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="E287" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="F287" s="42" t="s">
-        <v>404</v>
       </c>
       <c r="G287" s="42"/>
       <c r="H287" s="42"/>
@@ -30892,10 +30886,10 @@
       <c r="C288" s="54"/>
       <c r="D288" s="41"/>
       <c r="E288" s="50" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F288" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G288" s="42"/>
       <c r="H288" s="42"/>
@@ -30927,10 +30921,10 @@
       <c r="C289" s="54"/>
       <c r="D289" s="41"/>
       <c r="E289" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F289" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G289" s="42"/>
       <c r="H289" s="42"/>
@@ -30962,10 +30956,10 @@
       <c r="C290" s="54"/>
       <c r="D290" s="50"/>
       <c r="E290" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F290" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G290" s="42"/>
       <c r="H290" s="42"/>
@@ -30996,13 +30990,13 @@
       <c r="B291" s="48"/>
       <c r="C291" s="48"/>
       <c r="D291" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="E291" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="E291" s="41" t="s">
+      <c r="F291" s="42" t="s">
         <v>409</v>
-      </c>
-      <c r="F291" s="42" t="s">
-        <v>410</v>
       </c>
       <c r="G291" s="42"/>
       <c r="H291" s="42"/>
@@ -31035,7 +31029,7 @@
       <c r="D292" s="52"/>
       <c r="E292" s="41"/>
       <c r="F292" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G292" s="42"/>
       <c r="H292" s="42"/>
@@ -31068,7 +31062,7 @@
       <c r="D293" s="52"/>
       <c r="E293" s="41"/>
       <c r="F293" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G293" s="42"/>
       <c r="H293" s="42"/>
@@ -31101,7 +31095,7 @@
       <c r="D294" s="52"/>
       <c r="E294" s="41"/>
       <c r="F294" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G294" s="42"/>
       <c r="H294" s="42"/>
@@ -31134,7 +31128,7 @@
       <c r="D295" s="52"/>
       <c r="E295" s="41"/>
       <c r="F295" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G295" s="42"/>
       <c r="H295" s="42"/>
@@ -31167,7 +31161,7 @@
       <c r="D296" s="52"/>
       <c r="E296" s="41"/>
       <c r="F296" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G296" s="42"/>
       <c r="H296" s="42"/>
@@ -31200,7 +31194,7 @@
       <c r="D297" s="52"/>
       <c r="E297" s="41"/>
       <c r="F297" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G297" s="42"/>
       <c r="H297" s="42"/>
@@ -31233,7 +31227,7 @@
       <c r="D298" s="52"/>
       <c r="E298" s="41"/>
       <c r="F298" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G298" s="42"/>
       <c r="H298" s="42"/>
@@ -31266,7 +31260,7 @@
       <c r="D299" s="49"/>
       <c r="E299" s="50"/>
       <c r="F299" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G299" s="42"/>
       <c r="H299" s="42"/>
@@ -31295,19 +31289,19 @@
         <v>103-1-1</v>
       </c>
       <c r="B300" s="78" t="s">
+        <v>416</v>
+      </c>
+      <c r="C300" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="D300" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="E300" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="F300" s="80" t="s">
         <v>417</v>
-      </c>
-      <c r="C300" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="D300" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="E300" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="F300" s="80" t="s">
-        <v>418</v>
       </c>
       <c r="G300" s="81"/>
       <c r="H300" s="78"/>
@@ -31340,13 +31334,13 @@
       <c r="B301" s="89"/>
       <c r="C301" s="90"/>
       <c r="D301" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="E301" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="F301" s="92" t="s">
         <v>419</v>
-      </c>
-      <c r="E301" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="F301" s="92" t="s">
-        <v>420</v>
       </c>
       <c r="G301" s="81"/>
       <c r="H301" s="78"/>
@@ -31379,13 +31373,13 @@
       <c r="B302" s="89"/>
       <c r="C302" s="90"/>
       <c r="D302" s="79" t="s">
+        <v>420</v>
+      </c>
+      <c r="E302" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="F302" s="92" t="s">
         <v>421</v>
-      </c>
-      <c r="E302" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="F302" s="92" t="s">
-        <v>422</v>
       </c>
       <c r="G302" s="81"/>
       <c r="H302" s="78"/>
@@ -31420,7 +31414,7 @@
       <c r="D303" s="90"/>
       <c r="E303" s="95"/>
       <c r="F303" s="92" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G303" s="81"/>
       <c r="H303" s="78"/>
@@ -31455,7 +31449,7 @@
       <c r="D304" s="90"/>
       <c r="E304" s="95"/>
       <c r="F304" s="92" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G304" s="92"/>
       <c r="H304" s="78"/>
@@ -31488,13 +31482,13 @@
       <c r="B305" s="89"/>
       <c r="C305" s="98"/>
       <c r="D305" s="79" t="s">
+        <v>424</v>
+      </c>
+      <c r="E305" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="F305" s="92" t="s">
         <v>425</v>
-      </c>
-      <c r="E305" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="F305" s="92" t="s">
-        <v>426</v>
       </c>
       <c r="G305" s="81"/>
       <c r="H305" s="99"/>
@@ -31528,10 +31522,10 @@
       <c r="C306" s="90"/>
       <c r="D306" s="100"/>
       <c r="E306" s="101" t="s">
+        <v>426</v>
+      </c>
+      <c r="F306" s="92" t="s">
         <v>427</v>
-      </c>
-      <c r="F306" s="92" t="s">
-        <v>428</v>
       </c>
       <c r="G306" s="81"/>
       <c r="H306" s="78"/>
@@ -31564,13 +31558,13 @@
       <c r="B307" s="89"/>
       <c r="C307" s="90"/>
       <c r="D307" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E307" s="95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F307" s="92" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G307" s="92"/>
       <c r="H307" s="78"/>
@@ -31605,7 +31599,7 @@
       <c r="D308" s="90"/>
       <c r="E308" s="95"/>
       <c r="F308" s="92" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G308" s="81"/>
       <c r="H308" s="99"/>
@@ -31640,7 +31634,7 @@
       <c r="D309" s="98"/>
       <c r="E309" s="90"/>
       <c r="F309" s="81" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G309" s="81"/>
       <c r="H309" s="99"/>
@@ -31675,7 +31669,7 @@
       <c r="D310" s="98"/>
       <c r="E310" s="90"/>
       <c r="F310" s="81" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G310" s="81"/>
       <c r="H310" s="99"/>
@@ -31710,7 +31704,7 @@
       <c r="D311" s="98"/>
       <c r="E311" s="90"/>
       <c r="F311" s="81" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G311" s="81"/>
       <c r="H311" s="78"/>
@@ -31745,7 +31739,7 @@
       <c r="D312" s="98"/>
       <c r="E312" s="90"/>
       <c r="F312" s="81" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G312" s="81"/>
       <c r="H312" s="78"/>
@@ -31780,7 +31774,7 @@
       <c r="D313" s="98"/>
       <c r="E313" s="90"/>
       <c r="F313" s="81" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G313" s="81"/>
       <c r="H313" s="78"/>
@@ -31815,7 +31809,7 @@
       <c r="D314" s="110"/>
       <c r="E314" s="100"/>
       <c r="F314" s="111" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G314" s="111"/>
       <c r="H314" s="99"/>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(Webサービス)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(Webサービス)_(取引ID)_(取引名).xlsx
@@ -3,25 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6419466-7420-47F8-81CE-C418DBE5C28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC7BE94-B792-456F-A4CE-87A05E77C833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="21" r:id="rId2"/>
-    <sheet name="【リクエストID】_クラス単体テスト" sheetId="23" r:id="rId3"/>
-    <sheet name="【リクエストID】_リクエスト単体テスト" sheetId="24" r:id="rId4"/>
+    <sheet name="【テストターゲット名】_クラス単体" sheetId="23" r:id="rId3"/>
+    <sheet name="【リクエストID】_リクエスト単体" sheetId="24" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【リクエストID】_クラス単体テスト!$A$10:$Q$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【リクエストID】_リクエスト単体テスト!$A$10:$R$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">【リクエストID】_クラス単体テスト!$A$1:$Q$295</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">【リクエストID】_リクエスト単体テスト!$A$1:$R$314</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【テストターゲット名】_クラス単体!$A$10:$Q$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【リクエストID】_リクエスト単体!$A$10:$R$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">【テストターゲット名】_クラス単体!$A$1:$Q$295</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">【リクエストID】_リクエスト単体!$A$1:$R$314</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">【リクエストID】_クラス単体テスト!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">【リクエストID】_リクエスト単体テスト!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">【テストターゲット名】_クラス単体!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">【リクエストID】_リクエスト単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="467">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -6456,6 +6456,10 @@
   </si>
   <si>
     <t>テストコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストID：</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -7629,93 +7633,6 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7814,6 +7731,93 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9266,57 +9270,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="203" t="s">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="174" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="212" t="s">
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="221" t="s">
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="192" t="s">
         <v>415</v>
       </c>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="197" t="s">
+      <c r="T1" s="193"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="193"/>
+      <c r="Y1" s="193"/>
+      <c r="Z1" s="194"/>
+      <c r="AA1" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="199" t="str">
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="170" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="206" t="str">
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="177" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="207"/>
-      <c r="AI1" s="208"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9324,53 +9328,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="203" t="s">
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="174" t="s">
         <v>437</v>
       </c>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="197" t="s">
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="197"/>
+      <c r="AA2" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="209" t="str">
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="211"/>
-      <c r="AG2" s="206" t="str">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="177" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9378,45 +9382,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="203" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="174" t="s">
         <v>438</v>
       </c>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="199"/>
-      <c r="AD3" s="200"/>
-      <c r="AE3" s="200"/>
-      <c r="AF3" s="201"/>
-      <c r="AG3" s="206"/>
-      <c r="AH3" s="207"/>
-      <c r="AI3" s="208"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="200"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="177"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9453,1181 +9457,1020 @@
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="181" t="s">
+      <c r="C7" s="202"/>
+      <c r="D7" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="181" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="181" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="181" t="s">
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183"/>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183"/>
-      <c r="AE7" s="182"/>
-      <c r="AF7" s="181" t="s">
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="202"/>
+      <c r="AF7" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="182"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="202"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="192"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="192"/>
-      <c r="N8" s="192"/>
-      <c r="O8" s="192"/>
-      <c r="P8" s="193"/>
-      <c r="Q8" s="194"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="195"/>
-      <c r="U8" s="195"/>
-      <c r="V8" s="195"/>
-      <c r="W8" s="195"/>
-      <c r="X8" s="195"/>
-      <c r="Y8" s="195"/>
-      <c r="Z8" s="195"/>
-      <c r="AA8" s="195"/>
-      <c r="AB8" s="195"/>
-      <c r="AC8" s="195"/>
-      <c r="AD8" s="195"/>
-      <c r="AE8" s="196"/>
-      <c r="AF8" s="191"/>
-      <c r="AG8" s="192"/>
-      <c r="AH8" s="192"/>
-      <c r="AI8" s="193"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="212"/>
+      <c r="O8" s="212"/>
+      <c r="P8" s="213"/>
+      <c r="Q8" s="214"/>
+      <c r="R8" s="215"/>
+      <c r="S8" s="215"/>
+      <c r="T8" s="215"/>
+      <c r="U8" s="215"/>
+      <c r="V8" s="215"/>
+      <c r="W8" s="215"/>
+      <c r="X8" s="215"/>
+      <c r="Y8" s="215"/>
+      <c r="Z8" s="215"/>
+      <c r="AA8" s="215"/>
+      <c r="AB8" s="215"/>
+      <c r="AC8" s="215"/>
+      <c r="AD8" s="215"/>
+      <c r="AE8" s="216"/>
+      <c r="AF8" s="211"/>
+      <c r="AG8" s="212"/>
+      <c r="AH8" s="212"/>
+      <c r="AI8" s="213"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="175"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="177"/>
-      <c r="R9" s="178"/>
-      <c r="S9" s="178"/>
-      <c r="T9" s="178"/>
-      <c r="U9" s="178"/>
-      <c r="V9" s="178"/>
-      <c r="W9" s="178"/>
-      <c r="X9" s="178"/>
-      <c r="Y9" s="178"/>
-      <c r="Z9" s="178"/>
-      <c r="AA9" s="178"/>
-      <c r="AB9" s="178"/>
-      <c r="AC9" s="178"/>
-      <c r="AD9" s="178"/>
-      <c r="AE9" s="179"/>
-      <c r="AF9" s="174"/>
-      <c r="AG9" s="175"/>
-      <c r="AH9" s="175"/>
-      <c r="AI9" s="176"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="222"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="223"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="224"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="224"/>
+      <c r="O9" s="224"/>
+      <c r="P9" s="225"/>
+      <c r="Q9" s="226"/>
+      <c r="R9" s="227"/>
+      <c r="S9" s="227"/>
+      <c r="T9" s="227"/>
+      <c r="U9" s="227"/>
+      <c r="V9" s="227"/>
+      <c r="W9" s="227"/>
+      <c r="X9" s="227"/>
+      <c r="Y9" s="227"/>
+      <c r="Z9" s="227"/>
+      <c r="AA9" s="227"/>
+      <c r="AB9" s="227"/>
+      <c r="AC9" s="227"/>
+      <c r="AD9" s="227"/>
+      <c r="AE9" s="228"/>
+      <c r="AF9" s="223"/>
+      <c r="AG9" s="224"/>
+      <c r="AH9" s="224"/>
+      <c r="AI9" s="225"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="178"/>
-      <c r="S10" s="178"/>
-      <c r="T10" s="178"/>
-      <c r="U10" s="178"/>
-      <c r="V10" s="178"/>
-      <c r="W10" s="178"/>
-      <c r="X10" s="178"/>
-      <c r="Y10" s="178"/>
-      <c r="Z10" s="178"/>
-      <c r="AA10" s="178"/>
-      <c r="AB10" s="178"/>
-      <c r="AC10" s="178"/>
-      <c r="AD10" s="178"/>
-      <c r="AE10" s="179"/>
-      <c r="AF10" s="174"/>
-      <c r="AG10" s="175"/>
-      <c r="AH10" s="175"/>
-      <c r="AI10" s="176"/>
+      <c r="B10" s="217"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="224"/>
+      <c r="N10" s="224"/>
+      <c r="O10" s="224"/>
+      <c r="P10" s="225"/>
+      <c r="Q10" s="226"/>
+      <c r="R10" s="227"/>
+      <c r="S10" s="227"/>
+      <c r="T10" s="227"/>
+      <c r="U10" s="227"/>
+      <c r="V10" s="227"/>
+      <c r="W10" s="227"/>
+      <c r="X10" s="227"/>
+      <c r="Y10" s="227"/>
+      <c r="Z10" s="227"/>
+      <c r="AA10" s="227"/>
+      <c r="AB10" s="227"/>
+      <c r="AC10" s="227"/>
+      <c r="AD10" s="227"/>
+      <c r="AE10" s="228"/>
+      <c r="AF10" s="223"/>
+      <c r="AG10" s="224"/>
+      <c r="AH10" s="224"/>
+      <c r="AI10" s="225"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="175"/>
-      <c r="O11" s="175"/>
-      <c r="P11" s="176"/>
-      <c r="Q11" s="177"/>
-      <c r="R11" s="178"/>
-      <c r="S11" s="178"/>
-      <c r="T11" s="178"/>
-      <c r="U11" s="178"/>
-      <c r="V11" s="178"/>
-      <c r="W11" s="178"/>
-      <c r="X11" s="178"/>
-      <c r="Y11" s="178"/>
-      <c r="Z11" s="178"/>
-      <c r="AA11" s="178"/>
-      <c r="AB11" s="178"/>
-      <c r="AC11" s="178"/>
-      <c r="AD11" s="178"/>
-      <c r="AE11" s="179"/>
-      <c r="AF11" s="174"/>
-      <c r="AG11" s="175"/>
-      <c r="AH11" s="175"/>
-      <c r="AI11" s="176"/>
+      <c r="B11" s="217"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="220"/>
+      <c r="F11" s="221"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="224"/>
+      <c r="O11" s="224"/>
+      <c r="P11" s="225"/>
+      <c r="Q11" s="226"/>
+      <c r="R11" s="227"/>
+      <c r="S11" s="227"/>
+      <c r="T11" s="227"/>
+      <c r="U11" s="227"/>
+      <c r="V11" s="227"/>
+      <c r="W11" s="227"/>
+      <c r="X11" s="227"/>
+      <c r="Y11" s="227"/>
+      <c r="Z11" s="227"/>
+      <c r="AA11" s="227"/>
+      <c r="AB11" s="227"/>
+      <c r="AC11" s="227"/>
+      <c r="AD11" s="227"/>
+      <c r="AE11" s="228"/>
+      <c r="AF11" s="223"/>
+      <c r="AG11" s="224"/>
+      <c r="AH11" s="224"/>
+      <c r="AI11" s="225"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="175"/>
-      <c r="L12" s="175"/>
-      <c r="M12" s="175"/>
-      <c r="N12" s="175"/>
-      <c r="O12" s="175"/>
-      <c r="P12" s="176"/>
-      <c r="Q12" s="177"/>
-      <c r="R12" s="178"/>
-      <c r="S12" s="178"/>
-      <c r="T12" s="178"/>
-      <c r="U12" s="178"/>
-      <c r="V12" s="178"/>
-      <c r="W12" s="178"/>
-      <c r="X12" s="178"/>
-      <c r="Y12" s="178"/>
-      <c r="Z12" s="178"/>
-      <c r="AA12" s="178"/>
-      <c r="AB12" s="178"/>
-      <c r="AC12" s="178"/>
-      <c r="AD12" s="178"/>
-      <c r="AE12" s="179"/>
-      <c r="AF12" s="174"/>
-      <c r="AG12" s="175"/>
-      <c r="AH12" s="175"/>
-      <c r="AI12" s="176"/>
+      <c r="B12" s="217"/>
+      <c r="C12" s="218"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="222"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="223"/>
+      <c r="K12" s="224"/>
+      <c r="L12" s="224"/>
+      <c r="M12" s="224"/>
+      <c r="N12" s="224"/>
+      <c r="O12" s="224"/>
+      <c r="P12" s="225"/>
+      <c r="Q12" s="226"/>
+      <c r="R12" s="227"/>
+      <c r="S12" s="227"/>
+      <c r="T12" s="227"/>
+      <c r="U12" s="227"/>
+      <c r="V12" s="227"/>
+      <c r="W12" s="227"/>
+      <c r="X12" s="227"/>
+      <c r="Y12" s="227"/>
+      <c r="Z12" s="227"/>
+      <c r="AA12" s="227"/>
+      <c r="AB12" s="227"/>
+      <c r="AC12" s="227"/>
+      <c r="AD12" s="227"/>
+      <c r="AE12" s="228"/>
+      <c r="AF12" s="223"/>
+      <c r="AG12" s="224"/>
+      <c r="AH12" s="224"/>
+      <c r="AI12" s="225"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="175"/>
-      <c r="M13" s="175"/>
-      <c r="N13" s="175"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="177"/>
-      <c r="R13" s="178"/>
-      <c r="S13" s="178"/>
-      <c r="T13" s="178"/>
-      <c r="U13" s="178"/>
-      <c r="V13" s="178"/>
-      <c r="W13" s="178"/>
-      <c r="X13" s="178"/>
-      <c r="Y13" s="178"/>
-      <c r="Z13" s="178"/>
-      <c r="AA13" s="178"/>
-      <c r="AB13" s="178"/>
-      <c r="AC13" s="178"/>
-      <c r="AD13" s="178"/>
-      <c r="AE13" s="179"/>
-      <c r="AF13" s="174"/>
-      <c r="AG13" s="175"/>
-      <c r="AH13" s="175"/>
-      <c r="AI13" s="176"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="221"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="222"/>
+      <c r="I13" s="218"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="224"/>
+      <c r="L13" s="224"/>
+      <c r="M13" s="224"/>
+      <c r="N13" s="224"/>
+      <c r="O13" s="224"/>
+      <c r="P13" s="225"/>
+      <c r="Q13" s="226"/>
+      <c r="R13" s="227"/>
+      <c r="S13" s="227"/>
+      <c r="T13" s="227"/>
+      <c r="U13" s="227"/>
+      <c r="V13" s="227"/>
+      <c r="W13" s="227"/>
+      <c r="X13" s="227"/>
+      <c r="Y13" s="227"/>
+      <c r="Z13" s="227"/>
+      <c r="AA13" s="227"/>
+      <c r="AB13" s="227"/>
+      <c r="AC13" s="227"/>
+      <c r="AD13" s="227"/>
+      <c r="AE13" s="228"/>
+      <c r="AF13" s="223"/>
+      <c r="AG13" s="224"/>
+      <c r="AH13" s="224"/>
+      <c r="AI13" s="225"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="175"/>
-      <c r="M14" s="175"/>
-      <c r="N14" s="175"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="176"/>
-      <c r="Q14" s="177"/>
-      <c r="R14" s="178"/>
-      <c r="S14" s="178"/>
-      <c r="T14" s="178"/>
-      <c r="U14" s="178"/>
-      <c r="V14" s="178"/>
-      <c r="W14" s="178"/>
-      <c r="X14" s="178"/>
-      <c r="Y14" s="178"/>
-      <c r="Z14" s="178"/>
-      <c r="AA14" s="178"/>
-      <c r="AB14" s="178"/>
-      <c r="AC14" s="178"/>
-      <c r="AD14" s="178"/>
-      <c r="AE14" s="179"/>
-      <c r="AF14" s="174"/>
-      <c r="AG14" s="175"/>
-      <c r="AH14" s="175"/>
-      <c r="AI14" s="176"/>
+      <c r="B14" s="217"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="220"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="218"/>
+      <c r="J14" s="223"/>
+      <c r="K14" s="224"/>
+      <c r="L14" s="224"/>
+      <c r="M14" s="224"/>
+      <c r="N14" s="224"/>
+      <c r="O14" s="224"/>
+      <c r="P14" s="225"/>
+      <c r="Q14" s="226"/>
+      <c r="R14" s="227"/>
+      <c r="S14" s="227"/>
+      <c r="T14" s="227"/>
+      <c r="U14" s="227"/>
+      <c r="V14" s="227"/>
+      <c r="W14" s="227"/>
+      <c r="X14" s="227"/>
+      <c r="Y14" s="227"/>
+      <c r="Z14" s="227"/>
+      <c r="AA14" s="227"/>
+      <c r="AB14" s="227"/>
+      <c r="AC14" s="227"/>
+      <c r="AD14" s="227"/>
+      <c r="AE14" s="228"/>
+      <c r="AF14" s="223"/>
+      <c r="AG14" s="224"/>
+      <c r="AH14" s="224"/>
+      <c r="AI14" s="225"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="177"/>
-      <c r="R15" s="178"/>
-      <c r="S15" s="178"/>
-      <c r="T15" s="178"/>
-      <c r="U15" s="178"/>
-      <c r="V15" s="178"/>
-      <c r="W15" s="178"/>
-      <c r="X15" s="178"/>
-      <c r="Y15" s="178"/>
-      <c r="Z15" s="178"/>
-      <c r="AA15" s="178"/>
-      <c r="AB15" s="178"/>
-      <c r="AC15" s="178"/>
-      <c r="AD15" s="178"/>
-      <c r="AE15" s="179"/>
-      <c r="AF15" s="174"/>
-      <c r="AG15" s="175"/>
-      <c r="AH15" s="175"/>
-      <c r="AI15" s="176"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="220"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="222"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="224"/>
+      <c r="N15" s="224"/>
+      <c r="O15" s="224"/>
+      <c r="P15" s="225"/>
+      <c r="Q15" s="226"/>
+      <c r="R15" s="227"/>
+      <c r="S15" s="227"/>
+      <c r="T15" s="227"/>
+      <c r="U15" s="227"/>
+      <c r="V15" s="227"/>
+      <c r="W15" s="227"/>
+      <c r="X15" s="227"/>
+      <c r="Y15" s="227"/>
+      <c r="Z15" s="227"/>
+      <c r="AA15" s="227"/>
+      <c r="AB15" s="227"/>
+      <c r="AC15" s="227"/>
+      <c r="AD15" s="227"/>
+      <c r="AE15" s="228"/>
+      <c r="AF15" s="223"/>
+      <c r="AG15" s="224"/>
+      <c r="AH15" s="224"/>
+      <c r="AI15" s="225"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="175"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="175"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="176"/>
-      <c r="Q16" s="177"/>
-      <c r="R16" s="178"/>
-      <c r="S16" s="178"/>
-      <c r="T16" s="178"/>
-      <c r="U16" s="178"/>
-      <c r="V16" s="178"/>
-      <c r="W16" s="178"/>
-      <c r="X16" s="178"/>
-      <c r="Y16" s="178"/>
-      <c r="Z16" s="178"/>
-      <c r="AA16" s="178"/>
-      <c r="AB16" s="178"/>
-      <c r="AC16" s="178"/>
-      <c r="AD16" s="178"/>
-      <c r="AE16" s="179"/>
-      <c r="AF16" s="174"/>
-      <c r="AG16" s="175"/>
-      <c r="AH16" s="175"/>
-      <c r="AI16" s="176"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="220"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="224"/>
+      <c r="M16" s="224"/>
+      <c r="N16" s="224"/>
+      <c r="O16" s="224"/>
+      <c r="P16" s="225"/>
+      <c r="Q16" s="226"/>
+      <c r="R16" s="227"/>
+      <c r="S16" s="227"/>
+      <c r="T16" s="227"/>
+      <c r="U16" s="227"/>
+      <c r="V16" s="227"/>
+      <c r="W16" s="227"/>
+      <c r="X16" s="227"/>
+      <c r="Y16" s="227"/>
+      <c r="Z16" s="227"/>
+      <c r="AA16" s="227"/>
+      <c r="AB16" s="227"/>
+      <c r="AC16" s="227"/>
+      <c r="AD16" s="227"/>
+      <c r="AE16" s="228"/>
+      <c r="AF16" s="223"/>
+      <c r="AG16" s="224"/>
+      <c r="AH16" s="224"/>
+      <c r="AI16" s="225"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="175"/>
-      <c r="L17" s="175"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="175"/>
-      <c r="O17" s="175"/>
-      <c r="P17" s="176"/>
-      <c r="Q17" s="177"/>
-      <c r="R17" s="178"/>
-      <c r="S17" s="178"/>
-      <c r="T17" s="178"/>
-      <c r="U17" s="178"/>
-      <c r="V17" s="178"/>
-      <c r="W17" s="178"/>
-      <c r="X17" s="178"/>
-      <c r="Y17" s="178"/>
-      <c r="Z17" s="178"/>
-      <c r="AA17" s="178"/>
-      <c r="AB17" s="178"/>
-      <c r="AC17" s="178"/>
-      <c r="AD17" s="178"/>
-      <c r="AE17" s="179"/>
-      <c r="AF17" s="174"/>
-      <c r="AG17" s="175"/>
-      <c r="AH17" s="175"/>
-      <c r="AI17" s="176"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="222"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="224"/>
+      <c r="L17" s="224"/>
+      <c r="M17" s="224"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="224"/>
+      <c r="P17" s="225"/>
+      <c r="Q17" s="226"/>
+      <c r="R17" s="227"/>
+      <c r="S17" s="227"/>
+      <c r="T17" s="227"/>
+      <c r="U17" s="227"/>
+      <c r="V17" s="227"/>
+      <c r="W17" s="227"/>
+      <c r="X17" s="227"/>
+      <c r="Y17" s="227"/>
+      <c r="Z17" s="227"/>
+      <c r="AA17" s="227"/>
+      <c r="AB17" s="227"/>
+      <c r="AC17" s="227"/>
+      <c r="AD17" s="227"/>
+      <c r="AE17" s="228"/>
+      <c r="AF17" s="223"/>
+      <c r="AG17" s="224"/>
+      <c r="AH17" s="224"/>
+      <c r="AI17" s="225"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="175"/>
-      <c r="M18" s="175"/>
-      <c r="N18" s="175"/>
-      <c r="O18" s="175"/>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="177"/>
-      <c r="R18" s="178"/>
-      <c r="S18" s="178"/>
-      <c r="T18" s="178"/>
-      <c r="U18" s="178"/>
-      <c r="V18" s="178"/>
-      <c r="W18" s="178"/>
-      <c r="X18" s="178"/>
-      <c r="Y18" s="178"/>
-      <c r="Z18" s="178"/>
-      <c r="AA18" s="178"/>
-      <c r="AB18" s="178"/>
-      <c r="AC18" s="178"/>
-      <c r="AD18" s="178"/>
-      <c r="AE18" s="179"/>
-      <c r="AF18" s="174"/>
-      <c r="AG18" s="175"/>
-      <c r="AH18" s="175"/>
-      <c r="AI18" s="176"/>
+      <c r="B18" s="217"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="224"/>
+      <c r="L18" s="224"/>
+      <c r="M18" s="224"/>
+      <c r="N18" s="224"/>
+      <c r="O18" s="224"/>
+      <c r="P18" s="225"/>
+      <c r="Q18" s="226"/>
+      <c r="R18" s="227"/>
+      <c r="S18" s="227"/>
+      <c r="T18" s="227"/>
+      <c r="U18" s="227"/>
+      <c r="V18" s="227"/>
+      <c r="W18" s="227"/>
+      <c r="X18" s="227"/>
+      <c r="Y18" s="227"/>
+      <c r="Z18" s="227"/>
+      <c r="AA18" s="227"/>
+      <c r="AB18" s="227"/>
+      <c r="AC18" s="227"/>
+      <c r="AD18" s="227"/>
+      <c r="AE18" s="228"/>
+      <c r="AF18" s="223"/>
+      <c r="AG18" s="224"/>
+      <c r="AH18" s="224"/>
+      <c r="AI18" s="225"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="174"/>
-      <c r="K19" s="175"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="175"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="175"/>
-      <c r="P19" s="176"/>
-      <c r="Q19" s="177"/>
-      <c r="R19" s="178"/>
-      <c r="S19" s="178"/>
-      <c r="T19" s="178"/>
-      <c r="U19" s="178"/>
-      <c r="V19" s="178"/>
-      <c r="W19" s="178"/>
-      <c r="X19" s="178"/>
-      <c r="Y19" s="178"/>
-      <c r="Z19" s="178"/>
-      <c r="AA19" s="178"/>
-      <c r="AB19" s="178"/>
-      <c r="AC19" s="178"/>
-      <c r="AD19" s="178"/>
-      <c r="AE19" s="179"/>
-      <c r="AF19" s="174"/>
-      <c r="AG19" s="175"/>
-      <c r="AH19" s="175"/>
-      <c r="AI19" s="176"/>
+      <c r="B19" s="217"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="220"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="222"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="223"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="224"/>
+      <c r="P19" s="225"/>
+      <c r="Q19" s="226"/>
+      <c r="R19" s="227"/>
+      <c r="S19" s="227"/>
+      <c r="T19" s="227"/>
+      <c r="U19" s="227"/>
+      <c r="V19" s="227"/>
+      <c r="W19" s="227"/>
+      <c r="X19" s="227"/>
+      <c r="Y19" s="227"/>
+      <c r="Z19" s="227"/>
+      <c r="AA19" s="227"/>
+      <c r="AB19" s="227"/>
+      <c r="AC19" s="227"/>
+      <c r="AD19" s="227"/>
+      <c r="AE19" s="228"/>
+      <c r="AF19" s="223"/>
+      <c r="AG19" s="224"/>
+      <c r="AH19" s="224"/>
+      <c r="AI19" s="225"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="175"/>
-      <c r="M20" s="175"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="176"/>
-      <c r="Q20" s="177"/>
-      <c r="R20" s="178"/>
-      <c r="S20" s="178"/>
-      <c r="T20" s="178"/>
-      <c r="U20" s="178"/>
-      <c r="V20" s="178"/>
-      <c r="W20" s="178"/>
-      <c r="X20" s="178"/>
-      <c r="Y20" s="178"/>
-      <c r="Z20" s="178"/>
-      <c r="AA20" s="178"/>
-      <c r="AB20" s="178"/>
-      <c r="AC20" s="178"/>
-      <c r="AD20" s="178"/>
-      <c r="AE20" s="179"/>
-      <c r="AF20" s="174"/>
-      <c r="AG20" s="175"/>
-      <c r="AH20" s="175"/>
-      <c r="AI20" s="176"/>
+      <c r="B20" s="217"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="222"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="223"/>
+      <c r="K20" s="224"/>
+      <c r="L20" s="224"/>
+      <c r="M20" s="224"/>
+      <c r="N20" s="224"/>
+      <c r="O20" s="224"/>
+      <c r="P20" s="225"/>
+      <c r="Q20" s="226"/>
+      <c r="R20" s="227"/>
+      <c r="S20" s="227"/>
+      <c r="T20" s="227"/>
+      <c r="U20" s="227"/>
+      <c r="V20" s="227"/>
+      <c r="W20" s="227"/>
+      <c r="X20" s="227"/>
+      <c r="Y20" s="227"/>
+      <c r="Z20" s="227"/>
+      <c r="AA20" s="227"/>
+      <c r="AB20" s="227"/>
+      <c r="AC20" s="227"/>
+      <c r="AD20" s="227"/>
+      <c r="AE20" s="228"/>
+      <c r="AF20" s="223"/>
+      <c r="AG20" s="224"/>
+      <c r="AH20" s="224"/>
+      <c r="AI20" s="225"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="176"/>
-      <c r="Q21" s="177"/>
-      <c r="R21" s="178"/>
-      <c r="S21" s="178"/>
-      <c r="T21" s="178"/>
-      <c r="U21" s="178"/>
-      <c r="V21" s="178"/>
-      <c r="W21" s="178"/>
-      <c r="X21" s="178"/>
-      <c r="Y21" s="178"/>
-      <c r="Z21" s="178"/>
-      <c r="AA21" s="178"/>
-      <c r="AB21" s="178"/>
-      <c r="AC21" s="178"/>
-      <c r="AD21" s="178"/>
-      <c r="AE21" s="179"/>
-      <c r="AF21" s="174"/>
-      <c r="AG21" s="175"/>
-      <c r="AH21" s="175"/>
-      <c r="AI21" s="176"/>
+      <c r="B21" s="217"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="222"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="223"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="224"/>
+      <c r="N21" s="224"/>
+      <c r="O21" s="224"/>
+      <c r="P21" s="225"/>
+      <c r="Q21" s="226"/>
+      <c r="R21" s="227"/>
+      <c r="S21" s="227"/>
+      <c r="T21" s="227"/>
+      <c r="U21" s="227"/>
+      <c r="V21" s="227"/>
+      <c r="W21" s="227"/>
+      <c r="X21" s="227"/>
+      <c r="Y21" s="227"/>
+      <c r="Z21" s="227"/>
+      <c r="AA21" s="227"/>
+      <c r="AB21" s="227"/>
+      <c r="AC21" s="227"/>
+      <c r="AD21" s="227"/>
+      <c r="AE21" s="228"/>
+      <c r="AF21" s="223"/>
+      <c r="AG21" s="224"/>
+      <c r="AH21" s="224"/>
+      <c r="AI21" s="225"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="175"/>
-      <c r="M22" s="175"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="176"/>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="178"/>
-      <c r="S22" s="178"/>
-      <c r="T22" s="178"/>
-      <c r="U22" s="178"/>
-      <c r="V22" s="178"/>
-      <c r="W22" s="178"/>
-      <c r="X22" s="178"/>
-      <c r="Y22" s="178"/>
-      <c r="Z22" s="178"/>
-      <c r="AA22" s="178"/>
-      <c r="AB22" s="178"/>
-      <c r="AC22" s="178"/>
-      <c r="AD22" s="178"/>
-      <c r="AE22" s="179"/>
-      <c r="AF22" s="174"/>
-      <c r="AG22" s="175"/>
-      <c r="AH22" s="175"/>
-      <c r="AI22" s="176"/>
+      <c r="B22" s="217"/>
+      <c r="C22" s="218"/>
+      <c r="D22" s="219"/>
+      <c r="E22" s="220"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="222"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="224"/>
+      <c r="L22" s="224"/>
+      <c r="M22" s="224"/>
+      <c r="N22" s="224"/>
+      <c r="O22" s="224"/>
+      <c r="P22" s="225"/>
+      <c r="Q22" s="226"/>
+      <c r="R22" s="227"/>
+      <c r="S22" s="227"/>
+      <c r="T22" s="227"/>
+      <c r="U22" s="227"/>
+      <c r="V22" s="227"/>
+      <c r="W22" s="227"/>
+      <c r="X22" s="227"/>
+      <c r="Y22" s="227"/>
+      <c r="Z22" s="227"/>
+      <c r="AA22" s="227"/>
+      <c r="AB22" s="227"/>
+      <c r="AC22" s="227"/>
+      <c r="AD22" s="227"/>
+      <c r="AE22" s="228"/>
+      <c r="AF22" s="223"/>
+      <c r="AG22" s="224"/>
+      <c r="AH22" s="224"/>
+      <c r="AI22" s="225"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="175"/>
-      <c r="L23" s="175"/>
-      <c r="M23" s="175"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="176"/>
-      <c r="Q23" s="177"/>
-      <c r="R23" s="178"/>
-      <c r="S23" s="178"/>
-      <c r="T23" s="178"/>
-      <c r="U23" s="178"/>
-      <c r="V23" s="178"/>
-      <c r="W23" s="178"/>
-      <c r="X23" s="178"/>
-      <c r="Y23" s="178"/>
-      <c r="Z23" s="178"/>
-      <c r="AA23" s="178"/>
-      <c r="AB23" s="178"/>
-      <c r="AC23" s="178"/>
-      <c r="AD23" s="178"/>
-      <c r="AE23" s="179"/>
-      <c r="AF23" s="174"/>
-      <c r="AG23" s="175"/>
-      <c r="AH23" s="175"/>
-      <c r="AI23" s="176"/>
+      <c r="B23" s="217"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="222"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="224"/>
+      <c r="L23" s="224"/>
+      <c r="M23" s="224"/>
+      <c r="N23" s="224"/>
+      <c r="O23" s="224"/>
+      <c r="P23" s="225"/>
+      <c r="Q23" s="226"/>
+      <c r="R23" s="227"/>
+      <c r="S23" s="227"/>
+      <c r="T23" s="227"/>
+      <c r="U23" s="227"/>
+      <c r="V23" s="227"/>
+      <c r="W23" s="227"/>
+      <c r="X23" s="227"/>
+      <c r="Y23" s="227"/>
+      <c r="Z23" s="227"/>
+      <c r="AA23" s="227"/>
+      <c r="AB23" s="227"/>
+      <c r="AC23" s="227"/>
+      <c r="AD23" s="227"/>
+      <c r="AE23" s="228"/>
+      <c r="AF23" s="223"/>
+      <c r="AG23" s="224"/>
+      <c r="AH23" s="224"/>
+      <c r="AI23" s="225"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="175"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="176"/>
-      <c r="Q24" s="177"/>
-      <c r="R24" s="178"/>
-      <c r="S24" s="178"/>
-      <c r="T24" s="178"/>
-      <c r="U24" s="178"/>
-      <c r="V24" s="178"/>
-      <c r="W24" s="178"/>
-      <c r="X24" s="178"/>
-      <c r="Y24" s="178"/>
-      <c r="Z24" s="178"/>
-      <c r="AA24" s="178"/>
-      <c r="AB24" s="178"/>
-      <c r="AC24" s="178"/>
-      <c r="AD24" s="178"/>
-      <c r="AE24" s="179"/>
-      <c r="AF24" s="174"/>
-      <c r="AG24" s="175"/>
-      <c r="AH24" s="175"/>
-      <c r="AI24" s="176"/>
+      <c r="B24" s="217"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="220"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="222"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="224"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="224"/>
+      <c r="N24" s="224"/>
+      <c r="O24" s="224"/>
+      <c r="P24" s="225"/>
+      <c r="Q24" s="226"/>
+      <c r="R24" s="227"/>
+      <c r="S24" s="227"/>
+      <c r="T24" s="227"/>
+      <c r="U24" s="227"/>
+      <c r="V24" s="227"/>
+      <c r="W24" s="227"/>
+      <c r="X24" s="227"/>
+      <c r="Y24" s="227"/>
+      <c r="Z24" s="227"/>
+      <c r="AA24" s="227"/>
+      <c r="AB24" s="227"/>
+      <c r="AC24" s="227"/>
+      <c r="AD24" s="227"/>
+      <c r="AE24" s="228"/>
+      <c r="AF24" s="223"/>
+      <c r="AG24" s="224"/>
+      <c r="AH24" s="224"/>
+      <c r="AI24" s="225"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="175"/>
-      <c r="M25" s="175"/>
-      <c r="N25" s="175"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="176"/>
-      <c r="Q25" s="177"/>
-      <c r="R25" s="178"/>
-      <c r="S25" s="178"/>
-      <c r="T25" s="178"/>
-      <c r="U25" s="178"/>
-      <c r="V25" s="178"/>
-      <c r="W25" s="178"/>
-      <c r="X25" s="178"/>
-      <c r="Y25" s="178"/>
-      <c r="Z25" s="178"/>
-      <c r="AA25" s="178"/>
-      <c r="AB25" s="178"/>
-      <c r="AC25" s="178"/>
-      <c r="AD25" s="178"/>
-      <c r="AE25" s="179"/>
-      <c r="AF25" s="174"/>
-      <c r="AG25" s="175"/>
-      <c r="AH25" s="175"/>
-      <c r="AI25" s="176"/>
+      <c r="B25" s="217"/>
+      <c r="C25" s="218"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="220"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="217"/>
+      <c r="H25" s="222"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="223"/>
+      <c r="K25" s="224"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="224"/>
+      <c r="N25" s="224"/>
+      <c r="O25" s="224"/>
+      <c r="P25" s="225"/>
+      <c r="Q25" s="226"/>
+      <c r="R25" s="227"/>
+      <c r="S25" s="227"/>
+      <c r="T25" s="227"/>
+      <c r="U25" s="227"/>
+      <c r="V25" s="227"/>
+      <c r="W25" s="227"/>
+      <c r="X25" s="227"/>
+      <c r="Y25" s="227"/>
+      <c r="Z25" s="227"/>
+      <c r="AA25" s="227"/>
+      <c r="AB25" s="227"/>
+      <c r="AC25" s="227"/>
+      <c r="AD25" s="227"/>
+      <c r="AE25" s="228"/>
+      <c r="AF25" s="223"/>
+      <c r="AG25" s="224"/>
+      <c r="AH25" s="224"/>
+      <c r="AI25" s="225"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="175"/>
-      <c r="M26" s="175"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="176"/>
-      <c r="Q26" s="177"/>
-      <c r="R26" s="178"/>
-      <c r="S26" s="178"/>
-      <c r="T26" s="178"/>
-      <c r="U26" s="178"/>
-      <c r="V26" s="178"/>
-      <c r="W26" s="178"/>
-      <c r="X26" s="178"/>
-      <c r="Y26" s="178"/>
-      <c r="Z26" s="178"/>
-      <c r="AA26" s="178"/>
-      <c r="AB26" s="178"/>
-      <c r="AC26" s="178"/>
-      <c r="AD26" s="178"/>
-      <c r="AE26" s="179"/>
-      <c r="AF26" s="174"/>
-      <c r="AG26" s="175"/>
-      <c r="AH26" s="175"/>
-      <c r="AI26" s="176"/>
+      <c r="B26" s="217"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="222"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="223"/>
+      <c r="K26" s="224"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="224"/>
+      <c r="N26" s="224"/>
+      <c r="O26" s="224"/>
+      <c r="P26" s="225"/>
+      <c r="Q26" s="226"/>
+      <c r="R26" s="227"/>
+      <c r="S26" s="227"/>
+      <c r="T26" s="227"/>
+      <c r="U26" s="227"/>
+      <c r="V26" s="227"/>
+      <c r="W26" s="227"/>
+      <c r="X26" s="227"/>
+      <c r="Y26" s="227"/>
+      <c r="Z26" s="227"/>
+      <c r="AA26" s="227"/>
+      <c r="AB26" s="227"/>
+      <c r="AC26" s="227"/>
+      <c r="AD26" s="227"/>
+      <c r="AE26" s="228"/>
+      <c r="AF26" s="223"/>
+      <c r="AG26" s="224"/>
+      <c r="AH26" s="224"/>
+      <c r="AI26" s="225"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="168"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="175"/>
-      <c r="M27" s="175"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="176"/>
-      <c r="Q27" s="177"/>
-      <c r="R27" s="178"/>
-      <c r="S27" s="178"/>
-      <c r="T27" s="178"/>
-      <c r="U27" s="178"/>
-      <c r="V27" s="178"/>
-      <c r="W27" s="178"/>
-      <c r="X27" s="178"/>
-      <c r="Y27" s="178"/>
-      <c r="Z27" s="178"/>
-      <c r="AA27" s="178"/>
-      <c r="AB27" s="178"/>
-      <c r="AC27" s="178"/>
-      <c r="AD27" s="178"/>
-      <c r="AE27" s="179"/>
-      <c r="AF27" s="174"/>
-      <c r="AG27" s="175"/>
-      <c r="AH27" s="175"/>
-      <c r="AI27" s="176"/>
+      <c r="B27" s="217"/>
+      <c r="C27" s="218"/>
+      <c r="D27" s="219"/>
+      <c r="E27" s="220"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="217"/>
+      <c r="H27" s="222"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="224"/>
+      <c r="L27" s="224"/>
+      <c r="M27" s="224"/>
+      <c r="N27" s="224"/>
+      <c r="O27" s="224"/>
+      <c r="P27" s="225"/>
+      <c r="Q27" s="226"/>
+      <c r="R27" s="227"/>
+      <c r="S27" s="227"/>
+      <c r="T27" s="227"/>
+      <c r="U27" s="227"/>
+      <c r="V27" s="227"/>
+      <c r="W27" s="227"/>
+      <c r="X27" s="227"/>
+      <c r="Y27" s="227"/>
+      <c r="Z27" s="227"/>
+      <c r="AA27" s="227"/>
+      <c r="AB27" s="227"/>
+      <c r="AC27" s="227"/>
+      <c r="AD27" s="227"/>
+      <c r="AE27" s="228"/>
+      <c r="AF27" s="223"/>
+      <c r="AG27" s="224"/>
+      <c r="AH27" s="224"/>
+      <c r="AI27" s="225"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="175"/>
-      <c r="M28" s="175"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="177"/>
-      <c r="R28" s="178"/>
-      <c r="S28" s="178"/>
-      <c r="T28" s="178"/>
-      <c r="U28" s="178"/>
-      <c r="V28" s="178"/>
-      <c r="W28" s="178"/>
-      <c r="X28" s="178"/>
-      <c r="Y28" s="178"/>
-      <c r="Z28" s="178"/>
-      <c r="AA28" s="178"/>
-      <c r="AB28" s="178"/>
-      <c r="AC28" s="178"/>
-      <c r="AD28" s="178"/>
-      <c r="AE28" s="179"/>
-      <c r="AF28" s="174"/>
-      <c r="AG28" s="175"/>
-      <c r="AH28" s="175"/>
-      <c r="AI28" s="176"/>
+      <c r="B28" s="217"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="217"/>
+      <c r="H28" s="222"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="224"/>
+      <c r="L28" s="224"/>
+      <c r="M28" s="224"/>
+      <c r="N28" s="224"/>
+      <c r="O28" s="224"/>
+      <c r="P28" s="225"/>
+      <c r="Q28" s="226"/>
+      <c r="R28" s="227"/>
+      <c r="S28" s="227"/>
+      <c r="T28" s="227"/>
+      <c r="U28" s="227"/>
+      <c r="V28" s="227"/>
+      <c r="W28" s="227"/>
+      <c r="X28" s="227"/>
+      <c r="Y28" s="227"/>
+      <c r="Z28" s="227"/>
+      <c r="AA28" s="227"/>
+      <c r="AB28" s="227"/>
+      <c r="AC28" s="227"/>
+      <c r="AD28" s="227"/>
+      <c r="AE28" s="228"/>
+      <c r="AF28" s="223"/>
+      <c r="AG28" s="224"/>
+      <c r="AH28" s="224"/>
+      <c r="AI28" s="225"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="175"/>
-      <c r="M29" s="175"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="176"/>
-      <c r="Q29" s="177"/>
-      <c r="R29" s="178"/>
-      <c r="S29" s="178"/>
-      <c r="T29" s="178"/>
-      <c r="U29" s="178"/>
-      <c r="V29" s="178"/>
-      <c r="W29" s="178"/>
-      <c r="X29" s="178"/>
-      <c r="Y29" s="178"/>
-      <c r="Z29" s="178"/>
-      <c r="AA29" s="178"/>
-      <c r="AB29" s="178"/>
-      <c r="AC29" s="178"/>
-      <c r="AD29" s="178"/>
-      <c r="AE29" s="179"/>
-      <c r="AF29" s="174"/>
-      <c r="AG29" s="175"/>
-      <c r="AH29" s="175"/>
-      <c r="AI29" s="176"/>
+      <c r="B29" s="217"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="222"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="223"/>
+      <c r="K29" s="224"/>
+      <c r="L29" s="224"/>
+      <c r="M29" s="224"/>
+      <c r="N29" s="224"/>
+      <c r="O29" s="224"/>
+      <c r="P29" s="225"/>
+      <c r="Q29" s="226"/>
+      <c r="R29" s="227"/>
+      <c r="S29" s="227"/>
+      <c r="T29" s="227"/>
+      <c r="U29" s="227"/>
+      <c r="V29" s="227"/>
+      <c r="W29" s="227"/>
+      <c r="X29" s="227"/>
+      <c r="Y29" s="227"/>
+      <c r="Z29" s="227"/>
+      <c r="AA29" s="227"/>
+      <c r="AB29" s="227"/>
+      <c r="AC29" s="227"/>
+      <c r="AD29" s="227"/>
+      <c r="AE29" s="228"/>
+      <c r="AF29" s="223"/>
+      <c r="AG29" s="224"/>
+      <c r="AH29" s="224"/>
+      <c r="AI29" s="225"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="175"/>
-      <c r="M30" s="175"/>
-      <c r="N30" s="175"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="176"/>
-      <c r="Q30" s="177"/>
-      <c r="R30" s="178"/>
-      <c r="S30" s="178"/>
-      <c r="T30" s="178"/>
-      <c r="U30" s="178"/>
-      <c r="V30" s="178"/>
-      <c r="W30" s="178"/>
-      <c r="X30" s="178"/>
-      <c r="Y30" s="178"/>
-      <c r="Z30" s="178"/>
-      <c r="AA30" s="178"/>
-      <c r="AB30" s="178"/>
-      <c r="AC30" s="178"/>
-      <c r="AD30" s="178"/>
-      <c r="AE30" s="179"/>
-      <c r="AF30" s="174"/>
-      <c r="AG30" s="175"/>
-      <c r="AH30" s="175"/>
-      <c r="AI30" s="176"/>
+      <c r="B30" s="217"/>
+      <c r="C30" s="218"/>
+      <c r="D30" s="219"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="221"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="222"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="223"/>
+      <c r="K30" s="224"/>
+      <c r="L30" s="224"/>
+      <c r="M30" s="224"/>
+      <c r="N30" s="224"/>
+      <c r="O30" s="224"/>
+      <c r="P30" s="225"/>
+      <c r="Q30" s="226"/>
+      <c r="R30" s="227"/>
+      <c r="S30" s="227"/>
+      <c r="T30" s="227"/>
+      <c r="U30" s="227"/>
+      <c r="V30" s="227"/>
+      <c r="W30" s="227"/>
+      <c r="X30" s="227"/>
+      <c r="Y30" s="227"/>
+      <c r="Z30" s="227"/>
+      <c r="AA30" s="227"/>
+      <c r="AB30" s="227"/>
+      <c r="AC30" s="227"/>
+      <c r="AD30" s="227"/>
+      <c r="AE30" s="228"/>
+      <c r="AF30" s="223"/>
+      <c r="AG30" s="224"/>
+      <c r="AH30" s="224"/>
+      <c r="AI30" s="225"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="175"/>
-      <c r="M31" s="175"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="176"/>
-      <c r="Q31" s="177"/>
-      <c r="R31" s="178"/>
-      <c r="S31" s="178"/>
-      <c r="T31" s="178"/>
-      <c r="U31" s="178"/>
-      <c r="V31" s="178"/>
-      <c r="W31" s="178"/>
-      <c r="X31" s="178"/>
-      <c r="Y31" s="178"/>
-      <c r="Z31" s="178"/>
-      <c r="AA31" s="178"/>
-      <c r="AB31" s="178"/>
-      <c r="AC31" s="178"/>
-      <c r="AD31" s="178"/>
-      <c r="AE31" s="179"/>
-      <c r="AF31" s="174"/>
-      <c r="AG31" s="175"/>
-      <c r="AH31" s="175"/>
-      <c r="AI31" s="176"/>
+      <c r="B31" s="217"/>
+      <c r="C31" s="218"/>
+      <c r="D31" s="219"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="221"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="222"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="223"/>
+      <c r="K31" s="224"/>
+      <c r="L31" s="224"/>
+      <c r="M31" s="224"/>
+      <c r="N31" s="224"/>
+      <c r="O31" s="224"/>
+      <c r="P31" s="225"/>
+      <c r="Q31" s="226"/>
+      <c r="R31" s="227"/>
+      <c r="S31" s="227"/>
+      <c r="T31" s="227"/>
+      <c r="U31" s="227"/>
+      <c r="V31" s="227"/>
+      <c r="W31" s="227"/>
+      <c r="X31" s="227"/>
+      <c r="Y31" s="227"/>
+      <c r="Z31" s="227"/>
+      <c r="AA31" s="227"/>
+      <c r="AB31" s="227"/>
+      <c r="AC31" s="227"/>
+      <c r="AD31" s="227"/>
+      <c r="AE31" s="228"/>
+      <c r="AF31" s="223"/>
+      <c r="AG31" s="224"/>
+      <c r="AH31" s="224"/>
+      <c r="AI31" s="225"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="175"/>
-      <c r="M32" s="175"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="176"/>
-      <c r="Q32" s="177"/>
-      <c r="R32" s="178"/>
-      <c r="S32" s="178"/>
-      <c r="T32" s="178"/>
-      <c r="U32" s="178"/>
-      <c r="V32" s="178"/>
-      <c r="W32" s="178"/>
-      <c r="X32" s="178"/>
-      <c r="Y32" s="178"/>
-      <c r="Z32" s="178"/>
-      <c r="AA32" s="178"/>
-      <c r="AB32" s="178"/>
-      <c r="AC32" s="178"/>
-      <c r="AD32" s="178"/>
-      <c r="AE32" s="179"/>
-      <c r="AF32" s="174"/>
-      <c r="AG32" s="175"/>
-      <c r="AH32" s="175"/>
-      <c r="AI32" s="176"/>
+      <c r="B32" s="217"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="219"/>
+      <c r="E32" s="220"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="222"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="223"/>
+      <c r="K32" s="229"/>
+      <c r="L32" s="224"/>
+      <c r="M32" s="224"/>
+      <c r="N32" s="224"/>
+      <c r="O32" s="224"/>
+      <c r="P32" s="225"/>
+      <c r="Q32" s="226"/>
+      <c r="R32" s="227"/>
+      <c r="S32" s="227"/>
+      <c r="T32" s="227"/>
+      <c r="U32" s="227"/>
+      <c r="V32" s="227"/>
+      <c r="W32" s="227"/>
+      <c r="X32" s="227"/>
+      <c r="Y32" s="227"/>
+      <c r="Z32" s="227"/>
+      <c r="AA32" s="227"/>
+      <c r="AB32" s="227"/>
+      <c r="AC32" s="227"/>
+      <c r="AD32" s="227"/>
+      <c r="AE32" s="228"/>
+      <c r="AF32" s="223"/>
+      <c r="AG32" s="224"/>
+      <c r="AH32" s="224"/>
+      <c r="AI32" s="225"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="175"/>
-      <c r="M33" s="175"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="176"/>
-      <c r="Q33" s="177"/>
-      <c r="R33" s="178"/>
-      <c r="S33" s="178"/>
-      <c r="T33" s="178"/>
-      <c r="U33" s="178"/>
-      <c r="V33" s="178"/>
-      <c r="W33" s="178"/>
-      <c r="X33" s="178"/>
-      <c r="Y33" s="178"/>
-      <c r="Z33" s="178"/>
-      <c r="AA33" s="178"/>
-      <c r="AB33" s="178"/>
-      <c r="AC33" s="178"/>
-      <c r="AD33" s="178"/>
-      <c r="AE33" s="179"/>
-      <c r="AF33" s="174"/>
-      <c r="AG33" s="175"/>
-      <c r="AH33" s="175"/>
-      <c r="AI33" s="176"/>
+      <c r="B33" s="217"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="219"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="221"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="222"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="223"/>
+      <c r="K33" s="224"/>
+      <c r="L33" s="224"/>
+      <c r="M33" s="224"/>
+      <c r="N33" s="224"/>
+      <c r="O33" s="224"/>
+      <c r="P33" s="225"/>
+      <c r="Q33" s="226"/>
+      <c r="R33" s="227"/>
+      <c r="S33" s="227"/>
+      <c r="T33" s="227"/>
+      <c r="U33" s="227"/>
+      <c r="V33" s="227"/>
+      <c r="W33" s="227"/>
+      <c r="X33" s="227"/>
+      <c r="Y33" s="227"/>
+      <c r="Z33" s="227"/>
+      <c r="AA33" s="227"/>
+      <c r="AB33" s="227"/>
+      <c r="AC33" s="227"/>
+      <c r="AD33" s="227"/>
+      <c r="AE33" s="228"/>
+      <c r="AF33" s="223"/>
+      <c r="AG33" s="224"/>
+      <c r="AH33" s="224"/>
+      <c r="AI33" s="225"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -10646,6 +10489,167 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -20888,7 +20892,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="25" t="s">
-        <v>11</v>
+        <v>466</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>13</v>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(Webサービス)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(Webサービス)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC7BE94-B792-456F-A4CE-87A05E77C833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA696F1-4702-4779-892F-28235366E7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,17 +11,17 @@
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="21" r:id="rId2"/>
     <sheet name="【テストターゲット名】_クラス単体" sheetId="23" r:id="rId3"/>
-    <sheet name="【リクエストID】_リクエスト単体" sheetId="24" r:id="rId4"/>
+    <sheet name="【テストターゲット名】_リクエスト単体" sheetId="24" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【テストターゲット名】_クラス単体!$A$10:$Q$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【リクエストID】_リクエスト単体!$A$10:$R$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【テストターゲット名】_リクエスト単体!$A$10:$R$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">【テストターゲット名】_クラス単体!$A$1:$Q$295</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">【リクエストID】_リクエスト単体!$A$1:$R$314</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">【テストターゲット名】_リクエスト単体!$A$1:$R$314</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">【テストターゲット名】_クラス単体!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">【リクエストID】_リクエスト単体!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">【テストターゲット名】_リクエスト単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -6459,7 +6459,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>リクエストID：</t>
+    <t>テストターゲット名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -7633,6 +7636,93 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7731,93 +7821,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9270,57 +9273,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="174" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="203" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="183" t="s">
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="205"/>
+      <c r="O1" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="192" t="s">
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="214"/>
+      <c r="S1" s="221" t="s">
         <v>415</v>
       </c>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="168" t="s">
+      <c r="T1" s="222"/>
+      <c r="U1" s="222"/>
+      <c r="V1" s="222"/>
+      <c r="W1" s="222"/>
+      <c r="X1" s="222"/>
+      <c r="Y1" s="222"/>
+      <c r="Z1" s="223"/>
+      <c r="AA1" s="197" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="199" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="177" t="str">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="206" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="178"/>
-      <c r="AI1" s="179"/>
+      <c r="AH1" s="207"/>
+      <c r="AI1" s="208"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9328,53 +9331,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="174" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="203" t="s">
         <v>437</v>
       </c>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="168" t="s">
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="225"/>
+      <c r="V2" s="225"/>
+      <c r="W2" s="225"/>
+      <c r="X2" s="225"/>
+      <c r="Y2" s="225"/>
+      <c r="Z2" s="226"/>
+      <c r="AA2" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="180" t="str">
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="209" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="177" t="str">
+      <c r="AD2" s="210"/>
+      <c r="AE2" s="210"/>
+      <c r="AF2" s="211"/>
+      <c r="AG2" s="206" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9382,45 +9385,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="174" t="s">
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="203" t="s">
         <v>438</v>
       </c>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="177"/>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="179"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="218"/>
+      <c r="P3" s="219"/>
+      <c r="Q3" s="219"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="227"/>
+      <c r="T3" s="228"/>
+      <c r="U3" s="228"/>
+      <c r="V3" s="228"/>
+      <c r="W3" s="228"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="198"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="206"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="208"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9457,1020 +9460,1181 @@
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="201" t="s">
+      <c r="C7" s="182"/>
+      <c r="D7" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="201" t="s">
+      <c r="E7" s="183"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="203"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="201" t="s">
+      <c r="H7" s="183"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="201" t="s">
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="203"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="203"/>
-      <c r="U7" s="203"/>
-      <c r="V7" s="203"/>
-      <c r="W7" s="203"/>
-      <c r="X7" s="203"/>
-      <c r="Y7" s="203"/>
-      <c r="Z7" s="203"/>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="203"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="203"/>
-      <c r="AE7" s="202"/>
-      <c r="AF7" s="201" t="s">
+      <c r="R7" s="183"/>
+      <c r="S7" s="183"/>
+      <c r="T7" s="183"/>
+      <c r="U7" s="183"/>
+      <c r="V7" s="183"/>
+      <c r="W7" s="183"/>
+      <c r="X7" s="183"/>
+      <c r="Y7" s="183"/>
+      <c r="Z7" s="183"/>
+      <c r="AA7" s="183"/>
+      <c r="AB7" s="183"/>
+      <c r="AC7" s="183"/>
+      <c r="AD7" s="183"/>
+      <c r="AE7" s="182"/>
+      <c r="AF7" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="AG7" s="203"/>
-      <c r="AH7" s="203"/>
-      <c r="AI7" s="202"/>
+      <c r="AG7" s="183"/>
+      <c r="AH7" s="183"/>
+      <c r="AI7" s="182"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="212"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="212"/>
-      <c r="N8" s="212"/>
-      <c r="O8" s="212"/>
-      <c r="P8" s="213"/>
-      <c r="Q8" s="214"/>
-      <c r="R8" s="215"/>
-      <c r="S8" s="215"/>
-      <c r="T8" s="215"/>
-      <c r="U8" s="215"/>
-      <c r="V8" s="215"/>
-      <c r="W8" s="215"/>
-      <c r="X8" s="215"/>
-      <c r="Y8" s="215"/>
-      <c r="Z8" s="215"/>
-      <c r="AA8" s="215"/>
-      <c r="AB8" s="215"/>
-      <c r="AC8" s="215"/>
-      <c r="AD8" s="215"/>
-      <c r="AE8" s="216"/>
-      <c r="AF8" s="211"/>
-      <c r="AG8" s="212"/>
-      <c r="AH8" s="212"/>
-      <c r="AI8" s="213"/>
+      <c r="B8" s="184"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="192"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="192"/>
+      <c r="N8" s="192"/>
+      <c r="O8" s="192"/>
+      <c r="P8" s="193"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="195"/>
+      <c r="U8" s="195"/>
+      <c r="V8" s="195"/>
+      <c r="W8" s="195"/>
+      <c r="X8" s="195"/>
+      <c r="Y8" s="195"/>
+      <c r="Z8" s="195"/>
+      <c r="AA8" s="195"/>
+      <c r="AB8" s="195"/>
+      <c r="AC8" s="195"/>
+      <c r="AD8" s="195"/>
+      <c r="AE8" s="196"/>
+      <c r="AF8" s="191"/>
+      <c r="AG8" s="192"/>
+      <c r="AH8" s="192"/>
+      <c r="AI8" s="193"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="217"/>
-      <c r="C9" s="218"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="222"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="223"/>
-      <c r="K9" s="224"/>
-      <c r="L9" s="224"/>
-      <c r="M9" s="224"/>
-      <c r="N9" s="224"/>
-      <c r="O9" s="224"/>
-      <c r="P9" s="225"/>
-      <c r="Q9" s="226"/>
-      <c r="R9" s="227"/>
-      <c r="S9" s="227"/>
-      <c r="T9" s="227"/>
-      <c r="U9" s="227"/>
-      <c r="V9" s="227"/>
-      <c r="W9" s="227"/>
-      <c r="X9" s="227"/>
-      <c r="Y9" s="227"/>
-      <c r="Z9" s="227"/>
-      <c r="AA9" s="227"/>
-      <c r="AB9" s="227"/>
-      <c r="AC9" s="227"/>
-      <c r="AD9" s="227"/>
-      <c r="AE9" s="228"/>
-      <c r="AF9" s="223"/>
-      <c r="AG9" s="224"/>
-      <c r="AH9" s="224"/>
-      <c r="AI9" s="225"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="178"/>
+      <c r="T9" s="178"/>
+      <c r="U9" s="178"/>
+      <c r="V9" s="178"/>
+      <c r="W9" s="178"/>
+      <c r="X9" s="178"/>
+      <c r="Y9" s="178"/>
+      <c r="Z9" s="178"/>
+      <c r="AA9" s="178"/>
+      <c r="AB9" s="178"/>
+      <c r="AC9" s="178"/>
+      <c r="AD9" s="178"/>
+      <c r="AE9" s="179"/>
+      <c r="AF9" s="174"/>
+      <c r="AG9" s="175"/>
+      <c r="AH9" s="175"/>
+      <c r="AI9" s="176"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="217"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="221"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="222"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="223"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="224"/>
-      <c r="N10" s="224"/>
-      <c r="O10" s="224"/>
-      <c r="P10" s="225"/>
-      <c r="Q10" s="226"/>
-      <c r="R10" s="227"/>
-      <c r="S10" s="227"/>
-      <c r="T10" s="227"/>
-      <c r="U10" s="227"/>
-      <c r="V10" s="227"/>
-      <c r="W10" s="227"/>
-      <c r="X10" s="227"/>
-      <c r="Y10" s="227"/>
-      <c r="Z10" s="227"/>
-      <c r="AA10" s="227"/>
-      <c r="AB10" s="227"/>
-      <c r="AC10" s="227"/>
-      <c r="AD10" s="227"/>
-      <c r="AE10" s="228"/>
-      <c r="AF10" s="223"/>
-      <c r="AG10" s="224"/>
-      <c r="AH10" s="224"/>
-      <c r="AI10" s="225"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="178"/>
+      <c r="T10" s="178"/>
+      <c r="U10" s="178"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="178"/>
+      <c r="Z10" s="178"/>
+      <c r="AA10" s="178"/>
+      <c r="AB10" s="178"/>
+      <c r="AC10" s="178"/>
+      <c r="AD10" s="178"/>
+      <c r="AE10" s="179"/>
+      <c r="AF10" s="174"/>
+      <c r="AG10" s="175"/>
+      <c r="AH10" s="175"/>
+      <c r="AI10" s="176"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="217"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="220"/>
-      <c r="F11" s="221"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="223"/>
-      <c r="K11" s="224"/>
-      <c r="L11" s="224"/>
-      <c r="M11" s="224"/>
-      <c r="N11" s="224"/>
-      <c r="O11" s="224"/>
-      <c r="P11" s="225"/>
-      <c r="Q11" s="226"/>
-      <c r="R11" s="227"/>
-      <c r="S11" s="227"/>
-      <c r="T11" s="227"/>
-      <c r="U11" s="227"/>
-      <c r="V11" s="227"/>
-      <c r="W11" s="227"/>
-      <c r="X11" s="227"/>
-      <c r="Y11" s="227"/>
-      <c r="Z11" s="227"/>
-      <c r="AA11" s="227"/>
-      <c r="AB11" s="227"/>
-      <c r="AC11" s="227"/>
-      <c r="AD11" s="227"/>
-      <c r="AE11" s="228"/>
-      <c r="AF11" s="223"/>
-      <c r="AG11" s="224"/>
-      <c r="AH11" s="224"/>
-      <c r="AI11" s="225"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="178"/>
+      <c r="S11" s="178"/>
+      <c r="T11" s="178"/>
+      <c r="U11" s="178"/>
+      <c r="V11" s="178"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="178"/>
+      <c r="Z11" s="178"/>
+      <c r="AA11" s="178"/>
+      <c r="AB11" s="178"/>
+      <c r="AC11" s="178"/>
+      <c r="AD11" s="178"/>
+      <c r="AE11" s="179"/>
+      <c r="AF11" s="174"/>
+      <c r="AG11" s="175"/>
+      <c r="AH11" s="175"/>
+      <c r="AI11" s="176"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="217"/>
-      <c r="C12" s="218"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="221"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="223"/>
-      <c r="K12" s="224"/>
-      <c r="L12" s="224"/>
-      <c r="M12" s="224"/>
-      <c r="N12" s="224"/>
-      <c r="O12" s="224"/>
-      <c r="P12" s="225"/>
-      <c r="Q12" s="226"/>
-      <c r="R12" s="227"/>
-      <c r="S12" s="227"/>
-      <c r="T12" s="227"/>
-      <c r="U12" s="227"/>
-      <c r="V12" s="227"/>
-      <c r="W12" s="227"/>
-      <c r="X12" s="227"/>
-      <c r="Y12" s="227"/>
-      <c r="Z12" s="227"/>
-      <c r="AA12" s="227"/>
-      <c r="AB12" s="227"/>
-      <c r="AC12" s="227"/>
-      <c r="AD12" s="227"/>
-      <c r="AE12" s="228"/>
-      <c r="AF12" s="223"/>
-      <c r="AG12" s="224"/>
-      <c r="AH12" s="224"/>
-      <c r="AI12" s="225"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="175"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="178"/>
+      <c r="S12" s="178"/>
+      <c r="T12" s="178"/>
+      <c r="U12" s="178"/>
+      <c r="V12" s="178"/>
+      <c r="W12" s="178"/>
+      <c r="X12" s="178"/>
+      <c r="Y12" s="178"/>
+      <c r="Z12" s="178"/>
+      <c r="AA12" s="178"/>
+      <c r="AB12" s="178"/>
+      <c r="AC12" s="178"/>
+      <c r="AD12" s="178"/>
+      <c r="AE12" s="179"/>
+      <c r="AF12" s="174"/>
+      <c r="AG12" s="175"/>
+      <c r="AH12" s="175"/>
+      <c r="AI12" s="176"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="217"/>
-      <c r="C13" s="218"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="221"/>
-      <c r="G13" s="217"/>
-      <c r="H13" s="222"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="224"/>
-      <c r="L13" s="224"/>
-      <c r="M13" s="224"/>
-      <c r="N13" s="224"/>
-      <c r="O13" s="224"/>
-      <c r="P13" s="225"/>
-      <c r="Q13" s="226"/>
-      <c r="R13" s="227"/>
-      <c r="S13" s="227"/>
-      <c r="T13" s="227"/>
-      <c r="U13" s="227"/>
-      <c r="V13" s="227"/>
-      <c r="W13" s="227"/>
-      <c r="X13" s="227"/>
-      <c r="Y13" s="227"/>
-      <c r="Z13" s="227"/>
-      <c r="AA13" s="227"/>
-      <c r="AB13" s="227"/>
-      <c r="AC13" s="227"/>
-      <c r="AD13" s="227"/>
-      <c r="AE13" s="228"/>
-      <c r="AF13" s="223"/>
-      <c r="AG13" s="224"/>
-      <c r="AH13" s="224"/>
-      <c r="AI13" s="225"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="178"/>
+      <c r="S13" s="178"/>
+      <c r="T13" s="178"/>
+      <c r="U13" s="178"/>
+      <c r="V13" s="178"/>
+      <c r="W13" s="178"/>
+      <c r="X13" s="178"/>
+      <c r="Y13" s="178"/>
+      <c r="Z13" s="178"/>
+      <c r="AA13" s="178"/>
+      <c r="AB13" s="178"/>
+      <c r="AC13" s="178"/>
+      <c r="AD13" s="178"/>
+      <c r="AE13" s="179"/>
+      <c r="AF13" s="174"/>
+      <c r="AG13" s="175"/>
+      <c r="AH13" s="175"/>
+      <c r="AI13" s="176"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="217"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="219"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="221"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="222"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="223"/>
-      <c r="K14" s="224"/>
-      <c r="L14" s="224"/>
-      <c r="M14" s="224"/>
-      <c r="N14" s="224"/>
-      <c r="O14" s="224"/>
-      <c r="P14" s="225"/>
-      <c r="Q14" s="226"/>
-      <c r="R14" s="227"/>
-      <c r="S14" s="227"/>
-      <c r="T14" s="227"/>
-      <c r="U14" s="227"/>
-      <c r="V14" s="227"/>
-      <c r="W14" s="227"/>
-      <c r="X14" s="227"/>
-      <c r="Y14" s="227"/>
-      <c r="Z14" s="227"/>
-      <c r="AA14" s="227"/>
-      <c r="AB14" s="227"/>
-      <c r="AC14" s="227"/>
-      <c r="AD14" s="227"/>
-      <c r="AE14" s="228"/>
-      <c r="AF14" s="223"/>
-      <c r="AG14" s="224"/>
-      <c r="AH14" s="224"/>
-      <c r="AI14" s="225"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="175"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="178"/>
+      <c r="V14" s="178"/>
+      <c r="W14" s="178"/>
+      <c r="X14" s="178"/>
+      <c r="Y14" s="178"/>
+      <c r="Z14" s="178"/>
+      <c r="AA14" s="178"/>
+      <c r="AB14" s="178"/>
+      <c r="AC14" s="178"/>
+      <c r="AD14" s="178"/>
+      <c r="AE14" s="179"/>
+      <c r="AF14" s="174"/>
+      <c r="AG14" s="175"/>
+      <c r="AH14" s="175"/>
+      <c r="AI14" s="176"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="217"/>
-      <c r="C15" s="218"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="224"/>
-      <c r="L15" s="224"/>
-      <c r="M15" s="224"/>
-      <c r="N15" s="224"/>
-      <c r="O15" s="224"/>
-      <c r="P15" s="225"/>
-      <c r="Q15" s="226"/>
-      <c r="R15" s="227"/>
-      <c r="S15" s="227"/>
-      <c r="T15" s="227"/>
-      <c r="U15" s="227"/>
-      <c r="V15" s="227"/>
-      <c r="W15" s="227"/>
-      <c r="X15" s="227"/>
-      <c r="Y15" s="227"/>
-      <c r="Z15" s="227"/>
-      <c r="AA15" s="227"/>
-      <c r="AB15" s="227"/>
-      <c r="AC15" s="227"/>
-      <c r="AD15" s="227"/>
-      <c r="AE15" s="228"/>
-      <c r="AF15" s="223"/>
-      <c r="AG15" s="224"/>
-      <c r="AH15" s="224"/>
-      <c r="AI15" s="225"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="178"/>
+      <c r="S15" s="178"/>
+      <c r="T15" s="178"/>
+      <c r="U15" s="178"/>
+      <c r="V15" s="178"/>
+      <c r="W15" s="178"/>
+      <c r="X15" s="178"/>
+      <c r="Y15" s="178"/>
+      <c r="Z15" s="178"/>
+      <c r="AA15" s="178"/>
+      <c r="AB15" s="178"/>
+      <c r="AC15" s="178"/>
+      <c r="AD15" s="178"/>
+      <c r="AE15" s="179"/>
+      <c r="AF15" s="174"/>
+      <c r="AG15" s="175"/>
+      <c r="AH15" s="175"/>
+      <c r="AI15" s="176"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="218"/>
-      <c r="D16" s="219"/>
-      <c r="E16" s="220"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="222"/>
-      <c r="I16" s="218"/>
-      <c r="J16" s="223"/>
-      <c r="K16" s="224"/>
-      <c r="L16" s="224"/>
-      <c r="M16" s="224"/>
-      <c r="N16" s="224"/>
-      <c r="O16" s="224"/>
-      <c r="P16" s="225"/>
-      <c r="Q16" s="226"/>
-      <c r="R16" s="227"/>
-      <c r="S16" s="227"/>
-      <c r="T16" s="227"/>
-      <c r="U16" s="227"/>
-      <c r="V16" s="227"/>
-      <c r="W16" s="227"/>
-      <c r="X16" s="227"/>
-      <c r="Y16" s="227"/>
-      <c r="Z16" s="227"/>
-      <c r="AA16" s="227"/>
-      <c r="AB16" s="227"/>
-      <c r="AC16" s="227"/>
-      <c r="AD16" s="227"/>
-      <c r="AE16" s="228"/>
-      <c r="AF16" s="223"/>
-      <c r="AG16" s="224"/>
-      <c r="AH16" s="224"/>
-      <c r="AI16" s="225"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="178"/>
+      <c r="S16" s="178"/>
+      <c r="T16" s="178"/>
+      <c r="U16" s="178"/>
+      <c r="V16" s="178"/>
+      <c r="W16" s="178"/>
+      <c r="X16" s="178"/>
+      <c r="Y16" s="178"/>
+      <c r="Z16" s="178"/>
+      <c r="AA16" s="178"/>
+      <c r="AB16" s="178"/>
+      <c r="AC16" s="178"/>
+      <c r="AD16" s="178"/>
+      <c r="AE16" s="179"/>
+      <c r="AF16" s="174"/>
+      <c r="AG16" s="175"/>
+      <c r="AH16" s="175"/>
+      <c r="AI16" s="176"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="217"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="222"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="224"/>
-      <c r="L17" s="224"/>
-      <c r="M17" s="224"/>
-      <c r="N17" s="224"/>
-      <c r="O17" s="224"/>
-      <c r="P17" s="225"/>
-      <c r="Q17" s="226"/>
-      <c r="R17" s="227"/>
-      <c r="S17" s="227"/>
-      <c r="T17" s="227"/>
-      <c r="U17" s="227"/>
-      <c r="V17" s="227"/>
-      <c r="W17" s="227"/>
-      <c r="X17" s="227"/>
-      <c r="Y17" s="227"/>
-      <c r="Z17" s="227"/>
-      <c r="AA17" s="227"/>
-      <c r="AB17" s="227"/>
-      <c r="AC17" s="227"/>
-      <c r="AD17" s="227"/>
-      <c r="AE17" s="228"/>
-      <c r="AF17" s="223"/>
-      <c r="AG17" s="224"/>
-      <c r="AH17" s="224"/>
-      <c r="AI17" s="225"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="175"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="178"/>
+      <c r="S17" s="178"/>
+      <c r="T17" s="178"/>
+      <c r="U17" s="178"/>
+      <c r="V17" s="178"/>
+      <c r="W17" s="178"/>
+      <c r="X17" s="178"/>
+      <c r="Y17" s="178"/>
+      <c r="Z17" s="178"/>
+      <c r="AA17" s="178"/>
+      <c r="AB17" s="178"/>
+      <c r="AC17" s="178"/>
+      <c r="AD17" s="178"/>
+      <c r="AE17" s="179"/>
+      <c r="AF17" s="174"/>
+      <c r="AG17" s="175"/>
+      <c r="AH17" s="175"/>
+      <c r="AI17" s="176"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="217"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="221"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="222"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="223"/>
-      <c r="K18" s="224"/>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="224"/>
-      <c r="O18" s="224"/>
-      <c r="P18" s="225"/>
-      <c r="Q18" s="226"/>
-      <c r="R18" s="227"/>
-      <c r="S18" s="227"/>
-      <c r="T18" s="227"/>
-      <c r="U18" s="227"/>
-      <c r="V18" s="227"/>
-      <c r="W18" s="227"/>
-      <c r="X18" s="227"/>
-      <c r="Y18" s="227"/>
-      <c r="Z18" s="227"/>
-      <c r="AA18" s="227"/>
-      <c r="AB18" s="227"/>
-      <c r="AC18" s="227"/>
-      <c r="AD18" s="227"/>
-      <c r="AE18" s="228"/>
-      <c r="AF18" s="223"/>
-      <c r="AG18" s="224"/>
-      <c r="AH18" s="224"/>
-      <c r="AI18" s="225"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="178"/>
+      <c r="S18" s="178"/>
+      <c r="T18" s="178"/>
+      <c r="U18" s="178"/>
+      <c r="V18" s="178"/>
+      <c r="W18" s="178"/>
+      <c r="X18" s="178"/>
+      <c r="Y18" s="178"/>
+      <c r="Z18" s="178"/>
+      <c r="AA18" s="178"/>
+      <c r="AB18" s="178"/>
+      <c r="AC18" s="178"/>
+      <c r="AD18" s="178"/>
+      <c r="AE18" s="179"/>
+      <c r="AF18" s="174"/>
+      <c r="AG18" s="175"/>
+      <c r="AH18" s="175"/>
+      <c r="AI18" s="176"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="217"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="222"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="223"/>
-      <c r="K19" s="224"/>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
-      <c r="O19" s="224"/>
-      <c r="P19" s="225"/>
-      <c r="Q19" s="226"/>
-      <c r="R19" s="227"/>
-      <c r="S19" s="227"/>
-      <c r="T19" s="227"/>
-      <c r="U19" s="227"/>
-      <c r="V19" s="227"/>
-      <c r="W19" s="227"/>
-      <c r="X19" s="227"/>
-      <c r="Y19" s="227"/>
-      <c r="Z19" s="227"/>
-      <c r="AA19" s="227"/>
-      <c r="AB19" s="227"/>
-      <c r="AC19" s="227"/>
-      <c r="AD19" s="227"/>
-      <c r="AE19" s="228"/>
-      <c r="AF19" s="223"/>
-      <c r="AG19" s="224"/>
-      <c r="AH19" s="224"/>
-      <c r="AI19" s="225"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="176"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="178"/>
+      <c r="S19" s="178"/>
+      <c r="T19" s="178"/>
+      <c r="U19" s="178"/>
+      <c r="V19" s="178"/>
+      <c r="W19" s="178"/>
+      <c r="X19" s="178"/>
+      <c r="Y19" s="178"/>
+      <c r="Z19" s="178"/>
+      <c r="AA19" s="178"/>
+      <c r="AB19" s="178"/>
+      <c r="AC19" s="178"/>
+      <c r="AD19" s="178"/>
+      <c r="AE19" s="179"/>
+      <c r="AF19" s="174"/>
+      <c r="AG19" s="175"/>
+      <c r="AH19" s="175"/>
+      <c r="AI19" s="176"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="217"/>
-      <c r="C20" s="218"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="217"/>
-      <c r="H20" s="222"/>
-      <c r="I20" s="218"/>
-      <c r="J20" s="223"/>
-      <c r="K20" s="224"/>
-      <c r="L20" s="224"/>
-      <c r="M20" s="224"/>
-      <c r="N20" s="224"/>
-      <c r="O20" s="224"/>
-      <c r="P20" s="225"/>
-      <c r="Q20" s="226"/>
-      <c r="R20" s="227"/>
-      <c r="S20" s="227"/>
-      <c r="T20" s="227"/>
-      <c r="U20" s="227"/>
-      <c r="V20" s="227"/>
-      <c r="W20" s="227"/>
-      <c r="X20" s="227"/>
-      <c r="Y20" s="227"/>
-      <c r="Z20" s="227"/>
-      <c r="AA20" s="227"/>
-      <c r="AB20" s="227"/>
-      <c r="AC20" s="227"/>
-      <c r="AD20" s="227"/>
-      <c r="AE20" s="228"/>
-      <c r="AF20" s="223"/>
-      <c r="AG20" s="224"/>
-      <c r="AH20" s="224"/>
-      <c r="AI20" s="225"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="176"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="178"/>
+      <c r="S20" s="178"/>
+      <c r="T20" s="178"/>
+      <c r="U20" s="178"/>
+      <c r="V20" s="178"/>
+      <c r="W20" s="178"/>
+      <c r="X20" s="178"/>
+      <c r="Y20" s="178"/>
+      <c r="Z20" s="178"/>
+      <c r="AA20" s="178"/>
+      <c r="AB20" s="178"/>
+      <c r="AC20" s="178"/>
+      <c r="AD20" s="178"/>
+      <c r="AE20" s="179"/>
+      <c r="AF20" s="174"/>
+      <c r="AG20" s="175"/>
+      <c r="AH20" s="175"/>
+      <c r="AI20" s="176"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="217"/>
-      <c r="C21" s="218"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="217"/>
-      <c r="H21" s="222"/>
-      <c r="I21" s="218"/>
-      <c r="J21" s="223"/>
-      <c r="K21" s="224"/>
-      <c r="L21" s="224"/>
-      <c r="M21" s="224"/>
-      <c r="N21" s="224"/>
-      <c r="O21" s="224"/>
-      <c r="P21" s="225"/>
-      <c r="Q21" s="226"/>
-      <c r="R21" s="227"/>
-      <c r="S21" s="227"/>
-      <c r="T21" s="227"/>
-      <c r="U21" s="227"/>
-      <c r="V21" s="227"/>
-      <c r="W21" s="227"/>
-      <c r="X21" s="227"/>
-      <c r="Y21" s="227"/>
-      <c r="Z21" s="227"/>
-      <c r="AA21" s="227"/>
-      <c r="AB21" s="227"/>
-      <c r="AC21" s="227"/>
-      <c r="AD21" s="227"/>
-      <c r="AE21" s="228"/>
-      <c r="AF21" s="223"/>
-      <c r="AG21" s="224"/>
-      <c r="AH21" s="224"/>
-      <c r="AI21" s="225"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="174"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="176"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="178"/>
+      <c r="S21" s="178"/>
+      <c r="T21" s="178"/>
+      <c r="U21" s="178"/>
+      <c r="V21" s="178"/>
+      <c r="W21" s="178"/>
+      <c r="X21" s="178"/>
+      <c r="Y21" s="178"/>
+      <c r="Z21" s="178"/>
+      <c r="AA21" s="178"/>
+      <c r="AB21" s="178"/>
+      <c r="AC21" s="178"/>
+      <c r="AD21" s="178"/>
+      <c r="AE21" s="179"/>
+      <c r="AF21" s="174"/>
+      <c r="AG21" s="175"/>
+      <c r="AH21" s="175"/>
+      <c r="AI21" s="176"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="217"/>
-      <c r="C22" s="218"/>
-      <c r="D22" s="219"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="221"/>
-      <c r="G22" s="217"/>
-      <c r="H22" s="222"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="223"/>
-      <c r="K22" s="224"/>
-      <c r="L22" s="224"/>
-      <c r="M22" s="224"/>
-      <c r="N22" s="224"/>
-      <c r="O22" s="224"/>
-      <c r="P22" s="225"/>
-      <c r="Q22" s="226"/>
-      <c r="R22" s="227"/>
-      <c r="S22" s="227"/>
-      <c r="T22" s="227"/>
-      <c r="U22" s="227"/>
-      <c r="V22" s="227"/>
-      <c r="W22" s="227"/>
-      <c r="X22" s="227"/>
-      <c r="Y22" s="227"/>
-      <c r="Z22" s="227"/>
-      <c r="AA22" s="227"/>
-      <c r="AB22" s="227"/>
-      <c r="AC22" s="227"/>
-      <c r="AD22" s="227"/>
-      <c r="AE22" s="228"/>
-      <c r="AF22" s="223"/>
-      <c r="AG22" s="224"/>
-      <c r="AH22" s="224"/>
-      <c r="AI22" s="225"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="176"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="178"/>
+      <c r="S22" s="178"/>
+      <c r="T22" s="178"/>
+      <c r="U22" s="178"/>
+      <c r="V22" s="178"/>
+      <c r="W22" s="178"/>
+      <c r="X22" s="178"/>
+      <c r="Y22" s="178"/>
+      <c r="Z22" s="178"/>
+      <c r="AA22" s="178"/>
+      <c r="AB22" s="178"/>
+      <c r="AC22" s="178"/>
+      <c r="AD22" s="178"/>
+      <c r="AE22" s="179"/>
+      <c r="AF22" s="174"/>
+      <c r="AG22" s="175"/>
+      <c r="AH22" s="175"/>
+      <c r="AI22" s="176"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="217"/>
-      <c r="C23" s="218"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="221"/>
-      <c r="G23" s="217"/>
-      <c r="H23" s="222"/>
-      <c r="I23" s="218"/>
-      <c r="J23" s="223"/>
-      <c r="K23" s="224"/>
-      <c r="L23" s="224"/>
-      <c r="M23" s="224"/>
-      <c r="N23" s="224"/>
-      <c r="O23" s="224"/>
-      <c r="P23" s="225"/>
-      <c r="Q23" s="226"/>
-      <c r="R23" s="227"/>
-      <c r="S23" s="227"/>
-      <c r="T23" s="227"/>
-      <c r="U23" s="227"/>
-      <c r="V23" s="227"/>
-      <c r="W23" s="227"/>
-      <c r="X23" s="227"/>
-      <c r="Y23" s="227"/>
-      <c r="Z23" s="227"/>
-      <c r="AA23" s="227"/>
-      <c r="AB23" s="227"/>
-      <c r="AC23" s="227"/>
-      <c r="AD23" s="227"/>
-      <c r="AE23" s="228"/>
-      <c r="AF23" s="223"/>
-      <c r="AG23" s="224"/>
-      <c r="AH23" s="224"/>
-      <c r="AI23" s="225"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="174"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="176"/>
+      <c r="Q23" s="177"/>
+      <c r="R23" s="178"/>
+      <c r="S23" s="178"/>
+      <c r="T23" s="178"/>
+      <c r="U23" s="178"/>
+      <c r="V23" s="178"/>
+      <c r="W23" s="178"/>
+      <c r="X23" s="178"/>
+      <c r="Y23" s="178"/>
+      <c r="Z23" s="178"/>
+      <c r="AA23" s="178"/>
+      <c r="AB23" s="178"/>
+      <c r="AC23" s="178"/>
+      <c r="AD23" s="178"/>
+      <c r="AE23" s="179"/>
+      <c r="AF23" s="174"/>
+      <c r="AG23" s="175"/>
+      <c r="AH23" s="175"/>
+      <c r="AI23" s="176"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="217"/>
-      <c r="C24" s="218"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="217"/>
-      <c r="H24" s="222"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="224"/>
-      <c r="L24" s="224"/>
-      <c r="M24" s="224"/>
-      <c r="N24" s="224"/>
-      <c r="O24" s="224"/>
-      <c r="P24" s="225"/>
-      <c r="Q24" s="226"/>
-      <c r="R24" s="227"/>
-      <c r="S24" s="227"/>
-      <c r="T24" s="227"/>
-      <c r="U24" s="227"/>
-      <c r="V24" s="227"/>
-      <c r="W24" s="227"/>
-      <c r="X24" s="227"/>
-      <c r="Y24" s="227"/>
-      <c r="Z24" s="227"/>
-      <c r="AA24" s="227"/>
-      <c r="AB24" s="227"/>
-      <c r="AC24" s="227"/>
-      <c r="AD24" s="227"/>
-      <c r="AE24" s="228"/>
-      <c r="AF24" s="223"/>
-      <c r="AG24" s="224"/>
-      <c r="AH24" s="224"/>
-      <c r="AI24" s="225"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="174"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="176"/>
+      <c r="Q24" s="177"/>
+      <c r="R24" s="178"/>
+      <c r="S24" s="178"/>
+      <c r="T24" s="178"/>
+      <c r="U24" s="178"/>
+      <c r="V24" s="178"/>
+      <c r="W24" s="178"/>
+      <c r="X24" s="178"/>
+      <c r="Y24" s="178"/>
+      <c r="Z24" s="178"/>
+      <c r="AA24" s="178"/>
+      <c r="AB24" s="178"/>
+      <c r="AC24" s="178"/>
+      <c r="AD24" s="178"/>
+      <c r="AE24" s="179"/>
+      <c r="AF24" s="174"/>
+      <c r="AG24" s="175"/>
+      <c r="AH24" s="175"/>
+      <c r="AI24" s="176"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="217"/>
-      <c r="C25" s="218"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="220"/>
-      <c r="F25" s="221"/>
-      <c r="G25" s="217"/>
-      <c r="H25" s="222"/>
-      <c r="I25" s="218"/>
-      <c r="J25" s="223"/>
-      <c r="K25" s="224"/>
-      <c r="L25" s="224"/>
-      <c r="M25" s="224"/>
-      <c r="N25" s="224"/>
-      <c r="O25" s="224"/>
-      <c r="P25" s="225"/>
-      <c r="Q25" s="226"/>
-      <c r="R25" s="227"/>
-      <c r="S25" s="227"/>
-      <c r="T25" s="227"/>
-      <c r="U25" s="227"/>
-      <c r="V25" s="227"/>
-      <c r="W25" s="227"/>
-      <c r="X25" s="227"/>
-      <c r="Y25" s="227"/>
-      <c r="Z25" s="227"/>
-      <c r="AA25" s="227"/>
-      <c r="AB25" s="227"/>
-      <c r="AC25" s="227"/>
-      <c r="AD25" s="227"/>
-      <c r="AE25" s="228"/>
-      <c r="AF25" s="223"/>
-      <c r="AG25" s="224"/>
-      <c r="AH25" s="224"/>
-      <c r="AI25" s="225"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="176"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="178"/>
+      <c r="S25" s="178"/>
+      <c r="T25" s="178"/>
+      <c r="U25" s="178"/>
+      <c r="V25" s="178"/>
+      <c r="W25" s="178"/>
+      <c r="X25" s="178"/>
+      <c r="Y25" s="178"/>
+      <c r="Z25" s="178"/>
+      <c r="AA25" s="178"/>
+      <c r="AB25" s="178"/>
+      <c r="AC25" s="178"/>
+      <c r="AD25" s="178"/>
+      <c r="AE25" s="179"/>
+      <c r="AF25" s="174"/>
+      <c r="AG25" s="175"/>
+      <c r="AH25" s="175"/>
+      <c r="AI25" s="176"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="217"/>
-      <c r="C26" s="218"/>
-      <c r="D26" s="219"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="222"/>
-      <c r="I26" s="218"/>
-      <c r="J26" s="223"/>
-      <c r="K26" s="224"/>
-      <c r="L26" s="224"/>
-      <c r="M26" s="224"/>
-      <c r="N26" s="224"/>
-      <c r="O26" s="224"/>
-      <c r="P26" s="225"/>
-      <c r="Q26" s="226"/>
-      <c r="R26" s="227"/>
-      <c r="S26" s="227"/>
-      <c r="T26" s="227"/>
-      <c r="U26" s="227"/>
-      <c r="V26" s="227"/>
-      <c r="W26" s="227"/>
-      <c r="X26" s="227"/>
-      <c r="Y26" s="227"/>
-      <c r="Z26" s="227"/>
-      <c r="AA26" s="227"/>
-      <c r="AB26" s="227"/>
-      <c r="AC26" s="227"/>
-      <c r="AD26" s="227"/>
-      <c r="AE26" s="228"/>
-      <c r="AF26" s="223"/>
-      <c r="AG26" s="224"/>
-      <c r="AH26" s="224"/>
-      <c r="AI26" s="225"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="169"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="176"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="178"/>
+      <c r="S26" s="178"/>
+      <c r="T26" s="178"/>
+      <c r="U26" s="178"/>
+      <c r="V26" s="178"/>
+      <c r="W26" s="178"/>
+      <c r="X26" s="178"/>
+      <c r="Y26" s="178"/>
+      <c r="Z26" s="178"/>
+      <c r="AA26" s="178"/>
+      <c r="AB26" s="178"/>
+      <c r="AC26" s="178"/>
+      <c r="AD26" s="178"/>
+      <c r="AE26" s="179"/>
+      <c r="AF26" s="174"/>
+      <c r="AG26" s="175"/>
+      <c r="AH26" s="175"/>
+      <c r="AI26" s="176"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="217"/>
-      <c r="C27" s="218"/>
-      <c r="D27" s="219"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="217"/>
-      <c r="H27" s="222"/>
-      <c r="I27" s="218"/>
-      <c r="J27" s="223"/>
-      <c r="K27" s="224"/>
-      <c r="L27" s="224"/>
-      <c r="M27" s="224"/>
-      <c r="N27" s="224"/>
-      <c r="O27" s="224"/>
-      <c r="P27" s="225"/>
-      <c r="Q27" s="226"/>
-      <c r="R27" s="227"/>
-      <c r="S27" s="227"/>
-      <c r="T27" s="227"/>
-      <c r="U27" s="227"/>
-      <c r="V27" s="227"/>
-      <c r="W27" s="227"/>
-      <c r="X27" s="227"/>
-      <c r="Y27" s="227"/>
-      <c r="Z27" s="227"/>
-      <c r="AA27" s="227"/>
-      <c r="AB27" s="227"/>
-      <c r="AC27" s="227"/>
-      <c r="AD27" s="227"/>
-      <c r="AE27" s="228"/>
-      <c r="AF27" s="223"/>
-      <c r="AG27" s="224"/>
-      <c r="AH27" s="224"/>
-      <c r="AI27" s="225"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="175"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="176"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="178"/>
+      <c r="S27" s="178"/>
+      <c r="T27" s="178"/>
+      <c r="U27" s="178"/>
+      <c r="V27" s="178"/>
+      <c r="W27" s="178"/>
+      <c r="X27" s="178"/>
+      <c r="Y27" s="178"/>
+      <c r="Z27" s="178"/>
+      <c r="AA27" s="178"/>
+      <c r="AB27" s="178"/>
+      <c r="AC27" s="178"/>
+      <c r="AD27" s="178"/>
+      <c r="AE27" s="179"/>
+      <c r="AF27" s="174"/>
+      <c r="AG27" s="175"/>
+      <c r="AH27" s="175"/>
+      <c r="AI27" s="176"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="217"/>
-      <c r="C28" s="218"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="221"/>
-      <c r="G28" s="217"/>
-      <c r="H28" s="222"/>
-      <c r="I28" s="218"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="224"/>
-      <c r="L28" s="224"/>
-      <c r="M28" s="224"/>
-      <c r="N28" s="224"/>
-      <c r="O28" s="224"/>
-      <c r="P28" s="225"/>
-      <c r="Q28" s="226"/>
-      <c r="R28" s="227"/>
-      <c r="S28" s="227"/>
-      <c r="T28" s="227"/>
-      <c r="U28" s="227"/>
-      <c r="V28" s="227"/>
-      <c r="W28" s="227"/>
-      <c r="X28" s="227"/>
-      <c r="Y28" s="227"/>
-      <c r="Z28" s="227"/>
-      <c r="AA28" s="227"/>
-      <c r="AB28" s="227"/>
-      <c r="AC28" s="227"/>
-      <c r="AD28" s="227"/>
-      <c r="AE28" s="228"/>
-      <c r="AF28" s="223"/>
-      <c r="AG28" s="224"/>
-      <c r="AH28" s="224"/>
-      <c r="AI28" s="225"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="174"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="178"/>
+      <c r="S28" s="178"/>
+      <c r="T28" s="178"/>
+      <c r="U28" s="178"/>
+      <c r="V28" s="178"/>
+      <c r="W28" s="178"/>
+      <c r="X28" s="178"/>
+      <c r="Y28" s="178"/>
+      <c r="Z28" s="178"/>
+      <c r="AA28" s="178"/>
+      <c r="AB28" s="178"/>
+      <c r="AC28" s="178"/>
+      <c r="AD28" s="178"/>
+      <c r="AE28" s="179"/>
+      <c r="AF28" s="174"/>
+      <c r="AG28" s="175"/>
+      <c r="AH28" s="175"/>
+      <c r="AI28" s="176"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="217"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="219"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="221"/>
-      <c r="G29" s="217"/>
-      <c r="H29" s="222"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="223"/>
-      <c r="K29" s="224"/>
-      <c r="L29" s="224"/>
-      <c r="M29" s="224"/>
-      <c r="N29" s="224"/>
-      <c r="O29" s="224"/>
-      <c r="P29" s="225"/>
-      <c r="Q29" s="226"/>
-      <c r="R29" s="227"/>
-      <c r="S29" s="227"/>
-      <c r="T29" s="227"/>
-      <c r="U29" s="227"/>
-      <c r="V29" s="227"/>
-      <c r="W29" s="227"/>
-      <c r="X29" s="227"/>
-      <c r="Y29" s="227"/>
-      <c r="Z29" s="227"/>
-      <c r="AA29" s="227"/>
-      <c r="AB29" s="227"/>
-      <c r="AC29" s="227"/>
-      <c r="AD29" s="227"/>
-      <c r="AE29" s="228"/>
-      <c r="AF29" s="223"/>
-      <c r="AG29" s="224"/>
-      <c r="AH29" s="224"/>
-      <c r="AI29" s="225"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="175"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="176"/>
+      <c r="Q29" s="177"/>
+      <c r="R29" s="178"/>
+      <c r="S29" s="178"/>
+      <c r="T29" s="178"/>
+      <c r="U29" s="178"/>
+      <c r="V29" s="178"/>
+      <c r="W29" s="178"/>
+      <c r="X29" s="178"/>
+      <c r="Y29" s="178"/>
+      <c r="Z29" s="178"/>
+      <c r="AA29" s="178"/>
+      <c r="AB29" s="178"/>
+      <c r="AC29" s="178"/>
+      <c r="AD29" s="178"/>
+      <c r="AE29" s="179"/>
+      <c r="AF29" s="174"/>
+      <c r="AG29" s="175"/>
+      <c r="AH29" s="175"/>
+      <c r="AI29" s="176"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="217"/>
-      <c r="C30" s="218"/>
-      <c r="D30" s="219"/>
-      <c r="E30" s="220"/>
-      <c r="F30" s="221"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="222"/>
-      <c r="I30" s="218"/>
-      <c r="J30" s="223"/>
-      <c r="K30" s="224"/>
-      <c r="L30" s="224"/>
-      <c r="M30" s="224"/>
-      <c r="N30" s="224"/>
-      <c r="O30" s="224"/>
-      <c r="P30" s="225"/>
-      <c r="Q30" s="226"/>
-      <c r="R30" s="227"/>
-      <c r="S30" s="227"/>
-      <c r="T30" s="227"/>
-      <c r="U30" s="227"/>
-      <c r="V30" s="227"/>
-      <c r="W30" s="227"/>
-      <c r="X30" s="227"/>
-      <c r="Y30" s="227"/>
-      <c r="Z30" s="227"/>
-      <c r="AA30" s="227"/>
-      <c r="AB30" s="227"/>
-      <c r="AC30" s="227"/>
-      <c r="AD30" s="227"/>
-      <c r="AE30" s="228"/>
-      <c r="AF30" s="223"/>
-      <c r="AG30" s="224"/>
-      <c r="AH30" s="224"/>
-      <c r="AI30" s="225"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="175"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="176"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="178"/>
+      <c r="S30" s="178"/>
+      <c r="T30" s="178"/>
+      <c r="U30" s="178"/>
+      <c r="V30" s="178"/>
+      <c r="W30" s="178"/>
+      <c r="X30" s="178"/>
+      <c r="Y30" s="178"/>
+      <c r="Z30" s="178"/>
+      <c r="AA30" s="178"/>
+      <c r="AB30" s="178"/>
+      <c r="AC30" s="178"/>
+      <c r="AD30" s="178"/>
+      <c r="AE30" s="179"/>
+      <c r="AF30" s="174"/>
+      <c r="AG30" s="175"/>
+      <c r="AH30" s="175"/>
+      <c r="AI30" s="176"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="217"/>
-      <c r="C31" s="218"/>
-      <c r="D31" s="219"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="221"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="222"/>
-      <c r="I31" s="218"/>
-      <c r="J31" s="223"/>
-      <c r="K31" s="224"/>
-      <c r="L31" s="224"/>
-      <c r="M31" s="224"/>
-      <c r="N31" s="224"/>
-      <c r="O31" s="224"/>
-      <c r="P31" s="225"/>
-      <c r="Q31" s="226"/>
-      <c r="R31" s="227"/>
-      <c r="S31" s="227"/>
-      <c r="T31" s="227"/>
-      <c r="U31" s="227"/>
-      <c r="V31" s="227"/>
-      <c r="W31" s="227"/>
-      <c r="X31" s="227"/>
-      <c r="Y31" s="227"/>
-      <c r="Z31" s="227"/>
-      <c r="AA31" s="227"/>
-      <c r="AB31" s="227"/>
-      <c r="AC31" s="227"/>
-      <c r="AD31" s="227"/>
-      <c r="AE31" s="228"/>
-      <c r="AF31" s="223"/>
-      <c r="AG31" s="224"/>
-      <c r="AH31" s="224"/>
-      <c r="AI31" s="225"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+      <c r="M31" s="175"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="176"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="178"/>
+      <c r="S31" s="178"/>
+      <c r="T31" s="178"/>
+      <c r="U31" s="178"/>
+      <c r="V31" s="178"/>
+      <c r="W31" s="178"/>
+      <c r="X31" s="178"/>
+      <c r="Y31" s="178"/>
+      <c r="Z31" s="178"/>
+      <c r="AA31" s="178"/>
+      <c r="AB31" s="178"/>
+      <c r="AC31" s="178"/>
+      <c r="AD31" s="178"/>
+      <c r="AE31" s="179"/>
+      <c r="AF31" s="174"/>
+      <c r="AG31" s="175"/>
+      <c r="AH31" s="175"/>
+      <c r="AI31" s="176"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="217"/>
-      <c r="C32" s="218"/>
-      <c r="D32" s="219"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="221"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="222"/>
-      <c r="I32" s="218"/>
-      <c r="J32" s="223"/>
-      <c r="K32" s="229"/>
-      <c r="L32" s="224"/>
-      <c r="M32" s="224"/>
-      <c r="N32" s="224"/>
-      <c r="O32" s="224"/>
-      <c r="P32" s="225"/>
-      <c r="Q32" s="226"/>
-      <c r="R32" s="227"/>
-      <c r="S32" s="227"/>
-      <c r="T32" s="227"/>
-      <c r="U32" s="227"/>
-      <c r="V32" s="227"/>
-      <c r="W32" s="227"/>
-      <c r="X32" s="227"/>
-      <c r="Y32" s="227"/>
-      <c r="Z32" s="227"/>
-      <c r="AA32" s="227"/>
-      <c r="AB32" s="227"/>
-      <c r="AC32" s="227"/>
-      <c r="AD32" s="227"/>
-      <c r="AE32" s="228"/>
-      <c r="AF32" s="223"/>
-      <c r="AG32" s="224"/>
-      <c r="AH32" s="224"/>
-      <c r="AI32" s="225"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="174"/>
+      <c r="K32" s="180"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="176"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="178"/>
+      <c r="S32" s="178"/>
+      <c r="T32" s="178"/>
+      <c r="U32" s="178"/>
+      <c r="V32" s="178"/>
+      <c r="W32" s="178"/>
+      <c r="X32" s="178"/>
+      <c r="Y32" s="178"/>
+      <c r="Z32" s="178"/>
+      <c r="AA32" s="178"/>
+      <c r="AB32" s="178"/>
+      <c r="AC32" s="178"/>
+      <c r="AD32" s="178"/>
+      <c r="AE32" s="179"/>
+      <c r="AF32" s="174"/>
+      <c r="AG32" s="175"/>
+      <c r="AH32" s="175"/>
+      <c r="AI32" s="176"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="217"/>
-      <c r="C33" s="218"/>
-      <c r="D33" s="219"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="221"/>
-      <c r="G33" s="217"/>
-      <c r="H33" s="222"/>
-      <c r="I33" s="218"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="224"/>
-      <c r="L33" s="224"/>
-      <c r="M33" s="224"/>
-      <c r="N33" s="224"/>
-      <c r="O33" s="224"/>
-      <c r="P33" s="225"/>
-      <c r="Q33" s="226"/>
-      <c r="R33" s="227"/>
-      <c r="S33" s="227"/>
-      <c r="T33" s="227"/>
-      <c r="U33" s="227"/>
-      <c r="V33" s="227"/>
-      <c r="W33" s="227"/>
-      <c r="X33" s="227"/>
-      <c r="Y33" s="227"/>
-      <c r="Z33" s="227"/>
-      <c r="AA33" s="227"/>
-      <c r="AB33" s="227"/>
-      <c r="AC33" s="227"/>
-      <c r="AD33" s="227"/>
-      <c r="AE33" s="228"/>
-      <c r="AF33" s="223"/>
-      <c r="AG33" s="224"/>
-      <c r="AH33" s="224"/>
-      <c r="AI33" s="225"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="174"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="175"/>
+      <c r="M33" s="175"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="176"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="178"/>
+      <c r="S33" s="178"/>
+      <c r="T33" s="178"/>
+      <c r="U33" s="178"/>
+      <c r="V33" s="178"/>
+      <c r="W33" s="178"/>
+      <c r="X33" s="178"/>
+      <c r="Y33" s="178"/>
+      <c r="Z33" s="178"/>
+      <c r="AA33" s="178"/>
+      <c r="AB33" s="178"/>
+      <c r="AC33" s="178"/>
+      <c r="AD33" s="178"/>
+      <c r="AE33" s="179"/>
+      <c r="AF33" s="174"/>
+      <c r="AG33" s="175"/>
+      <c r="AH33" s="175"/>
+      <c r="AI33" s="176"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -10489,167 +10653,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(Webサービス)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(Webサービス)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA696F1-4702-4779-892F-28235366E7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A13767-DB07-44A1-A7D4-7A92423A50DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="466">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -6456,13 +6456,6 @@
   </si>
   <si>
     <t>テストコード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テストターゲット名</t>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -7636,93 +7629,6 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7821,6 +7727,93 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9273,57 +9266,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="203" t="s">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="174" t="s">
         <v>436</v>
       </c>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="212" t="s">
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="221" t="s">
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="192" t="s">
         <v>415</v>
       </c>
-      <c r="T1" s="222"/>
-      <c r="U1" s="222"/>
-      <c r="V1" s="222"/>
-      <c r="W1" s="222"/>
-      <c r="X1" s="222"/>
-      <c r="Y1" s="222"/>
-      <c r="Z1" s="223"/>
-      <c r="AA1" s="197" t="s">
+      <c r="T1" s="193"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="193"/>
+      <c r="W1" s="193"/>
+      <c r="X1" s="193"/>
+      <c r="Y1" s="193"/>
+      <c r="Z1" s="194"/>
+      <c r="AA1" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="199" t="str">
+      <c r="AB1" s="169"/>
+      <c r="AC1" s="170" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="206" t="str">
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="177" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="207"/>
-      <c r="AI1" s="208"/>
+      <c r="AH1" s="178"/>
+      <c r="AI1" s="179"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9331,53 +9324,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="203" t="s">
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="174" t="s">
         <v>437</v>
       </c>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="204"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="216"/>
-      <c r="Q2" s="216"/>
-      <c r="R2" s="217"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="225"/>
-      <c r="U2" s="225"/>
-      <c r="V2" s="225"/>
-      <c r="W2" s="225"/>
-      <c r="X2" s="225"/>
-      <c r="Y2" s="225"/>
-      <c r="Z2" s="226"/>
-      <c r="AA2" s="197" t="s">
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="197"/>
+      <c r="AA2" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="209" t="str">
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="180" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="210"/>
-      <c r="AE2" s="210"/>
-      <c r="AF2" s="211"/>
-      <c r="AG2" s="206" t="str">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="177" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="179"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9385,45 +9378,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="203" t="s">
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="174" t="s">
         <v>438</v>
       </c>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="219"/>
-      <c r="Q3" s="219"/>
-      <c r="R3" s="220"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="229"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="199"/>
-      <c r="AD3" s="200"/>
-      <c r="AE3" s="200"/>
-      <c r="AF3" s="201"/>
-      <c r="AG3" s="206"/>
-      <c r="AH3" s="207"/>
-      <c r="AI3" s="208"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="190"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="199"/>
+      <c r="V3" s="199"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="199"/>
+      <c r="Y3" s="199"/>
+      <c r="Z3" s="200"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="169"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="177"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="179"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9460,1181 +9453,1020 @@
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="181" t="s">
+      <c r="C7" s="202"/>
+      <c r="D7" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="183"/>
-      <c r="F7" s="182"/>
-      <c r="G7" s="181" t="s">
+      <c r="E7" s="203"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="181" t="s">
+      <c r="H7" s="203"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="183"/>
-      <c r="O7" s="183"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="181" t="s">
+      <c r="K7" s="203"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="203"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="201" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="183"/>
-      <c r="S7" s="183"/>
-      <c r="T7" s="183"/>
-      <c r="U7" s="183"/>
-      <c r="V7" s="183"/>
-      <c r="W7" s="183"/>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="183"/>
-      <c r="AA7" s="183"/>
-      <c r="AB7" s="183"/>
-      <c r="AC7" s="183"/>
-      <c r="AD7" s="183"/>
-      <c r="AE7" s="182"/>
-      <c r="AF7" s="181" t="s">
+      <c r="R7" s="203"/>
+      <c r="S7" s="203"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="203"/>
+      <c r="W7" s="203"/>
+      <c r="X7" s="203"/>
+      <c r="Y7" s="203"/>
+      <c r="Z7" s="203"/>
+      <c r="AA7" s="203"/>
+      <c r="AB7" s="203"/>
+      <c r="AC7" s="203"/>
+      <c r="AD7" s="203"/>
+      <c r="AE7" s="202"/>
+      <c r="AF7" s="201" t="s">
         <v>21</v>
       </c>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="182"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
+      <c r="AI7" s="202"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="184"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="192"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="192"/>
-      <c r="N8" s="192"/>
-      <c r="O8" s="192"/>
-      <c r="P8" s="193"/>
-      <c r="Q8" s="194"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="195"/>
-      <c r="U8" s="195"/>
-      <c r="V8" s="195"/>
-      <c r="W8" s="195"/>
-      <c r="X8" s="195"/>
-      <c r="Y8" s="195"/>
-      <c r="Z8" s="195"/>
-      <c r="AA8" s="195"/>
-      <c r="AB8" s="195"/>
-      <c r="AC8" s="195"/>
-      <c r="AD8" s="195"/>
-      <c r="AE8" s="196"/>
-      <c r="AF8" s="191"/>
-      <c r="AG8" s="192"/>
-      <c r="AH8" s="192"/>
-      <c r="AI8" s="193"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="205"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="212"/>
+      <c r="O8" s="212"/>
+      <c r="P8" s="213"/>
+      <c r="Q8" s="214"/>
+      <c r="R8" s="215"/>
+      <c r="S8" s="215"/>
+      <c r="T8" s="215"/>
+      <c r="U8" s="215"/>
+      <c r="V8" s="215"/>
+      <c r="W8" s="215"/>
+      <c r="X8" s="215"/>
+      <c r="Y8" s="215"/>
+      <c r="Z8" s="215"/>
+      <c r="AA8" s="215"/>
+      <c r="AB8" s="215"/>
+      <c r="AC8" s="215"/>
+      <c r="AD8" s="215"/>
+      <c r="AE8" s="216"/>
+      <c r="AF8" s="211"/>
+      <c r="AG8" s="212"/>
+      <c r="AH8" s="212"/>
+      <c r="AI8" s="213"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="175"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="177"/>
-      <c r="R9" s="178"/>
-      <c r="S9" s="178"/>
-      <c r="T9" s="178"/>
-      <c r="U9" s="178"/>
-      <c r="V9" s="178"/>
-      <c r="W9" s="178"/>
-      <c r="X9" s="178"/>
-      <c r="Y9" s="178"/>
-      <c r="Z9" s="178"/>
-      <c r="AA9" s="178"/>
-      <c r="AB9" s="178"/>
-      <c r="AC9" s="178"/>
-      <c r="AD9" s="178"/>
-      <c r="AE9" s="179"/>
-      <c r="AF9" s="174"/>
-      <c r="AG9" s="175"/>
-      <c r="AH9" s="175"/>
-      <c r="AI9" s="176"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="222"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="223"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="224"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="224"/>
+      <c r="O9" s="224"/>
+      <c r="P9" s="225"/>
+      <c r="Q9" s="226"/>
+      <c r="R9" s="227"/>
+      <c r="S9" s="227"/>
+      <c r="T9" s="227"/>
+      <c r="U9" s="227"/>
+      <c r="V9" s="227"/>
+      <c r="W9" s="227"/>
+      <c r="X9" s="227"/>
+      <c r="Y9" s="227"/>
+      <c r="Z9" s="227"/>
+      <c r="AA9" s="227"/>
+      <c r="AB9" s="227"/>
+      <c r="AC9" s="227"/>
+      <c r="AD9" s="227"/>
+      <c r="AE9" s="228"/>
+      <c r="AF9" s="223"/>
+      <c r="AG9" s="224"/>
+      <c r="AH9" s="224"/>
+      <c r="AI9" s="225"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="172"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="178"/>
-      <c r="S10" s="178"/>
-      <c r="T10" s="178"/>
-      <c r="U10" s="178"/>
-      <c r="V10" s="178"/>
-      <c r="W10" s="178"/>
-      <c r="X10" s="178"/>
-      <c r="Y10" s="178"/>
-      <c r="Z10" s="178"/>
-      <c r="AA10" s="178"/>
-      <c r="AB10" s="178"/>
-      <c r="AC10" s="178"/>
-      <c r="AD10" s="178"/>
-      <c r="AE10" s="179"/>
-      <c r="AF10" s="174"/>
-      <c r="AG10" s="175"/>
-      <c r="AH10" s="175"/>
-      <c r="AI10" s="176"/>
+      <c r="B10" s="217"/>
+      <c r="C10" s="218"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="222"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="224"/>
+      <c r="N10" s="224"/>
+      <c r="O10" s="224"/>
+      <c r="P10" s="225"/>
+      <c r="Q10" s="226"/>
+      <c r="R10" s="227"/>
+      <c r="S10" s="227"/>
+      <c r="T10" s="227"/>
+      <c r="U10" s="227"/>
+      <c r="V10" s="227"/>
+      <c r="W10" s="227"/>
+      <c r="X10" s="227"/>
+      <c r="Y10" s="227"/>
+      <c r="Z10" s="227"/>
+      <c r="AA10" s="227"/>
+      <c r="AB10" s="227"/>
+      <c r="AC10" s="227"/>
+      <c r="AD10" s="227"/>
+      <c r="AE10" s="228"/>
+      <c r="AF10" s="223"/>
+      <c r="AG10" s="224"/>
+      <c r="AH10" s="224"/>
+      <c r="AI10" s="225"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="175"/>
-      <c r="O11" s="175"/>
-      <c r="P11" s="176"/>
-      <c r="Q11" s="177"/>
-      <c r="R11" s="178"/>
-      <c r="S11" s="178"/>
-      <c r="T11" s="178"/>
-      <c r="U11" s="178"/>
-      <c r="V11" s="178"/>
-      <c r="W11" s="178"/>
-      <c r="X11" s="178"/>
-      <c r="Y11" s="178"/>
-      <c r="Z11" s="178"/>
-      <c r="AA11" s="178"/>
-      <c r="AB11" s="178"/>
-      <c r="AC11" s="178"/>
-      <c r="AD11" s="178"/>
-      <c r="AE11" s="179"/>
-      <c r="AF11" s="174"/>
-      <c r="AG11" s="175"/>
-      <c r="AH11" s="175"/>
-      <c r="AI11" s="176"/>
+      <c r="B11" s="217"/>
+      <c r="C11" s="218"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="220"/>
+      <c r="F11" s="221"/>
+      <c r="G11" s="217"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="224"/>
+      <c r="O11" s="224"/>
+      <c r="P11" s="225"/>
+      <c r="Q11" s="226"/>
+      <c r="R11" s="227"/>
+      <c r="S11" s="227"/>
+      <c r="T11" s="227"/>
+      <c r="U11" s="227"/>
+      <c r="V11" s="227"/>
+      <c r="W11" s="227"/>
+      <c r="X11" s="227"/>
+      <c r="Y11" s="227"/>
+      <c r="Z11" s="227"/>
+      <c r="AA11" s="227"/>
+      <c r="AB11" s="227"/>
+      <c r="AC11" s="227"/>
+      <c r="AD11" s="227"/>
+      <c r="AE11" s="228"/>
+      <c r="AF11" s="223"/>
+      <c r="AG11" s="224"/>
+      <c r="AH11" s="224"/>
+      <c r="AI11" s="225"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="175"/>
-      <c r="L12" s="175"/>
-      <c r="M12" s="175"/>
-      <c r="N12" s="175"/>
-      <c r="O12" s="175"/>
-      <c r="P12" s="176"/>
-      <c r="Q12" s="177"/>
-      <c r="R12" s="178"/>
-      <c r="S12" s="178"/>
-      <c r="T12" s="178"/>
-      <c r="U12" s="178"/>
-      <c r="V12" s="178"/>
-      <c r="W12" s="178"/>
-      <c r="X12" s="178"/>
-      <c r="Y12" s="178"/>
-      <c r="Z12" s="178"/>
-      <c r="AA12" s="178"/>
-      <c r="AB12" s="178"/>
-      <c r="AC12" s="178"/>
-      <c r="AD12" s="178"/>
-      <c r="AE12" s="179"/>
-      <c r="AF12" s="174"/>
-      <c r="AG12" s="175"/>
-      <c r="AH12" s="175"/>
-      <c r="AI12" s="176"/>
+      <c r="B12" s="217"/>
+      <c r="C12" s="218"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="222"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="223"/>
+      <c r="K12" s="224"/>
+      <c r="L12" s="224"/>
+      <c r="M12" s="224"/>
+      <c r="N12" s="224"/>
+      <c r="O12" s="224"/>
+      <c r="P12" s="225"/>
+      <c r="Q12" s="226"/>
+      <c r="R12" s="227"/>
+      <c r="S12" s="227"/>
+      <c r="T12" s="227"/>
+      <c r="U12" s="227"/>
+      <c r="V12" s="227"/>
+      <c r="W12" s="227"/>
+      <c r="X12" s="227"/>
+      <c r="Y12" s="227"/>
+      <c r="Z12" s="227"/>
+      <c r="AA12" s="227"/>
+      <c r="AB12" s="227"/>
+      <c r="AC12" s="227"/>
+      <c r="AD12" s="227"/>
+      <c r="AE12" s="228"/>
+      <c r="AF12" s="223"/>
+      <c r="AG12" s="224"/>
+      <c r="AH12" s="224"/>
+      <c r="AI12" s="225"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="175"/>
-      <c r="M13" s="175"/>
-      <c r="N13" s="175"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="177"/>
-      <c r="R13" s="178"/>
-      <c r="S13" s="178"/>
-      <c r="T13" s="178"/>
-      <c r="U13" s="178"/>
-      <c r="V13" s="178"/>
-      <c r="W13" s="178"/>
-      <c r="X13" s="178"/>
-      <c r="Y13" s="178"/>
-      <c r="Z13" s="178"/>
-      <c r="AA13" s="178"/>
-      <c r="AB13" s="178"/>
-      <c r="AC13" s="178"/>
-      <c r="AD13" s="178"/>
-      <c r="AE13" s="179"/>
-      <c r="AF13" s="174"/>
-      <c r="AG13" s="175"/>
-      <c r="AH13" s="175"/>
-      <c r="AI13" s="176"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="221"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="222"/>
+      <c r="I13" s="218"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="224"/>
+      <c r="L13" s="224"/>
+      <c r="M13" s="224"/>
+      <c r="N13" s="224"/>
+      <c r="O13" s="224"/>
+      <c r="P13" s="225"/>
+      <c r="Q13" s="226"/>
+      <c r="R13" s="227"/>
+      <c r="S13" s="227"/>
+      <c r="T13" s="227"/>
+      <c r="U13" s="227"/>
+      <c r="V13" s="227"/>
+      <c r="W13" s="227"/>
+      <c r="X13" s="227"/>
+      <c r="Y13" s="227"/>
+      <c r="Z13" s="227"/>
+      <c r="AA13" s="227"/>
+      <c r="AB13" s="227"/>
+      <c r="AC13" s="227"/>
+      <c r="AD13" s="227"/>
+      <c r="AE13" s="228"/>
+      <c r="AF13" s="223"/>
+      <c r="AG13" s="224"/>
+      <c r="AH13" s="224"/>
+      <c r="AI13" s="225"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="175"/>
-      <c r="M14" s="175"/>
-      <c r="N14" s="175"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="176"/>
-      <c r="Q14" s="177"/>
-      <c r="R14" s="178"/>
-      <c r="S14" s="178"/>
-      <c r="T14" s="178"/>
-      <c r="U14" s="178"/>
-      <c r="V14" s="178"/>
-      <c r="W14" s="178"/>
-      <c r="X14" s="178"/>
-      <c r="Y14" s="178"/>
-      <c r="Z14" s="178"/>
-      <c r="AA14" s="178"/>
-      <c r="AB14" s="178"/>
-      <c r="AC14" s="178"/>
-      <c r="AD14" s="178"/>
-      <c r="AE14" s="179"/>
-      <c r="AF14" s="174"/>
-      <c r="AG14" s="175"/>
-      <c r="AH14" s="175"/>
-      <c r="AI14" s="176"/>
+      <c r="B14" s="217"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="220"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="222"/>
+      <c r="I14" s="218"/>
+      <c r="J14" s="223"/>
+      <c r="K14" s="224"/>
+      <c r="L14" s="224"/>
+      <c r="M14" s="224"/>
+      <c r="N14" s="224"/>
+      <c r="O14" s="224"/>
+      <c r="P14" s="225"/>
+      <c r="Q14" s="226"/>
+      <c r="R14" s="227"/>
+      <c r="S14" s="227"/>
+      <c r="T14" s="227"/>
+      <c r="U14" s="227"/>
+      <c r="V14" s="227"/>
+      <c r="W14" s="227"/>
+      <c r="X14" s="227"/>
+      <c r="Y14" s="227"/>
+      <c r="Z14" s="227"/>
+      <c r="AA14" s="227"/>
+      <c r="AB14" s="227"/>
+      <c r="AC14" s="227"/>
+      <c r="AD14" s="227"/>
+      <c r="AE14" s="228"/>
+      <c r="AF14" s="223"/>
+      <c r="AG14" s="224"/>
+      <c r="AH14" s="224"/>
+      <c r="AI14" s="225"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="174"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="177"/>
-      <c r="R15" s="178"/>
-      <c r="S15" s="178"/>
-      <c r="T15" s="178"/>
-      <c r="U15" s="178"/>
-      <c r="V15" s="178"/>
-      <c r="W15" s="178"/>
-      <c r="X15" s="178"/>
-      <c r="Y15" s="178"/>
-      <c r="Z15" s="178"/>
-      <c r="AA15" s="178"/>
-      <c r="AB15" s="178"/>
-      <c r="AC15" s="178"/>
-      <c r="AD15" s="178"/>
-      <c r="AE15" s="179"/>
-      <c r="AF15" s="174"/>
-      <c r="AG15" s="175"/>
-      <c r="AH15" s="175"/>
-      <c r="AI15" s="176"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="218"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="220"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="222"/>
+      <c r="I15" s="218"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="224"/>
+      <c r="N15" s="224"/>
+      <c r="O15" s="224"/>
+      <c r="P15" s="225"/>
+      <c r="Q15" s="226"/>
+      <c r="R15" s="227"/>
+      <c r="S15" s="227"/>
+      <c r="T15" s="227"/>
+      <c r="U15" s="227"/>
+      <c r="V15" s="227"/>
+      <c r="W15" s="227"/>
+      <c r="X15" s="227"/>
+      <c r="Y15" s="227"/>
+      <c r="Z15" s="227"/>
+      <c r="AA15" s="227"/>
+      <c r="AB15" s="227"/>
+      <c r="AC15" s="227"/>
+      <c r="AD15" s="227"/>
+      <c r="AE15" s="228"/>
+      <c r="AF15" s="223"/>
+      <c r="AG15" s="224"/>
+      <c r="AH15" s="224"/>
+      <c r="AI15" s="225"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="175"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="175"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="176"/>
-      <c r="Q16" s="177"/>
-      <c r="R16" s="178"/>
-      <c r="S16" s="178"/>
-      <c r="T16" s="178"/>
-      <c r="U16" s="178"/>
-      <c r="V16" s="178"/>
-      <c r="W16" s="178"/>
-      <c r="X16" s="178"/>
-      <c r="Y16" s="178"/>
-      <c r="Z16" s="178"/>
-      <c r="AA16" s="178"/>
-      <c r="AB16" s="178"/>
-      <c r="AC16" s="178"/>
-      <c r="AD16" s="178"/>
-      <c r="AE16" s="179"/>
-      <c r="AF16" s="174"/>
-      <c r="AG16" s="175"/>
-      <c r="AH16" s="175"/>
-      <c r="AI16" s="176"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="218"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="220"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="224"/>
+      <c r="M16" s="224"/>
+      <c r="N16" s="224"/>
+      <c r="O16" s="224"/>
+      <c r="P16" s="225"/>
+      <c r="Q16" s="226"/>
+      <c r="R16" s="227"/>
+      <c r="S16" s="227"/>
+      <c r="T16" s="227"/>
+      <c r="U16" s="227"/>
+      <c r="V16" s="227"/>
+      <c r="W16" s="227"/>
+      <c r="X16" s="227"/>
+      <c r="Y16" s="227"/>
+      <c r="Z16" s="227"/>
+      <c r="AA16" s="227"/>
+      <c r="AB16" s="227"/>
+      <c r="AC16" s="227"/>
+      <c r="AD16" s="227"/>
+      <c r="AE16" s="228"/>
+      <c r="AF16" s="223"/>
+      <c r="AG16" s="224"/>
+      <c r="AH16" s="224"/>
+      <c r="AI16" s="225"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="175"/>
-      <c r="L17" s="175"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="175"/>
-      <c r="O17" s="175"/>
-      <c r="P17" s="176"/>
-      <c r="Q17" s="177"/>
-      <c r="R17" s="178"/>
-      <c r="S17" s="178"/>
-      <c r="T17" s="178"/>
-      <c r="U17" s="178"/>
-      <c r="V17" s="178"/>
-      <c r="W17" s="178"/>
-      <c r="X17" s="178"/>
-      <c r="Y17" s="178"/>
-      <c r="Z17" s="178"/>
-      <c r="AA17" s="178"/>
-      <c r="AB17" s="178"/>
-      <c r="AC17" s="178"/>
-      <c r="AD17" s="178"/>
-      <c r="AE17" s="179"/>
-      <c r="AF17" s="174"/>
-      <c r="AG17" s="175"/>
-      <c r="AH17" s="175"/>
-      <c r="AI17" s="176"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="222"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="224"/>
+      <c r="L17" s="224"/>
+      <c r="M17" s="224"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="224"/>
+      <c r="P17" s="225"/>
+      <c r="Q17" s="226"/>
+      <c r="R17" s="227"/>
+      <c r="S17" s="227"/>
+      <c r="T17" s="227"/>
+      <c r="U17" s="227"/>
+      <c r="V17" s="227"/>
+      <c r="W17" s="227"/>
+      <c r="X17" s="227"/>
+      <c r="Y17" s="227"/>
+      <c r="Z17" s="227"/>
+      <c r="AA17" s="227"/>
+      <c r="AB17" s="227"/>
+      <c r="AC17" s="227"/>
+      <c r="AD17" s="227"/>
+      <c r="AE17" s="228"/>
+      <c r="AF17" s="223"/>
+      <c r="AG17" s="224"/>
+      <c r="AH17" s="224"/>
+      <c r="AI17" s="225"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="175"/>
-      <c r="M18" s="175"/>
-      <c r="N18" s="175"/>
-      <c r="O18" s="175"/>
-      <c r="P18" s="176"/>
-      <c r="Q18" s="177"/>
-      <c r="R18" s="178"/>
-      <c r="S18" s="178"/>
-      <c r="T18" s="178"/>
-      <c r="U18" s="178"/>
-      <c r="V18" s="178"/>
-      <c r="W18" s="178"/>
-      <c r="X18" s="178"/>
-      <c r="Y18" s="178"/>
-      <c r="Z18" s="178"/>
-      <c r="AA18" s="178"/>
-      <c r="AB18" s="178"/>
-      <c r="AC18" s="178"/>
-      <c r="AD18" s="178"/>
-      <c r="AE18" s="179"/>
-      <c r="AF18" s="174"/>
-      <c r="AG18" s="175"/>
-      <c r="AH18" s="175"/>
-      <c r="AI18" s="176"/>
+      <c r="B18" s="217"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="224"/>
+      <c r="L18" s="224"/>
+      <c r="M18" s="224"/>
+      <c r="N18" s="224"/>
+      <c r="O18" s="224"/>
+      <c r="P18" s="225"/>
+      <c r="Q18" s="226"/>
+      <c r="R18" s="227"/>
+      <c r="S18" s="227"/>
+      <c r="T18" s="227"/>
+      <c r="U18" s="227"/>
+      <c r="V18" s="227"/>
+      <c r="W18" s="227"/>
+      <c r="X18" s="227"/>
+      <c r="Y18" s="227"/>
+      <c r="Z18" s="227"/>
+      <c r="AA18" s="227"/>
+      <c r="AB18" s="227"/>
+      <c r="AC18" s="227"/>
+      <c r="AD18" s="227"/>
+      <c r="AE18" s="228"/>
+      <c r="AF18" s="223"/>
+      <c r="AG18" s="224"/>
+      <c r="AH18" s="224"/>
+      <c r="AI18" s="225"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="174"/>
-      <c r="K19" s="175"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="175"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="175"/>
-      <c r="P19" s="176"/>
-      <c r="Q19" s="177"/>
-      <c r="R19" s="178"/>
-      <c r="S19" s="178"/>
-      <c r="T19" s="178"/>
-      <c r="U19" s="178"/>
-      <c r="V19" s="178"/>
-      <c r="W19" s="178"/>
-      <c r="X19" s="178"/>
-      <c r="Y19" s="178"/>
-      <c r="Z19" s="178"/>
-      <c r="AA19" s="178"/>
-      <c r="AB19" s="178"/>
-      <c r="AC19" s="178"/>
-      <c r="AD19" s="178"/>
-      <c r="AE19" s="179"/>
-      <c r="AF19" s="174"/>
-      <c r="AG19" s="175"/>
-      <c r="AH19" s="175"/>
-      <c r="AI19" s="176"/>
+      <c r="B19" s="217"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="220"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="222"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="223"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="224"/>
+      <c r="P19" s="225"/>
+      <c r="Q19" s="226"/>
+      <c r="R19" s="227"/>
+      <c r="S19" s="227"/>
+      <c r="T19" s="227"/>
+      <c r="U19" s="227"/>
+      <c r="V19" s="227"/>
+      <c r="W19" s="227"/>
+      <c r="X19" s="227"/>
+      <c r="Y19" s="227"/>
+      <c r="Z19" s="227"/>
+      <c r="AA19" s="227"/>
+      <c r="AB19" s="227"/>
+      <c r="AC19" s="227"/>
+      <c r="AD19" s="227"/>
+      <c r="AE19" s="228"/>
+      <c r="AF19" s="223"/>
+      <c r="AG19" s="224"/>
+      <c r="AH19" s="224"/>
+      <c r="AI19" s="225"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="175"/>
-      <c r="M20" s="175"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="176"/>
-      <c r="Q20" s="177"/>
-      <c r="R20" s="178"/>
-      <c r="S20" s="178"/>
-      <c r="T20" s="178"/>
-      <c r="U20" s="178"/>
-      <c r="V20" s="178"/>
-      <c r="W20" s="178"/>
-      <c r="X20" s="178"/>
-      <c r="Y20" s="178"/>
-      <c r="Z20" s="178"/>
-      <c r="AA20" s="178"/>
-      <c r="AB20" s="178"/>
-      <c r="AC20" s="178"/>
-      <c r="AD20" s="178"/>
-      <c r="AE20" s="179"/>
-      <c r="AF20" s="174"/>
-      <c r="AG20" s="175"/>
-      <c r="AH20" s="175"/>
-      <c r="AI20" s="176"/>
+      <c r="B20" s="217"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="222"/>
+      <c r="I20" s="218"/>
+      <c r="J20" s="223"/>
+      <c r="K20" s="224"/>
+      <c r="L20" s="224"/>
+      <c r="M20" s="224"/>
+      <c r="N20" s="224"/>
+      <c r="O20" s="224"/>
+      <c r="P20" s="225"/>
+      <c r="Q20" s="226"/>
+      <c r="R20" s="227"/>
+      <c r="S20" s="227"/>
+      <c r="T20" s="227"/>
+      <c r="U20" s="227"/>
+      <c r="V20" s="227"/>
+      <c r="W20" s="227"/>
+      <c r="X20" s="227"/>
+      <c r="Y20" s="227"/>
+      <c r="Z20" s="227"/>
+      <c r="AA20" s="227"/>
+      <c r="AB20" s="227"/>
+      <c r="AC20" s="227"/>
+      <c r="AD20" s="227"/>
+      <c r="AE20" s="228"/>
+      <c r="AF20" s="223"/>
+      <c r="AG20" s="224"/>
+      <c r="AH20" s="224"/>
+      <c r="AI20" s="225"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="174"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="176"/>
-      <c r="Q21" s="177"/>
-      <c r="R21" s="178"/>
-      <c r="S21" s="178"/>
-      <c r="T21" s="178"/>
-      <c r="U21" s="178"/>
-      <c r="V21" s="178"/>
-      <c r="W21" s="178"/>
-      <c r="X21" s="178"/>
-      <c r="Y21" s="178"/>
-      <c r="Z21" s="178"/>
-      <c r="AA21" s="178"/>
-      <c r="AB21" s="178"/>
-      <c r="AC21" s="178"/>
-      <c r="AD21" s="178"/>
-      <c r="AE21" s="179"/>
-      <c r="AF21" s="174"/>
-      <c r="AG21" s="175"/>
-      <c r="AH21" s="175"/>
-      <c r="AI21" s="176"/>
+      <c r="B21" s="217"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="222"/>
+      <c r="I21" s="218"/>
+      <c r="J21" s="223"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="224"/>
+      <c r="N21" s="224"/>
+      <c r="O21" s="224"/>
+      <c r="P21" s="225"/>
+      <c r="Q21" s="226"/>
+      <c r="R21" s="227"/>
+      <c r="S21" s="227"/>
+      <c r="T21" s="227"/>
+      <c r="U21" s="227"/>
+      <c r="V21" s="227"/>
+      <c r="W21" s="227"/>
+      <c r="X21" s="227"/>
+      <c r="Y21" s="227"/>
+      <c r="Z21" s="227"/>
+      <c r="AA21" s="227"/>
+      <c r="AB21" s="227"/>
+      <c r="AC21" s="227"/>
+      <c r="AD21" s="227"/>
+      <c r="AE21" s="228"/>
+      <c r="AF21" s="223"/>
+      <c r="AG21" s="224"/>
+      <c r="AH21" s="224"/>
+      <c r="AI21" s="225"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="175"/>
-      <c r="M22" s="175"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="176"/>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="178"/>
-      <c r="S22" s="178"/>
-      <c r="T22" s="178"/>
-      <c r="U22" s="178"/>
-      <c r="V22" s="178"/>
-      <c r="W22" s="178"/>
-      <c r="X22" s="178"/>
-      <c r="Y22" s="178"/>
-      <c r="Z22" s="178"/>
-      <c r="AA22" s="178"/>
-      <c r="AB22" s="178"/>
-      <c r="AC22" s="178"/>
-      <c r="AD22" s="178"/>
-      <c r="AE22" s="179"/>
-      <c r="AF22" s="174"/>
-      <c r="AG22" s="175"/>
-      <c r="AH22" s="175"/>
-      <c r="AI22" s="176"/>
+      <c r="B22" s="217"/>
+      <c r="C22" s="218"/>
+      <c r="D22" s="219"/>
+      <c r="E22" s="220"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="222"/>
+      <c r="I22" s="218"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="224"/>
+      <c r="L22" s="224"/>
+      <c r="M22" s="224"/>
+      <c r="N22" s="224"/>
+      <c r="O22" s="224"/>
+      <c r="P22" s="225"/>
+      <c r="Q22" s="226"/>
+      <c r="R22" s="227"/>
+      <c r="S22" s="227"/>
+      <c r="T22" s="227"/>
+      <c r="U22" s="227"/>
+      <c r="V22" s="227"/>
+      <c r="W22" s="227"/>
+      <c r="X22" s="227"/>
+      <c r="Y22" s="227"/>
+      <c r="Z22" s="227"/>
+      <c r="AA22" s="227"/>
+      <c r="AB22" s="227"/>
+      <c r="AC22" s="227"/>
+      <c r="AD22" s="227"/>
+      <c r="AE22" s="228"/>
+      <c r="AF22" s="223"/>
+      <c r="AG22" s="224"/>
+      <c r="AH22" s="224"/>
+      <c r="AI22" s="225"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="174"/>
-      <c r="K23" s="175"/>
-      <c r="L23" s="175"/>
-      <c r="M23" s="175"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="176"/>
-      <c r="Q23" s="177"/>
-      <c r="R23" s="178"/>
-      <c r="S23" s="178"/>
-      <c r="T23" s="178"/>
-      <c r="U23" s="178"/>
-      <c r="V23" s="178"/>
-      <c r="W23" s="178"/>
-      <c r="X23" s="178"/>
-      <c r="Y23" s="178"/>
-      <c r="Z23" s="178"/>
-      <c r="AA23" s="178"/>
-      <c r="AB23" s="178"/>
-      <c r="AC23" s="178"/>
-      <c r="AD23" s="178"/>
-      <c r="AE23" s="179"/>
-      <c r="AF23" s="174"/>
-      <c r="AG23" s="175"/>
-      <c r="AH23" s="175"/>
-      <c r="AI23" s="176"/>
+      <c r="B23" s="217"/>
+      <c r="C23" s="218"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="222"/>
+      <c r="I23" s="218"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="224"/>
+      <c r="L23" s="224"/>
+      <c r="M23" s="224"/>
+      <c r="N23" s="224"/>
+      <c r="O23" s="224"/>
+      <c r="P23" s="225"/>
+      <c r="Q23" s="226"/>
+      <c r="R23" s="227"/>
+      <c r="S23" s="227"/>
+      <c r="T23" s="227"/>
+      <c r="U23" s="227"/>
+      <c r="V23" s="227"/>
+      <c r="W23" s="227"/>
+      <c r="X23" s="227"/>
+      <c r="Y23" s="227"/>
+      <c r="Z23" s="227"/>
+      <c r="AA23" s="227"/>
+      <c r="AB23" s="227"/>
+      <c r="AC23" s="227"/>
+      <c r="AD23" s="227"/>
+      <c r="AE23" s="228"/>
+      <c r="AF23" s="223"/>
+      <c r="AG23" s="224"/>
+      <c r="AH23" s="224"/>
+      <c r="AI23" s="225"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="168"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="175"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="176"/>
-      <c r="Q24" s="177"/>
-      <c r="R24" s="178"/>
-      <c r="S24" s="178"/>
-      <c r="T24" s="178"/>
-      <c r="U24" s="178"/>
-      <c r="V24" s="178"/>
-      <c r="W24" s="178"/>
-      <c r="X24" s="178"/>
-      <c r="Y24" s="178"/>
-      <c r="Z24" s="178"/>
-      <c r="AA24" s="178"/>
-      <c r="AB24" s="178"/>
-      <c r="AC24" s="178"/>
-      <c r="AD24" s="178"/>
-      <c r="AE24" s="179"/>
-      <c r="AF24" s="174"/>
-      <c r="AG24" s="175"/>
-      <c r="AH24" s="175"/>
-      <c r="AI24" s="176"/>
+      <c r="B24" s="217"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="220"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="222"/>
+      <c r="I24" s="218"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="224"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="224"/>
+      <c r="N24" s="224"/>
+      <c r="O24" s="224"/>
+      <c r="P24" s="225"/>
+      <c r="Q24" s="226"/>
+      <c r="R24" s="227"/>
+      <c r="S24" s="227"/>
+      <c r="T24" s="227"/>
+      <c r="U24" s="227"/>
+      <c r="V24" s="227"/>
+      <c r="W24" s="227"/>
+      <c r="X24" s="227"/>
+      <c r="Y24" s="227"/>
+      <c r="Z24" s="227"/>
+      <c r="AA24" s="227"/>
+      <c r="AB24" s="227"/>
+      <c r="AC24" s="227"/>
+      <c r="AD24" s="227"/>
+      <c r="AE24" s="228"/>
+      <c r="AF24" s="223"/>
+      <c r="AG24" s="224"/>
+      <c r="AH24" s="224"/>
+      <c r="AI24" s="225"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="175"/>
-      <c r="M25" s="175"/>
-      <c r="N25" s="175"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="176"/>
-      <c r="Q25" s="177"/>
-      <c r="R25" s="178"/>
-      <c r="S25" s="178"/>
-      <c r="T25" s="178"/>
-      <c r="U25" s="178"/>
-      <c r="V25" s="178"/>
-      <c r="W25" s="178"/>
-      <c r="X25" s="178"/>
-      <c r="Y25" s="178"/>
-      <c r="Z25" s="178"/>
-      <c r="AA25" s="178"/>
-      <c r="AB25" s="178"/>
-      <c r="AC25" s="178"/>
-      <c r="AD25" s="178"/>
-      <c r="AE25" s="179"/>
-      <c r="AF25" s="174"/>
-      <c r="AG25" s="175"/>
-      <c r="AH25" s="175"/>
-      <c r="AI25" s="176"/>
+      <c r="B25" s="217"/>
+      <c r="C25" s="218"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="220"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="217"/>
+      <c r="H25" s="222"/>
+      <c r="I25" s="218"/>
+      <c r="J25" s="223"/>
+      <c r="K25" s="224"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="224"/>
+      <c r="N25" s="224"/>
+      <c r="O25" s="224"/>
+      <c r="P25" s="225"/>
+      <c r="Q25" s="226"/>
+      <c r="R25" s="227"/>
+      <c r="S25" s="227"/>
+      <c r="T25" s="227"/>
+      <c r="U25" s="227"/>
+      <c r="V25" s="227"/>
+      <c r="W25" s="227"/>
+      <c r="X25" s="227"/>
+      <c r="Y25" s="227"/>
+      <c r="Z25" s="227"/>
+      <c r="AA25" s="227"/>
+      <c r="AB25" s="227"/>
+      <c r="AC25" s="227"/>
+      <c r="AD25" s="227"/>
+      <c r="AE25" s="228"/>
+      <c r="AF25" s="223"/>
+      <c r="AG25" s="224"/>
+      <c r="AH25" s="224"/>
+      <c r="AI25" s="225"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="168"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="175"/>
-      <c r="M26" s="175"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="176"/>
-      <c r="Q26" s="177"/>
-      <c r="R26" s="178"/>
-      <c r="S26" s="178"/>
-      <c r="T26" s="178"/>
-      <c r="U26" s="178"/>
-      <c r="V26" s="178"/>
-      <c r="W26" s="178"/>
-      <c r="X26" s="178"/>
-      <c r="Y26" s="178"/>
-      <c r="Z26" s="178"/>
-      <c r="AA26" s="178"/>
-      <c r="AB26" s="178"/>
-      <c r="AC26" s="178"/>
-      <c r="AD26" s="178"/>
-      <c r="AE26" s="179"/>
-      <c r="AF26" s="174"/>
-      <c r="AG26" s="175"/>
-      <c r="AH26" s="175"/>
-      <c r="AI26" s="176"/>
+      <c r="B26" s="217"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="222"/>
+      <c r="I26" s="218"/>
+      <c r="J26" s="223"/>
+      <c r="K26" s="224"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="224"/>
+      <c r="N26" s="224"/>
+      <c r="O26" s="224"/>
+      <c r="P26" s="225"/>
+      <c r="Q26" s="226"/>
+      <c r="R26" s="227"/>
+      <c r="S26" s="227"/>
+      <c r="T26" s="227"/>
+      <c r="U26" s="227"/>
+      <c r="V26" s="227"/>
+      <c r="W26" s="227"/>
+      <c r="X26" s="227"/>
+      <c r="Y26" s="227"/>
+      <c r="Z26" s="227"/>
+      <c r="AA26" s="227"/>
+      <c r="AB26" s="227"/>
+      <c r="AC26" s="227"/>
+      <c r="AD26" s="227"/>
+      <c r="AE26" s="228"/>
+      <c r="AF26" s="223"/>
+      <c r="AG26" s="224"/>
+      <c r="AH26" s="224"/>
+      <c r="AI26" s="225"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="168"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="175"/>
-      <c r="M27" s="175"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="176"/>
-      <c r="Q27" s="177"/>
-      <c r="R27" s="178"/>
-      <c r="S27" s="178"/>
-      <c r="T27" s="178"/>
-      <c r="U27" s="178"/>
-      <c r="V27" s="178"/>
-      <c r="W27" s="178"/>
-      <c r="X27" s="178"/>
-      <c r="Y27" s="178"/>
-      <c r="Z27" s="178"/>
-      <c r="AA27" s="178"/>
-      <c r="AB27" s="178"/>
-      <c r="AC27" s="178"/>
-      <c r="AD27" s="178"/>
-      <c r="AE27" s="179"/>
-      <c r="AF27" s="174"/>
-      <c r="AG27" s="175"/>
-      <c r="AH27" s="175"/>
-      <c r="AI27" s="176"/>
+      <c r="B27" s="217"/>
+      <c r="C27" s="218"/>
+      <c r="D27" s="219"/>
+      <c r="E27" s="220"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="217"/>
+      <c r="H27" s="222"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="224"/>
+      <c r="L27" s="224"/>
+      <c r="M27" s="224"/>
+      <c r="N27" s="224"/>
+      <c r="O27" s="224"/>
+      <c r="P27" s="225"/>
+      <c r="Q27" s="226"/>
+      <c r="R27" s="227"/>
+      <c r="S27" s="227"/>
+      <c r="T27" s="227"/>
+      <c r="U27" s="227"/>
+      <c r="V27" s="227"/>
+      <c r="W27" s="227"/>
+      <c r="X27" s="227"/>
+      <c r="Y27" s="227"/>
+      <c r="Z27" s="227"/>
+      <c r="AA27" s="227"/>
+      <c r="AB27" s="227"/>
+      <c r="AC27" s="227"/>
+      <c r="AD27" s="227"/>
+      <c r="AE27" s="228"/>
+      <c r="AF27" s="223"/>
+      <c r="AG27" s="224"/>
+      <c r="AH27" s="224"/>
+      <c r="AI27" s="225"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="174"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="175"/>
-      <c r="M28" s="175"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="176"/>
-      <c r="Q28" s="177"/>
-      <c r="R28" s="178"/>
-      <c r="S28" s="178"/>
-      <c r="T28" s="178"/>
-      <c r="U28" s="178"/>
-      <c r="V28" s="178"/>
-      <c r="W28" s="178"/>
-      <c r="X28" s="178"/>
-      <c r="Y28" s="178"/>
-      <c r="Z28" s="178"/>
-      <c r="AA28" s="178"/>
-      <c r="AB28" s="178"/>
-      <c r="AC28" s="178"/>
-      <c r="AD28" s="178"/>
-      <c r="AE28" s="179"/>
-      <c r="AF28" s="174"/>
-      <c r="AG28" s="175"/>
-      <c r="AH28" s="175"/>
-      <c r="AI28" s="176"/>
+      <c r="B28" s="217"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="217"/>
+      <c r="H28" s="222"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="224"/>
+      <c r="L28" s="224"/>
+      <c r="M28" s="224"/>
+      <c r="N28" s="224"/>
+      <c r="O28" s="224"/>
+      <c r="P28" s="225"/>
+      <c r="Q28" s="226"/>
+      <c r="R28" s="227"/>
+      <c r="S28" s="227"/>
+      <c r="T28" s="227"/>
+      <c r="U28" s="227"/>
+      <c r="V28" s="227"/>
+      <c r="W28" s="227"/>
+      <c r="X28" s="227"/>
+      <c r="Y28" s="227"/>
+      <c r="Z28" s="227"/>
+      <c r="AA28" s="227"/>
+      <c r="AB28" s="227"/>
+      <c r="AC28" s="227"/>
+      <c r="AD28" s="227"/>
+      <c r="AE28" s="228"/>
+      <c r="AF28" s="223"/>
+      <c r="AG28" s="224"/>
+      <c r="AH28" s="224"/>
+      <c r="AI28" s="225"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="174"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="175"/>
-      <c r="M29" s="175"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="176"/>
-      <c r="Q29" s="177"/>
-      <c r="R29" s="178"/>
-      <c r="S29" s="178"/>
-      <c r="T29" s="178"/>
-      <c r="U29" s="178"/>
-      <c r="V29" s="178"/>
-      <c r="W29" s="178"/>
-      <c r="X29" s="178"/>
-      <c r="Y29" s="178"/>
-      <c r="Z29" s="178"/>
-      <c r="AA29" s="178"/>
-      <c r="AB29" s="178"/>
-      <c r="AC29" s="178"/>
-      <c r="AD29" s="178"/>
-      <c r="AE29" s="179"/>
-      <c r="AF29" s="174"/>
-      <c r="AG29" s="175"/>
-      <c r="AH29" s="175"/>
-      <c r="AI29" s="176"/>
+      <c r="B29" s="217"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="222"/>
+      <c r="I29" s="218"/>
+      <c r="J29" s="223"/>
+      <c r="K29" s="224"/>
+      <c r="L29" s="224"/>
+      <c r="M29" s="224"/>
+      <c r="N29" s="224"/>
+      <c r="O29" s="224"/>
+      <c r="P29" s="225"/>
+      <c r="Q29" s="226"/>
+      <c r="R29" s="227"/>
+      <c r="S29" s="227"/>
+      <c r="T29" s="227"/>
+      <c r="U29" s="227"/>
+      <c r="V29" s="227"/>
+      <c r="W29" s="227"/>
+      <c r="X29" s="227"/>
+      <c r="Y29" s="227"/>
+      <c r="Z29" s="227"/>
+      <c r="AA29" s="227"/>
+      <c r="AB29" s="227"/>
+      <c r="AC29" s="227"/>
+      <c r="AD29" s="227"/>
+      <c r="AE29" s="228"/>
+      <c r="AF29" s="223"/>
+      <c r="AG29" s="224"/>
+      <c r="AH29" s="224"/>
+      <c r="AI29" s="225"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="168"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="175"/>
-      <c r="M30" s="175"/>
-      <c r="N30" s="175"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="176"/>
-      <c r="Q30" s="177"/>
-      <c r="R30" s="178"/>
-      <c r="S30" s="178"/>
-      <c r="T30" s="178"/>
-      <c r="U30" s="178"/>
-      <c r="V30" s="178"/>
-      <c r="W30" s="178"/>
-      <c r="X30" s="178"/>
-      <c r="Y30" s="178"/>
-      <c r="Z30" s="178"/>
-      <c r="AA30" s="178"/>
-      <c r="AB30" s="178"/>
-      <c r="AC30" s="178"/>
-      <c r="AD30" s="178"/>
-      <c r="AE30" s="179"/>
-      <c r="AF30" s="174"/>
-      <c r="AG30" s="175"/>
-      <c r="AH30" s="175"/>
-      <c r="AI30" s="176"/>
+      <c r="B30" s="217"/>
+      <c r="C30" s="218"/>
+      <c r="D30" s="219"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="221"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="222"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="223"/>
+      <c r="K30" s="224"/>
+      <c r="L30" s="224"/>
+      <c r="M30" s="224"/>
+      <c r="N30" s="224"/>
+      <c r="O30" s="224"/>
+      <c r="P30" s="225"/>
+      <c r="Q30" s="226"/>
+      <c r="R30" s="227"/>
+      <c r="S30" s="227"/>
+      <c r="T30" s="227"/>
+      <c r="U30" s="227"/>
+      <c r="V30" s="227"/>
+      <c r="W30" s="227"/>
+      <c r="X30" s="227"/>
+      <c r="Y30" s="227"/>
+      <c r="Z30" s="227"/>
+      <c r="AA30" s="227"/>
+      <c r="AB30" s="227"/>
+      <c r="AC30" s="227"/>
+      <c r="AD30" s="227"/>
+      <c r="AE30" s="228"/>
+      <c r="AF30" s="223"/>
+      <c r="AG30" s="224"/>
+      <c r="AH30" s="224"/>
+      <c r="AI30" s="225"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="174"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="175"/>
-      <c r="M31" s="175"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="176"/>
-      <c r="Q31" s="177"/>
-      <c r="R31" s="178"/>
-      <c r="S31" s="178"/>
-      <c r="T31" s="178"/>
-      <c r="U31" s="178"/>
-      <c r="V31" s="178"/>
-      <c r="W31" s="178"/>
-      <c r="X31" s="178"/>
-      <c r="Y31" s="178"/>
-      <c r="Z31" s="178"/>
-      <c r="AA31" s="178"/>
-      <c r="AB31" s="178"/>
-      <c r="AC31" s="178"/>
-      <c r="AD31" s="178"/>
-      <c r="AE31" s="179"/>
-      <c r="AF31" s="174"/>
-      <c r="AG31" s="175"/>
-      <c r="AH31" s="175"/>
-      <c r="AI31" s="176"/>
+      <c r="B31" s="217"/>
+      <c r="C31" s="218"/>
+      <c r="D31" s="219"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="221"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="222"/>
+      <c r="I31" s="218"/>
+      <c r="J31" s="223"/>
+      <c r="K31" s="224"/>
+      <c r="L31" s="224"/>
+      <c r="M31" s="224"/>
+      <c r="N31" s="224"/>
+      <c r="O31" s="224"/>
+      <c r="P31" s="225"/>
+      <c r="Q31" s="226"/>
+      <c r="R31" s="227"/>
+      <c r="S31" s="227"/>
+      <c r="T31" s="227"/>
+      <c r="U31" s="227"/>
+      <c r="V31" s="227"/>
+      <c r="W31" s="227"/>
+      <c r="X31" s="227"/>
+      <c r="Y31" s="227"/>
+      <c r="Z31" s="227"/>
+      <c r="AA31" s="227"/>
+      <c r="AB31" s="227"/>
+      <c r="AC31" s="227"/>
+      <c r="AD31" s="227"/>
+      <c r="AE31" s="228"/>
+      <c r="AF31" s="223"/>
+      <c r="AG31" s="224"/>
+      <c r="AH31" s="224"/>
+      <c r="AI31" s="225"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="168"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="175"/>
-      <c r="M32" s="175"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="176"/>
-      <c r="Q32" s="177"/>
-      <c r="R32" s="178"/>
-      <c r="S32" s="178"/>
-      <c r="T32" s="178"/>
-      <c r="U32" s="178"/>
-      <c r="V32" s="178"/>
-      <c r="W32" s="178"/>
-      <c r="X32" s="178"/>
-      <c r="Y32" s="178"/>
-      <c r="Z32" s="178"/>
-      <c r="AA32" s="178"/>
-      <c r="AB32" s="178"/>
-      <c r="AC32" s="178"/>
-      <c r="AD32" s="178"/>
-      <c r="AE32" s="179"/>
-      <c r="AF32" s="174"/>
-      <c r="AG32" s="175"/>
-      <c r="AH32" s="175"/>
-      <c r="AI32" s="176"/>
+      <c r="B32" s="217"/>
+      <c r="C32" s="218"/>
+      <c r="D32" s="219"/>
+      <c r="E32" s="220"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="222"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="223"/>
+      <c r="K32" s="229"/>
+      <c r="L32" s="224"/>
+      <c r="M32" s="224"/>
+      <c r="N32" s="224"/>
+      <c r="O32" s="224"/>
+      <c r="P32" s="225"/>
+      <c r="Q32" s="226"/>
+      <c r="R32" s="227"/>
+      <c r="S32" s="227"/>
+      <c r="T32" s="227"/>
+      <c r="U32" s="227"/>
+      <c r="V32" s="227"/>
+      <c r="W32" s="227"/>
+      <c r="X32" s="227"/>
+      <c r="Y32" s="227"/>
+      <c r="Z32" s="227"/>
+      <c r="AA32" s="227"/>
+      <c r="AB32" s="227"/>
+      <c r="AC32" s="227"/>
+      <c r="AD32" s="227"/>
+      <c r="AE32" s="228"/>
+      <c r="AF32" s="223"/>
+      <c r="AG32" s="224"/>
+      <c r="AH32" s="224"/>
+      <c r="AI32" s="225"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="175"/>
-      <c r="M33" s="175"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="176"/>
-      <c r="Q33" s="177"/>
-      <c r="R33" s="178"/>
-      <c r="S33" s="178"/>
-      <c r="T33" s="178"/>
-      <c r="U33" s="178"/>
-      <c r="V33" s="178"/>
-      <c r="W33" s="178"/>
-      <c r="X33" s="178"/>
-      <c r="Y33" s="178"/>
-      <c r="Z33" s="178"/>
-      <c r="AA33" s="178"/>
-      <c r="AB33" s="178"/>
-      <c r="AC33" s="178"/>
-      <c r="AD33" s="178"/>
-      <c r="AE33" s="179"/>
-      <c r="AF33" s="174"/>
-      <c r="AG33" s="175"/>
-      <c r="AH33" s="175"/>
-      <c r="AI33" s="176"/>
+      <c r="B33" s="217"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="219"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="221"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="222"/>
+      <c r="I33" s="218"/>
+      <c r="J33" s="223"/>
+      <c r="K33" s="224"/>
+      <c r="L33" s="224"/>
+      <c r="M33" s="224"/>
+      <c r="N33" s="224"/>
+      <c r="O33" s="224"/>
+      <c r="P33" s="225"/>
+      <c r="Q33" s="226"/>
+      <c r="R33" s="227"/>
+      <c r="S33" s="227"/>
+      <c r="T33" s="227"/>
+      <c r="U33" s="227"/>
+      <c r="V33" s="227"/>
+      <c r="W33" s="227"/>
+      <c r="X33" s="227"/>
+      <c r="Y33" s="227"/>
+      <c r="Z33" s="227"/>
+      <c r="AA33" s="227"/>
+      <c r="AB33" s="227"/>
+      <c r="AC33" s="227"/>
+      <c r="AD33" s="227"/>
+      <c r="AE33" s="228"/>
+      <c r="AF33" s="223"/>
+      <c r="AG33" s="224"/>
+      <c r="AH33" s="224"/>
+      <c r="AI33" s="225"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -10653,6 +10485,167 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -20895,7 +20888,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="25" t="s">
-        <v>466</v>
+        <v>11</v>
       </c>
       <c r="O7" s="25" t="s">
         <v>13</v>

--- a/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(Webサービス)_(取引ID)_(取引名).xlsx
+++ b/Sample_Project/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書(Webサービス)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A13767-DB07-44A1-A7D4-7A92423A50DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594A4832-80B9-49F0-B037-0F474ECCA299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,17 +11,17 @@
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="21" r:id="rId2"/>
     <sheet name="【テストターゲット名】_クラス単体" sheetId="23" r:id="rId3"/>
-    <sheet name="【テストターゲット名】_リクエスト単体" sheetId="24" r:id="rId4"/>
+    <sheet name="【リクエストID】_リクエスト単体" sheetId="24" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">【テストターゲット名】_クラス単体!$A$10:$Q$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【テストターゲット名】_リクエスト単体!$A$10:$R$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">【リクエストID】_リクエスト単体!$A$10:$R$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">【テストターゲット名】_クラス単体!$A$1:$Q$295</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">【テストターゲット名】_リクエスト単体!$A$1:$R$314</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">【リクエストID】_リクエスト単体!$A$1:$R$314</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">【テストターゲット名】_クラス単体!$1:$10</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">【テストターゲット名】_リクエスト単体!$1:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">【リクエストID】_リクエスト単体!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="467">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -6456,6 +6456,10 @@
   </si>
   <si>
     <t>テストコード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リクエストID：</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -20898,7 +20902,9 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="11.5" thickBot="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="27" t="s">
+        <v>466</v>
+      </c>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="27"/>
